--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1E8B97-6833-6140-B512-CEE0EFA7B749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C101A-8B12-AF4A-A622-E7BA99036CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8480" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6540" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -319,6 +319,45 @@
   </si>
   <si>
     <t>hardness HV</t>
+  </si>
+  <si>
+    <t>(Fe Ni Co Cr )25</t>
+  </si>
+  <si>
+    <t>(Fe Ni Co Cr )24.71 Sm1.13</t>
+  </si>
+  <si>
+    <t>(Fe Ni Co Cr )24.58 Sm1.66</t>
+  </si>
+  <si>
+    <t>(Fe Ni Co Cr )24.45 Sm2.17</t>
+  </si>
+  <si>
+    <t>HEA1</t>
+  </si>
+  <si>
+    <t>HEA2</t>
+  </si>
+  <si>
+    <t>HEA3</t>
+  </si>
+  <si>
+    <t>HEA4</t>
+  </si>
+  <si>
+    <t>MA+LMD(DED)</t>
+  </si>
+  <si>
+    <t>ground in Ar for 2h to mix and DEDed at scanning speed of 1000mm/s 2mm beam and power of 1kW with layer thickness of 0.3mm</t>
+  </si>
+  <si>
+    <t>hardness</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>10.1007/s11665-024-10046-z</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,7 +1526,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1556,6 +1594,57 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1615,57 +1704,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2829,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -2887,19 +2925,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="121"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="137"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2915,17 +2953,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="125"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="141"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2966,43 +3004,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="128" t="s">
+      <c r="F5" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="129" t="s">
+      <c r="H5" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="128" t="s">
+      <c r="I5" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="128" t="s">
+      <c r="K5" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="128" t="s">
+      <c r="L5" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="128" t="s">
+      <c r="M5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="128" t="s">
+      <c r="N5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="133" t="s">
+      <c r="O5" s="112" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3018,19 +3056,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="134"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="113"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3080,7 +3118,7 @@
       <c r="N7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="135"/>
+      <c r="O7" s="114"/>
       <c r="P7" s="68" t="s">
         <v>62</v>
       </c>
@@ -3095,180 +3133,292 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="63"/>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="139" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="144" t="s">
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="145"/>
-      <c r="O8" s="80" t="s">
+      <c r="N8" s="124"/>
+      <c r="O8" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="146" t="s">
+      <c r="P8" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="149"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="128"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="M9" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="88" t="s">
+      <c r="N9" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90" t="s">
+      <c r="O9" s="88"/>
+      <c r="P9" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="91" t="s">
+      <c r="Q9" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="91" t="s">
+      <c r="R9" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="91" t="s">
+      <c r="S9" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="92" t="s">
+      <c r="T9" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
+      <c r="D10" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="I10" s="75">
+        <v>298</v>
+      </c>
+      <c r="J10" s="98">
+        <f t="shared" ref="J10:K13" si="0">P10*9807000</f>
+        <v>1372980000</v>
+      </c>
+      <c r="K10" s="98">
+        <f t="shared" si="0"/>
+        <v>58842000</v>
+      </c>
       <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
+      <c r="M10" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="78">
+        <v>6</v>
+      </c>
+      <c r="R10" s="78"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>64</v>
+      </c>
       <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="73"/>
+      <c r="D11" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="74"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="I11" s="75">
+        <v>298</v>
+      </c>
+      <c r="J11" s="98">
+        <f t="shared" si="0"/>
+        <v>1618155000</v>
+      </c>
+      <c r="K11" s="98">
+        <f t="shared" si="0"/>
+        <v>98070000</v>
+      </c>
       <c r="L11" s="73"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="77"/>
+      <c r="M11" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="76" t="s">
+        <v>75</v>
+      </c>
       <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
+      <c r="P11" s="38">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="38">
+        <v>10</v>
+      </c>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>65</v>
+      </c>
       <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="73"/>
+      <c r="D12" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="I12" s="75">
+        <v>298</v>
+      </c>
+      <c r="J12" s="98">
+        <f t="shared" si="0"/>
+        <v>1323945000</v>
+      </c>
+      <c r="K12" s="98">
+        <f t="shared" si="0"/>
+        <v>49035000</v>
+      </c>
       <c r="L12" s="73"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="77"/>
+      <c r="M12" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="76" t="s">
+        <v>75</v>
+      </c>
       <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
+      <c r="P12" s="38">
+        <v>135</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>5</v>
+      </c>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>66</v>
+      </c>
       <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="73"/>
+      <c r="D13" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="33"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="I13" s="75">
+        <v>298</v>
+      </c>
+      <c r="J13" s="98">
+        <f t="shared" si="0"/>
+        <v>1569120000</v>
+      </c>
+      <c r="K13" s="98">
+        <f t="shared" si="0"/>
+        <v>88263000</v>
+      </c>
       <c r="L13" s="73"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="77"/>
+      <c r="M13" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="76" t="s">
+        <v>75</v>
+      </c>
       <c r="O13" s="37"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="38">
+        <v>160</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>9</v>
+      </c>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
@@ -3287,7 +3437,7 @@
       <c r="K14" s="35"/>
       <c r="L14" s="73"/>
       <c r="M14" s="32"/>
-      <c r="N14" s="77"/>
+      <c r="N14" s="76"/>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -3309,7 +3459,7 @@
       <c r="K15" s="35"/>
       <c r="L15" s="73"/>
       <c r="M15" s="32"/>
-      <c r="N15" s="77"/>
+      <c r="N15" s="76"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
@@ -3331,7 +3481,7 @@
       <c r="K16" s="38"/>
       <c r="L16" s="73"/>
       <c r="M16" s="32"/>
-      <c r="N16" s="77"/>
+      <c r="N16" s="76"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
@@ -3353,7 +3503,7 @@
       <c r="K17" s="38"/>
       <c r="L17" s="73"/>
       <c r="M17" s="32"/>
-      <c r="N17" s="77"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="39"/>
@@ -3375,7 +3525,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="73"/>
       <c r="M18" s="32"/>
-      <c r="N18" s="77"/>
+      <c r="N18" s="76"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="39"/>
@@ -3397,7 +3547,7 @@
       <c r="K19" s="38"/>
       <c r="L19" s="73"/>
       <c r="M19" s="32"/>
-      <c r="N19" s="77"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="39"/>
@@ -3419,7 +3569,7 @@
       <c r="K20" s="38"/>
       <c r="L20" s="73"/>
       <c r="M20" s="32"/>
-      <c r="N20" s="77"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="39"/>
@@ -3441,7 +3591,7 @@
       <c r="K21" s="38"/>
       <c r="L21" s="73"/>
       <c r="M21" s="32"/>
-      <c r="N21" s="77"/>
+      <c r="N21" s="76"/>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="39"/>
@@ -3463,7 +3613,7 @@
       <c r="K22" s="35"/>
       <c r="L22" s="73"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="77"/>
+      <c r="N22" s="76"/>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="39"/>
@@ -3485,7 +3635,7 @@
       <c r="K23" s="62"/>
       <c r="L23" s="73"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="77"/>
+      <c r="N23" s="76"/>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="39"/>
@@ -3507,7 +3657,7 @@
       <c r="K24" s="62"/>
       <c r="L24" s="73"/>
       <c r="M24" s="32"/>
-      <c r="N24" s="77"/>
+      <c r="N24" s="76"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="39"/>
@@ -3516,8 +3666,8 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -3604,8 +3754,8 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="97"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -3877,7 +4027,7 @@
       <c r="G41" s="32"/>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
-      <c r="J41" s="93"/>
+      <c r="J41" s="92"/>
       <c r="K41" s="47"/>
       <c r="L41" s="32"/>
       <c r="M41" s="40"/>
@@ -3899,7 +4049,7 @@
       <c r="G42" s="32"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="93"/>
+      <c r="J42" s="92"/>
       <c r="K42" s="47"/>
       <c r="L42" s="32"/>
       <c r="M42" s="40"/>
@@ -3921,7 +4071,7 @@
       <c r="G43" s="32"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
-      <c r="J43" s="93"/>
+      <c r="J43" s="92"/>
       <c r="K43" s="47"/>
       <c r="L43" s="32"/>
       <c r="M43" s="40"/>
@@ -3943,11 +4093,11 @@
       <c r="G44" s="32"/>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
-      <c r="J44" s="93"/>
+      <c r="J44" s="92"/>
       <c r="K44" s="49"/>
       <c r="L44" s="32"/>
       <c r="M44" s="40"/>
-      <c r="N44" s="98"/>
+      <c r="N44" s="97"/>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
       <c r="Q44" s="39"/>
@@ -3969,7 +4119,7 @@
       <c r="K45" s="49"/>
       <c r="L45" s="32"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="98"/>
+      <c r="N45" s="97"/>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
       <c r="Q45" s="39"/>
@@ -4031,7 +4181,7 @@
       <c r="G48" s="32"/>
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
-      <c r="J48" s="93"/>
+      <c r="J48" s="92"/>
       <c r="K48" s="47"/>
       <c r="L48" s="32"/>
       <c r="M48" s="40"/>
@@ -4053,7 +4203,7 @@
       <c r="G49" s="32"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
-      <c r="J49" s="93"/>
+      <c r="J49" s="92"/>
       <c r="K49" s="47"/>
       <c r="L49" s="32"/>
       <c r="M49" s="40"/>
@@ -4075,7 +4225,7 @@
       <c r="G50" s="32"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
-      <c r="J50" s="93"/>
+      <c r="J50" s="92"/>
       <c r="K50" s="47"/>
       <c r="L50" s="32"/>
       <c r="M50" s="40"/>
@@ -4097,11 +4247,11 @@
       <c r="G51" s="32"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
-      <c r="J51" s="93"/>
+      <c r="J51" s="92"/>
       <c r="K51" s="49"/>
       <c r="L51" s="32"/>
       <c r="M51" s="40"/>
-      <c r="N51" s="98"/>
+      <c r="N51" s="97"/>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
       <c r="Q51" s="39"/>
@@ -4123,7 +4273,7 @@
       <c r="K52" s="49"/>
       <c r="L52" s="32"/>
       <c r="M52" s="40"/>
-      <c r="N52" s="98"/>
+      <c r="N52" s="97"/>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
       <c r="Q52" s="39"/>
@@ -4427,7 +4577,7 @@
       <c r="G66" s="32"/>
       <c r="H66" s="34"/>
       <c r="I66" s="34"/>
-      <c r="J66" s="93"/>
+      <c r="J66" s="92"/>
       <c r="K66" s="47"/>
       <c r="L66" s="50"/>
       <c r="M66" s="50"/>
@@ -4493,8 +4643,8 @@
       <c r="G69" s="32"/>
       <c r="H69" s="33"/>
       <c r="I69" s="34"/>
-      <c r="J69" s="99"/>
-      <c r="K69" s="99"/>
+      <c r="J69" s="98"/>
+      <c r="K69" s="98"/>
       <c r="L69" s="50"/>
       <c r="M69" s="50"/>
       <c r="N69" s="30"/>
@@ -4515,8 +4665,8 @@
       <c r="G70" s="32"/>
       <c r="H70" s="33"/>
       <c r="I70" s="34"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
+      <c r="J70" s="98"/>
+      <c r="K70" s="98"/>
       <c r="L70" s="50"/>
       <c r="M70" s="50"/>
       <c r="N70" s="30"/>
@@ -4537,8 +4687,8 @@
       <c r="G71" s="32"/>
       <c r="H71" s="33"/>
       <c r="I71" s="34"/>
-      <c r="J71" s="99"/>
-      <c r="K71" s="99"/>
+      <c r="J71" s="98"/>
+      <c r="K71" s="98"/>
       <c r="L71" s="50"/>
       <c r="M71" s="50"/>
       <c r="N71" s="30"/>
@@ -4558,8 +4708,8 @@
       <c r="G72" s="32"/>
       <c r="H72" s="33"/>
       <c r="I72" s="34"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="99"/>
+      <c r="J72" s="98"/>
+      <c r="K72" s="98"/>
       <c r="L72" s="50"/>
       <c r="M72" s="50"/>
       <c r="N72" s="30"/>
@@ -4580,8 +4730,8 @@
       <c r="G73" s="32"/>
       <c r="H73" s="33"/>
       <c r="I73" s="34"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
+      <c r="J73" s="98"/>
+      <c r="K73" s="98"/>
       <c r="L73" s="50"/>
       <c r="M73" s="50"/>
       <c r="N73" s="30"/>
@@ -4602,8 +4752,8 @@
       <c r="G74" s="32"/>
       <c r="H74" s="33"/>
       <c r="I74" s="34"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="98"/>
       <c r="L74" s="50"/>
       <c r="M74" s="50"/>
       <c r="N74" s="30"/>
@@ -4624,8 +4774,8 @@
       <c r="G75" s="32"/>
       <c r="H75" s="33"/>
       <c r="I75" s="34"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
+      <c r="J75" s="98"/>
+      <c r="K75" s="98"/>
       <c r="L75" s="50"/>
       <c r="M75" s="50"/>
       <c r="N75" s="30"/>
@@ -4646,8 +4796,8 @@
       <c r="G76" s="32"/>
       <c r="H76" s="33"/>
       <c r="I76" s="34"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="99"/>
+      <c r="J76" s="98"/>
+      <c r="K76" s="98"/>
       <c r="L76" s="50"/>
       <c r="M76" s="50"/>
       <c r="N76" s="30"/>
@@ -4668,7 +4818,7 @@
       <c r="G77" s="32"/>
       <c r="H77" s="33"/>
       <c r="I77" s="34"/>
-      <c r="J77" s="93"/>
+      <c r="J77" s="92"/>
       <c r="K77" s="47"/>
       <c r="L77" s="50"/>
       <c r="M77" s="50"/>
@@ -4690,7 +4840,7 @@
       <c r="G78" s="32"/>
       <c r="H78" s="33"/>
       <c r="I78" s="34"/>
-      <c r="J78" s="93"/>
+      <c r="J78" s="92"/>
       <c r="K78" s="47"/>
       <c r="L78" s="50"/>
       <c r="M78" s="50"/>
@@ -4932,7 +5082,7 @@
       <c r="G89" s="32"/>
       <c r="H89" s="33"/>
       <c r="I89" s="34"/>
-      <c r="J89" s="93"/>
+      <c r="J89" s="92"/>
       <c r="K89" s="49"/>
       <c r="L89" s="50"/>
       <c r="M89" s="50"/>
@@ -4954,7 +5104,7 @@
       <c r="G90" s="32"/>
       <c r="H90" s="33"/>
       <c r="I90" s="34"/>
-      <c r="J90" s="93"/>
+      <c r="J90" s="92"/>
       <c r="K90" s="49"/>
       <c r="L90" s="50"/>
       <c r="M90" s="50"/>
@@ -4976,7 +5126,7 @@
       <c r="G91" s="32"/>
       <c r="H91" s="33"/>
       <c r="I91" s="34"/>
-      <c r="J91" s="93"/>
+      <c r="J91" s="92"/>
       <c r="K91" s="49"/>
       <c r="L91" s="32"/>
       <c r="M91" s="50"/>
@@ -4998,7 +5148,7 @@
       <c r="G92" s="32"/>
       <c r="H92" s="33"/>
       <c r="I92" s="34"/>
-      <c r="J92" s="99"/>
+      <c r="J92" s="98"/>
       <c r="K92" s="49"/>
       <c r="L92" s="32"/>
       <c r="M92" s="50"/>
@@ -5482,8 +5632,8 @@
       <c r="G114" s="32"/>
       <c r="H114" s="33"/>
       <c r="I114" s="38"/>
-      <c r="J114" s="99"/>
-      <c r="K114" s="99"/>
+      <c r="J114" s="98"/>
+      <c r="K114" s="98"/>
       <c r="L114" s="50"/>
       <c r="M114" s="32"/>
       <c r="N114" s="30"/>
@@ -5504,8 +5654,8 @@
       <c r="G115" s="32"/>
       <c r="H115" s="33"/>
       <c r="I115" s="38"/>
-      <c r="J115" s="99"/>
-      <c r="K115" s="99"/>
+      <c r="J115" s="98"/>
+      <c r="K115" s="98"/>
       <c r="L115" s="50"/>
       <c r="M115" s="32"/>
       <c r="N115" s="30"/>
@@ -5526,8 +5676,8 @@
       <c r="G116" s="32"/>
       <c r="H116" s="33"/>
       <c r="I116" s="38"/>
-      <c r="J116" s="99"/>
-      <c r="K116" s="99"/>
+      <c r="J116" s="98"/>
+      <c r="K116" s="98"/>
       <c r="L116" s="50"/>
       <c r="M116" s="32"/>
       <c r="N116" s="30"/>
@@ -5760,8 +5910,8 @@
     </row>
     <row r="127" spans="1:20" ht="18" customHeight="1">
       <c r="A127" s="51"/>
-      <c r="B127" s="94"/>
-      <c r="C127" s="100"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="99"/>
       <c r="D127" s="30"/>
       <c r="E127" s="31"/>
       <c r="F127" s="32"/>
@@ -5782,8 +5932,8 @@
     </row>
     <row r="128" spans="1:20" ht="18" customHeight="1">
       <c r="A128" s="30"/>
-      <c r="B128" s="95"/>
-      <c r="C128" s="101"/>
+      <c r="B128" s="94"/>
+      <c r="C128" s="100"/>
       <c r="D128" s="30"/>
       <c r="E128" s="31"/>
       <c r="F128" s="32"/>
@@ -5804,8 +5954,8 @@
     </row>
     <row r="129" spans="1:20" ht="18" customHeight="1">
       <c r="A129" s="30"/>
-      <c r="B129" s="95"/>
-      <c r="C129" s="101"/>
+      <c r="B129" s="94"/>
+      <c r="C129" s="100"/>
       <c r="D129" s="30"/>
       <c r="E129" s="31"/>
       <c r="F129" s="32"/>
@@ -5826,8 +5976,8 @@
     </row>
     <row r="130" spans="1:20" ht="18" customHeight="1">
       <c r="A130" s="30"/>
-      <c r="B130" s="95"/>
-      <c r="C130" s="101"/>
+      <c r="B130" s="94"/>
+      <c r="C130" s="100"/>
       <c r="D130" s="30"/>
       <c r="E130" s="31"/>
       <c r="F130" s="32"/>
@@ -5848,8 +5998,8 @@
     </row>
     <row r="131" spans="1:20" ht="18" customHeight="1">
       <c r="A131" s="30"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="101"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="100"/>
       <c r="D131" s="30"/>
       <c r="E131" s="31"/>
       <c r="F131" s="32"/>
@@ -5870,8 +6020,8 @@
     </row>
     <row r="132" spans="1:20" ht="18" customHeight="1">
       <c r="A132" s="51"/>
-      <c r="B132" s="94"/>
-      <c r="C132" s="100"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="99"/>
       <c r="D132" s="30"/>
       <c r="E132" s="31"/>
       <c r="F132" s="32"/>
@@ -5892,8 +6042,8 @@
     </row>
     <row r="133" spans="1:20" ht="18" customHeight="1">
       <c r="A133" s="30"/>
-      <c r="B133" s="95"/>
-      <c r="C133" s="101"/>
+      <c r="B133" s="94"/>
+      <c r="C133" s="100"/>
       <c r="D133" s="30"/>
       <c r="E133" s="31"/>
       <c r="F133" s="32"/>
@@ -5914,8 +6064,8 @@
     </row>
     <row r="134" spans="1:20" ht="18" customHeight="1">
       <c r="A134" s="30"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="101"/>
+      <c r="B134" s="94"/>
+      <c r="C134" s="100"/>
       <c r="D134" s="30"/>
       <c r="E134" s="31"/>
       <c r="F134" s="32"/>
@@ -5936,8 +6086,8 @@
     </row>
     <row r="135" spans="1:20" ht="18" customHeight="1">
       <c r="A135" s="30"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="101"/>
+      <c r="B135" s="94"/>
+      <c r="C135" s="100"/>
       <c r="D135" s="30"/>
       <c r="E135" s="31"/>
       <c r="F135" s="32"/>
@@ -5958,8 +6108,8 @@
     </row>
     <row r="136" spans="1:20" ht="18" customHeight="1">
       <c r="A136" s="30"/>
-      <c r="B136" s="95"/>
-      <c r="C136" s="101"/>
+      <c r="B136" s="94"/>
+      <c r="C136" s="100"/>
       <c r="D136" s="30"/>
       <c r="E136" s="31"/>
       <c r="F136" s="32"/>
@@ -5980,8 +6130,8 @@
     </row>
     <row r="137" spans="1:20" ht="18" customHeight="1">
       <c r="A137" s="55"/>
-      <c r="B137" s="94"/>
-      <c r="C137" s="100"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="99"/>
       <c r="D137" s="30"/>
       <c r="E137" s="31"/>
       <c r="F137" s="32"/>
@@ -6002,8 +6152,8 @@
     </row>
     <row r="138" spans="1:20" ht="18" customHeight="1">
       <c r="A138" s="42"/>
-      <c r="B138" s="95"/>
-      <c r="C138" s="101"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="100"/>
       <c r="D138" s="30"/>
       <c r="E138" s="31"/>
       <c r="F138" s="32"/>
@@ -6024,8 +6174,8 @@
     </row>
     <row r="139" spans="1:20" ht="18" customHeight="1">
       <c r="A139" s="42"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="101"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="100"/>
       <c r="D139" s="30"/>
       <c r="E139" s="31"/>
       <c r="F139" s="32"/>
@@ -6046,8 +6196,8 @@
     </row>
     <row r="140" spans="1:20" ht="18" customHeight="1">
       <c r="A140" s="42"/>
-      <c r="B140" s="95"/>
-      <c r="C140" s="101"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="100"/>
       <c r="D140" s="30"/>
       <c r="E140" s="31"/>
       <c r="F140" s="32"/>
@@ -6068,8 +6218,8 @@
     </row>
     <row r="141" spans="1:20" ht="18" customHeight="1">
       <c r="A141" s="42"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="101"/>
+      <c r="B141" s="94"/>
+      <c r="C141" s="100"/>
       <c r="D141" s="30"/>
       <c r="E141" s="31"/>
       <c r="F141" s="32"/>
@@ -6090,8 +6240,8 @@
     </row>
     <row r="142" spans="1:20" ht="18" customHeight="1">
       <c r="A142" s="55"/>
-      <c r="B142" s="95"/>
-      <c r="C142" s="101"/>
+      <c r="B142" s="94"/>
+      <c r="C142" s="100"/>
       <c r="D142" s="30"/>
       <c r="E142" s="31"/>
       <c r="F142" s="32"/>
@@ -6112,7 +6262,7 @@
     </row>
     <row r="143" spans="1:20" ht="18" customHeight="1">
       <c r="A143" s="42"/>
-      <c r="B143" s="95"/>
+      <c r="B143" s="94"/>
       <c r="C143" s="30"/>
       <c r="D143" s="30"/>
       <c r="E143" s="31"/>
@@ -6134,7 +6284,7 @@
     </row>
     <row r="144" spans="1:20" ht="18" customHeight="1">
       <c r="A144" s="42"/>
-      <c r="B144" s="95"/>
+      <c r="B144" s="94"/>
       <c r="C144" s="30"/>
       <c r="D144" s="30"/>
       <c r="E144" s="31"/>
@@ -6156,7 +6306,7 @@
     </row>
     <row r="145" spans="1:20" ht="18" customHeight="1">
       <c r="A145" s="42"/>
-      <c r="B145" s="95"/>
+      <c r="B145" s="94"/>
       <c r="C145" s="30"/>
       <c r="D145" s="30"/>
       <c r="E145" s="31"/>
@@ -6178,7 +6328,7 @@
     </row>
     <row r="146" spans="1:20" ht="18" customHeight="1">
       <c r="A146" s="42"/>
-      <c r="B146" s="95"/>
+      <c r="B146" s="94"/>
       <c r="C146" s="30"/>
       <c r="D146" s="30"/>
       <c r="E146" s="31"/>
@@ -6200,7 +6350,7 @@
     </row>
     <row r="147" spans="1:20" ht="18" customHeight="1">
       <c r="A147" s="55"/>
-      <c r="B147" s="95"/>
+      <c r="B147" s="94"/>
       <c r="C147" s="30"/>
       <c r="D147" s="30"/>
       <c r="E147" s="31"/>
@@ -6222,7 +6372,7 @@
     </row>
     <row r="148" spans="1:20" ht="18" customHeight="1">
       <c r="A148" s="42"/>
-      <c r="B148" s="95"/>
+      <c r="B148" s="94"/>
       <c r="C148" s="30"/>
       <c r="D148" s="30"/>
       <c r="E148" s="31"/>
@@ -6244,7 +6394,7 @@
     </row>
     <row r="149" spans="1:20" ht="18" customHeight="1">
       <c r="A149" s="42"/>
-      <c r="B149" s="95"/>
+      <c r="B149" s="94"/>
       <c r="C149" s="30"/>
       <c r="D149" s="30"/>
       <c r="E149" s="31"/>
@@ -6266,7 +6416,7 @@
     </row>
     <row r="150" spans="1:20" ht="18" customHeight="1">
       <c r="A150" s="42"/>
-      <c r="B150" s="95"/>
+      <c r="B150" s="94"/>
       <c r="C150" s="30"/>
       <c r="D150" s="30"/>
       <c r="E150" s="31"/>
@@ -6288,7 +6438,7 @@
     </row>
     <row r="151" spans="1:20" ht="18" customHeight="1">
       <c r="A151" s="42"/>
-      <c r="B151" s="95"/>
+      <c r="B151" s="94"/>
       <c r="C151" s="30"/>
       <c r="D151" s="30"/>
       <c r="E151" s="31"/>
@@ -6310,7 +6460,7 @@
     </row>
     <row r="152" spans="1:20" ht="18" customHeight="1">
       <c r="A152" s="55"/>
-      <c r="B152" s="95"/>
+      <c r="B152" s="94"/>
       <c r="C152" s="30"/>
       <c r="D152" s="30"/>
       <c r="E152" s="31"/>
@@ -6332,7 +6482,7 @@
     </row>
     <row r="153" spans="1:20" ht="18" customHeight="1">
       <c r="A153" s="42"/>
-      <c r="B153" s="95"/>
+      <c r="B153" s="94"/>
       <c r="C153" s="30"/>
       <c r="D153" s="30"/>
       <c r="E153" s="31"/>
@@ -6354,7 +6504,7 @@
     </row>
     <row r="154" spans="1:20" ht="18" customHeight="1">
       <c r="A154" s="42"/>
-      <c r="B154" s="95"/>
+      <c r="B154" s="94"/>
       <c r="C154" s="30"/>
       <c r="D154" s="30"/>
       <c r="E154" s="31"/>
@@ -6376,7 +6526,7 @@
     </row>
     <row r="155" spans="1:20" ht="18" customHeight="1">
       <c r="A155" s="42"/>
-      <c r="B155" s="95"/>
+      <c r="B155" s="94"/>
       <c r="C155" s="30"/>
       <c r="D155" s="30"/>
       <c r="E155" s="31"/>
@@ -6398,7 +6548,7 @@
     </row>
     <row r="156" spans="1:20" ht="18" customHeight="1">
       <c r="A156" s="42"/>
-      <c r="B156" s="95"/>
+      <c r="B156" s="94"/>
       <c r="C156" s="30"/>
       <c r="D156" s="30"/>
       <c r="E156" s="31"/>
@@ -6420,7 +6570,7 @@
     </row>
     <row r="157" spans="1:20" ht="18" customHeight="1">
       <c r="A157" s="30"/>
-      <c r="B157" s="95"/>
+      <c r="B157" s="94"/>
       <c r="C157" s="30"/>
       <c r="D157" s="30"/>
       <c r="E157" s="31"/>
@@ -6442,7 +6592,7 @@
     </row>
     <row r="158" spans="1:20" ht="18" customHeight="1">
       <c r="A158" s="38"/>
-      <c r="B158" s="95"/>
+      <c r="B158" s="94"/>
       <c r="C158" s="30"/>
       <c r="D158" s="30"/>
       <c r="E158" s="31"/>
@@ -6464,7 +6614,7 @@
     </row>
     <row r="159" spans="1:20" ht="18" customHeight="1">
       <c r="A159" s="38"/>
-      <c r="B159" s="95"/>
+      <c r="B159" s="94"/>
       <c r="C159" s="30"/>
       <c r="D159" s="30"/>
       <c r="E159" s="31"/>
@@ -6486,7 +6636,7 @@
     </row>
     <row r="160" spans="1:20" ht="18" customHeight="1">
       <c r="A160" s="38"/>
-      <c r="B160" s="95"/>
+      <c r="B160" s="94"/>
       <c r="C160" s="30"/>
       <c r="D160" s="30"/>
       <c r="E160" s="31"/>
@@ -6508,7 +6658,7 @@
     </row>
     <row r="161" spans="1:20" ht="18" customHeight="1">
       <c r="A161" s="38"/>
-      <c r="B161" s="95"/>
+      <c r="B161" s="94"/>
       <c r="C161" s="30"/>
       <c r="D161" s="30"/>
       <c r="E161" s="31"/>
@@ -6530,7 +6680,7 @@
     </row>
     <row r="162" spans="1:20" ht="18" customHeight="1">
       <c r="A162" s="38"/>
-      <c r="B162" s="95"/>
+      <c r="B162" s="94"/>
       <c r="C162" s="30"/>
       <c r="D162" s="30"/>
       <c r="E162" s="31"/>
@@ -6552,7 +6702,7 @@
     </row>
     <row r="163" spans="1:20" ht="18" customHeight="1">
       <c r="A163" s="38"/>
-      <c r="B163" s="95"/>
+      <c r="B163" s="94"/>
       <c r="C163" s="30"/>
       <c r="D163" s="30"/>
       <c r="E163" s="31"/>
@@ -7704,7 +7854,7 @@
       <c r="G215" s="32"/>
       <c r="H215" s="59"/>
       <c r="I215" s="38"/>
-      <c r="J215" s="99"/>
+      <c r="J215" s="98"/>
       <c r="K215" s="38"/>
       <c r="L215" s="40"/>
       <c r="M215" s="40"/>
@@ -7726,7 +7876,7 @@
       <c r="G216" s="32"/>
       <c r="H216" s="59"/>
       <c r="I216" s="38"/>
-      <c r="J216" s="99"/>
+      <c r="J216" s="98"/>
       <c r="K216" s="38"/>
       <c r="L216" s="40"/>
       <c r="M216" s="40"/>
@@ -7748,7 +7898,7 @@
       <c r="G217" s="32"/>
       <c r="H217" s="59"/>
       <c r="I217" s="38"/>
-      <c r="J217" s="99"/>
+      <c r="J217" s="98"/>
       <c r="K217" s="38"/>
       <c r="L217" s="40"/>
       <c r="M217" s="40"/>
@@ -7770,7 +7920,7 @@
       <c r="G218" s="32"/>
       <c r="H218" s="59"/>
       <c r="I218" s="38"/>
-      <c r="J218" s="99"/>
+      <c r="J218" s="98"/>
       <c r="K218" s="38"/>
       <c r="L218" s="40"/>
       <c r="M218" s="40"/>
@@ -7792,7 +7942,7 @@
       <c r="G219" s="32"/>
       <c r="H219" s="59"/>
       <c r="I219" s="38"/>
-      <c r="J219" s="99"/>
+      <c r="J219" s="98"/>
       <c r="K219" s="38"/>
       <c r="L219" s="40"/>
       <c r="M219" s="40"/>
@@ -7814,7 +7964,7 @@
       <c r="G220" s="32"/>
       <c r="H220" s="59"/>
       <c r="I220" s="38"/>
-      <c r="J220" s="99"/>
+      <c r="J220" s="98"/>
       <c r="K220" s="38"/>
       <c r="L220" s="40"/>
       <c r="M220" s="40"/>
@@ -7836,7 +7986,7 @@
       <c r="G221" s="32"/>
       <c r="H221" s="59"/>
       <c r="I221" s="38"/>
-      <c r="J221" s="99"/>
+      <c r="J221" s="98"/>
       <c r="K221" s="38"/>
       <c r="L221" s="40"/>
       <c r="M221" s="40"/>
@@ -8313,7 +8463,7 @@
     <row r="243" spans="1:20" ht="18" customHeight="1">
       <c r="A243" s="40"/>
       <c r="B243" s="31"/>
-      <c r="C243" s="102"/>
+      <c r="C243" s="101"/>
       <c r="D243" s="61"/>
       <c r="E243" s="58"/>
       <c r="F243" s="56"/>
@@ -8335,7 +8485,7 @@
     <row r="244" spans="1:20" ht="18" customHeight="1">
       <c r="A244" s="40"/>
       <c r="B244" s="31"/>
-      <c r="C244" s="102"/>
+      <c r="C244" s="101"/>
       <c r="D244" s="61"/>
       <c r="E244" s="58"/>
       <c r="F244" s="56"/>
@@ -8357,7 +8507,7 @@
     <row r="245" spans="1:20" ht="18" customHeight="1">
       <c r="A245" s="40"/>
       <c r="B245" s="31"/>
-      <c r="C245" s="102"/>
+      <c r="C245" s="101"/>
       <c r="D245" s="61"/>
       <c r="E245" s="58"/>
       <c r="F245" s="56"/>
@@ -8379,7 +8529,7 @@
     <row r="246" spans="1:20" ht="18" customHeight="1">
       <c r="A246" s="40"/>
       <c r="B246" s="31"/>
-      <c r="C246" s="102"/>
+      <c r="C246" s="101"/>
       <c r="D246" s="61"/>
       <c r="E246" s="58"/>
       <c r="F246" s="56"/>
@@ -8401,7 +8551,7 @@
     <row r="247" spans="1:20" ht="18" customHeight="1">
       <c r="A247" s="40"/>
       <c r="B247" s="31"/>
-      <c r="C247" s="102"/>
+      <c r="C247" s="101"/>
       <c r="D247" s="61"/>
       <c r="E247" s="58"/>
       <c r="F247" s="56"/>
@@ -8423,7 +8573,7 @@
     <row r="248" spans="1:20" ht="18" customHeight="1">
       <c r="A248" s="40"/>
       <c r="B248" s="31"/>
-      <c r="C248" s="102"/>
+      <c r="C248" s="101"/>
       <c r="D248" s="61"/>
       <c r="E248" s="58"/>
       <c r="F248" s="61"/>
@@ -8445,7 +8595,7 @@
     <row r="249" spans="1:20" ht="18" customHeight="1">
       <c r="A249" s="61"/>
       <c r="B249" s="61"/>
-      <c r="C249" s="102"/>
+      <c r="C249" s="101"/>
       <c r="D249" s="61"/>
       <c r="E249" s="58"/>
       <c r="F249" s="61"/>
@@ -8467,7 +8617,7 @@
     <row r="250" spans="1:20" ht="18" customHeight="1">
       <c r="A250" s="61"/>
       <c r="B250" s="61"/>
-      <c r="C250" s="102"/>
+      <c r="C250" s="101"/>
       <c r="D250" s="61"/>
       <c r="E250" s="58"/>
       <c r="F250" s="61"/>
@@ -8489,7 +8639,7 @@
     <row r="251" spans="1:20" ht="18" customHeight="1">
       <c r="A251" s="61"/>
       <c r="B251" s="61"/>
-      <c r="C251" s="102"/>
+      <c r="C251" s="101"/>
       <c r="D251" s="61"/>
       <c r="E251" s="58"/>
       <c r="F251" s="61"/>
@@ -8511,7 +8661,7 @@
     <row r="252" spans="1:20" ht="18" customHeight="1">
       <c r="A252" s="61"/>
       <c r="B252" s="61"/>
-      <c r="C252" s="102"/>
+      <c r="C252" s="101"/>
       <c r="D252" s="61"/>
       <c r="E252" s="58"/>
       <c r="F252" s="61"/>
@@ -8533,7 +8683,7 @@
     <row r="253" spans="1:20" ht="18" customHeight="1">
       <c r="A253" s="61"/>
       <c r="B253" s="61"/>
-      <c r="C253" s="102"/>
+      <c r="C253" s="101"/>
       <c r="D253" s="61"/>
       <c r="E253" s="58"/>
       <c r="F253" s="61"/>
@@ -8555,7 +8705,7 @@
     <row r="254" spans="1:20" ht="18" customHeight="1">
       <c r="A254" s="61"/>
       <c r="B254" s="61"/>
-      <c r="C254" s="102"/>
+      <c r="C254" s="101"/>
       <c r="D254" s="61"/>
       <c r="E254" s="58"/>
       <c r="F254" s="61"/>
@@ -8577,7 +8727,7 @@
     <row r="255" spans="1:20" ht="18" customHeight="1">
       <c r="A255" s="61"/>
       <c r="B255" s="61"/>
-      <c r="C255" s="102"/>
+      <c r="C255" s="101"/>
       <c r="D255" s="61"/>
       <c r="E255" s="58"/>
       <c r="F255" s="61"/>
@@ -8599,7 +8749,7 @@
     <row r="256" spans="1:20" ht="18" customHeight="1">
       <c r="A256" s="61"/>
       <c r="B256" s="61"/>
-      <c r="C256" s="102"/>
+      <c r="C256" s="101"/>
       <c r="D256" s="61"/>
       <c r="E256" s="58"/>
       <c r="F256" s="61"/>
@@ -8621,7 +8771,7 @@
     <row r="257" spans="1:20" ht="18" customHeight="1">
       <c r="A257" s="61"/>
       <c r="B257" s="61"/>
-      <c r="C257" s="102"/>
+      <c r="C257" s="101"/>
       <c r="D257" s="61"/>
       <c r="E257" s="58"/>
       <c r="F257" s="61"/>
@@ -8643,7 +8793,7 @@
     <row r="258" spans="1:20" ht="18" customHeight="1">
       <c r="A258" s="61"/>
       <c r="B258" s="61"/>
-      <c r="C258" s="102"/>
+      <c r="C258" s="101"/>
       <c r="D258" s="61"/>
       <c r="E258" s="58"/>
       <c r="F258" s="61"/>
@@ -9051,7 +9201,7 @@
       <c r="L276" s="61"/>
       <c r="M276" s="61"/>
       <c r="N276" s="40"/>
-      <c r="O276" s="103"/>
+      <c r="O276" s="102"/>
       <c r="P276" s="45"/>
       <c r="Q276" s="45"/>
       <c r="R276" s="45"/>
@@ -11986,14 +12136,14 @@
     </row>
     <row r="410" spans="1:20" ht="18" customHeight="1">
       <c r="A410" s="45"/>
-      <c r="B410" s="104"/>
-      <c r="C410" s="105"/>
-      <c r="D410" s="105"/>
-      <c r="E410" s="105"/>
-      <c r="F410" s="105"/>
-      <c r="G410" s="105"/>
-      <c r="H410" s="105"/>
-      <c r="I410" s="105"/>
+      <c r="B410" s="103"/>
+      <c r="C410" s="104"/>
+      <c r="D410" s="104"/>
+      <c r="E410" s="104"/>
+      <c r="F410" s="104"/>
+      <c r="G410" s="104"/>
+      <c r="H410" s="104"/>
+      <c r="I410" s="104"/>
       <c r="J410" s="45"/>
       <c r="K410" s="49"/>
       <c r="L410" s="61"/>
@@ -12008,14 +12158,14 @@
     </row>
     <row r="411" spans="1:20" ht="18" customHeight="1">
       <c r="A411" s="45"/>
-      <c r="B411" s="106"/>
-      <c r="C411" s="107"/>
-      <c r="D411" s="107"/>
-      <c r="E411" s="107"/>
-      <c r="F411" s="105"/>
-      <c r="G411" s="107"/>
-      <c r="H411" s="107"/>
-      <c r="I411" s="107"/>
+      <c r="B411" s="105"/>
+      <c r="C411" s="106"/>
+      <c r="D411" s="106"/>
+      <c r="E411" s="106"/>
+      <c r="F411" s="104"/>
+      <c r="G411" s="106"/>
+      <c r="H411" s="106"/>
+      <c r="I411" s="106"/>
       <c r="J411" s="45"/>
       <c r="K411" s="45"/>
       <c r="L411" s="61"/>
@@ -12030,14 +12180,14 @@
     </row>
     <row r="412" spans="1:20" ht="18" customHeight="1">
       <c r="A412" s="45"/>
-      <c r="B412" s="106"/>
-      <c r="C412" s="107"/>
-      <c r="D412" s="107"/>
-      <c r="E412" s="107"/>
-      <c r="F412" s="105"/>
-      <c r="G412" s="107"/>
-      <c r="H412" s="107"/>
-      <c r="I412" s="107"/>
+      <c r="B412" s="105"/>
+      <c r="C412" s="106"/>
+      <c r="D412" s="106"/>
+      <c r="E412" s="106"/>
+      <c r="F412" s="104"/>
+      <c r="G412" s="106"/>
+      <c r="H412" s="106"/>
+      <c r="I412" s="106"/>
       <c r="J412" s="45"/>
       <c r="K412" s="45"/>
       <c r="L412" s="61"/>
@@ -12052,14 +12202,14 @@
     </row>
     <row r="413" spans="1:20" ht="18" customHeight="1">
       <c r="A413" s="45"/>
-      <c r="B413" s="106"/>
-      <c r="C413" s="107"/>
-      <c r="D413" s="107"/>
-      <c r="E413" s="107"/>
-      <c r="F413" s="105"/>
-      <c r="G413" s="107"/>
-      <c r="H413" s="107"/>
-      <c r="I413" s="107"/>
+      <c r="B413" s="105"/>
+      <c r="C413" s="106"/>
+      <c r="D413" s="106"/>
+      <c r="E413" s="106"/>
+      <c r="F413" s="104"/>
+      <c r="G413" s="106"/>
+      <c r="H413" s="106"/>
+      <c r="I413" s="106"/>
       <c r="J413" s="45"/>
       <c r="K413" s="45"/>
       <c r="L413" s="61"/>
@@ -12079,9 +12229,9 @@
       <c r="D414" s="61"/>
       <c r="E414" s="61"/>
       <c r="F414" s="61"/>
-      <c r="G414" s="107"/>
-      <c r="H414" s="107"/>
-      <c r="I414" s="107"/>
+      <c r="G414" s="106"/>
+      <c r="H414" s="106"/>
+      <c r="I414" s="106"/>
       <c r="J414" s="62"/>
       <c r="K414" s="45"/>
       <c r="L414" s="61"/>
@@ -12101,9 +12251,9 @@
       <c r="D415" s="61"/>
       <c r="E415" s="61"/>
       <c r="F415" s="61"/>
-      <c r="G415" s="107"/>
-      <c r="H415" s="107"/>
-      <c r="I415" s="107"/>
+      <c r="G415" s="106"/>
+      <c r="H415" s="106"/>
+      <c r="I415" s="106"/>
       <c r="J415" s="62"/>
       <c r="K415" s="62"/>
       <c r="L415" s="61"/>
@@ -12123,9 +12273,9 @@
       <c r="D416" s="61"/>
       <c r="E416" s="61"/>
       <c r="F416" s="61"/>
-      <c r="G416" s="107"/>
-      <c r="H416" s="107"/>
-      <c r="I416" s="107"/>
+      <c r="G416" s="106"/>
+      <c r="H416" s="106"/>
+      <c r="I416" s="106"/>
       <c r="J416" s="62"/>
       <c r="K416" s="62"/>
       <c r="L416" s="61"/>
@@ -12145,9 +12295,9 @@
       <c r="D417" s="61"/>
       <c r="E417" s="61"/>
       <c r="F417" s="61"/>
-      <c r="G417" s="107"/>
-      <c r="H417" s="107"/>
-      <c r="I417" s="107"/>
+      <c r="G417" s="106"/>
+      <c r="H417" s="106"/>
+      <c r="I417" s="106"/>
       <c r="J417" s="62"/>
       <c r="K417" s="62"/>
       <c r="L417" s="61"/>
@@ -12167,9 +12317,9 @@
       <c r="D418" s="61"/>
       <c r="E418" s="61"/>
       <c r="F418" s="61"/>
-      <c r="G418" s="107"/>
-      <c r="H418" s="107"/>
-      <c r="I418" s="107"/>
+      <c r="G418" s="106"/>
+      <c r="H418" s="106"/>
+      <c r="I418" s="106"/>
       <c r="J418" s="62"/>
       <c r="K418" s="62"/>
       <c r="L418" s="61"/>
@@ -12189,9 +12339,9 @@
       <c r="D419" s="61"/>
       <c r="E419" s="61"/>
       <c r="F419" s="61"/>
-      <c r="G419" s="107"/>
-      <c r="H419" s="107"/>
-      <c r="I419" s="107"/>
+      <c r="G419" s="106"/>
+      <c r="H419" s="106"/>
+      <c r="I419" s="106"/>
       <c r="J419" s="62"/>
       <c r="K419" s="62"/>
       <c r="L419" s="61"/>
@@ -12206,14 +12356,14 @@
     </row>
     <row r="420" spans="1:20" ht="18" customHeight="1">
       <c r="A420" s="61"/>
-      <c r="B420" s="104"/>
-      <c r="C420" s="105"/>
-      <c r="D420" s="105"/>
+      <c r="B420" s="103"/>
+      <c r="C420" s="104"/>
+      <c r="D420" s="104"/>
       <c r="E420" s="61"/>
       <c r="F420" s="61"/>
-      <c r="G420" s="107"/>
-      <c r="H420" s="107"/>
-      <c r="I420" s="107"/>
+      <c r="G420" s="106"/>
+      <c r="H420" s="106"/>
+      <c r="I420" s="106"/>
       <c r="J420" s="62"/>
       <c r="K420" s="62"/>
       <c r="L420" s="61"/>
@@ -12228,14 +12378,14 @@
     </row>
     <row r="421" spans="1:20" ht="18" customHeight="1">
       <c r="A421" s="61"/>
-      <c r="B421" s="106"/>
-      <c r="C421" s="107"/>
-      <c r="D421" s="107"/>
+      <c r="B421" s="105"/>
+      <c r="C421" s="106"/>
+      <c r="D421" s="106"/>
       <c r="E421" s="61"/>
       <c r="F421" s="61"/>
-      <c r="G421" s="107"/>
-      <c r="H421" s="107"/>
-      <c r="I421" s="107"/>
+      <c r="G421" s="106"/>
+      <c r="H421" s="106"/>
+      <c r="I421" s="106"/>
       <c r="J421" s="62"/>
       <c r="K421" s="62"/>
       <c r="L421" s="61"/>
@@ -12250,14 +12400,14 @@
     </row>
     <row r="422" spans="1:20" ht="18" customHeight="1">
       <c r="A422" s="61"/>
-      <c r="B422" s="106"/>
-      <c r="C422" s="107"/>
-      <c r="D422" s="107"/>
+      <c r="B422" s="105"/>
+      <c r="C422" s="106"/>
+      <c r="D422" s="106"/>
       <c r="E422" s="61"/>
       <c r="F422" s="61"/>
-      <c r="G422" s="107"/>
-      <c r="H422" s="107"/>
-      <c r="I422" s="107"/>
+      <c r="G422" s="106"/>
+      <c r="H422" s="106"/>
+      <c r="I422" s="106"/>
       <c r="J422" s="62"/>
       <c r="K422" s="62"/>
       <c r="L422" s="61"/>
@@ -12277,9 +12427,9 @@
       <c r="D423" s="61"/>
       <c r="E423" s="61"/>
       <c r="F423" s="61"/>
-      <c r="G423" s="107"/>
-      <c r="H423" s="107"/>
-      <c r="I423" s="107"/>
+      <c r="G423" s="106"/>
+      <c r="H423" s="106"/>
+      <c r="I423" s="106"/>
       <c r="J423" s="62"/>
       <c r="K423" s="45"/>
       <c r="L423" s="61"/>
@@ -12299,9 +12449,9 @@
       <c r="D424" s="61"/>
       <c r="E424" s="61"/>
       <c r="F424" s="61"/>
-      <c r="G424" s="107"/>
-      <c r="H424" s="107"/>
-      <c r="I424" s="107"/>
+      <c r="G424" s="106"/>
+      <c r="H424" s="106"/>
+      <c r="I424" s="106"/>
       <c r="J424" s="62"/>
       <c r="K424" s="45"/>
       <c r="L424" s="61"/>
@@ -12321,9 +12471,9 @@
       <c r="D425" s="61"/>
       <c r="E425" s="61"/>
       <c r="F425" s="61"/>
-      <c r="G425" s="107"/>
-      <c r="H425" s="107"/>
-      <c r="I425" s="107"/>
+      <c r="G425" s="106"/>
+      <c r="H425" s="106"/>
+      <c r="I425" s="106"/>
       <c r="J425" s="62"/>
       <c r="K425" s="45"/>
       <c r="L425" s="61"/>
@@ -12343,9 +12493,9 @@
       <c r="D426" s="61"/>
       <c r="E426" s="61"/>
       <c r="F426" s="61"/>
-      <c r="G426" s="107"/>
-      <c r="H426" s="107"/>
-      <c r="I426" s="107"/>
+      <c r="G426" s="106"/>
+      <c r="H426" s="106"/>
+      <c r="I426" s="106"/>
       <c r="J426" s="62"/>
       <c r="K426" s="45"/>
       <c r="L426" s="61"/>
@@ -12365,9 +12515,9 @@
       <c r="D427" s="61"/>
       <c r="E427" s="61"/>
       <c r="F427" s="61"/>
-      <c r="G427" s="107"/>
-      <c r="H427" s="107"/>
-      <c r="I427" s="107"/>
+      <c r="G427" s="106"/>
+      <c r="H427" s="106"/>
+      <c r="I427" s="106"/>
       <c r="J427" s="45"/>
       <c r="K427" s="45"/>
       <c r="L427" s="61"/>
@@ -12387,9 +12537,9 @@
       <c r="D428" s="61"/>
       <c r="E428" s="61"/>
       <c r="F428" s="61"/>
-      <c r="G428" s="107"/>
-      <c r="H428" s="107"/>
-      <c r="I428" s="107"/>
+      <c r="G428" s="106"/>
+      <c r="H428" s="106"/>
+      <c r="I428" s="106"/>
       <c r="J428" s="45"/>
       <c r="K428" s="45"/>
       <c r="L428" s="61"/>
@@ -12888,10 +13038,10 @@
     </row>
     <row r="451" spans="1:20" ht="15" customHeight="1">
       <c r="A451" s="45"/>
-      <c r="B451" s="104"/>
-      <c r="C451" s="105"/>
-      <c r="D451" s="105"/>
-      <c r="E451" s="105"/>
+      <c r="B451" s="103"/>
+      <c r="C451" s="104"/>
+      <c r="D451" s="104"/>
+      <c r="E451" s="104"/>
       <c r="F451" s="61"/>
       <c r="G451" s="61"/>
       <c r="H451" s="61"/>
@@ -12910,10 +13060,10 @@
     </row>
     <row r="452" spans="1:20" ht="15" customHeight="1">
       <c r="A452" s="45"/>
-      <c r="B452" s="106"/>
-      <c r="C452" s="107"/>
-      <c r="D452" s="107"/>
-      <c r="E452" s="107"/>
+      <c r="B452" s="105"/>
+      <c r="C452" s="106"/>
+      <c r="D452" s="106"/>
+      <c r="E452" s="106"/>
       <c r="F452" s="61"/>
       <c r="G452" s="61"/>
       <c r="H452" s="61"/>
@@ -12932,10 +13082,10 @@
     </row>
     <row r="453" spans="1:20" ht="15" customHeight="1">
       <c r="A453" s="45"/>
-      <c r="B453" s="106"/>
-      <c r="C453" s="107"/>
-      <c r="D453" s="107"/>
-      <c r="E453" s="107"/>
+      <c r="B453" s="105"/>
+      <c r="C453" s="106"/>
+      <c r="D453" s="106"/>
+      <c r="E453" s="106"/>
       <c r="F453" s="61"/>
       <c r="G453" s="61"/>
       <c r="H453" s="61"/>
@@ -12954,10 +13104,10 @@
     </row>
     <row r="454" spans="1:20" ht="15" customHeight="1">
       <c r="A454" s="45"/>
-      <c r="B454" s="106"/>
-      <c r="C454" s="107"/>
-      <c r="D454" s="107"/>
-      <c r="E454" s="107"/>
+      <c r="B454" s="105"/>
+      <c r="C454" s="106"/>
+      <c r="D454" s="106"/>
+      <c r="E454" s="106"/>
       <c r="F454" s="61"/>
       <c r="G454" s="61"/>
       <c r="H454" s="61"/>
@@ -12976,10 +13126,10 @@
     </row>
     <row r="455" spans="1:20" ht="15" customHeight="1">
       <c r="A455" s="45"/>
-      <c r="B455" s="106"/>
-      <c r="C455" s="107"/>
-      <c r="D455" s="107"/>
-      <c r="E455" s="107"/>
+      <c r="B455" s="105"/>
+      <c r="C455" s="106"/>
+      <c r="D455" s="106"/>
+      <c r="E455" s="106"/>
       <c r="F455" s="61"/>
       <c r="G455" s="61"/>
       <c r="H455" s="61"/>
@@ -12998,10 +13148,10 @@
     </row>
     <row r="456" spans="1:20" ht="15" customHeight="1">
       <c r="A456" s="45"/>
-      <c r="B456" s="106"/>
-      <c r="C456" s="107"/>
-      <c r="D456" s="107"/>
-      <c r="E456" s="107"/>
+      <c r="B456" s="105"/>
+      <c r="C456" s="106"/>
+      <c r="D456" s="106"/>
+      <c r="E456" s="106"/>
       <c r="F456" s="61"/>
       <c r="G456" s="61"/>
       <c r="H456" s="61"/>
@@ -13020,10 +13170,10 @@
     </row>
     <row r="457" spans="1:20" ht="15" customHeight="1">
       <c r="A457" s="45"/>
-      <c r="B457" s="106"/>
-      <c r="C457" s="107"/>
-      <c r="D457" s="107"/>
-      <c r="E457" s="107"/>
+      <c r="B457" s="105"/>
+      <c r="C457" s="106"/>
+      <c r="D457" s="106"/>
+      <c r="E457" s="106"/>
       <c r="F457" s="61"/>
       <c r="G457" s="61"/>
       <c r="H457" s="61"/>
@@ -13042,10 +13192,10 @@
     </row>
     <row r="458" spans="1:20" ht="15" customHeight="1">
       <c r="A458" s="45"/>
-      <c r="B458" s="106"/>
-      <c r="C458" s="107"/>
-      <c r="D458" s="107"/>
-      <c r="E458" s="107"/>
+      <c r="B458" s="105"/>
+      <c r="C458" s="106"/>
+      <c r="D458" s="106"/>
+      <c r="E458" s="106"/>
       <c r="F458" s="61"/>
       <c r="G458" s="61"/>
       <c r="H458" s="61"/>
@@ -13064,10 +13214,10 @@
     </row>
     <row r="459" spans="1:20" ht="15" customHeight="1">
       <c r="A459" s="45"/>
-      <c r="B459" s="106"/>
-      <c r="C459" s="107"/>
-      <c r="D459" s="107"/>
-      <c r="E459" s="107"/>
+      <c r="B459" s="105"/>
+      <c r="C459" s="106"/>
+      <c r="D459" s="106"/>
+      <c r="E459" s="106"/>
       <c r="F459" s="61"/>
       <c r="G459" s="61"/>
       <c r="H459" s="61"/>
@@ -13086,10 +13236,10 @@
     </row>
     <row r="460" spans="1:20" ht="15" customHeight="1">
       <c r="A460" s="45"/>
-      <c r="B460" s="104"/>
-      <c r="C460" s="105"/>
-      <c r="D460" s="105"/>
-      <c r="E460" s="105"/>
+      <c r="B460" s="103"/>
+      <c r="C460" s="104"/>
+      <c r="D460" s="104"/>
+      <c r="E460" s="104"/>
       <c r="F460" s="61"/>
       <c r="G460" s="61"/>
       <c r="H460" s="61"/>
@@ -13108,10 +13258,10 @@
     </row>
     <row r="461" spans="1:20" ht="15" customHeight="1">
       <c r="A461" s="45"/>
-      <c r="B461" s="106"/>
-      <c r="C461" s="107"/>
-      <c r="D461" s="107"/>
-      <c r="E461" s="107"/>
+      <c r="B461" s="105"/>
+      <c r="C461" s="106"/>
+      <c r="D461" s="106"/>
+      <c r="E461" s="106"/>
       <c r="F461" s="61"/>
       <c r="G461" s="61"/>
       <c r="H461" s="61"/>
@@ -13130,10 +13280,10 @@
     </row>
     <row r="462" spans="1:20" ht="15" customHeight="1">
       <c r="A462" s="45"/>
-      <c r="B462" s="106"/>
-      <c r="C462" s="107"/>
-      <c r="D462" s="107"/>
-      <c r="E462" s="107"/>
+      <c r="B462" s="105"/>
+      <c r="C462" s="106"/>
+      <c r="D462" s="106"/>
+      <c r="E462" s="106"/>
       <c r="F462" s="61"/>
       <c r="G462" s="61"/>
       <c r="H462" s="61"/>
@@ -13152,10 +13302,10 @@
     </row>
     <row r="463" spans="1:20" ht="15" customHeight="1">
       <c r="A463" s="45"/>
-      <c r="B463" s="106"/>
-      <c r="C463" s="107"/>
-      <c r="D463" s="107"/>
-      <c r="E463" s="107"/>
+      <c r="B463" s="105"/>
+      <c r="C463" s="106"/>
+      <c r="D463" s="106"/>
+      <c r="E463" s="106"/>
       <c r="F463" s="61"/>
       <c r="G463" s="61"/>
       <c r="H463" s="61"/>
@@ -13174,10 +13324,10 @@
     </row>
     <row r="464" spans="1:20" ht="15" customHeight="1">
       <c r="A464" s="45"/>
-      <c r="B464" s="106"/>
-      <c r="C464" s="107"/>
-      <c r="D464" s="107"/>
-      <c r="E464" s="107"/>
+      <c r="B464" s="105"/>
+      <c r="C464" s="106"/>
+      <c r="D464" s="106"/>
+      <c r="E464" s="106"/>
       <c r="F464" s="61"/>
       <c r="G464" s="61"/>
       <c r="H464" s="61"/>
@@ -13196,10 +13346,10 @@
     </row>
     <row r="465" spans="1:20" ht="15" customHeight="1">
       <c r="A465" s="45"/>
-      <c r="B465" s="106"/>
-      <c r="C465" s="107"/>
-      <c r="D465" s="107"/>
-      <c r="E465" s="107"/>
+      <c r="B465" s="105"/>
+      <c r="C465" s="106"/>
+      <c r="D465" s="106"/>
+      <c r="E465" s="106"/>
       <c r="F465" s="61"/>
       <c r="G465" s="61"/>
       <c r="H465" s="61"/>
@@ -13218,10 +13368,10 @@
     </row>
     <row r="466" spans="1:20" ht="15" customHeight="1">
       <c r="A466" s="45"/>
-      <c r="B466" s="106"/>
-      <c r="C466" s="107"/>
-      <c r="D466" s="107"/>
-      <c r="E466" s="107"/>
+      <c r="B466" s="105"/>
+      <c r="C466" s="106"/>
+      <c r="D466" s="106"/>
+      <c r="E466" s="106"/>
       <c r="F466" s="61"/>
       <c r="G466" s="61"/>
       <c r="H466" s="61"/>
@@ -13240,10 +13390,10 @@
     </row>
     <row r="467" spans="1:20" ht="15" customHeight="1">
       <c r="A467" s="45"/>
-      <c r="B467" s="106"/>
-      <c r="C467" s="107"/>
-      <c r="D467" s="107"/>
-      <c r="E467" s="107"/>
+      <c r="B467" s="105"/>
+      <c r="C467" s="106"/>
+      <c r="D467" s="106"/>
+      <c r="E467" s="106"/>
       <c r="F467" s="61"/>
       <c r="G467" s="61"/>
       <c r="H467" s="61"/>
@@ -13262,10 +13412,10 @@
     </row>
     <row r="468" spans="1:20" ht="15" customHeight="1">
       <c r="A468" s="45"/>
-      <c r="B468" s="106"/>
-      <c r="C468" s="107"/>
-      <c r="D468" s="107"/>
-      <c r="E468" s="107"/>
+      <c r="B468" s="105"/>
+      <c r="C468" s="106"/>
+      <c r="D468" s="106"/>
+      <c r="E468" s="106"/>
       <c r="F468" s="61"/>
       <c r="G468" s="61"/>
       <c r="H468" s="61"/>
@@ -13284,10 +13434,10 @@
     </row>
     <row r="469" spans="1:20" ht="15" customHeight="1">
       <c r="A469" s="45"/>
-      <c r="B469" s="104"/>
-      <c r="C469" s="105"/>
-      <c r="D469" s="105"/>
-      <c r="E469" s="105"/>
+      <c r="B469" s="103"/>
+      <c r="C469" s="104"/>
+      <c r="D469" s="104"/>
+      <c r="E469" s="104"/>
       <c r="F469" s="61"/>
       <c r="G469" s="61"/>
       <c r="H469" s="45"/>
@@ -13306,10 +13456,10 @@
     </row>
     <row r="470" spans="1:20" ht="15" customHeight="1">
       <c r="A470" s="45"/>
-      <c r="B470" s="106"/>
-      <c r="C470" s="107"/>
-      <c r="D470" s="107"/>
-      <c r="E470" s="107"/>
+      <c r="B470" s="105"/>
+      <c r="C470" s="106"/>
+      <c r="D470" s="106"/>
+      <c r="E470" s="106"/>
       <c r="F470" s="61"/>
       <c r="G470" s="61"/>
       <c r="H470" s="45"/>
@@ -13328,10 +13478,10 @@
     </row>
     <row r="471" spans="1:20" ht="15" customHeight="1">
       <c r="A471" s="45"/>
-      <c r="B471" s="106"/>
-      <c r="C471" s="107"/>
-      <c r="D471" s="107"/>
-      <c r="E471" s="107"/>
+      <c r="B471" s="105"/>
+      <c r="C471" s="106"/>
+      <c r="D471" s="106"/>
+      <c r="E471" s="106"/>
       <c r="F471" s="61"/>
       <c r="G471" s="61"/>
       <c r="H471" s="45"/>
@@ -13350,10 +13500,10 @@
     </row>
     <row r="472" spans="1:20" ht="15" customHeight="1">
       <c r="A472" s="45"/>
-      <c r="B472" s="106"/>
-      <c r="C472" s="107"/>
-      <c r="D472" s="107"/>
-      <c r="E472" s="107"/>
+      <c r="B472" s="105"/>
+      <c r="C472" s="106"/>
+      <c r="D472" s="106"/>
+      <c r="E472" s="106"/>
       <c r="F472" s="61"/>
       <c r="G472" s="61"/>
       <c r="H472" s="45"/>
@@ -13372,10 +13522,10 @@
     </row>
     <row r="473" spans="1:20" ht="15" customHeight="1">
       <c r="A473" s="45"/>
-      <c r="B473" s="106"/>
-      <c r="C473" s="107"/>
-      <c r="D473" s="107"/>
-      <c r="E473" s="107"/>
+      <c r="B473" s="105"/>
+      <c r="C473" s="106"/>
+      <c r="D473" s="106"/>
+      <c r="E473" s="106"/>
       <c r="F473" s="61"/>
       <c r="G473" s="61"/>
       <c r="H473" s="45"/>
@@ -13394,10 +13544,10 @@
     </row>
     <row r="474" spans="1:20" ht="15" customHeight="1">
       <c r="A474" s="45"/>
-      <c r="B474" s="104"/>
-      <c r="C474" s="105"/>
-      <c r="D474" s="105"/>
-      <c r="E474" s="105"/>
+      <c r="B474" s="103"/>
+      <c r="C474" s="104"/>
+      <c r="D474" s="104"/>
+      <c r="E474" s="104"/>
       <c r="F474" s="61"/>
       <c r="G474" s="61"/>
       <c r="H474" s="45"/>
@@ -13416,10 +13566,10 @@
     </row>
     <row r="475" spans="1:20" ht="15" customHeight="1">
       <c r="A475" s="45"/>
-      <c r="B475" s="106"/>
-      <c r="C475" s="107"/>
-      <c r="D475" s="107"/>
-      <c r="E475" s="107"/>
+      <c r="B475" s="105"/>
+      <c r="C475" s="106"/>
+      <c r="D475" s="106"/>
+      <c r="E475" s="106"/>
       <c r="F475" s="61"/>
       <c r="G475" s="61"/>
       <c r="H475" s="45"/>
@@ -13438,10 +13588,10 @@
     </row>
     <row r="476" spans="1:20" ht="15" customHeight="1">
       <c r="A476" s="45"/>
-      <c r="B476" s="106"/>
-      <c r="C476" s="107"/>
-      <c r="D476" s="107"/>
-      <c r="E476" s="107"/>
+      <c r="B476" s="105"/>
+      <c r="C476" s="106"/>
+      <c r="D476" s="106"/>
+      <c r="E476" s="106"/>
       <c r="F476" s="61"/>
       <c r="G476" s="61"/>
       <c r="H476" s="45"/>
@@ -13460,10 +13610,10 @@
     </row>
     <row r="477" spans="1:20" ht="15" customHeight="1">
       <c r="A477" s="45"/>
-      <c r="B477" s="106"/>
-      <c r="C477" s="107"/>
-      <c r="D477" s="107"/>
-      <c r="E477" s="107"/>
+      <c r="B477" s="105"/>
+      <c r="C477" s="106"/>
+      <c r="D477" s="106"/>
+      <c r="E477" s="106"/>
       <c r="F477" s="61"/>
       <c r="G477" s="61"/>
       <c r="H477" s="45"/>
@@ -13482,10 +13632,10 @@
     </row>
     <row r="478" spans="1:20" ht="15" customHeight="1">
       <c r="A478" s="45"/>
-      <c r="B478" s="106"/>
-      <c r="C478" s="107"/>
-      <c r="D478" s="107"/>
-      <c r="E478" s="107"/>
+      <c r="B478" s="105"/>
+      <c r="C478" s="106"/>
+      <c r="D478" s="106"/>
+      <c r="E478" s="106"/>
       <c r="F478" s="61"/>
       <c r="G478" s="61"/>
       <c r="H478" s="45"/>
@@ -13504,10 +13654,10 @@
     </row>
     <row r="479" spans="1:20" ht="15" customHeight="1">
       <c r="A479" s="45"/>
-      <c r="B479" s="104"/>
-      <c r="C479" s="105"/>
-      <c r="D479" s="105"/>
-      <c r="E479" s="105"/>
+      <c r="B479" s="103"/>
+      <c r="C479" s="104"/>
+      <c r="D479" s="104"/>
+      <c r="E479" s="104"/>
       <c r="F479" s="61"/>
       <c r="G479" s="61"/>
       <c r="H479" s="45"/>
@@ -13526,10 +13676,10 @@
     </row>
     <row r="480" spans="1:20" ht="15" customHeight="1">
       <c r="A480" s="45"/>
-      <c r="B480" s="106"/>
-      <c r="C480" s="107"/>
-      <c r="D480" s="107"/>
-      <c r="E480" s="107"/>
+      <c r="B480" s="105"/>
+      <c r="C480" s="106"/>
+      <c r="D480" s="106"/>
+      <c r="E480" s="106"/>
       <c r="F480" s="61"/>
       <c r="G480" s="61"/>
       <c r="H480" s="45"/>
@@ -13548,10 +13698,10 @@
     </row>
     <row r="481" spans="1:20" ht="15" customHeight="1">
       <c r="A481" s="45"/>
-      <c r="B481" s="106"/>
-      <c r="C481" s="107"/>
-      <c r="D481" s="107"/>
-      <c r="E481" s="107"/>
+      <c r="B481" s="105"/>
+      <c r="C481" s="106"/>
+      <c r="D481" s="106"/>
+      <c r="E481" s="106"/>
       <c r="F481" s="61"/>
       <c r="G481" s="61"/>
       <c r="H481" s="45"/>
@@ -13570,10 +13720,10 @@
     </row>
     <row r="482" spans="1:20" ht="15" customHeight="1">
       <c r="A482" s="45"/>
-      <c r="B482" s="106"/>
-      <c r="C482" s="107"/>
-      <c r="D482" s="107"/>
-      <c r="E482" s="107"/>
+      <c r="B482" s="105"/>
+      <c r="C482" s="106"/>
+      <c r="D482" s="106"/>
+      <c r="E482" s="106"/>
       <c r="F482" s="61"/>
       <c r="G482" s="61"/>
       <c r="H482" s="45"/>
@@ -13592,10 +13742,10 @@
     </row>
     <row r="483" spans="1:20" ht="15" customHeight="1">
       <c r="A483" s="45"/>
-      <c r="B483" s="106"/>
-      <c r="C483" s="107"/>
-      <c r="D483" s="107"/>
-      <c r="E483" s="107"/>
+      <c r="B483" s="105"/>
+      <c r="C483" s="106"/>
+      <c r="D483" s="106"/>
+      <c r="E483" s="106"/>
       <c r="F483" s="61"/>
       <c r="G483" s="61"/>
       <c r="H483" s="45"/>
@@ -13614,10 +13764,10 @@
     </row>
     <row r="484" spans="1:20" ht="15" customHeight="1">
       <c r="A484" s="45"/>
-      <c r="B484" s="106"/>
-      <c r="C484" s="107"/>
-      <c r="D484" s="107"/>
-      <c r="E484" s="107"/>
+      <c r="B484" s="105"/>
+      <c r="C484" s="106"/>
+      <c r="D484" s="106"/>
+      <c r="E484" s="106"/>
       <c r="F484" s="61"/>
       <c r="G484" s="61"/>
       <c r="H484" s="45"/>
@@ -13636,10 +13786,10 @@
     </row>
     <row r="485" spans="1:20" ht="15" customHeight="1">
       <c r="A485" s="45"/>
-      <c r="B485" s="106"/>
-      <c r="C485" s="107"/>
-      <c r="D485" s="107"/>
-      <c r="E485" s="107"/>
+      <c r="B485" s="105"/>
+      <c r="C485" s="106"/>
+      <c r="D485" s="106"/>
+      <c r="E485" s="106"/>
       <c r="F485" s="61"/>
       <c r="G485" s="61"/>
       <c r="H485" s="45"/>
@@ -13658,10 +13808,10 @@
     </row>
     <row r="486" spans="1:20" ht="15" customHeight="1">
       <c r="A486" s="45"/>
-      <c r="B486" s="106"/>
-      <c r="C486" s="107"/>
-      <c r="D486" s="107"/>
-      <c r="E486" s="107"/>
+      <c r="B486" s="105"/>
+      <c r="C486" s="106"/>
+      <c r="D486" s="106"/>
+      <c r="E486" s="106"/>
       <c r="F486" s="61"/>
       <c r="G486" s="61"/>
       <c r="H486" s="45"/>
@@ -13680,10 +13830,10 @@
     </row>
     <row r="487" spans="1:20" ht="15" customHeight="1">
       <c r="A487" s="45"/>
-      <c r="B487" s="106"/>
-      <c r="C487" s="107"/>
-      <c r="D487" s="107"/>
-      <c r="E487" s="107"/>
+      <c r="B487" s="105"/>
+      <c r="C487" s="106"/>
+      <c r="D487" s="106"/>
+      <c r="E487" s="106"/>
       <c r="F487" s="61"/>
       <c r="G487" s="61"/>
       <c r="H487" s="45"/>
@@ -14009,20 +14159,20 @@
       <c r="T501" s="37"/>
     </row>
     <row r="502" spans="1:20" ht="15" customHeight="1">
-      <c r="A502" s="104"/>
-      <c r="B502" s="105"/>
-      <c r="C502" s="105"/>
-      <c r="D502" s="105"/>
-      <c r="E502" s="105"/>
-      <c r="F502" s="105"/>
-      <c r="G502" s="108"/>
-      <c r="H502" s="105"/>
-      <c r="I502" s="105"/>
+      <c r="A502" s="103"/>
+      <c r="B502" s="104"/>
+      <c r="C502" s="104"/>
+      <c r="D502" s="104"/>
+      <c r="E502" s="104"/>
+      <c r="F502" s="104"/>
+      <c r="G502" s="107"/>
+      <c r="H502" s="104"/>
+      <c r="I502" s="104"/>
       <c r="J502" s="45"/>
-      <c r="K502" s="105"/>
-      <c r="L502" s="105"/>
-      <c r="M502" s="105"/>
-      <c r="N502" s="105"/>
+      <c r="K502" s="104"/>
+      <c r="L502" s="104"/>
+      <c r="M502" s="104"/>
+      <c r="N502" s="104"/>
       <c r="O502" s="45"/>
       <c r="P502" s="45"/>
       <c r="Q502" s="45"/>
@@ -14031,20 +14181,20 @@
       <c r="T502" s="37"/>
     </row>
     <row r="503" spans="1:20" ht="15" customHeight="1">
-      <c r="A503" s="106"/>
-      <c r="B503" s="107"/>
-      <c r="C503" s="107"/>
-      <c r="D503" s="107"/>
-      <c r="E503" s="107"/>
-      <c r="F503" s="105"/>
-      <c r="G503" s="109"/>
-      <c r="H503" s="107"/>
-      <c r="I503" s="107"/>
+      <c r="A503" s="105"/>
+      <c r="B503" s="106"/>
+      <c r="C503" s="106"/>
+      <c r="D503" s="106"/>
+      <c r="E503" s="106"/>
+      <c r="F503" s="104"/>
+      <c r="G503" s="108"/>
+      <c r="H503" s="106"/>
+      <c r="I503" s="106"/>
       <c r="J503" s="45"/>
-      <c r="K503" s="107"/>
-      <c r="L503" s="105"/>
-      <c r="M503" s="105"/>
-      <c r="N503" s="107"/>
+      <c r="K503" s="106"/>
+      <c r="L503" s="104"/>
+      <c r="M503" s="104"/>
+      <c r="N503" s="106"/>
       <c r="O503" s="45"/>
       <c r="P503" s="45"/>
       <c r="Q503" s="45"/>
@@ -14053,20 +14203,20 @@
       <c r="T503" s="37"/>
     </row>
     <row r="504" spans="1:20" ht="15" customHeight="1">
-      <c r="A504" s="106"/>
-      <c r="B504" s="107"/>
-      <c r="C504" s="107"/>
-      <c r="D504" s="107"/>
-      <c r="E504" s="107"/>
-      <c r="F504" s="105"/>
-      <c r="G504" s="109"/>
-      <c r="H504" s="107"/>
-      <c r="I504" s="107"/>
+      <c r="A504" s="105"/>
+      <c r="B504" s="106"/>
+      <c r="C504" s="106"/>
+      <c r="D504" s="106"/>
+      <c r="E504" s="106"/>
+      <c r="F504" s="104"/>
+      <c r="G504" s="108"/>
+      <c r="H504" s="106"/>
+      <c r="I504" s="106"/>
       <c r="J504" s="45"/>
-      <c r="K504" s="110"/>
-      <c r="L504" s="105"/>
-      <c r="M504" s="105"/>
-      <c r="N504" s="107"/>
+      <c r="K504" s="109"/>
+      <c r="L504" s="104"/>
+      <c r="M504" s="104"/>
+      <c r="N504" s="106"/>
       <c r="O504" s="45"/>
       <c r="P504" s="45"/>
       <c r="Q504" s="45"/>
@@ -14075,20 +14225,20 @@
       <c r="T504" s="37"/>
     </row>
     <row r="505" spans="1:20" ht="15" customHeight="1">
-      <c r="A505" s="106"/>
-      <c r="B505" s="107"/>
-      <c r="C505" s="107"/>
-      <c r="D505" s="107"/>
-      <c r="E505" s="107"/>
-      <c r="F505" s="105"/>
-      <c r="G505" s="109"/>
-      <c r="H505" s="107"/>
-      <c r="I505" s="107"/>
+      <c r="A505" s="105"/>
+      <c r="B505" s="106"/>
+      <c r="C505" s="106"/>
+      <c r="D505" s="106"/>
+      <c r="E505" s="106"/>
+      <c r="F505" s="104"/>
+      <c r="G505" s="108"/>
+      <c r="H505" s="106"/>
+      <c r="I505" s="106"/>
       <c r="J505" s="45"/>
-      <c r="K505" s="110"/>
-      <c r="L505" s="105"/>
-      <c r="M505" s="105"/>
-      <c r="N505" s="107"/>
+      <c r="K505" s="109"/>
+      <c r="L505" s="104"/>
+      <c r="M505" s="104"/>
+      <c r="N505" s="106"/>
       <c r="O505" s="45"/>
       <c r="P505" s="45"/>
       <c r="Q505" s="45"/>
@@ -14097,20 +14247,20 @@
       <c r="T505" s="37"/>
     </row>
     <row r="506" spans="1:20" ht="15" customHeight="1">
-      <c r="A506" s="106"/>
-      <c r="B506" s="107"/>
-      <c r="C506" s="107"/>
-      <c r="D506" s="107"/>
-      <c r="E506" s="107"/>
-      <c r="F506" s="105"/>
-      <c r="G506" s="109"/>
-      <c r="H506" s="107"/>
-      <c r="I506" s="107"/>
+      <c r="A506" s="105"/>
+      <c r="B506" s="106"/>
+      <c r="C506" s="106"/>
+      <c r="D506" s="106"/>
+      <c r="E506" s="106"/>
+      <c r="F506" s="104"/>
+      <c r="G506" s="108"/>
+      <c r="H506" s="106"/>
+      <c r="I506" s="106"/>
       <c r="J506" s="45"/>
-      <c r="K506" s="110"/>
-      <c r="L506" s="105"/>
-      <c r="M506" s="105"/>
-      <c r="N506" s="107"/>
+      <c r="K506" s="109"/>
+      <c r="L506" s="104"/>
+      <c r="M506" s="104"/>
+      <c r="N506" s="106"/>
       <c r="O506" s="45"/>
       <c r="P506" s="45"/>
       <c r="Q506" s="45"/>
@@ -14119,20 +14269,20 @@
       <c r="T506" s="37"/>
     </row>
     <row r="507" spans="1:20" ht="15" customHeight="1">
-      <c r="A507" s="106"/>
-      <c r="B507" s="107"/>
-      <c r="C507" s="107"/>
-      <c r="D507" s="107"/>
-      <c r="E507" s="107"/>
-      <c r="F507" s="105"/>
-      <c r="G507" s="109"/>
-      <c r="H507" s="107"/>
-      <c r="I507" s="107"/>
+      <c r="A507" s="105"/>
+      <c r="B507" s="106"/>
+      <c r="C507" s="106"/>
+      <c r="D507" s="106"/>
+      <c r="E507" s="106"/>
+      <c r="F507" s="104"/>
+      <c r="G507" s="108"/>
+      <c r="H507" s="106"/>
+      <c r="I507" s="106"/>
       <c r="J507" s="45"/>
-      <c r="K507" s="110"/>
-      <c r="L507" s="105"/>
-      <c r="M507" s="105"/>
-      <c r="N507" s="107"/>
+      <c r="K507" s="109"/>
+      <c r="L507" s="104"/>
+      <c r="M507" s="104"/>
+      <c r="N507" s="106"/>
       <c r="O507" s="45"/>
       <c r="P507" s="45"/>
       <c r="Q507" s="45"/>
@@ -14141,20 +14291,20 @@
       <c r="T507" s="37"/>
     </row>
     <row r="508" spans="1:20" ht="15" customHeight="1">
-      <c r="A508" s="106"/>
-      <c r="B508" s="107"/>
-      <c r="C508" s="107"/>
-      <c r="D508" s="107"/>
-      <c r="E508" s="107"/>
-      <c r="F508" s="105"/>
-      <c r="G508" s="109"/>
-      <c r="H508" s="107"/>
-      <c r="I508" s="107"/>
+      <c r="A508" s="105"/>
+      <c r="B508" s="106"/>
+      <c r="C508" s="106"/>
+      <c r="D508" s="106"/>
+      <c r="E508" s="106"/>
+      <c r="F508" s="104"/>
+      <c r="G508" s="108"/>
+      <c r="H508" s="106"/>
+      <c r="I508" s="106"/>
       <c r="J508" s="45"/>
-      <c r="K508" s="110"/>
-      <c r="L508" s="105"/>
-      <c r="M508" s="105"/>
-      <c r="N508" s="107"/>
+      <c r="K508" s="109"/>
+      <c r="L508" s="104"/>
+      <c r="M508" s="104"/>
+      <c r="N508" s="106"/>
       <c r="O508" s="45"/>
       <c r="P508" s="45"/>
       <c r="Q508" s="45"/>
@@ -14163,20 +14313,20 @@
       <c r="T508" s="37"/>
     </row>
     <row r="509" spans="1:20" ht="15" customHeight="1">
-      <c r="A509" s="106"/>
-      <c r="B509" s="107"/>
-      <c r="C509" s="107"/>
-      <c r="D509" s="107"/>
-      <c r="E509" s="107"/>
-      <c r="F509" s="105"/>
-      <c r="G509" s="109"/>
-      <c r="H509" s="107"/>
-      <c r="I509" s="107"/>
+      <c r="A509" s="105"/>
+      <c r="B509" s="106"/>
+      <c r="C509" s="106"/>
+      <c r="D509" s="106"/>
+      <c r="E509" s="106"/>
+      <c r="F509" s="104"/>
+      <c r="G509" s="108"/>
+      <c r="H509" s="106"/>
+      <c r="I509" s="106"/>
       <c r="J509" s="45"/>
-      <c r="K509" s="110"/>
-      <c r="L509" s="105"/>
-      <c r="M509" s="105"/>
-      <c r="N509" s="107"/>
+      <c r="K509" s="109"/>
+      <c r="L509" s="104"/>
+      <c r="M509" s="104"/>
+      <c r="N509" s="106"/>
       <c r="O509" s="45"/>
       <c r="P509" s="45"/>
       <c r="Q509" s="45"/>
@@ -14185,20 +14335,20 @@
       <c r="T509" s="37"/>
     </row>
     <row r="510" spans="1:20" ht="15" customHeight="1">
-      <c r="A510" s="106"/>
-      <c r="B510" s="107"/>
-      <c r="C510" s="107"/>
-      <c r="D510" s="107"/>
-      <c r="E510" s="107"/>
-      <c r="F510" s="105"/>
-      <c r="G510" s="109"/>
-      <c r="H510" s="107"/>
-      <c r="I510" s="107"/>
+      <c r="A510" s="105"/>
+      <c r="B510" s="106"/>
+      <c r="C510" s="106"/>
+      <c r="D510" s="106"/>
+      <c r="E510" s="106"/>
+      <c r="F510" s="104"/>
+      <c r="G510" s="108"/>
+      <c r="H510" s="106"/>
+      <c r="I510" s="106"/>
       <c r="J510" s="45"/>
-      <c r="K510" s="110"/>
-      <c r="L510" s="105"/>
-      <c r="M510" s="105"/>
-      <c r="N510" s="107"/>
+      <c r="K510" s="109"/>
+      <c r="L510" s="104"/>
+      <c r="M510" s="104"/>
+      <c r="N510" s="106"/>
       <c r="O510" s="45"/>
       <c r="P510" s="45"/>
       <c r="Q510" s="45"/>
@@ -14207,20 +14357,20 @@
       <c r="T510" s="37"/>
     </row>
     <row r="511" spans="1:20" ht="15" customHeight="1">
-      <c r="A511" s="106"/>
-      <c r="B511" s="107"/>
-      <c r="C511" s="107"/>
-      <c r="D511" s="107"/>
-      <c r="E511" s="107"/>
-      <c r="F511" s="105"/>
-      <c r="G511" s="109"/>
-      <c r="H511" s="107"/>
-      <c r="I511" s="107"/>
+      <c r="A511" s="105"/>
+      <c r="B511" s="106"/>
+      <c r="C511" s="106"/>
+      <c r="D511" s="106"/>
+      <c r="E511" s="106"/>
+      <c r="F511" s="104"/>
+      <c r="G511" s="108"/>
+      <c r="H511" s="106"/>
+      <c r="I511" s="106"/>
       <c r="J511" s="45"/>
-      <c r="K511" s="110"/>
-      <c r="L511" s="105"/>
-      <c r="M511" s="105"/>
-      <c r="N511" s="107"/>
+      <c r="K511" s="109"/>
+      <c r="L511" s="104"/>
+      <c r="M511" s="104"/>
+      <c r="N511" s="106"/>
       <c r="O511" s="45"/>
       <c r="P511" s="45"/>
       <c r="Q511" s="45"/>
@@ -14229,20 +14379,20 @@
       <c r="T511" s="37"/>
     </row>
     <row r="512" spans="1:20" ht="15" customHeight="1">
-      <c r="A512" s="106"/>
-      <c r="B512" s="107"/>
-      <c r="C512" s="107"/>
-      <c r="D512" s="107"/>
-      <c r="E512" s="107"/>
-      <c r="F512" s="105"/>
-      <c r="G512" s="109"/>
-      <c r="H512" s="107"/>
-      <c r="I512" s="107"/>
+      <c r="A512" s="105"/>
+      <c r="B512" s="106"/>
+      <c r="C512" s="106"/>
+      <c r="D512" s="106"/>
+      <c r="E512" s="106"/>
+      <c r="F512" s="104"/>
+      <c r="G512" s="108"/>
+      <c r="H512" s="106"/>
+      <c r="I512" s="106"/>
       <c r="J512" s="45"/>
-      <c r="K512" s="110"/>
-      <c r="L512" s="105"/>
-      <c r="M512" s="105"/>
-      <c r="N512" s="107"/>
+      <c r="K512" s="109"/>
+      <c r="L512" s="104"/>
+      <c r="M512" s="104"/>
+      <c r="N512" s="106"/>
       <c r="O512" s="45"/>
       <c r="P512" s="45"/>
       <c r="Q512" s="45"/>
@@ -14251,20 +14401,20 @@
       <c r="T512" s="37"/>
     </row>
     <row r="513" spans="1:20" ht="15" customHeight="1">
-      <c r="A513" s="106"/>
-      <c r="B513" s="107"/>
-      <c r="C513" s="107"/>
-      <c r="D513" s="107"/>
-      <c r="E513" s="107"/>
-      <c r="F513" s="105"/>
-      <c r="G513" s="109"/>
-      <c r="H513" s="107"/>
-      <c r="I513" s="107"/>
+      <c r="A513" s="105"/>
+      <c r="B513" s="106"/>
+      <c r="C513" s="106"/>
+      <c r="D513" s="106"/>
+      <c r="E513" s="106"/>
+      <c r="F513" s="104"/>
+      <c r="G513" s="108"/>
+      <c r="H513" s="106"/>
+      <c r="I513" s="106"/>
       <c r="J513" s="45"/>
-      <c r="K513" s="110"/>
-      <c r="L513" s="105"/>
-      <c r="M513" s="105"/>
-      <c r="N513" s="107"/>
+      <c r="K513" s="109"/>
+      <c r="L513" s="104"/>
+      <c r="M513" s="104"/>
+      <c r="N513" s="106"/>
       <c r="O513" s="45"/>
       <c r="P513" s="45"/>
       <c r="Q513" s="45"/>
@@ -14273,20 +14423,20 @@
       <c r="T513" s="37"/>
     </row>
     <row r="514" spans="1:20" ht="15" customHeight="1">
-      <c r="A514" s="106"/>
-      <c r="B514" s="107"/>
-      <c r="C514" s="107"/>
-      <c r="D514" s="107"/>
-      <c r="E514" s="107"/>
-      <c r="F514" s="105"/>
-      <c r="G514" s="109"/>
-      <c r="H514" s="107"/>
-      <c r="I514" s="107"/>
+      <c r="A514" s="105"/>
+      <c r="B514" s="106"/>
+      <c r="C514" s="106"/>
+      <c r="D514" s="106"/>
+      <c r="E514" s="106"/>
+      <c r="F514" s="104"/>
+      <c r="G514" s="108"/>
+      <c r="H514" s="106"/>
+      <c r="I514" s="106"/>
       <c r="J514" s="45"/>
-      <c r="K514" s="110"/>
-      <c r="L514" s="105"/>
-      <c r="M514" s="105"/>
-      <c r="N514" s="107"/>
+      <c r="K514" s="109"/>
+      <c r="L514" s="104"/>
+      <c r="M514" s="104"/>
+      <c r="N514" s="106"/>
       <c r="O514" s="45"/>
       <c r="P514" s="45"/>
       <c r="Q514" s="45"/>
@@ -14295,20 +14445,20 @@
       <c r="T514" s="37"/>
     </row>
     <row r="515" spans="1:20" ht="15" customHeight="1">
-      <c r="A515" s="106"/>
-      <c r="B515" s="107"/>
-      <c r="C515" s="107"/>
-      <c r="D515" s="107"/>
-      <c r="E515" s="107"/>
-      <c r="F515" s="105"/>
-      <c r="G515" s="109"/>
-      <c r="H515" s="107"/>
-      <c r="I515" s="107"/>
+      <c r="A515" s="105"/>
+      <c r="B515" s="106"/>
+      <c r="C515" s="106"/>
+      <c r="D515" s="106"/>
+      <c r="E515" s="106"/>
+      <c r="F515" s="104"/>
+      <c r="G515" s="108"/>
+      <c r="H515" s="106"/>
+      <c r="I515" s="106"/>
       <c r="J515" s="45"/>
-      <c r="K515" s="110"/>
-      <c r="L515" s="105"/>
-      <c r="M515" s="105"/>
-      <c r="N515" s="107"/>
+      <c r="K515" s="109"/>
+      <c r="L515" s="104"/>
+      <c r="M515" s="104"/>
+      <c r="N515" s="106"/>
       <c r="O515" s="45"/>
       <c r="P515" s="45"/>
       <c r="Q515" s="45"/>
@@ -14317,20 +14467,20 @@
       <c r="T515" s="37"/>
     </row>
     <row r="516" spans="1:20" ht="15" customHeight="1">
-      <c r="A516" s="106"/>
-      <c r="B516" s="107"/>
-      <c r="C516" s="107"/>
-      <c r="D516" s="107"/>
-      <c r="E516" s="107"/>
-      <c r="F516" s="105"/>
-      <c r="G516" s="109"/>
-      <c r="H516" s="107"/>
-      <c r="I516" s="107"/>
+      <c r="A516" s="105"/>
+      <c r="B516" s="106"/>
+      <c r="C516" s="106"/>
+      <c r="D516" s="106"/>
+      <c r="E516" s="106"/>
+      <c r="F516" s="104"/>
+      <c r="G516" s="108"/>
+      <c r="H516" s="106"/>
+      <c r="I516" s="106"/>
       <c r="J516" s="45"/>
-      <c r="K516" s="110"/>
-      <c r="L516" s="105"/>
-      <c r="M516" s="105"/>
-      <c r="N516" s="107"/>
+      <c r="K516" s="109"/>
+      <c r="L516" s="104"/>
+      <c r="M516" s="104"/>
+      <c r="N516" s="106"/>
       <c r="O516" s="45"/>
       <c r="P516" s="45"/>
       <c r="Q516" s="45"/>
@@ -14339,20 +14489,20 @@
       <c r="T516" s="37"/>
     </row>
     <row r="517" spans="1:20" ht="15" customHeight="1">
-      <c r="A517" s="106"/>
-      <c r="B517" s="107"/>
-      <c r="C517" s="107"/>
-      <c r="D517" s="107"/>
-      <c r="E517" s="107"/>
-      <c r="F517" s="105"/>
-      <c r="G517" s="109"/>
-      <c r="H517" s="107"/>
-      <c r="I517" s="107"/>
+      <c r="A517" s="105"/>
+      <c r="B517" s="106"/>
+      <c r="C517" s="106"/>
+      <c r="D517" s="106"/>
+      <c r="E517" s="106"/>
+      <c r="F517" s="104"/>
+      <c r="G517" s="108"/>
+      <c r="H517" s="106"/>
+      <c r="I517" s="106"/>
       <c r="J517" s="45"/>
-      <c r="K517" s="110"/>
-      <c r="L517" s="105"/>
-      <c r="M517" s="105"/>
-      <c r="N517" s="107"/>
+      <c r="K517" s="109"/>
+      <c r="L517" s="104"/>
+      <c r="M517" s="104"/>
+      <c r="N517" s="106"/>
       <c r="O517" s="45"/>
       <c r="P517" s="45"/>
       <c r="Q517" s="45"/>
@@ -14361,20 +14511,20 @@
       <c r="T517" s="37"/>
     </row>
     <row r="518" spans="1:20" ht="15" customHeight="1">
-      <c r="A518" s="106"/>
-      <c r="B518" s="107"/>
-      <c r="C518" s="107"/>
-      <c r="D518" s="107"/>
-      <c r="E518" s="107"/>
-      <c r="F518" s="105"/>
-      <c r="G518" s="109"/>
-      <c r="H518" s="107"/>
-      <c r="I518" s="107"/>
+      <c r="A518" s="105"/>
+      <c r="B518" s="106"/>
+      <c r="C518" s="106"/>
+      <c r="D518" s="106"/>
+      <c r="E518" s="106"/>
+      <c r="F518" s="104"/>
+      <c r="G518" s="108"/>
+      <c r="H518" s="106"/>
+      <c r="I518" s="106"/>
       <c r="J518" s="45"/>
-      <c r="K518" s="110"/>
-      <c r="L518" s="105"/>
-      <c r="M518" s="105"/>
-      <c r="N518" s="107"/>
+      <c r="K518" s="109"/>
+      <c r="L518" s="104"/>
+      <c r="M518" s="104"/>
+      <c r="N518" s="106"/>
       <c r="O518" s="45"/>
       <c r="P518" s="45"/>
       <c r="Q518" s="45"/>
@@ -14383,20 +14533,20 @@
       <c r="T518" s="37"/>
     </row>
     <row r="519" spans="1:20" ht="15" customHeight="1">
-      <c r="A519" s="106"/>
-      <c r="B519" s="107"/>
-      <c r="C519" s="107"/>
-      <c r="D519" s="107"/>
-      <c r="E519" s="107"/>
-      <c r="F519" s="105"/>
-      <c r="G519" s="109"/>
-      <c r="H519" s="107"/>
-      <c r="I519" s="107"/>
+      <c r="A519" s="105"/>
+      <c r="B519" s="106"/>
+      <c r="C519" s="106"/>
+      <c r="D519" s="106"/>
+      <c r="E519" s="106"/>
+      <c r="F519" s="104"/>
+      <c r="G519" s="108"/>
+      <c r="H519" s="106"/>
+      <c r="I519" s="106"/>
       <c r="J519" s="45"/>
-      <c r="K519" s="110"/>
-      <c r="L519" s="105"/>
-      <c r="M519" s="105"/>
-      <c r="N519" s="107"/>
+      <c r="K519" s="109"/>
+      <c r="L519" s="104"/>
+      <c r="M519" s="104"/>
+      <c r="N519" s="106"/>
       <c r="O519" s="45"/>
       <c r="P519" s="45"/>
       <c r="Q519" s="45"/>
@@ -14405,20 +14555,20 @@
       <c r="T519" s="37"/>
     </row>
     <row r="520" spans="1:20" ht="15" customHeight="1">
-      <c r="A520" s="106"/>
-      <c r="B520" s="107"/>
-      <c r="C520" s="107"/>
-      <c r="D520" s="107"/>
-      <c r="E520" s="107"/>
-      <c r="F520" s="105"/>
-      <c r="G520" s="109"/>
-      <c r="H520" s="107"/>
-      <c r="I520" s="107"/>
+      <c r="A520" s="105"/>
+      <c r="B520" s="106"/>
+      <c r="C520" s="106"/>
+      <c r="D520" s="106"/>
+      <c r="E520" s="106"/>
+      <c r="F520" s="104"/>
+      <c r="G520" s="108"/>
+      <c r="H520" s="106"/>
+      <c r="I520" s="106"/>
       <c r="J520" s="45"/>
-      <c r="K520" s="110"/>
-      <c r="L520" s="105"/>
-      <c r="M520" s="105"/>
-      <c r="N520" s="107"/>
+      <c r="K520" s="109"/>
+      <c r="L520" s="104"/>
+      <c r="M520" s="104"/>
+      <c r="N520" s="106"/>
       <c r="O520" s="45"/>
       <c r="P520" s="45"/>
       <c r="Q520" s="45"/>
@@ -14427,20 +14577,20 @@
       <c r="T520" s="37"/>
     </row>
     <row r="521" spans="1:20" ht="15" customHeight="1">
-      <c r="A521" s="106"/>
-      <c r="B521" s="107"/>
-      <c r="C521" s="107"/>
-      <c r="D521" s="107"/>
-      <c r="E521" s="107"/>
-      <c r="F521" s="105"/>
-      <c r="G521" s="109"/>
-      <c r="H521" s="107"/>
-      <c r="I521" s="107"/>
+      <c r="A521" s="105"/>
+      <c r="B521" s="106"/>
+      <c r="C521" s="106"/>
+      <c r="D521" s="106"/>
+      <c r="E521" s="106"/>
+      <c r="F521" s="104"/>
+      <c r="G521" s="108"/>
+      <c r="H521" s="106"/>
+      <c r="I521" s="106"/>
       <c r="J521" s="45"/>
-      <c r="K521" s="110"/>
-      <c r="L521" s="105"/>
-      <c r="M521" s="105"/>
-      <c r="N521" s="107"/>
+      <c r="K521" s="109"/>
+      <c r="L521" s="104"/>
+      <c r="M521" s="104"/>
+      <c r="N521" s="106"/>
       <c r="O521" s="45"/>
       <c r="P521" s="45"/>
       <c r="Q521" s="45"/>
@@ -14449,20 +14599,20 @@
       <c r="T521" s="37"/>
     </row>
     <row r="522" spans="1:20" ht="15" customHeight="1">
-      <c r="A522" s="106"/>
-      <c r="B522" s="107"/>
-      <c r="C522" s="107"/>
-      <c r="D522" s="107"/>
-      <c r="E522" s="107"/>
-      <c r="F522" s="105"/>
-      <c r="G522" s="109"/>
-      <c r="H522" s="107"/>
-      <c r="I522" s="107"/>
+      <c r="A522" s="105"/>
+      <c r="B522" s="106"/>
+      <c r="C522" s="106"/>
+      <c r="D522" s="106"/>
+      <c r="E522" s="106"/>
+      <c r="F522" s="104"/>
+      <c r="G522" s="108"/>
+      <c r="H522" s="106"/>
+      <c r="I522" s="106"/>
       <c r="J522" s="45"/>
-      <c r="K522" s="110"/>
-      <c r="L522" s="105"/>
-      <c r="M522" s="105"/>
-      <c r="N522" s="107"/>
+      <c r="K522" s="109"/>
+      <c r="L522" s="104"/>
+      <c r="M522" s="104"/>
+      <c r="N522" s="106"/>
       <c r="O522" s="45"/>
       <c r="P522" s="45"/>
       <c r="Q522" s="45"/>
@@ -14477,7 +14627,7 @@
       <c r="D523" s="61"/>
       <c r="E523" s="45"/>
       <c r="F523" s="61"/>
-      <c r="G523" s="109"/>
+      <c r="G523" s="108"/>
       <c r="H523" s="61"/>
       <c r="I523" s="45"/>
       <c r="J523" s="45"/>
@@ -14499,7 +14649,7 @@
       <c r="D524" s="61"/>
       <c r="E524" s="45"/>
       <c r="F524" s="61"/>
-      <c r="G524" s="109"/>
+      <c r="G524" s="108"/>
       <c r="H524" s="61"/>
       <c r="I524" s="45"/>
       <c r="J524" s="45"/>
@@ -14521,7 +14671,7 @@
       <c r="D525" s="61"/>
       <c r="E525" s="45"/>
       <c r="F525" s="61"/>
-      <c r="G525" s="109"/>
+      <c r="G525" s="108"/>
       <c r="H525" s="61"/>
       <c r="I525" s="45"/>
       <c r="J525" s="45"/>
@@ -14543,7 +14693,7 @@
       <c r="D526" s="61"/>
       <c r="E526" s="45"/>
       <c r="F526" s="61"/>
-      <c r="G526" s="109"/>
+      <c r="G526" s="108"/>
       <c r="H526" s="61"/>
       <c r="I526" s="45"/>
       <c r="J526" s="45"/>
@@ -14565,7 +14715,7 @@
       <c r="D527" s="61"/>
       <c r="E527" s="45"/>
       <c r="F527" s="61"/>
-      <c r="G527" s="109"/>
+      <c r="G527" s="108"/>
       <c r="H527" s="61"/>
       <c r="I527" s="45"/>
       <c r="J527" s="45"/>
@@ -14587,7 +14737,7 @@
       <c r="D528" s="61"/>
       <c r="E528" s="45"/>
       <c r="F528" s="61"/>
-      <c r="G528" s="109"/>
+      <c r="G528" s="108"/>
       <c r="H528" s="61"/>
       <c r="I528" s="45"/>
       <c r="J528" s="45"/>
@@ -14609,7 +14759,7 @@
       <c r="D529" s="61"/>
       <c r="E529" s="45"/>
       <c r="F529" s="61"/>
-      <c r="G529" s="109"/>
+      <c r="G529" s="108"/>
       <c r="H529" s="61"/>
       <c r="I529" s="45"/>
       <c r="J529" s="45"/>
@@ -14631,7 +14781,7 @@
       <c r="D530" s="61"/>
       <c r="E530" s="45"/>
       <c r="F530" s="61"/>
-      <c r="G530" s="109"/>
+      <c r="G530" s="108"/>
       <c r="H530" s="61"/>
       <c r="I530" s="45"/>
       <c r="J530" s="45"/>
@@ -14653,7 +14803,7 @@
       <c r="D531" s="61"/>
       <c r="E531" s="45"/>
       <c r="F531" s="61"/>
-      <c r="G531" s="109"/>
+      <c r="G531" s="108"/>
       <c r="H531" s="45"/>
       <c r="I531" s="45"/>
       <c r="J531" s="45"/>
@@ -14675,7 +14825,7 @@
       <c r="D532" s="61"/>
       <c r="E532" s="45"/>
       <c r="F532" s="61"/>
-      <c r="G532" s="109"/>
+      <c r="G532" s="108"/>
       <c r="H532" s="45"/>
       <c r="I532" s="45"/>
       <c r="J532" s="45"/>
@@ -14697,7 +14847,7 @@
       <c r="D533" s="61"/>
       <c r="E533" s="45"/>
       <c r="F533" s="61"/>
-      <c r="G533" s="109"/>
+      <c r="G533" s="108"/>
       <c r="H533" s="45"/>
       <c r="I533" s="45"/>
       <c r="J533" s="45"/>
@@ -14719,7 +14869,7 @@
       <c r="D534" s="61"/>
       <c r="E534" s="45"/>
       <c r="F534" s="61"/>
-      <c r="G534" s="109"/>
+      <c r="G534" s="108"/>
       <c r="H534" s="45"/>
       <c r="I534" s="45"/>
       <c r="J534" s="45"/>
@@ -14741,7 +14891,7 @@
       <c r="D535" s="61"/>
       <c r="E535" s="45"/>
       <c r="F535" s="61"/>
-      <c r="G535" s="109"/>
+      <c r="G535" s="108"/>
       <c r="H535" s="45"/>
       <c r="I535" s="45"/>
       <c r="J535" s="45"/>
@@ -14762,7 +14912,7 @@
       <c r="D536" s="61"/>
       <c r="E536" s="45"/>
       <c r="F536" s="61"/>
-      <c r="G536" s="109"/>
+      <c r="G536" s="108"/>
       <c r="H536" s="45"/>
       <c r="I536" s="45"/>
       <c r="J536" s="45"/>
@@ -14784,7 +14934,7 @@
       <c r="D537" s="61"/>
       <c r="E537" s="45"/>
       <c r="F537" s="61"/>
-      <c r="G537" s="109"/>
+      <c r="G537" s="108"/>
       <c r="H537" s="45"/>
       <c r="I537" s="45"/>
       <c r="J537" s="45"/>
@@ -14806,7 +14956,7 @@
       <c r="D538" s="61"/>
       <c r="E538" s="45"/>
       <c r="F538" s="61"/>
-      <c r="G538" s="109"/>
+      <c r="G538" s="108"/>
       <c r="H538" s="45"/>
       <c r="I538" s="45"/>
       <c r="J538" s="45"/>
@@ -14828,7 +14978,7 @@
       <c r="D539" s="61"/>
       <c r="E539" s="45"/>
       <c r="F539" s="61"/>
-      <c r="G539" s="109"/>
+      <c r="G539" s="108"/>
       <c r="H539" s="45"/>
       <c r="I539" s="45"/>
       <c r="J539" s="45"/>
@@ -14850,7 +15000,7 @@
       <c r="D540" s="61"/>
       <c r="E540" s="45"/>
       <c r="F540" s="61"/>
-      <c r="G540" s="109"/>
+      <c r="G540" s="108"/>
       <c r="H540" s="45"/>
       <c r="I540" s="45"/>
       <c r="J540" s="45"/>
@@ -14872,7 +15022,7 @@
       <c r="D541" s="61"/>
       <c r="E541" s="61"/>
       <c r="F541" s="61"/>
-      <c r="G541" s="109"/>
+      <c r="G541" s="108"/>
       <c r="H541" s="45"/>
       <c r="I541" s="45"/>
       <c r="J541" s="45"/>
@@ -14894,7 +15044,7 @@
       <c r="D542" s="61"/>
       <c r="E542" s="61"/>
       <c r="F542" s="61"/>
-      <c r="G542" s="109"/>
+      <c r="G542" s="108"/>
       <c r="H542" s="45"/>
       <c r="I542" s="45"/>
       <c r="J542" s="45"/>
@@ -14916,7 +15066,7 @@
       <c r="D543" s="61"/>
       <c r="E543" s="61"/>
       <c r="F543" s="61"/>
-      <c r="G543" s="109"/>
+      <c r="G543" s="108"/>
       <c r="H543" s="45"/>
       <c r="I543" s="45"/>
       <c r="J543" s="45"/>
@@ -14938,7 +15088,7 @@
       <c r="D544" s="61"/>
       <c r="E544" s="61"/>
       <c r="F544" s="61"/>
-      <c r="G544" s="109"/>
+      <c r="G544" s="108"/>
       <c r="H544" s="45"/>
       <c r="I544" s="45"/>
       <c r="J544" s="45"/>
@@ -14960,7 +15110,7 @@
       <c r="D545" s="61"/>
       <c r="E545" s="61"/>
       <c r="F545" s="61"/>
-      <c r="G545" s="109"/>
+      <c r="G545" s="108"/>
       <c r="H545" s="45"/>
       <c r="I545" s="45"/>
       <c r="J545" s="45"/>
@@ -14982,7 +15132,7 @@
       <c r="D546" s="61"/>
       <c r="E546" s="61"/>
       <c r="F546" s="61"/>
-      <c r="G546" s="109"/>
+      <c r="G546" s="108"/>
       <c r="H546" s="45"/>
       <c r="I546" s="45"/>
       <c r="J546" s="45"/>
@@ -15004,7 +15154,7 @@
       <c r="D547" s="61"/>
       <c r="E547" s="61"/>
       <c r="F547" s="61"/>
-      <c r="G547" s="109"/>
+      <c r="G547" s="108"/>
       <c r="H547" s="45"/>
       <c r="I547" s="45"/>
       <c r="J547" s="45"/>
@@ -15026,7 +15176,7 @@
       <c r="D548" s="61"/>
       <c r="E548" s="61"/>
       <c r="F548" s="61"/>
-      <c r="G548" s="109"/>
+      <c r="G548" s="108"/>
       <c r="H548" s="45"/>
       <c r="I548" s="45"/>
       <c r="J548" s="45"/>
@@ -15048,7 +15198,7 @@
       <c r="D549" s="61"/>
       <c r="E549" s="61"/>
       <c r="F549" s="61"/>
-      <c r="G549" s="109"/>
+      <c r="G549" s="108"/>
       <c r="H549" s="45"/>
       <c r="I549" s="45"/>
       <c r="J549" s="45"/>
@@ -15070,7 +15220,7 @@
       <c r="D550" s="61"/>
       <c r="E550" s="61"/>
       <c r="F550" s="61"/>
-      <c r="G550" s="109"/>
+      <c r="G550" s="108"/>
       <c r="H550" s="45"/>
       <c r="I550" s="45"/>
       <c r="J550" s="45"/>
@@ -15092,7 +15242,7 @@
       <c r="D551" s="61"/>
       <c r="E551" s="61"/>
       <c r="F551" s="61"/>
-      <c r="G551" s="109"/>
+      <c r="G551" s="108"/>
       <c r="H551" s="45"/>
       <c r="I551" s="45"/>
       <c r="J551" s="45"/>
@@ -15114,7 +15264,7 @@
       <c r="D552" s="61"/>
       <c r="E552" s="61"/>
       <c r="F552" s="61"/>
-      <c r="G552" s="109"/>
+      <c r="G552" s="108"/>
       <c r="H552" s="45"/>
       <c r="I552" s="45"/>
       <c r="J552" s="45"/>
@@ -15130,15 +15280,15 @@
       <c r="T552" s="37"/>
     </row>
     <row r="553" spans="1:20" ht="15" customHeight="1">
-      <c r="A553" s="104"/>
-      <c r="B553" s="105"/>
-      <c r="C553" s="105"/>
-      <c r="D553" s="105"/>
-      <c r="E553" s="105"/>
-      <c r="F553" s="105"/>
-      <c r="G553" s="109"/>
-      <c r="H553" s="105"/>
-      <c r="I553" s="105"/>
+      <c r="A553" s="103"/>
+      <c r="B553" s="104"/>
+      <c r="C553" s="104"/>
+      <c r="D553" s="104"/>
+      <c r="E553" s="104"/>
+      <c r="F553" s="104"/>
+      <c r="G553" s="108"/>
+      <c r="H553" s="104"/>
+      <c r="I553" s="104"/>
       <c r="J553" s="45"/>
       <c r="K553" s="45"/>
       <c r="L553" s="61"/>
@@ -15152,15 +15302,15 @@
       <c r="T553" s="37"/>
     </row>
     <row r="554" spans="1:20" ht="15" customHeight="1">
-      <c r="A554" s="106"/>
-      <c r="B554" s="107"/>
-      <c r="C554" s="107"/>
-      <c r="D554" s="107"/>
-      <c r="E554" s="107"/>
-      <c r="F554" s="105"/>
-      <c r="G554" s="109"/>
-      <c r="H554" s="107"/>
-      <c r="I554" s="107"/>
+      <c r="A554" s="105"/>
+      <c r="B554" s="106"/>
+      <c r="C554" s="106"/>
+      <c r="D554" s="106"/>
+      <c r="E554" s="106"/>
+      <c r="F554" s="104"/>
+      <c r="G554" s="108"/>
+      <c r="H554" s="106"/>
+      <c r="I554" s="106"/>
       <c r="J554" s="45"/>
       <c r="K554" s="45"/>
       <c r="L554" s="61"/>
@@ -15174,15 +15324,15 @@
       <c r="T554" s="37"/>
     </row>
     <row r="555" spans="1:20" ht="15" customHeight="1">
-      <c r="A555" s="106"/>
-      <c r="B555" s="107"/>
-      <c r="C555" s="107"/>
-      <c r="D555" s="107"/>
-      <c r="E555" s="107"/>
-      <c r="F555" s="105"/>
-      <c r="G555" s="109"/>
-      <c r="H555" s="107"/>
-      <c r="I555" s="107"/>
+      <c r="A555" s="105"/>
+      <c r="B555" s="106"/>
+      <c r="C555" s="106"/>
+      <c r="D555" s="106"/>
+      <c r="E555" s="106"/>
+      <c r="F555" s="104"/>
+      <c r="G555" s="108"/>
+      <c r="H555" s="106"/>
+      <c r="I555" s="106"/>
       <c r="J555" s="45"/>
       <c r="K555" s="45"/>
       <c r="L555" s="61"/>
@@ -15196,15 +15346,15 @@
       <c r="T555" s="37"/>
     </row>
     <row r="556" spans="1:20" ht="15" customHeight="1">
-      <c r="A556" s="106"/>
-      <c r="B556" s="107"/>
-      <c r="C556" s="107"/>
-      <c r="D556" s="107"/>
-      <c r="E556" s="107"/>
-      <c r="F556" s="105"/>
-      <c r="G556" s="109"/>
-      <c r="H556" s="107"/>
-      <c r="I556" s="107"/>
+      <c r="A556" s="105"/>
+      <c r="B556" s="106"/>
+      <c r="C556" s="106"/>
+      <c r="D556" s="106"/>
+      <c r="E556" s="106"/>
+      <c r="F556" s="104"/>
+      <c r="G556" s="108"/>
+      <c r="H556" s="106"/>
+      <c r="I556" s="106"/>
       <c r="J556" s="45"/>
       <c r="K556" s="45"/>
       <c r="L556" s="61"/>
@@ -15218,15 +15368,15 @@
       <c r="T556" s="37"/>
     </row>
     <row r="557" spans="1:20" ht="15" customHeight="1">
-      <c r="A557" s="106"/>
-      <c r="B557" s="107"/>
-      <c r="C557" s="107"/>
-      <c r="D557" s="107"/>
-      <c r="E557" s="107"/>
-      <c r="F557" s="105"/>
-      <c r="G557" s="109"/>
-      <c r="H557" s="107"/>
-      <c r="I557" s="107"/>
+      <c r="A557" s="105"/>
+      <c r="B557" s="106"/>
+      <c r="C557" s="106"/>
+      <c r="D557" s="106"/>
+      <c r="E557" s="106"/>
+      <c r="F557" s="104"/>
+      <c r="G557" s="108"/>
+      <c r="H557" s="106"/>
+      <c r="I557" s="106"/>
       <c r="J557" s="45"/>
       <c r="K557" s="45"/>
       <c r="L557" s="61"/>
@@ -15240,15 +15390,15 @@
       <c r="T557" s="37"/>
     </row>
     <row r="558" spans="1:20" ht="15" customHeight="1">
-      <c r="A558" s="106"/>
-      <c r="B558" s="107"/>
-      <c r="C558" s="107"/>
-      <c r="D558" s="107"/>
-      <c r="E558" s="107"/>
-      <c r="F558" s="105"/>
-      <c r="G558" s="109"/>
-      <c r="H558" s="107"/>
-      <c r="I558" s="107"/>
+      <c r="A558" s="105"/>
+      <c r="B558" s="106"/>
+      <c r="C558" s="106"/>
+      <c r="D558" s="106"/>
+      <c r="E558" s="106"/>
+      <c r="F558" s="104"/>
+      <c r="G558" s="108"/>
+      <c r="H558" s="106"/>
+      <c r="I558" s="106"/>
       <c r="J558" s="45"/>
       <c r="K558" s="45"/>
       <c r="L558" s="61"/>
@@ -15262,17 +15412,17 @@
       <c r="T558" s="37"/>
     </row>
     <row r="559" spans="1:20" ht="15" customHeight="1">
-      <c r="A559" s="104"/>
-      <c r="B559" s="105"/>
-      <c r="C559" s="105"/>
-      <c r="D559" s="105"/>
-      <c r="E559" s="105"/>
-      <c r="F559" s="105"/>
-      <c r="G559" s="109"/>
+      <c r="A559" s="103"/>
+      <c r="B559" s="104"/>
+      <c r="C559" s="104"/>
+      <c r="D559" s="104"/>
+      <c r="E559" s="104"/>
+      <c r="F559" s="104"/>
+      <c r="G559" s="108"/>
       <c r="H559" s="45"/>
       <c r="I559" s="45"/>
-      <c r="J559" s="99"/>
-      <c r="K559" s="99"/>
+      <c r="J559" s="98"/>
+      <c r="K559" s="98"/>
       <c r="L559" s="61"/>
       <c r="M559" s="61"/>
       <c r="N559" s="61"/>
@@ -15284,17 +15434,17 @@
       <c r="T559" s="37"/>
     </row>
     <row r="560" spans="1:20" ht="15" customHeight="1">
-      <c r="A560" s="106"/>
-      <c r="B560" s="107"/>
-      <c r="C560" s="107"/>
-      <c r="D560" s="107"/>
-      <c r="E560" s="107"/>
-      <c r="F560" s="105"/>
-      <c r="G560" s="109"/>
+      <c r="A560" s="105"/>
+      <c r="B560" s="106"/>
+      <c r="C560" s="106"/>
+      <c r="D560" s="106"/>
+      <c r="E560" s="106"/>
+      <c r="F560" s="104"/>
+      <c r="G560" s="108"/>
       <c r="H560" s="45"/>
       <c r="I560" s="45"/>
-      <c r="J560" s="99"/>
-      <c r="K560" s="99"/>
+      <c r="J560" s="98"/>
+      <c r="K560" s="98"/>
       <c r="L560" s="61"/>
       <c r="M560" s="61"/>
       <c r="N560" s="61"/>
@@ -15306,17 +15456,17 @@
       <c r="T560" s="37"/>
     </row>
     <row r="561" spans="1:20" ht="15" customHeight="1">
-      <c r="A561" s="106"/>
-      <c r="B561" s="107"/>
-      <c r="C561" s="107"/>
-      <c r="D561" s="107"/>
-      <c r="E561" s="107"/>
-      <c r="F561" s="105"/>
-      <c r="G561" s="109"/>
+      <c r="A561" s="105"/>
+      <c r="B561" s="106"/>
+      <c r="C561" s="106"/>
+      <c r="D561" s="106"/>
+      <c r="E561" s="106"/>
+      <c r="F561" s="104"/>
+      <c r="G561" s="108"/>
       <c r="H561" s="45"/>
       <c r="I561" s="45"/>
-      <c r="J561" s="99"/>
-      <c r="K561" s="99"/>
+      <c r="J561" s="98"/>
+      <c r="K561" s="98"/>
       <c r="L561" s="61"/>
       <c r="M561" s="61"/>
       <c r="N561" s="61"/>
@@ -15328,17 +15478,17 @@
       <c r="T561" s="37"/>
     </row>
     <row r="562" spans="1:20" ht="15" customHeight="1">
-      <c r="A562" s="106"/>
-      <c r="B562" s="107"/>
-      <c r="C562" s="107"/>
-      <c r="D562" s="107"/>
-      <c r="E562" s="107"/>
-      <c r="F562" s="105"/>
-      <c r="G562" s="109"/>
+      <c r="A562" s="105"/>
+      <c r="B562" s="106"/>
+      <c r="C562" s="106"/>
+      <c r="D562" s="106"/>
+      <c r="E562" s="106"/>
+      <c r="F562" s="104"/>
+      <c r="G562" s="108"/>
       <c r="H562" s="45"/>
       <c r="I562" s="45"/>
-      <c r="J562" s="99"/>
-      <c r="K562" s="99"/>
+      <c r="J562" s="98"/>
+      <c r="K562" s="98"/>
       <c r="L562" s="61"/>
       <c r="M562" s="61"/>
       <c r="N562" s="61"/>
@@ -15350,17 +15500,17 @@
       <c r="T562" s="37"/>
     </row>
     <row r="563" spans="1:20" ht="15" customHeight="1">
-      <c r="A563" s="106"/>
-      <c r="B563" s="107"/>
-      <c r="C563" s="107"/>
-      <c r="D563" s="107"/>
-      <c r="E563" s="107"/>
-      <c r="F563" s="105"/>
-      <c r="G563" s="109"/>
+      <c r="A563" s="105"/>
+      <c r="B563" s="106"/>
+      <c r="C563" s="106"/>
+      <c r="D563" s="106"/>
+      <c r="E563" s="106"/>
+      <c r="F563" s="104"/>
+      <c r="G563" s="108"/>
       <c r="H563" s="45"/>
       <c r="I563" s="45"/>
-      <c r="J563" s="99"/>
-      <c r="K563" s="99"/>
+      <c r="J563" s="98"/>
+      <c r="K563" s="98"/>
       <c r="L563" s="61"/>
       <c r="M563" s="61"/>
       <c r="N563" s="61"/>
@@ -15372,17 +15522,17 @@
       <c r="T563" s="37"/>
     </row>
     <row r="564" spans="1:20" ht="15" customHeight="1">
-      <c r="A564" s="106"/>
-      <c r="B564" s="107"/>
-      <c r="C564" s="107"/>
-      <c r="D564" s="107"/>
-      <c r="E564" s="107"/>
-      <c r="F564" s="105"/>
-      <c r="G564" s="109"/>
+      <c r="A564" s="105"/>
+      <c r="B564" s="106"/>
+      <c r="C564" s="106"/>
+      <c r="D564" s="106"/>
+      <c r="E564" s="106"/>
+      <c r="F564" s="104"/>
+      <c r="G564" s="108"/>
       <c r="H564" s="45"/>
       <c r="I564" s="45"/>
-      <c r="J564" s="99"/>
-      <c r="K564" s="99"/>
+      <c r="J564" s="98"/>
+      <c r="K564" s="98"/>
       <c r="L564" s="61"/>
       <c r="M564" s="61"/>
       <c r="N564" s="61"/>
@@ -15400,7 +15550,7 @@
       <c r="D565" s="61"/>
       <c r="E565" s="61"/>
       <c r="F565" s="61"/>
-      <c r="G565" s="109"/>
+      <c r="G565" s="108"/>
       <c r="H565" s="61"/>
       <c r="I565" s="45"/>
       <c r="J565" s="45"/>
@@ -15422,7 +15572,7 @@
       <c r="D566" s="61"/>
       <c r="E566" s="61"/>
       <c r="F566" s="61"/>
-      <c r="G566" s="109"/>
+      <c r="G566" s="108"/>
       <c r="H566" s="61"/>
       <c r="I566" s="45"/>
       <c r="J566" s="45"/>
@@ -15444,7 +15594,7 @@
       <c r="D567" s="61"/>
       <c r="E567" s="61"/>
       <c r="F567" s="61"/>
-      <c r="G567" s="109"/>
+      <c r="G567" s="108"/>
       <c r="H567" s="61"/>
       <c r="I567" s="45"/>
       <c r="J567" s="45"/>
@@ -15466,7 +15616,7 @@
       <c r="D568" s="61"/>
       <c r="E568" s="61"/>
       <c r="F568" s="61"/>
-      <c r="G568" s="109"/>
+      <c r="G568" s="108"/>
       <c r="H568" s="61"/>
       <c r="I568" s="45"/>
       <c r="J568" s="45"/>
@@ -15488,7 +15638,7 @@
       <c r="D569" s="61"/>
       <c r="E569" s="61"/>
       <c r="F569" s="61"/>
-      <c r="G569" s="109"/>
+      <c r="G569" s="108"/>
       <c r="H569" s="61"/>
       <c r="I569" s="45"/>
       <c r="J569" s="45"/>
@@ -15510,7 +15660,7 @@
       <c r="D570" s="61"/>
       <c r="E570" s="61"/>
       <c r="F570" s="61"/>
-      <c r="G570" s="109"/>
+      <c r="G570" s="108"/>
       <c r="H570" s="61"/>
       <c r="I570" s="45"/>
       <c r="J570" s="45"/>
@@ -15532,7 +15682,7 @@
       <c r="D571" s="61"/>
       <c r="E571" s="61"/>
       <c r="F571" s="61"/>
-      <c r="G571" s="109"/>
+      <c r="G571" s="108"/>
       <c r="H571" s="61"/>
       <c r="I571" s="45"/>
       <c r="J571" s="45"/>
@@ -15554,7 +15704,7 @@
       <c r="D572" s="61"/>
       <c r="E572" s="61"/>
       <c r="F572" s="61"/>
-      <c r="G572" s="109"/>
+      <c r="G572" s="108"/>
       <c r="H572" s="61"/>
       <c r="I572" s="45"/>
       <c r="J572" s="45"/>
@@ -15576,7 +15726,7 @@
       <c r="D573" s="61"/>
       <c r="E573" s="61"/>
       <c r="F573" s="61"/>
-      <c r="G573" s="109"/>
+      <c r="G573" s="108"/>
       <c r="H573" s="61"/>
       <c r="I573" s="45"/>
       <c r="J573" s="45"/>
@@ -15598,7 +15748,7 @@
       <c r="D574" s="61"/>
       <c r="E574" s="61"/>
       <c r="F574" s="61"/>
-      <c r="G574" s="109"/>
+      <c r="G574" s="108"/>
       <c r="H574" s="61"/>
       <c r="I574" s="45"/>
       <c r="J574" s="45"/>
@@ -15620,7 +15770,7 @@
       <c r="D575" s="61"/>
       <c r="E575" s="61"/>
       <c r="F575" s="61"/>
-      <c r="G575" s="109"/>
+      <c r="G575" s="108"/>
       <c r="H575" s="61"/>
       <c r="I575" s="45"/>
       <c r="J575" s="45"/>
@@ -15642,7 +15792,7 @@
       <c r="D576" s="61"/>
       <c r="E576" s="61"/>
       <c r="F576" s="61"/>
-      <c r="G576" s="109"/>
+      <c r="G576" s="108"/>
       <c r="H576" s="61"/>
       <c r="I576" s="45"/>
       <c r="J576" s="45"/>
@@ -15664,7 +15814,7 @@
       <c r="D577" s="61"/>
       <c r="E577" s="61"/>
       <c r="F577" s="61"/>
-      <c r="G577" s="109"/>
+      <c r="G577" s="108"/>
       <c r="H577" s="61"/>
       <c r="I577" s="45"/>
       <c r="J577" s="45"/>
@@ -15686,7 +15836,7 @@
       <c r="D578" s="61"/>
       <c r="E578" s="61"/>
       <c r="F578" s="61"/>
-      <c r="G578" s="109"/>
+      <c r="G578" s="108"/>
       <c r="H578" s="61"/>
       <c r="I578" s="45"/>
       <c r="J578" s="45"/>
@@ -15708,7 +15858,7 @@
       <c r="D579" s="61"/>
       <c r="E579" s="61"/>
       <c r="F579" s="61"/>
-      <c r="G579" s="109"/>
+      <c r="G579" s="108"/>
       <c r="H579" s="61"/>
       <c r="I579" s="45"/>
       <c r="J579" s="45"/>
@@ -15730,7 +15880,7 @@
       <c r="D580" s="61"/>
       <c r="E580" s="61"/>
       <c r="F580" s="61"/>
-      <c r="G580" s="109"/>
+      <c r="G580" s="108"/>
       <c r="H580" s="61"/>
       <c r="I580" s="45"/>
       <c r="J580" s="45"/>
@@ -15752,7 +15902,7 @@
       <c r="D581" s="61"/>
       <c r="E581" s="61"/>
       <c r="F581" s="61"/>
-      <c r="G581" s="109"/>
+      <c r="G581" s="108"/>
       <c r="H581" s="61"/>
       <c r="I581" s="45"/>
       <c r="J581" s="45"/>
@@ -15774,7 +15924,7 @@
       <c r="D582" s="61"/>
       <c r="E582" s="61"/>
       <c r="F582" s="61"/>
-      <c r="G582" s="109"/>
+      <c r="G582" s="108"/>
       <c r="H582" s="61"/>
       <c r="I582" s="45"/>
       <c r="J582" s="45"/>
@@ -15791,12 +15941,12 @@
     </row>
     <row r="583" spans="1:20" ht="15" customHeight="1">
       <c r="A583" s="45"/>
-      <c r="B583" s="104"/>
-      <c r="C583" s="105"/>
-      <c r="D583" s="105"/>
-      <c r="E583" s="105"/>
+      <c r="B583" s="103"/>
+      <c r="C583" s="104"/>
+      <c r="D583" s="104"/>
+      <c r="E583" s="104"/>
       <c r="F583" s="61"/>
-      <c r="G583" s="109"/>
+      <c r="G583" s="108"/>
       <c r="H583" s="61"/>
       <c r="I583" s="45"/>
       <c r="J583" s="45"/>
@@ -15813,12 +15963,12 @@
     </row>
     <row r="584" spans="1:20" ht="15" customHeight="1">
       <c r="A584" s="45"/>
-      <c r="B584" s="106"/>
-      <c r="C584" s="107"/>
-      <c r="D584" s="107"/>
-      <c r="E584" s="107"/>
+      <c r="B584" s="105"/>
+      <c r="C584" s="106"/>
+      <c r="D584" s="106"/>
+      <c r="E584" s="106"/>
       <c r="F584" s="61"/>
-      <c r="G584" s="109"/>
+      <c r="G584" s="108"/>
       <c r="H584" s="61"/>
       <c r="I584" s="45"/>
       <c r="J584" s="45"/>
@@ -15835,12 +15985,12 @@
     </row>
     <row r="585" spans="1:20" ht="15" customHeight="1">
       <c r="A585" s="45"/>
-      <c r="B585" s="106"/>
-      <c r="C585" s="107"/>
-      <c r="D585" s="107"/>
-      <c r="E585" s="107"/>
+      <c r="B585" s="105"/>
+      <c r="C585" s="106"/>
+      <c r="D585" s="106"/>
+      <c r="E585" s="106"/>
       <c r="F585" s="61"/>
-      <c r="G585" s="109"/>
+      <c r="G585" s="108"/>
       <c r="H585" s="61"/>
       <c r="I585" s="45"/>
       <c r="J585" s="45"/>
@@ -15857,12 +16007,12 @@
     </row>
     <row r="586" spans="1:20" ht="15" customHeight="1">
       <c r="A586" s="45"/>
-      <c r="B586" s="106"/>
-      <c r="C586" s="107"/>
-      <c r="D586" s="107"/>
-      <c r="E586" s="107"/>
+      <c r="B586" s="105"/>
+      <c r="C586" s="106"/>
+      <c r="D586" s="106"/>
+      <c r="E586" s="106"/>
       <c r="F586" s="61"/>
-      <c r="G586" s="109"/>
+      <c r="G586" s="108"/>
       <c r="H586" s="61"/>
       <c r="I586" s="45"/>
       <c r="J586" s="45"/>
@@ -15879,12 +16029,12 @@
     </row>
     <row r="587" spans="1:20" ht="15" customHeight="1">
       <c r="A587" s="45"/>
-      <c r="B587" s="106"/>
-      <c r="C587" s="107"/>
-      <c r="D587" s="107"/>
-      <c r="E587" s="107"/>
+      <c r="B587" s="105"/>
+      <c r="C587" s="106"/>
+      <c r="D587" s="106"/>
+      <c r="E587" s="106"/>
       <c r="F587" s="61"/>
-      <c r="G587" s="109"/>
+      <c r="G587" s="108"/>
       <c r="H587" s="61"/>
       <c r="I587" s="45"/>
       <c r="J587" s="45"/>
@@ -15901,12 +16051,12 @@
     </row>
     <row r="588" spans="1:20" ht="15" customHeight="1">
       <c r="A588" s="45"/>
-      <c r="B588" s="106"/>
-      <c r="C588" s="107"/>
-      <c r="D588" s="107"/>
-      <c r="E588" s="107"/>
+      <c r="B588" s="105"/>
+      <c r="C588" s="106"/>
+      <c r="D588" s="106"/>
+      <c r="E588" s="106"/>
       <c r="F588" s="61"/>
-      <c r="G588" s="109"/>
+      <c r="G588" s="108"/>
       <c r="H588" s="61"/>
       <c r="I588" s="45"/>
       <c r="J588" s="45"/>
@@ -15928,7 +16078,7 @@
       <c r="D589" s="61"/>
       <c r="E589" s="45"/>
       <c r="F589" s="61"/>
-      <c r="G589" s="109"/>
+      <c r="G589" s="108"/>
       <c r="H589" s="61"/>
       <c r="I589" s="45"/>
       <c r="J589" s="45"/>
@@ -15944,13 +16094,13 @@
       <c r="T589" s="37"/>
     </row>
     <row r="590" spans="1:20" ht="15" customHeight="1">
-      <c r="A590" s="111"/>
-      <c r="B590" s="111"/>
+      <c r="A590" s="110"/>
+      <c r="B590" s="110"/>
       <c r="C590" s="61"/>
       <c r="D590" s="61"/>
       <c r="E590" s="61"/>
       <c r="F590" s="61"/>
-      <c r="G590" s="109"/>
+      <c r="G590" s="108"/>
       <c r="H590" s="45"/>
       <c r="I590" s="45"/>
       <c r="J590" s="45"/>
@@ -16085,8 +16235,8 @@
       <c r="G596" s="61"/>
       <c r="H596" s="45"/>
       <c r="I596" s="45"/>
-      <c r="J596" s="99"/>
-      <c r="K596" s="99"/>
+      <c r="J596" s="98"/>
+      <c r="K596" s="98"/>
       <c r="L596" s="61"/>
       <c r="M596" s="61"/>
       <c r="N596" s="61"/>
@@ -16107,8 +16257,8 @@
       <c r="G597" s="61"/>
       <c r="H597" s="45"/>
       <c r="I597" s="45"/>
-      <c r="J597" s="99"/>
-      <c r="K597" s="99"/>
+      <c r="J597" s="98"/>
+      <c r="K597" s="98"/>
       <c r="L597" s="61"/>
       <c r="M597" s="61"/>
       <c r="N597" s="61"/>
@@ -16129,8 +16279,8 @@
       <c r="G598" s="61"/>
       <c r="H598" s="45"/>
       <c r="I598" s="45"/>
-      <c r="J598" s="99"/>
-      <c r="K598" s="99"/>
+      <c r="J598" s="98"/>
+      <c r="K598" s="98"/>
       <c r="L598" s="61"/>
       <c r="M598" s="61"/>
       <c r="N598" s="61"/>
@@ -16151,8 +16301,8 @@
       <c r="G599" s="61"/>
       <c r="H599" s="45"/>
       <c r="I599" s="45"/>
-      <c r="J599" s="99"/>
-      <c r="K599" s="99"/>
+      <c r="J599" s="98"/>
+      <c r="K599" s="98"/>
       <c r="L599" s="61"/>
       <c r="M599" s="61"/>
       <c r="N599" s="61"/>
@@ -16173,8 +16323,8 @@
       <c r="G600" s="61"/>
       <c r="H600" s="45"/>
       <c r="I600" s="45"/>
-      <c r="J600" s="99"/>
-      <c r="K600" s="99"/>
+      <c r="J600" s="98"/>
+      <c r="K600" s="98"/>
       <c r="L600" s="61"/>
       <c r="M600" s="61"/>
       <c r="N600" s="61"/>
@@ -16327,8 +16477,8 @@
       <c r="G607" s="61"/>
       <c r="H607" s="45"/>
       <c r="I607" s="45"/>
-      <c r="J607" s="99"/>
-      <c r="K607" s="99"/>
+      <c r="J607" s="98"/>
+      <c r="K607" s="98"/>
       <c r="L607" s="61"/>
       <c r="M607" s="61"/>
       <c r="N607" s="61"/>
@@ -16349,8 +16499,8 @@
       <c r="G608" s="61"/>
       <c r="H608" s="45"/>
       <c r="I608" s="45"/>
-      <c r="J608" s="99"/>
-      <c r="K608" s="99"/>
+      <c r="J608" s="98"/>
+      <c r="K608" s="98"/>
       <c r="L608" s="61"/>
       <c r="M608" s="61"/>
       <c r="N608" s="61"/>
@@ -16371,7 +16521,7 @@
       <c r="G609" s="61"/>
       <c r="H609" s="45"/>
       <c r="I609" s="45"/>
-      <c r="J609" s="99"/>
+      <c r="J609" s="98"/>
       <c r="K609" s="45"/>
       <c r="L609" s="61"/>
       <c r="M609" s="61"/>
@@ -16393,7 +16543,7 @@
       <c r="G610" s="61"/>
       <c r="H610" s="45"/>
       <c r="I610" s="45"/>
-      <c r="J610" s="99"/>
+      <c r="J610" s="98"/>
       <c r="K610" s="45"/>
       <c r="L610" s="61"/>
       <c r="M610" s="61"/>
@@ -16415,7 +16565,7 @@
       <c r="G611" s="61"/>
       <c r="H611" s="45"/>
       <c r="I611" s="45"/>
-      <c r="J611" s="99"/>
+      <c r="J611" s="98"/>
       <c r="K611" s="45"/>
       <c r="L611" s="61"/>
       <c r="M611" s="61"/>
@@ -16437,7 +16587,7 @@
       <c r="G612" s="61"/>
       <c r="H612" s="45"/>
       <c r="I612" s="45"/>
-      <c r="J612" s="99"/>
+      <c r="J612" s="98"/>
       <c r="K612" s="45"/>
       <c r="L612" s="61"/>
       <c r="M612" s="61"/>
@@ -16459,7 +16609,7 @@
       <c r="G613" s="61"/>
       <c r="H613" s="45"/>
       <c r="I613" s="45"/>
-      <c r="J613" s="99"/>
+      <c r="J613" s="98"/>
       <c r="K613" s="45"/>
       <c r="L613" s="61"/>
       <c r="M613" s="61"/>
@@ -16693,12 +16843,12 @@
     </row>
     <row r="624" spans="1:20" ht="16" customHeight="1">
       <c r="A624" s="45"/>
-      <c r="B624" s="104"/>
-      <c r="C624" s="105"/>
-      <c r="D624" s="105"/>
-      <c r="E624" s="105"/>
-      <c r="F624" s="105"/>
-      <c r="G624" s="105"/>
+      <c r="B624" s="103"/>
+      <c r="C624" s="104"/>
+      <c r="D624" s="104"/>
+      <c r="E624" s="104"/>
+      <c r="F624" s="104"/>
+      <c r="G624" s="104"/>
       <c r="H624" s="45"/>
       <c r="I624" s="45"/>
       <c r="J624" s="62"/>
@@ -16715,12 +16865,12 @@
     </row>
     <row r="625" spans="1:20" ht="16" customHeight="1">
       <c r="A625" s="45"/>
-      <c r="B625" s="106"/>
-      <c r="C625" s="107"/>
-      <c r="D625" s="107"/>
-      <c r="E625" s="107"/>
-      <c r="F625" s="105"/>
-      <c r="G625" s="107"/>
+      <c r="B625" s="105"/>
+      <c r="C625" s="106"/>
+      <c r="D625" s="106"/>
+      <c r="E625" s="106"/>
+      <c r="F625" s="104"/>
+      <c r="G625" s="106"/>
       <c r="H625" s="45"/>
       <c r="I625" s="45"/>
       <c r="J625" s="62"/>
@@ -16737,12 +16887,12 @@
     </row>
     <row r="626" spans="1:20" ht="16" customHeight="1">
       <c r="A626" s="45"/>
-      <c r="B626" s="106"/>
-      <c r="C626" s="107"/>
-      <c r="D626" s="107"/>
-      <c r="E626" s="107"/>
-      <c r="F626" s="105"/>
-      <c r="G626" s="107"/>
+      <c r="B626" s="105"/>
+      <c r="C626" s="106"/>
+      <c r="D626" s="106"/>
+      <c r="E626" s="106"/>
+      <c r="F626" s="104"/>
+      <c r="G626" s="106"/>
       <c r="H626" s="45"/>
       <c r="I626" s="45"/>
       <c r="J626" s="62"/>
@@ -16759,12 +16909,12 @@
     </row>
     <row r="627" spans="1:20" ht="16" customHeight="1">
       <c r="A627" s="45"/>
-      <c r="B627" s="106"/>
-      <c r="C627" s="107"/>
-      <c r="D627" s="107"/>
-      <c r="E627" s="107"/>
-      <c r="F627" s="105"/>
-      <c r="G627" s="107"/>
+      <c r="B627" s="105"/>
+      <c r="C627" s="106"/>
+      <c r="D627" s="106"/>
+      <c r="E627" s="106"/>
+      <c r="F627" s="104"/>
+      <c r="G627" s="106"/>
       <c r="H627" s="45"/>
       <c r="I627" s="45"/>
       <c r="J627" s="62"/>
@@ -16781,12 +16931,12 @@
     </row>
     <row r="628" spans="1:20" ht="16" customHeight="1">
       <c r="A628" s="45"/>
-      <c r="B628" s="106"/>
-      <c r="C628" s="107"/>
-      <c r="D628" s="107"/>
-      <c r="E628" s="107"/>
-      <c r="F628" s="105"/>
-      <c r="G628" s="107"/>
+      <c r="B628" s="105"/>
+      <c r="C628" s="106"/>
+      <c r="D628" s="106"/>
+      <c r="E628" s="106"/>
+      <c r="F628" s="104"/>
+      <c r="G628" s="106"/>
       <c r="H628" s="45"/>
       <c r="I628" s="45"/>
       <c r="J628" s="62"/>
@@ -16803,12 +16953,12 @@
     </row>
     <row r="629" spans="1:20" ht="16" customHeight="1">
       <c r="A629" s="45"/>
-      <c r="B629" s="104"/>
-      <c r="C629" s="105"/>
-      <c r="D629" s="105"/>
-      <c r="E629" s="105"/>
-      <c r="F629" s="105"/>
-      <c r="G629" s="105"/>
+      <c r="B629" s="103"/>
+      <c r="C629" s="104"/>
+      <c r="D629" s="104"/>
+      <c r="E629" s="104"/>
+      <c r="F629" s="104"/>
+      <c r="G629" s="104"/>
       <c r="H629" s="45"/>
       <c r="I629" s="45"/>
       <c r="J629" s="62"/>
@@ -16825,12 +16975,12 @@
     </row>
     <row r="630" spans="1:20" ht="16" customHeight="1">
       <c r="A630" s="45"/>
-      <c r="B630" s="106"/>
-      <c r="C630" s="107"/>
-      <c r="D630" s="107"/>
-      <c r="E630" s="107"/>
-      <c r="F630" s="105"/>
-      <c r="G630" s="107"/>
+      <c r="B630" s="105"/>
+      <c r="C630" s="106"/>
+      <c r="D630" s="106"/>
+      <c r="E630" s="106"/>
+      <c r="F630" s="104"/>
+      <c r="G630" s="106"/>
       <c r="H630" s="45"/>
       <c r="I630" s="45"/>
       <c r="J630" s="62"/>
@@ -16847,12 +16997,12 @@
     </row>
     <row r="631" spans="1:20" ht="16" customHeight="1">
       <c r="A631" s="45"/>
-      <c r="B631" s="106"/>
-      <c r="C631" s="107"/>
-      <c r="D631" s="107"/>
-      <c r="E631" s="107"/>
-      <c r="F631" s="105"/>
-      <c r="G631" s="107"/>
+      <c r="B631" s="105"/>
+      <c r="C631" s="106"/>
+      <c r="D631" s="106"/>
+      <c r="E631" s="106"/>
+      <c r="F631" s="104"/>
+      <c r="G631" s="106"/>
       <c r="H631" s="45"/>
       <c r="I631" s="45"/>
       <c r="J631" s="62"/>
@@ -16869,12 +17019,12 @@
     </row>
     <row r="632" spans="1:20" ht="16" customHeight="1">
       <c r="A632" s="45"/>
-      <c r="B632" s="106"/>
-      <c r="C632" s="107"/>
-      <c r="D632" s="107"/>
-      <c r="E632" s="107"/>
-      <c r="F632" s="105"/>
-      <c r="G632" s="107"/>
+      <c r="B632" s="105"/>
+      <c r="C632" s="106"/>
+      <c r="D632" s="106"/>
+      <c r="E632" s="106"/>
+      <c r="F632" s="104"/>
+      <c r="G632" s="106"/>
       <c r="H632" s="45"/>
       <c r="I632" s="45"/>
       <c r="J632" s="62"/>
@@ -16891,12 +17041,12 @@
     </row>
     <row r="633" spans="1:20" ht="16" customHeight="1">
       <c r="A633" s="45"/>
-      <c r="B633" s="106"/>
-      <c r="C633" s="107"/>
-      <c r="D633" s="107"/>
-      <c r="E633" s="107"/>
-      <c r="F633" s="105"/>
-      <c r="G633" s="107"/>
+      <c r="B633" s="105"/>
+      <c r="C633" s="106"/>
+      <c r="D633" s="106"/>
+      <c r="E633" s="106"/>
+      <c r="F633" s="104"/>
+      <c r="G633" s="106"/>
       <c r="H633" s="45"/>
       <c r="I633" s="45"/>
       <c r="J633" s="62"/>
@@ -16913,12 +17063,12 @@
     </row>
     <row r="634" spans="1:20" ht="16" customHeight="1">
       <c r="A634" s="45"/>
-      <c r="B634" s="104"/>
-      <c r="C634" s="105"/>
-      <c r="D634" s="105"/>
-      <c r="E634" s="105"/>
-      <c r="F634" s="105"/>
-      <c r="G634" s="105"/>
+      <c r="B634" s="103"/>
+      <c r="C634" s="104"/>
+      <c r="D634" s="104"/>
+      <c r="E634" s="104"/>
+      <c r="F634" s="104"/>
+      <c r="G634" s="104"/>
       <c r="H634" s="45"/>
       <c r="I634" s="45"/>
       <c r="J634" s="45"/>
@@ -16935,12 +17085,12 @@
     </row>
     <row r="635" spans="1:20" ht="16" customHeight="1">
       <c r="A635" s="45"/>
-      <c r="B635" s="106"/>
-      <c r="C635" s="107"/>
-      <c r="D635" s="107"/>
-      <c r="E635" s="107"/>
-      <c r="F635" s="105"/>
-      <c r="G635" s="107"/>
+      <c r="B635" s="105"/>
+      <c r="C635" s="106"/>
+      <c r="D635" s="106"/>
+      <c r="E635" s="106"/>
+      <c r="F635" s="104"/>
+      <c r="G635" s="106"/>
       <c r="H635" s="45"/>
       <c r="I635" s="45"/>
       <c r="J635" s="45"/>
@@ -16957,12 +17107,12 @@
     </row>
     <row r="636" spans="1:20" ht="16" customHeight="1">
       <c r="A636" s="45"/>
-      <c r="B636" s="106"/>
-      <c r="C636" s="107"/>
-      <c r="D636" s="107"/>
-      <c r="E636" s="107"/>
-      <c r="F636" s="105"/>
-      <c r="G636" s="107"/>
+      <c r="B636" s="105"/>
+      <c r="C636" s="106"/>
+      <c r="D636" s="106"/>
+      <c r="E636" s="106"/>
+      <c r="F636" s="104"/>
+      <c r="G636" s="106"/>
       <c r="H636" s="45"/>
       <c r="I636" s="45"/>
       <c r="J636" s="45"/>
@@ -16979,12 +17129,12 @@
     </row>
     <row r="637" spans="1:20" ht="16" customHeight="1">
       <c r="A637" s="45"/>
-      <c r="B637" s="106"/>
-      <c r="C637" s="107"/>
-      <c r="D637" s="107"/>
-      <c r="E637" s="107"/>
-      <c r="F637" s="105"/>
-      <c r="G637" s="107"/>
+      <c r="B637" s="105"/>
+      <c r="C637" s="106"/>
+      <c r="D637" s="106"/>
+      <c r="E637" s="106"/>
+      <c r="F637" s="104"/>
+      <c r="G637" s="106"/>
       <c r="H637" s="45"/>
       <c r="I637" s="45"/>
       <c r="J637" s="45"/>
@@ -17001,12 +17151,12 @@
     </row>
     <row r="638" spans="1:20" ht="16" customHeight="1">
       <c r="A638" s="45"/>
-      <c r="B638" s="106"/>
-      <c r="C638" s="107"/>
-      <c r="D638" s="107"/>
-      <c r="E638" s="107"/>
-      <c r="F638" s="105"/>
-      <c r="G638" s="107"/>
+      <c r="B638" s="105"/>
+      <c r="C638" s="106"/>
+      <c r="D638" s="106"/>
+      <c r="E638" s="106"/>
+      <c r="F638" s="104"/>
+      <c r="G638" s="106"/>
       <c r="H638" s="45"/>
       <c r="I638" s="45"/>
       <c r="J638" s="45"/>
@@ -17023,12 +17173,12 @@
     </row>
     <row r="639" spans="1:20" ht="16" customHeight="1">
       <c r="A639" s="45"/>
-      <c r="B639" s="106"/>
-      <c r="C639" s="107"/>
-      <c r="D639" s="107"/>
-      <c r="E639" s="107"/>
-      <c r="F639" s="105"/>
-      <c r="G639" s="107"/>
+      <c r="B639" s="105"/>
+      <c r="C639" s="106"/>
+      <c r="D639" s="106"/>
+      <c r="E639" s="106"/>
+      <c r="F639" s="104"/>
+      <c r="G639" s="106"/>
       <c r="H639" s="45"/>
       <c r="I639" s="45"/>
       <c r="J639" s="45"/>
@@ -17053,8 +17203,8 @@
       <c r="G640" s="61"/>
       <c r="H640" s="45"/>
       <c r="I640" s="45"/>
-      <c r="J640" s="99"/>
-      <c r="K640" s="99"/>
+      <c r="J640" s="98"/>
+      <c r="K640" s="98"/>
       <c r="L640" s="61"/>
       <c r="M640" s="61"/>
       <c r="N640" s="61"/>
@@ -17075,8 +17225,8 @@
       <c r="G641" s="61"/>
       <c r="H641" s="45"/>
       <c r="I641" s="45"/>
-      <c r="J641" s="99"/>
-      <c r="K641" s="99"/>
+      <c r="J641" s="98"/>
+      <c r="K641" s="98"/>
       <c r="L641" s="61"/>
       <c r="M641" s="61"/>
       <c r="N641" s="61"/>
@@ -17097,8 +17247,8 @@
       <c r="G642" s="61"/>
       <c r="H642" s="45"/>
       <c r="I642" s="45"/>
-      <c r="J642" s="99"/>
-      <c r="K642" s="99"/>
+      <c r="J642" s="98"/>
+      <c r="K642" s="98"/>
       <c r="L642" s="61"/>
       <c r="M642" s="61"/>
       <c r="N642" s="61"/>
@@ -17119,8 +17269,8 @@
       <c r="G643" s="61"/>
       <c r="H643" s="45"/>
       <c r="I643" s="45"/>
-      <c r="J643" s="99"/>
-      <c r="K643" s="99"/>
+      <c r="J643" s="98"/>
+      <c r="K643" s="98"/>
       <c r="L643" s="61"/>
       <c r="M643" s="61"/>
       <c r="N643" s="61"/>
@@ -17229,8 +17379,8 @@
       <c r="G648" s="61"/>
       <c r="H648" s="61"/>
       <c r="I648" s="45"/>
-      <c r="J648" s="99"/>
-      <c r="K648" s="99"/>
+      <c r="J648" s="98"/>
+      <c r="K648" s="98"/>
       <c r="L648" s="61"/>
       <c r="M648" s="61"/>
       <c r="N648" s="61"/>
@@ -17251,8 +17401,8 @@
       <c r="G649" s="61"/>
       <c r="H649" s="61"/>
       <c r="I649" s="45"/>
-      <c r="J649" s="99"/>
-      <c r="K649" s="99"/>
+      <c r="J649" s="98"/>
+      <c r="K649" s="98"/>
       <c r="L649" s="61"/>
       <c r="M649" s="61"/>
       <c r="N649" s="61"/>
@@ -17273,8 +17423,8 @@
       <c r="G650" s="61"/>
       <c r="H650" s="61"/>
       <c r="I650" s="45"/>
-      <c r="J650" s="99"/>
-      <c r="K650" s="99"/>
+      <c r="J650" s="98"/>
+      <c r="K650" s="98"/>
       <c r="L650" s="61"/>
       <c r="M650" s="61"/>
       <c r="N650" s="61"/>
@@ -17295,8 +17445,8 @@
       <c r="G651" s="61"/>
       <c r="H651" s="61"/>
       <c r="I651" s="45"/>
-      <c r="J651" s="99"/>
-      <c r="K651" s="99"/>
+      <c r="J651" s="98"/>
+      <c r="K651" s="98"/>
       <c r="L651" s="61"/>
       <c r="M651" s="61"/>
       <c r="N651" s="61"/>
@@ -17361,8 +17511,8 @@
       <c r="G654" s="61"/>
       <c r="H654" s="61"/>
       <c r="I654" s="45"/>
-      <c r="J654" s="99"/>
-      <c r="K654" s="99"/>
+      <c r="J654" s="98"/>
+      <c r="K654" s="98"/>
       <c r="L654" s="61"/>
       <c r="M654" s="61"/>
       <c r="N654" s="61"/>
@@ -17383,8 +17533,8 @@
       <c r="G655" s="61"/>
       <c r="H655" s="61"/>
       <c r="I655" s="45"/>
-      <c r="J655" s="99"/>
-      <c r="K655" s="99"/>
+      <c r="J655" s="98"/>
+      <c r="K655" s="98"/>
       <c r="L655" s="61"/>
       <c r="M655" s="61"/>
       <c r="N655" s="61"/>
@@ -17405,8 +17555,8 @@
       <c r="G656" s="61"/>
       <c r="H656" s="61"/>
       <c r="I656" s="45"/>
-      <c r="J656" s="99"/>
-      <c r="K656" s="99"/>
+      <c r="J656" s="98"/>
+      <c r="K656" s="98"/>
       <c r="L656" s="61"/>
       <c r="M656" s="61"/>
       <c r="N656" s="61"/>
@@ -17427,8 +17577,8 @@
       <c r="G657" s="61"/>
       <c r="H657" s="61"/>
       <c r="I657" s="45"/>
-      <c r="J657" s="99"/>
-      <c r="K657" s="99"/>
+      <c r="J657" s="98"/>
+      <c r="K657" s="98"/>
       <c r="L657" s="61"/>
       <c r="M657" s="61"/>
       <c r="N657" s="61"/>
@@ -17779,7 +17929,7 @@
       <c r="G673" s="61"/>
       <c r="H673" s="61"/>
       <c r="I673" s="45"/>
-      <c r="J673" s="99"/>
+      <c r="J673" s="98"/>
       <c r="K673" s="45"/>
       <c r="L673" s="61"/>
       <c r="M673" s="61"/>
@@ -17801,7 +17951,7 @@
       <c r="G674" s="61"/>
       <c r="H674" s="45"/>
       <c r="I674" s="45"/>
-      <c r="J674" s="99"/>
+      <c r="J674" s="98"/>
       <c r="K674" s="45"/>
       <c r="L674" s="61"/>
       <c r="M674" s="61"/>
@@ -17823,7 +17973,7 @@
       <c r="G675" s="61"/>
       <c r="H675" s="61"/>
       <c r="I675" s="45"/>
-      <c r="J675" s="99"/>
+      <c r="J675" s="98"/>
       <c r="K675" s="45"/>
       <c r="L675" s="61"/>
       <c r="M675" s="61"/>
@@ -17845,7 +17995,7 @@
       <c r="G676" s="61"/>
       <c r="H676" s="45"/>
       <c r="I676" s="45"/>
-      <c r="J676" s="99"/>
+      <c r="J676" s="98"/>
       <c r="K676" s="45"/>
       <c r="L676" s="61"/>
       <c r="M676" s="61"/>
@@ -17867,7 +18017,7 @@
       <c r="G677" s="61"/>
       <c r="H677" s="61"/>
       <c r="I677" s="45"/>
-      <c r="J677" s="99"/>
+      <c r="J677" s="98"/>
       <c r="K677" s="45"/>
       <c r="L677" s="61"/>
       <c r="M677" s="61"/>
@@ -17889,7 +18039,7 @@
       <c r="G678" s="61"/>
       <c r="H678" s="45"/>
       <c r="I678" s="45"/>
-      <c r="J678" s="99"/>
+      <c r="J678" s="98"/>
       <c r="K678" s="45"/>
       <c r="L678" s="61"/>
       <c r="M678" s="61"/>
@@ -17947,7 +18097,7 @@
     </row>
     <row r="681" spans="1:20" ht="16" customHeight="1">
       <c r="A681" s="45"/>
-      <c r="B681" s="112"/>
+      <c r="B681" s="111"/>
       <c r="C681" s="61"/>
       <c r="D681" s="61"/>
       <c r="E681" s="61"/>
@@ -17955,8 +18105,8 @@
       <c r="G681" s="61"/>
       <c r="H681" s="45"/>
       <c r="I681" s="45"/>
-      <c r="J681" s="99"/>
-      <c r="K681" s="99"/>
+      <c r="J681" s="98"/>
+      <c r="K681" s="98"/>
       <c r="L681" s="61"/>
       <c r="M681" s="61"/>
       <c r="N681" s="61"/>
@@ -17969,7 +18119,7 @@
     </row>
     <row r="682" spans="1:20" ht="16" customHeight="1">
       <c r="A682" s="45"/>
-      <c r="B682" s="112"/>
+      <c r="B682" s="111"/>
       <c r="C682" s="61"/>
       <c r="D682" s="61"/>
       <c r="E682" s="61"/>
@@ -17977,8 +18127,8 @@
       <c r="G682" s="61"/>
       <c r="H682" s="45"/>
       <c r="I682" s="45"/>
-      <c r="J682" s="99"/>
-      <c r="K682" s="99"/>
+      <c r="J682" s="98"/>
+      <c r="K682" s="98"/>
       <c r="L682" s="61"/>
       <c r="M682" s="61"/>
       <c r="N682" s="61"/>
@@ -17991,7 +18141,7 @@
     </row>
     <row r="683" spans="1:20" ht="16" customHeight="1">
       <c r="A683" s="45"/>
-      <c r="B683" s="112"/>
+      <c r="B683" s="111"/>
       <c r="C683" s="61"/>
       <c r="D683" s="61"/>
       <c r="E683" s="61"/>
@@ -18013,7 +18163,7 @@
     </row>
     <row r="684" spans="1:20" ht="16" customHeight="1">
       <c r="A684" s="45"/>
-      <c r="B684" s="112"/>
+      <c r="B684" s="111"/>
       <c r="C684" s="61"/>
       <c r="D684" s="61"/>
       <c r="E684" s="61"/>
@@ -18035,7 +18185,7 @@
     </row>
     <row r="685" spans="1:20" ht="16" customHeight="1">
       <c r="A685" s="45"/>
-      <c r="B685" s="112"/>
+      <c r="B685" s="111"/>
       <c r="C685" s="61"/>
       <c r="D685" s="61"/>
       <c r="E685" s="61"/>
@@ -18057,7 +18207,7 @@
     </row>
     <row r="686" spans="1:20" ht="16" customHeight="1">
       <c r="A686" s="45"/>
-      <c r="B686" s="112"/>
+      <c r="B686" s="111"/>
       <c r="C686" s="61"/>
       <c r="D686" s="61"/>
       <c r="E686" s="61"/>
@@ -23967,11 +24117,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -23986,6 +24131,11 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C101A-8B12-AF4A-A622-E7BA99036CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F853532-1E1E-8842-9D8B-D940B57EDB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6540" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -358,6 +358,36 @@
   </si>
   <si>
     <t>10.1007/s11665-024-10046-z</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2024.108608</t>
+  </si>
+  <si>
+    <t>CoCrFeNi</t>
+  </si>
+  <si>
+    <t>(CoCrFeNi)24 Sm4</t>
+  </si>
+  <si>
+    <t>HEBM(MA)+CIP</t>
+  </si>
+  <si>
+    <t>ball milled in control agent with SS balls to mechanically alloy over 20h in Ar at RT followed by 773K heat treatment over 1h to remove the control agent and cold pressed in 6mm die</t>
+  </si>
+  <si>
+    <t>FCC</t>
+  </si>
+  <si>
+    <t>HEBM(MA)+CIP+A</t>
+  </si>
+  <si>
+    <t>ball milled in control agent with SS balls to mechanically alloy over 20h in Ar at RT followed by 773K heat treatment over 1h to remove the control agent and cold pressed in 6mm die; annealed at 1373K for 24h to relax and homogenize the material; Cr2O3 and Cr7C3 impurities precipitated</t>
+  </si>
+  <si>
+    <t>ball milled in control agent with SS balls to mechanically alloy over 20h in Ar at RT followed by 773K heat treatment over 1h to remove the control agent and cold pressed in 6mm die; annealed at 1373K for 24h to relax and homogenize the material; Cr2O3 and SmCrO3 impurities precipitated</t>
+  </si>
+  <si>
+    <t>F8</t>
   </si>
 </sst>
 </file>
@@ -2867,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3248,7 +3278,7 @@
         <v>298</v>
       </c>
       <c r="J10" s="98">
-        <f t="shared" ref="J10:K13" si="0">P10*9807000</f>
+        <f t="shared" ref="J10:K17" si="0">P10*9807000</f>
         <v>1372980000</v>
       </c>
       <c r="K10" s="98">
@@ -3425,88 +3455,200 @@
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="73"/>
+      <c r="B14" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" s="33"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="I14" s="75">
+        <v>298</v>
+      </c>
+      <c r="J14" s="98">
+        <f t="shared" si="0"/>
+        <v>5081809090.9090891</v>
+      </c>
+      <c r="K14" s="98">
+        <f>(Q14-P14)*9807000</f>
+        <v>152836363.63635746</v>
+      </c>
       <c r="L14" s="73"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="76"/>
+      <c r="M14" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="76" t="s">
+        <v>76</v>
+      </c>
       <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
+      <c r="P14" s="37">
+        <v>518.18181818181802</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>533.76623376623297</v>
+      </c>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="73"/>
+      <c r="B15" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="33"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="35"/>
+      <c r="I15" s="75">
+        <v>298</v>
+      </c>
+      <c r="J15" s="98">
+        <f t="shared" si="0"/>
+        <v>5196436363.6363544</v>
+      </c>
+      <c r="K15" s="98">
+        <f t="shared" ref="K15:K17" si="1">(Q15-P15)*9807000</f>
+        <v>128955681.81818575</v>
+      </c>
       <c r="L15" s="73"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="76"/>
+      <c r="M15" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="76" t="s">
+        <v>76</v>
+      </c>
       <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
+      <c r="P15" s="37">
+        <v>529.87012987012895</v>
+      </c>
+      <c r="Q15" s="37">
+        <v>543.01948051948</v>
+      </c>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="73"/>
+      <c r="B16" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="33"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="38"/>
+      <c r="I16" s="75">
+        <v>298</v>
+      </c>
+      <c r="J16" s="98">
+        <f t="shared" si="0"/>
+        <v>1795827272.7272716</v>
+      </c>
+      <c r="K16" s="98">
+        <f t="shared" si="1"/>
+        <v>52537500.000001431</v>
+      </c>
       <c r="L16" s="73"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="76"/>
+      <c r="M16" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="76" t="s">
+        <v>76</v>
+      </c>
       <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38"/>
+      <c r="P16" s="37">
+        <v>183.116883116883</v>
+      </c>
+      <c r="Q16" s="37">
+        <v>188.47402597402601</v>
+      </c>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
     </row>
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="73"/>
+      <c r="B17" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H17" s="33"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="38"/>
+      <c r="I17" s="75">
+        <v>298</v>
+      </c>
+      <c r="J17" s="98">
+        <f t="shared" si="0"/>
+        <v>3128369318.1818132</v>
+      </c>
+      <c r="K17" s="98">
+        <f t="shared" si="1"/>
+        <v>324777272.72727162</v>
+      </c>
       <c r="L17" s="73"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="76"/>
+      <c r="M17" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="76" t="s">
+        <v>76</v>
+      </c>
       <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="39"/>
+      <c r="P17" s="37">
+        <v>318.993506493506</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>352.11038961038901</v>
+      </c>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F853532-1E1E-8842-9D8B-D940B57EDB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BCFEEF-CCAF-264A-8367-0EDDEDA6B84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6540" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="7300" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -388,6 +388,45 @@
   </si>
   <si>
     <t>F8</t>
+  </si>
+  <si>
+    <t>10.1007/s10948-023-06643-z</t>
+  </si>
+  <si>
+    <t>NbScTiZr</t>
+  </si>
+  <si>
+    <t>AAM</t>
+  </si>
+  <si>
+    <t>AAM+A</t>
+  </si>
+  <si>
+    <t>BCC+HCP</t>
+  </si>
+  <si>
+    <t>slight BCC majority</t>
+  </si>
+  <si>
+    <t>annealed at 1073K for 96h (best of 3 annealing trials in the paper); equal BCC and FCC fractions</t>
+  </si>
+  <si>
+    <t>superconducting critical temperature</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>electrical resistivity</t>
+  </si>
+  <si>
+    <t>Ohm m</t>
+  </si>
+  <si>
+    <t>F3</t>
   </si>
 </sst>
 </file>
@@ -2897,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3285,7 +3324,9 @@
         <f t="shared" si="0"/>
         <v>58842000</v>
       </c>
-      <c r="L10" s="73"/>
+      <c r="L10" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="M10" s="73" t="s">
         <v>74</v>
       </c>
@@ -3335,7 +3376,9 @@
         <f t="shared" si="0"/>
         <v>98070000</v>
       </c>
-      <c r="L11" s="73"/>
+      <c r="L11" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="M11" s="73" t="s">
         <v>74</v>
       </c>
@@ -3385,7 +3428,9 @@
         <f t="shared" si="0"/>
         <v>49035000</v>
       </c>
-      <c r="L12" s="73"/>
+      <c r="L12" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="M12" s="73" t="s">
         <v>74</v>
       </c>
@@ -3435,7 +3480,9 @@
         <f t="shared" si="0"/>
         <v>88263000</v>
       </c>
-      <c r="L13" s="73"/>
+      <c r="L13" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="M13" s="73" t="s">
         <v>74</v>
       </c>
@@ -3485,7 +3532,9 @@
         <f>(Q14-P14)*9807000</f>
         <v>152836363.63635746</v>
       </c>
-      <c r="L14" s="73"/>
+      <c r="L14" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="M14" s="32" t="s">
         <v>85</v>
       </c>
@@ -3535,7 +3584,9 @@
         <f t="shared" ref="K15:K17" si="1">(Q15-P15)*9807000</f>
         <v>128955681.81818575</v>
       </c>
-      <c r="L15" s="73"/>
+      <c r="L15" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="M15" s="32" t="s">
         <v>85</v>
       </c>
@@ -3585,7 +3636,9 @@
         <f t="shared" si="1"/>
         <v>52537500.000001431</v>
       </c>
-      <c r="L16" s="73"/>
+      <c r="L16" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="M16" s="32" t="s">
         <v>85</v>
       </c>
@@ -3635,7 +3688,9 @@
         <f t="shared" si="1"/>
         <v>324777272.72727162</v>
       </c>
-      <c r="L17" s="73"/>
+      <c r="L17" s="73" t="s">
+        <v>33</v>
+      </c>
       <c r="M17" s="32" t="s">
         <v>85</v>
       </c>
@@ -3655,19 +3710,39 @@
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="73"/>
+      <c r="B18" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H18" s="33"/>
       <c r="I18" s="75"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="75">
+        <v>7.9</v>
+      </c>
       <c r="K18" s="38"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="76"/>
+      <c r="L18" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="39"/>
@@ -3677,19 +3752,39 @@
     </row>
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="73"/>
+      <c r="B19" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H19" s="33"/>
       <c r="I19" s="75"/>
-      <c r="J19" s="62"/>
+      <c r="J19" s="75">
+        <v>9</v>
+      </c>
       <c r="K19" s="38"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="76"/>
+      <c r="L19" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="39"/>
@@ -3699,19 +3794,41 @@
     </row>
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="73"/>
+      <c r="B20" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H20" s="33"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="62"/>
+      <c r="I20" s="75">
+        <v>10</v>
+      </c>
+      <c r="J20" s="35">
+        <v>2.0037353255069298E-6</v>
+      </c>
       <c r="K20" s="38"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="76"/>
+      <c r="L20" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="39"/>
@@ -3721,19 +3838,41 @@
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="73"/>
+      <c r="B21" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H21" s="33"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="62"/>
+      <c r="I21" s="75">
+        <v>10</v>
+      </c>
+      <c r="J21" s="35">
+        <v>8.2443970117395898E-7</v>
+      </c>
       <c r="K21" s="38"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="76"/>
+      <c r="L21" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="39"/>
@@ -3743,19 +3882,41 @@
     </row>
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="73"/>
+      <c r="B22" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="37"/>
+      <c r="I22" s="75">
+        <v>150</v>
+      </c>
+      <c r="J22" s="35">
+        <v>2.1424999999999998E-6</v>
+      </c>
       <c r="K22" s="35"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="76"/>
+      <c r="L22" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="39"/>
@@ -3765,19 +3926,41 @@
     </row>
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="73"/>
+      <c r="B23" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H23" s="33"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="62"/>
+      <c r="I23" s="75">
+        <v>150</v>
+      </c>
+      <c r="J23" s="35">
+        <v>9.07150480256136E-7</v>
+      </c>
       <c r="K23" s="62"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="76"/>
+      <c r="L23" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="39"/>
@@ -3787,19 +3970,41 @@
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="73"/>
+      <c r="B24" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H24" s="33"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="62"/>
+      <c r="I24" s="75">
+        <v>298</v>
+      </c>
+      <c r="J24" s="35">
+        <v>2.2918890074706501E-6</v>
+      </c>
       <c r="K24" s="62"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="76"/>
+      <c r="L24" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="39"/>
@@ -3809,19 +4014,41 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>29</v>
+      </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="62"/>
+      <c r="I25" s="34">
+        <v>298</v>
+      </c>
+      <c r="J25" s="35">
+        <v>9.8185699039487693E-7</v>
+      </c>
       <c r="K25" s="62"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="36"/>
+      <c r="L25" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="39"/>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BCFEEF-CCAF-264A-8367-0EDDEDA6B84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9683698-4AA1-3945-9978-9C68EF862D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="7300" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="6580" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,9 +411,6 @@
     <t>annealed at 1073K for 96h (best of 3 annealing trials in the paper); equal BCC and FCC fractions</t>
   </si>
   <si>
-    <t>superconducting critical temperature</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>F3</t>
+  </si>
+  <si>
+    <t>superconducting transition temperature</t>
   </si>
 </sst>
 </file>
@@ -1663,57 +1663,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1773,6 +1722,57 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2937,7 +2937,7 @@
   <dimension ref="A1:T960"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -2994,19 +2994,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="130"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="137"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="120"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3022,17 +3022,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="141"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="124"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3073,43 +3073,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="144" t="s">
+      <c r="F5" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="144" t="s">
+      <c r="I5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="144" t="s">
+      <c r="J5" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="144" t="s">
+      <c r="K5" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="144" t="s">
+      <c r="L5" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="144" t="s">
+      <c r="M5" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="144" t="s">
+      <c r="N5" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="112" t="s">
+      <c r="O5" s="132" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3125,19 +3125,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="113"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="133"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3187,7 +3187,7 @@
       <c r="N7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="114"/>
+      <c r="O7" s="134"/>
       <c r="P7" s="68" t="s">
         <v>62</v>
       </c>
@@ -3202,35 +3202,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="63"/>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118" t="s">
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="123" t="s">
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="124"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="125" t="s">
+      <c r="P8" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="128"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="148"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="64" t="s">
@@ -3723,7 +3723,7 @@
         <v>91</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G18" s="73" t="s">
         <v>29</v>
@@ -3735,10 +3735,10 @@
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>95</v>
       </c>
       <c r="N18" s="76" t="s">
         <v>86</v>
@@ -3765,7 +3765,7 @@
         <v>92</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G19" s="73" t="s">
         <v>29</v>
@@ -3777,10 +3777,10 @@
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>95</v>
       </c>
       <c r="N19" s="76" t="s">
         <v>86</v>
@@ -3807,7 +3807,7 @@
         <v>91</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="73" t="s">
         <v>29</v>
@@ -3821,10 +3821,10 @@
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="N20" s="76" t="s">
         <v>86</v>
@@ -3851,7 +3851,7 @@
         <v>92</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="73" t="s">
         <v>29</v>
@@ -3865,10 +3865,10 @@
       </c>
       <c r="K21" s="38"/>
       <c r="L21" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="N21" s="76" t="s">
         <v>86</v>
@@ -3895,7 +3895,7 @@
         <v>91</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="73" t="s">
         <v>29</v>
@@ -3909,10 +3909,10 @@
       </c>
       <c r="K22" s="35"/>
       <c r="L22" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="N22" s="76" t="s">
         <v>86</v>
@@ -3939,7 +3939,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="73" t="s">
         <v>29</v>
@@ -3953,10 +3953,10 @@
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="N23" s="76" t="s">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>91</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="73" t="s">
         <v>29</v>
@@ -3997,10 +3997,10 @@
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="N24" s="76" t="s">
         <v>86</v>
@@ -4027,7 +4027,7 @@
         <v>92</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="73" t="s">
         <v>29</v>
@@ -4041,10 +4041,10 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="N25" s="76" t="s">
         <v>86</v>
@@ -24486,6 +24486,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -24500,11 +24505,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6DA81-42AE-6549-82A4-783188EA7E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C329AA5E-8F38-0345-A23C-BB92971884EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="6840" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="243">
   <si>
     <r>
       <rPr>
@@ -847,6 +847,18 @@
   </si>
   <si>
     <t>high-throughput method with independent compositions; ball milled for 24h to mechanically alloy then vacuumed at 773K for 8h and HIPed at 1273K under 150MPa for 4h to densify and allow for diffusion  and slowly cooled; ? is unidentified intermetallic but XRD was available; one Cu-rich FCC phase</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Al28 Co5 Cr27 Fe5 Ni5 Mo25 Ti5</t>
+  </si>
+  <si>
+    <t>Al38 Co5 Cr18 Fe5 Ni5 Mo24 Ti5</t>
+  </si>
+  <si>
+    <t>10.1016/j.matchemphys.2025.131068</t>
   </si>
 </sst>
 </file>
@@ -3352,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -7671,7 +7683,7 @@
         <v>298</v>
       </c>
       <c r="J91" s="96">
-        <f t="shared" ref="J91:J110" si="3">P91*9807000</f>
+        <f t="shared" ref="J91:K112" si="3">P91*9807000</f>
         <v>6668760000</v>
       </c>
       <c r="K91" s="49"/>
@@ -8626,44 +8638,100 @@
     </row>
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="51"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
+      <c r="B111" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E111" s="31"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32"/>
+      <c r="F111" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H111" s="33"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="49"/>
-      <c r="L111" s="50"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="30"/>
+      <c r="I111" s="34">
+        <v>298</v>
+      </c>
+      <c r="J111" s="35">
+        <f t="shared" si="3"/>
+        <v>8345757000</v>
+      </c>
+      <c r="K111" s="35">
+        <f t="shared" si="3"/>
+        <v>186333000</v>
+      </c>
+      <c r="L111" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M111" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="N111" s="30" t="s">
+        <v>242</v>
+      </c>
       <c r="O111" s="46"/>
-      <c r="P111" s="47"/>
-      <c r="Q111" s="39"/>
+      <c r="P111" s="47">
+        <v>851</v>
+      </c>
+      <c r="Q111" s="39">
+        <v>19</v>
+      </c>
       <c r="R111" s="46"/>
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
     </row>
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="51"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
+      <c r="B112" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E112" s="31"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
+      <c r="F112" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H112" s="33"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="49"/>
-      <c r="L112" s="50"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="30"/>
+      <c r="I112" s="34">
+        <v>298</v>
+      </c>
+      <c r="J112" s="35">
+        <f t="shared" si="3"/>
+        <v>7708302000</v>
+      </c>
+      <c r="K112" s="35">
+        <f t="shared" si="3"/>
+        <v>343245000</v>
+      </c>
+      <c r="L112" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M112" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="N112" s="30" t="s">
+        <v>242</v>
+      </c>
       <c r="O112" s="46"/>
-      <c r="P112" s="47"/>
-      <c r="Q112" s="39"/>
+      <c r="P112" s="47">
+        <v>786</v>
+      </c>
+      <c r="Q112" s="39">
+        <v>35</v>
+      </c>
       <c r="R112" s="46"/>
       <c r="S112" s="37"/>
       <c r="T112" s="37"/>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BEF36F-D16D-6C43-AD2E-D9ECA15C7474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594EFA1-BF8F-9040-8C72-9C5892C57D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="6840" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="9060" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="300">
   <si>
     <r>
       <rPr>
@@ -1003,6 +1003,33 @@
   </si>
   <si>
     <t>after optimized L-DED annealed at 1473K for 24h and then at 1073K for 10h; characterized with high throughput micro-XRD; hardness values estimated from color map carry high uncertainty due to contour quantization and smoothing applied</t>
+  </si>
+  <si>
+    <t>FeCoNi</t>
+  </si>
+  <si>
+    <t>FeCoNiCu</t>
+  </si>
+  <si>
+    <t>FeCoNiCuAl</t>
+  </si>
+  <si>
+    <t>FeCoNiCuTi</t>
+  </si>
+  <si>
+    <t>FCC+BCC+FCC</t>
+  </si>
+  <si>
+    <t>FCC+FCC+BCC+laves</t>
+  </si>
+  <si>
+    <t>RFICP</t>
+  </si>
+  <si>
+    <t>0.5g sample deposited with 1100W RF-ICP torch for 40s and cooled over 15s</t>
+  </si>
+  <si>
+    <t>10.1002/adem.202001116</t>
   </si>
 </sst>
 </file>
@@ -2228,57 +2255,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2338,6 +2314,57 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3501,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A107" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q143" sqref="Q143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3559,19 +3586,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="130"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="113"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3587,17 +3614,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="134"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="117"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3638,43 +3665,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="138" t="s">
+      <c r="H5" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="137" t="s">
+      <c r="M5" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="137" t="s">
+      <c r="N5" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="105" t="s">
+      <c r="O5" s="125" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3690,19 +3717,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="106"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3752,7 +3779,7 @@
       <c r="N7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="107"/>
+      <c r="O7" s="127"/>
       <c r="P7" s="65" t="s">
         <v>62</v>
       </c>
@@ -3767,35 +3794,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="60"/>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116" t="s">
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="117"/>
+      <c r="N8" s="137"/>
       <c r="O8" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="118" t="s">
+      <c r="P8" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="121"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="141"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="61" t="s">
@@ -8949,7 +8976,7 @@
         <v>298</v>
       </c>
       <c r="J114" s="35">
-        <f t="shared" ref="J114:K147" si="4">P114*9807000</f>
+        <f t="shared" ref="J114:J147" si="4">P114*9807000</f>
         <v>2167347000</v>
       </c>
       <c r="K114" s="35"/>
@@ -10590,10 +10617,18 @@
     </row>
     <row r="148" spans="1:20" ht="18" customHeight="1">
       <c r="A148" s="50"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="31"/>
+      <c r="B148" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E148" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="F148" s="52"/>
       <c r="G148" s="32"/>
       <c r="H148" s="33"/>
@@ -10601,8 +10636,12 @@
       <c r="J148" s="37"/>
       <c r="K148" s="51"/>
       <c r="L148" s="49"/>
-      <c r="M148" s="49"/>
-      <c r="N148" s="30"/>
+      <c r="M148" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="N148" s="30" t="s">
+        <v>299</v>
+      </c>
       <c r="O148" s="37"/>
       <c r="P148" s="38"/>
       <c r="Q148" s="38"/>
@@ -10612,10 +10651,18 @@
     </row>
     <row r="149" spans="1:20" ht="18" customHeight="1">
       <c r="A149" s="50"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="31"/>
+      <c r="B149" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E149" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="F149" s="52"/>
       <c r="G149" s="32"/>
       <c r="H149" s="33"/>
@@ -10623,8 +10670,12 @@
       <c r="J149" s="37"/>
       <c r="K149" s="51"/>
       <c r="L149" s="49"/>
-      <c r="M149" s="49"/>
-      <c r="N149" s="30"/>
+      <c r="M149" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="N149" s="30" t="s">
+        <v>299</v>
+      </c>
       <c r="O149" s="37"/>
       <c r="P149" s="38"/>
       <c r="Q149" s="38"/>
@@ -10634,10 +10685,18 @@
     </row>
     <row r="150" spans="1:20" ht="18" customHeight="1">
       <c r="A150" s="50"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="31"/>
+      <c r="B150" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E150" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="F150" s="52"/>
       <c r="G150" s="32"/>
       <c r="H150" s="33"/>
@@ -10645,8 +10704,12 @@
       <c r="J150" s="37"/>
       <c r="K150" s="48"/>
       <c r="L150" s="49"/>
-      <c r="M150" s="49"/>
-      <c r="N150" s="30"/>
+      <c r="M150" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="N150" s="30" t="s">
+        <v>299</v>
+      </c>
       <c r="O150" s="37"/>
       <c r="P150" s="38"/>
       <c r="Q150" s="38"/>
@@ -10656,10 +10719,18 @@
     </row>
     <row r="151" spans="1:20" ht="18" customHeight="1">
       <c r="A151" s="50"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="31"/>
+      <c r="B151" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="F151" s="52"/>
       <c r="G151" s="32"/>
       <c r="H151" s="33"/>
@@ -10667,8 +10738,12 @@
       <c r="J151" s="37"/>
       <c r="K151" s="48"/>
       <c r="L151" s="49"/>
-      <c r="M151" s="49"/>
-      <c r="N151" s="30"/>
+      <c r="M151" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="N151" s="30" t="s">
+        <v>299</v>
+      </c>
       <c r="O151" s="37"/>
       <c r="P151" s="38"/>
       <c r="Q151" s="38"/>
@@ -28334,6 +28409,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -28348,11 +28428,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594EFA1-BF8F-9040-8C72-9C5892C57D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6B8BB-BC2A-6945-9F0C-611C9DD2FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="9060" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="8100" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="311">
   <si>
     <r>
       <rPr>
@@ -1030,6 +1030,39 @@
   </si>
   <si>
     <t>10.1002/adem.202001116</t>
+  </si>
+  <si>
+    <t>Ti22Zr11Nb23Mo16V28</t>
+  </si>
+  <si>
+    <t>Ti34Zr15Nb24Mo4V23</t>
+  </si>
+  <si>
+    <t>Ti44Zr15Nb28Mo3V10</t>
+  </si>
+  <si>
+    <t>Ti35Zr14Nb28Mo7V16</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>corrosion potential</t>
+  </si>
+  <si>
+    <t>pitting potential</t>
+  </si>
+  <si>
+    <t>corrosion current density</t>
+  </si>
+  <si>
+    <t>A/m^2</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>10.1016/j.surfcoat.2025.131978</t>
   </si>
 </sst>
 </file>
@@ -2255,6 +2288,57 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2314,57 +2398,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3528,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H162" sqref="H162"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N162" sqref="N162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3586,19 +3619,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="113"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="130"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3614,17 +3647,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="117"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="134"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3665,43 +3698,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="120" t="s">
+      <c r="M5" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="120" t="s">
+      <c r="N5" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="105" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3717,19 +3750,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="126"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="106"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3779,7 +3812,7 @@
       <c r="N7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="127"/>
+      <c r="O7" s="107"/>
       <c r="P7" s="65" t="s">
         <v>62</v>
       </c>
@@ -3794,35 +3827,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="60"/>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="136" t="s">
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="137"/>
+      <c r="N8" s="117"/>
       <c r="O8" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="138" t="s">
+      <c r="P8" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="141"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="121"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="61" t="s">
@@ -10753,19 +10786,39 @@
     </row>
     <row r="152" spans="1:20" ht="18" customHeight="1">
       <c r="A152" s="50"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
+      <c r="B152" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E152" s="31"/>
-      <c r="F152" s="52"/>
-      <c r="G152" s="32"/>
+      <c r="F152" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G152" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H152" s="33"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="48"/>
+      <c r="I152" s="34">
+        <v>298</v>
+      </c>
+      <c r="J152" s="48">
+        <v>8.1699999999999995E-2</v>
+      </c>
       <c r="K152" s="48"/>
-      <c r="L152" s="49"/>
-      <c r="M152" s="49"/>
-      <c r="N152" s="30"/>
+      <c r="L152" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M152" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N152" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O152" s="37"/>
       <c r="P152" s="38"/>
       <c r="Q152" s="38"/>
@@ -10775,19 +10828,37 @@
     </row>
     <row r="153" spans="1:20" ht="18" customHeight="1">
       <c r="A153" s="50"/>
-      <c r="B153" s="31"/>
+      <c r="B153" s="31" t="s">
+        <v>301</v>
+      </c>
       <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
+      <c r="D153" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E153" s="31"/>
-      <c r="F153" s="52"/>
-      <c r="G153" s="32"/>
+      <c r="F153" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G153" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H153" s="33"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="48"/>
+      <c r="I153" s="34">
+        <v>298</v>
+      </c>
+      <c r="J153" s="48">
+        <v>-2.5999999999999999E-3</v>
+      </c>
       <c r="K153" s="48"/>
-      <c r="L153" s="49"/>
-      <c r="M153" s="49"/>
-      <c r="N153" s="30"/>
+      <c r="L153" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M153" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N153" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O153" s="37"/>
       <c r="P153" s="38"/>
       <c r="Q153" s="38"/>
@@ -10797,19 +10868,37 @@
     </row>
     <row r="154" spans="1:20" ht="18" customHeight="1">
       <c r="A154" s="50"/>
-      <c r="B154" s="31"/>
+      <c r="B154" s="31" t="s">
+        <v>302</v>
+      </c>
       <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
+      <c r="D154" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E154" s="31"/>
-      <c r="F154" s="52"/>
-      <c r="G154" s="32"/>
+      <c r="F154" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G154" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H154" s="33"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="48"/>
+      <c r="I154" s="34">
+        <v>298</v>
+      </c>
+      <c r="J154" s="48">
+        <v>-2.24E-2</v>
+      </c>
       <c r="K154" s="48"/>
-      <c r="L154" s="49"/>
-      <c r="M154" s="49"/>
-      <c r="N154" s="30"/>
+      <c r="L154" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M154" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N154" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O154" s="37"/>
       <c r="P154" s="38"/>
       <c r="Q154" s="38"/>
@@ -10819,19 +10908,37 @@
     </row>
     <row r="155" spans="1:20" ht="18" customHeight="1">
       <c r="A155" s="50"/>
-      <c r="B155" s="31"/>
+      <c r="B155" s="31" t="s">
+        <v>303</v>
+      </c>
       <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
+      <c r="D155" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E155" s="31"/>
-      <c r="F155" s="52"/>
-      <c r="G155" s="32"/>
+      <c r="F155" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G155" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H155" s="33"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="48"/>
+      <c r="I155" s="34">
+        <v>298</v>
+      </c>
+      <c r="J155" s="48">
+        <v>1.38E-2</v>
+      </c>
       <c r="K155" s="48"/>
-      <c r="L155" s="49"/>
-      <c r="M155" s="49"/>
-      <c r="N155" s="30"/>
+      <c r="L155" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M155" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N155" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O155" s="37"/>
       <c r="P155" s="38"/>
       <c r="Q155" s="38"/>
@@ -10841,19 +10948,39 @@
     </row>
     <row r="156" spans="1:20" ht="18" customHeight="1">
       <c r="A156" s="50"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30"/>
+      <c r="B156" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E156" s="31"/>
-      <c r="F156" s="52"/>
-      <c r="G156" s="32"/>
+      <c r="F156" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G156" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H156" s="33"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="48"/>
+      <c r="I156" s="34">
+        <v>298</v>
+      </c>
+      <c r="J156" s="48">
+        <v>1.6756</v>
+      </c>
       <c r="K156" s="38"/>
-      <c r="L156" s="49"/>
-      <c r="M156" s="49"/>
-      <c r="N156" s="30"/>
+      <c r="L156" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M156" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N156" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O156" s="37"/>
       <c r="P156" s="38"/>
       <c r="Q156" s="38"/>
@@ -10863,19 +10990,37 @@
     </row>
     <row r="157" spans="1:20" ht="18" customHeight="1">
       <c r="A157" s="50"/>
-      <c r="B157" s="31"/>
+      <c r="B157" s="31" t="s">
+        <v>301</v>
+      </c>
       <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
+      <c r="D157" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E157" s="31"/>
-      <c r="F157" s="52"/>
-      <c r="G157" s="32"/>
+      <c r="F157" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G157" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H157" s="33"/>
-      <c r="I157" s="34"/>
-      <c r="J157" s="48"/>
+      <c r="I157" s="34">
+        <v>298</v>
+      </c>
+      <c r="J157" s="48">
+        <v>1.7216</v>
+      </c>
       <c r="K157" s="38"/>
-      <c r="L157" s="49"/>
-      <c r="M157" s="49"/>
-      <c r="N157" s="30"/>
+      <c r="L157" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M157" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N157" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O157" s="37"/>
       <c r="P157" s="38"/>
       <c r="Q157" s="38"/>
@@ -10885,19 +11030,37 @@
     </row>
     <row r="158" spans="1:20" ht="18" customHeight="1">
       <c r="A158" s="50"/>
-      <c r="B158" s="31"/>
+      <c r="B158" s="31" t="s">
+        <v>302</v>
+      </c>
       <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
+      <c r="D158" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E158" s="31"/>
-      <c r="F158" s="52"/>
-      <c r="G158" s="32"/>
+      <c r="F158" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G158" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H158" s="33"/>
-      <c r="I158" s="34"/>
-      <c r="J158" s="48"/>
+      <c r="I158" s="34">
+        <v>298</v>
+      </c>
+      <c r="J158" s="48">
+        <v>1.6817</v>
+      </c>
       <c r="K158" s="38"/>
-      <c r="L158" s="49"/>
-      <c r="M158" s="49"/>
-      <c r="N158" s="30"/>
+      <c r="L158" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M158" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N158" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O158" s="37"/>
       <c r="P158" s="39"/>
       <c r="Q158" s="38"/>
@@ -10907,19 +11070,37 @@
     </row>
     <row r="159" spans="1:20" ht="18" customHeight="1">
       <c r="A159" s="50"/>
-      <c r="B159" s="31"/>
+      <c r="B159" s="31" t="s">
+        <v>303</v>
+      </c>
       <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
+      <c r="D159" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E159" s="31"/>
-      <c r="F159" s="52"/>
-      <c r="G159" s="32"/>
+      <c r="F159" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G159" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H159" s="33"/>
-      <c r="I159" s="34"/>
-      <c r="J159" s="48"/>
+      <c r="I159" s="34">
+        <v>298</v>
+      </c>
+      <c r="J159" s="48">
+        <v>1.9311</v>
+      </c>
       <c r="K159" s="38"/>
-      <c r="L159" s="49"/>
-      <c r="M159" s="49"/>
-      <c r="N159" s="30"/>
+      <c r="L159" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M159" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N159" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O159" s="37"/>
       <c r="P159" s="46"/>
       <c r="Q159" s="38"/>
@@ -10929,19 +11110,39 @@
     </row>
     <row r="160" spans="1:20" ht="18" customHeight="1">
       <c r="A160" s="50"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
+      <c r="B160" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="E160" s="31"/>
-      <c r="F160" s="52"/>
-      <c r="G160" s="32"/>
+      <c r="F160" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="G160" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H160" s="33"/>
-      <c r="I160" s="34"/>
-      <c r="J160" s="48"/>
+      <c r="I160" s="34">
+        <v>298</v>
+      </c>
+      <c r="J160" s="48">
+        <v>1.06E-3</v>
+      </c>
       <c r="K160" s="38"/>
-      <c r="L160" s="49"/>
-      <c r="M160" s="49"/>
-      <c r="N160" s="30"/>
+      <c r="L160" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="M160" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N160" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="O160" s="37"/>
       <c r="P160" s="46"/>
       <c r="Q160" s="38"/>
@@ -28409,11 +28610,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -28428,6 +28624,11 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6B8BB-BC2A-6945-9F0C-611C9DD2FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DE0CFA-C60A-2540-A82D-3975919D940B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="8100" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="323">
   <si>
     <r>
       <rPr>
@@ -1063,6 +1063,42 @@
   </si>
   <si>
     <t>10.1016/j.surfcoat.2025.131978</t>
+  </si>
+  <si>
+    <t>10.1016/j.corsci.2025.112978</t>
+  </si>
+  <si>
+    <t>0Mn</t>
+  </si>
+  <si>
+    <t>10Mn</t>
+  </si>
+  <si>
+    <t>20Mn</t>
+  </si>
+  <si>
+    <t>30Mn</t>
+  </si>
+  <si>
+    <t>Fe56 Cr20 Ni20 Si4</t>
+  </si>
+  <si>
+    <t>Fe46 Cr20 Ni20 Si4 Mn10</t>
+  </si>
+  <si>
+    <t>Fe36 Cr20 Ni20 Si4 Mn20</t>
+  </si>
+  <si>
+    <t>Fe26 Cr20 Ni20 Si4 Mn30</t>
+  </si>
+  <si>
+    <t>homogenized at 1473K for 4h in Ar followed by water quench then cold-rolled with 80% reduction and recrystallized at 1473K for 2min and quenched again</t>
+  </si>
+  <si>
+    <t>VAM+VIM+H+WQ+CR+RX+WQ</t>
+  </si>
+  <si>
+    <t>F2</t>
   </si>
 </sst>
 </file>
@@ -3562,7 +3598,7 @@
   <dimension ref="A1:T960"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N162" sqref="N162"/>
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -11151,20 +11187,46 @@
       <c r="T160" s="37"/>
     </row>
     <row r="161" spans="1:20" ht="18" customHeight="1">
-      <c r="A161" s="50"/>
-      <c r="B161" s="31"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="52"/>
-      <c r="G161" s="32"/>
+      <c r="A161" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E161" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G161" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H161" s="33"/>
-      <c r="I161" s="34"/>
-      <c r="J161" s="48"/>
-      <c r="K161" s="38"/>
-      <c r="L161" s="49"/>
-      <c r="M161" s="49"/>
-      <c r="N161" s="30"/>
+      <c r="I161" s="34">
+        <v>298</v>
+      </c>
+      <c r="J161" s="48">
+        <v>-0.25</v>
+      </c>
+      <c r="K161" s="51">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L161" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M161" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="N161" s="30" t="s">
+        <v>311</v>
+      </c>
       <c r="O161" s="37"/>
       <c r="P161" s="46"/>
       <c r="Q161" s="38"/>
@@ -11173,20 +11235,46 @@
       <c r="T161" s="37"/>
     </row>
     <row r="162" spans="1:20" ht="18" customHeight="1">
-      <c r="A162" s="50"/>
-      <c r="B162" s="31"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="52"/>
-      <c r="G162" s="32"/>
+      <c r="A162" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E162" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G162" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H162" s="33"/>
-      <c r="I162" s="34"/>
-      <c r="J162" s="48"/>
-      <c r="K162" s="38"/>
-      <c r="L162" s="49"/>
-      <c r="M162" s="49"/>
-      <c r="N162" s="30"/>
+      <c r="I162" s="34">
+        <v>298</v>
+      </c>
+      <c r="J162" s="48">
+        <v>-0.247</v>
+      </c>
+      <c r="K162" s="51">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L162" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M162" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="N162" s="30" t="s">
+        <v>311</v>
+      </c>
       <c r="O162" s="37"/>
       <c r="P162" s="46"/>
       <c r="Q162" s="38"/>
@@ -11195,20 +11283,46 @@
       <c r="T162" s="37"/>
     </row>
     <row r="163" spans="1:20" ht="18" customHeight="1">
-      <c r="A163" s="50"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="52"/>
-      <c r="G163" s="32"/>
+      <c r="A163" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E163" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G163" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H163" s="33"/>
-      <c r="I163" s="34"/>
-      <c r="J163" s="48"/>
-      <c r="K163" s="38"/>
-      <c r="L163" s="49"/>
-      <c r="M163" s="49"/>
-      <c r="N163" s="30"/>
+      <c r="I163" s="34">
+        <v>298</v>
+      </c>
+      <c r="J163" s="48">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="K163" s="51">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L163" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M163" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="N163" s="30" t="s">
+        <v>311</v>
+      </c>
       <c r="O163" s="37"/>
       <c r="P163" s="46"/>
       <c r="Q163" s="38"/>
@@ -11217,20 +11331,46 @@
       <c r="T163" s="37"/>
     </row>
     <row r="164" spans="1:20" ht="18" customHeight="1">
-      <c r="A164" s="50"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="31"/>
-      <c r="F164" s="52"/>
-      <c r="G164" s="32"/>
+      <c r="A164" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E164" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G164" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H164" s="33"/>
-      <c r="I164" s="34"/>
-      <c r="J164" s="48"/>
-      <c r="K164" s="38"/>
-      <c r="L164" s="49"/>
-      <c r="M164" s="49"/>
-      <c r="N164" s="30"/>
+      <c r="I164" s="34">
+        <v>298</v>
+      </c>
+      <c r="J164" s="48">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="K164" s="51">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L164" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M164" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="N164" s="30" t="s">
+        <v>311</v>
+      </c>
       <c r="O164" s="37"/>
       <c r="P164" s="46"/>
       <c r="Q164" s="38"/>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DE0CFA-C60A-2540-A82D-3975919D940B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1611144-E8A0-B04B-BFAA-88586D7647C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="8100" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="331">
   <si>
     <r>
       <rPr>
@@ -1099,6 +1099,30 @@
   </si>
   <si>
     <t>F2</t>
+  </si>
+  <si>
+    <t>Fe16.6 Co19.4 Ni22.8 Cr20.4 Nb20.8</t>
+  </si>
+  <si>
+    <t>Fe21.1 Co15.4 Ni21.6 Cr33.7 Mo8.2</t>
+  </si>
+  <si>
+    <t>Fe16.4 Co16.7 Ni28.4 Cr21.4 Al3.6 Mo0.3 Nb13.2</t>
+  </si>
+  <si>
+    <t>Fe6.4 Co21.2 Ni21.3 Cr29 Al3.8 Nb13.6 V4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe14.1 Co15.5 Ni29.8 Cr21.5 Al3.9 Mo0.3 Nb14.9 </t>
+  </si>
+  <si>
+    <t>Fe5.7 Co14.8 Ni34.9 Cr26.1 Al4.2 Nb14.3</t>
+  </si>
+  <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t>10.1016/j.electacta.2025.146685</t>
   </si>
 </sst>
 </file>
@@ -3597,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N179" sqref="N179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -11380,21 +11404,44 @@
     </row>
     <row r="165" spans="1:20" ht="18" customHeight="1">
       <c r="A165" s="50"/>
-      <c r="B165" s="31"/>
+      <c r="B165" s="31" t="s">
+        <v>323</v>
+      </c>
       <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
+      <c r="D165" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E165" s="31"/>
-      <c r="F165" s="52"/>
-      <c r="G165" s="32"/>
+      <c r="F165" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G165" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H165" s="33"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="48"/>
-      <c r="K165" s="38"/>
-      <c r="L165" s="49"/>
-      <c r="M165" s="49"/>
-      <c r="N165" s="30"/>
+      <c r="I165" s="34">
+        <v>298</v>
+      </c>
+      <c r="J165" s="48">
+        <v>-0.318</v>
+      </c>
+      <c r="K165" s="38">
+        <f>P165*0.001</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L165" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M165" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N165" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O165" s="37"/>
-      <c r="P165" s="46"/>
+      <c r="P165" s="46">
+        <v>7</v>
+      </c>
       <c r="Q165" s="38"/>
       <c r="R165" s="37"/>
       <c r="S165" s="37"/>
@@ -11402,21 +11449,44 @@
     </row>
     <row r="166" spans="1:20" ht="18" customHeight="1">
       <c r="A166" s="50"/>
-      <c r="B166" s="31"/>
+      <c r="B166" s="31" t="s">
+        <v>324</v>
+      </c>
       <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
+      <c r="D166" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E166" s="31"/>
-      <c r="F166" s="52"/>
-      <c r="G166" s="32"/>
+      <c r="F166" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G166" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H166" s="33"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="48"/>
-      <c r="K166" s="38"/>
-      <c r="L166" s="49"/>
-      <c r="M166" s="49"/>
-      <c r="N166" s="30"/>
+      <c r="I166" s="34">
+        <v>298</v>
+      </c>
+      <c r="J166" s="48">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="K166" s="38">
+        <f t="shared" ref="K166:K176" si="5">P166*0.001</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L166" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M166" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N166" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O166" s="37"/>
-      <c r="P166" s="46"/>
+      <c r="P166" s="46">
+        <v>16</v>
+      </c>
       <c r="Q166" s="38"/>
       <c r="R166" s="37"/>
       <c r="S166" s="37"/>
@@ -11424,21 +11494,44 @@
     </row>
     <row r="167" spans="1:20" ht="18" customHeight="1">
       <c r="A167" s="50"/>
-      <c r="B167" s="31"/>
+      <c r="B167" s="31" t="s">
+        <v>325</v>
+      </c>
       <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
+      <c r="D167" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E167" s="31"/>
-      <c r="F167" s="52"/>
-      <c r="G167" s="32"/>
+      <c r="F167" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G167" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H167" s="33"/>
-      <c r="I167" s="34"/>
-      <c r="J167" s="48"/>
-      <c r="K167" s="38"/>
-      <c r="L167" s="49"/>
-      <c r="M167" s="49"/>
-      <c r="N167" s="30"/>
+      <c r="I167" s="34">
+        <v>298</v>
+      </c>
+      <c r="J167" s="48">
+        <v>-0.315</v>
+      </c>
+      <c r="K167" s="38">
+        <f t="shared" si="5"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="L167" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M167" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N167" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O167" s="37"/>
-      <c r="P167" s="46"/>
+      <c r="P167" s="46">
+        <v>9</v>
+      </c>
       <c r="Q167" s="38"/>
       <c r="R167" s="37"/>
       <c r="S167" s="37"/>
@@ -11446,21 +11539,44 @@
     </row>
     <row r="168" spans="1:20" ht="18" customHeight="1">
       <c r="A168" s="50"/>
-      <c r="B168" s="31"/>
+      <c r="B168" s="31" t="s">
+        <v>326</v>
+      </c>
       <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
+      <c r="D168" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E168" s="31"/>
-      <c r="F168" s="52"/>
-      <c r="G168" s="32"/>
+      <c r="F168" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G168" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H168" s="33"/>
-      <c r="I168" s="34"/>
-      <c r="J168" s="48"/>
-      <c r="K168" s="38"/>
-      <c r="L168" s="49"/>
-      <c r="M168" s="49"/>
-      <c r="N168" s="30"/>
+      <c r="I168" s="34">
+        <v>298</v>
+      </c>
+      <c r="J168" s="48">
+        <v>-0.34</v>
+      </c>
+      <c r="K168" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L168" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M168" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N168" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O168" s="37"/>
-      <c r="P168" s="38"/>
+      <c r="P168" s="38">
+        <v>7</v>
+      </c>
       <c r="Q168" s="38"/>
       <c r="R168" s="37"/>
       <c r="S168" s="37"/>
@@ -11468,21 +11584,44 @@
     </row>
     <row r="169" spans="1:20" ht="18" customHeight="1">
       <c r="A169" s="50"/>
-      <c r="B169" s="31"/>
+      <c r="B169" s="31" t="s">
+        <v>327</v>
+      </c>
       <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
+      <c r="D169" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E169" s="31"/>
-      <c r="F169" s="52"/>
-      <c r="G169" s="32"/>
+      <c r="F169" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G169" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H169" s="33"/>
-      <c r="I169" s="34"/>
-      <c r="J169" s="48"/>
-      <c r="K169" s="38"/>
-      <c r="L169" s="49"/>
-      <c r="M169" s="49"/>
-      <c r="N169" s="30"/>
+      <c r="I169" s="34">
+        <v>298</v>
+      </c>
+      <c r="J169" s="48">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="K169" s="38">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L169" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M169" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N169" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O169" s="37"/>
-      <c r="P169" s="38"/>
+      <c r="P169" s="38">
+        <v>6</v>
+      </c>
       <c r="Q169" s="38"/>
       <c r="R169" s="37"/>
       <c r="S169" s="37"/>
@@ -11490,21 +11629,46 @@
     </row>
     <row r="170" spans="1:20" ht="18" customHeight="1">
       <c r="A170" s="50"/>
-      <c r="B170" s="31"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
+      <c r="B170" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E170" s="31"/>
-      <c r="F170" s="52"/>
-      <c r="G170" s="32"/>
+      <c r="F170" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G170" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H170" s="33"/>
-      <c r="I170" s="34"/>
-      <c r="J170" s="48"/>
-      <c r="K170" s="38"/>
-      <c r="L170" s="49"/>
-      <c r="M170" s="49"/>
-      <c r="N170" s="30"/>
+      <c r="I170" s="34">
+        <v>298</v>
+      </c>
+      <c r="J170" s="48">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="K170" s="38">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L170" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M170" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N170" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O170" s="37"/>
-      <c r="P170" s="38"/>
+      <c r="P170" s="38">
+        <v>4</v>
+      </c>
       <c r="Q170" s="38"/>
       <c r="R170" s="37"/>
       <c r="S170" s="37"/>
@@ -11512,21 +11676,44 @@
     </row>
     <row r="171" spans="1:20" ht="18" customHeight="1">
       <c r="A171" s="50"/>
-      <c r="B171" s="31"/>
+      <c r="B171" s="31" t="s">
+        <v>323</v>
+      </c>
       <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
+      <c r="D171" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E171" s="31"/>
-      <c r="F171" s="52"/>
-      <c r="G171" s="32"/>
+      <c r="F171" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G171" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H171" s="33"/>
-      <c r="I171" s="34"/>
-      <c r="J171" s="48"/>
-      <c r="K171" s="38"/>
-      <c r="L171" s="49"/>
-      <c r="M171" s="49"/>
-      <c r="N171" s="30"/>
+      <c r="I171" s="34">
+        <v>298</v>
+      </c>
+      <c r="J171" s="48">
+        <v>1.129</v>
+      </c>
+      <c r="K171" s="38">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L171" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M171" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N171" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O171" s="37"/>
-      <c r="P171" s="38"/>
+      <c r="P171" s="38">
+        <v>6</v>
+      </c>
       <c r="Q171" s="38"/>
       <c r="R171" s="37"/>
       <c r="S171" s="37"/>
@@ -11534,21 +11721,44 @@
     </row>
     <row r="172" spans="1:20" ht="18" customHeight="1">
       <c r="A172" s="50"/>
-      <c r="B172" s="31"/>
+      <c r="B172" s="31" t="s">
+        <v>324</v>
+      </c>
       <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
+      <c r="D172" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E172" s="31"/>
-      <c r="F172" s="52"/>
-      <c r="G172" s="32"/>
+      <c r="F172" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G172" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H172" s="33"/>
-      <c r="I172" s="34"/>
-      <c r="J172" s="48"/>
-      <c r="K172" s="38"/>
-      <c r="L172" s="49"/>
-      <c r="M172" s="49"/>
-      <c r="N172" s="30"/>
+      <c r="I172" s="34">
+        <v>298</v>
+      </c>
+      <c r="J172" s="48">
+        <v>0.92</v>
+      </c>
+      <c r="K172" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L172" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M172" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N172" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O172" s="37"/>
-      <c r="P172" s="38"/>
+      <c r="P172" s="38">
+        <v>7</v>
+      </c>
       <c r="Q172" s="38"/>
       <c r="R172" s="37"/>
       <c r="S172" s="37"/>
@@ -11556,21 +11766,44 @@
     </row>
     <row r="173" spans="1:20" ht="18" customHeight="1">
       <c r="A173" s="50"/>
-      <c r="B173" s="31"/>
+      <c r="B173" s="31" t="s">
+        <v>325</v>
+      </c>
       <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
+      <c r="D173" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E173" s="31"/>
-      <c r="F173" s="52"/>
-      <c r="G173" s="32"/>
+      <c r="F173" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G173" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H173" s="33"/>
-      <c r="I173" s="34"/>
-      <c r="J173" s="48"/>
-      <c r="K173" s="38"/>
-      <c r="L173" s="49"/>
-      <c r="M173" s="49"/>
-      <c r="N173" s="30"/>
+      <c r="I173" s="34">
+        <v>298</v>
+      </c>
+      <c r="J173" s="48">
+        <v>1.145</v>
+      </c>
+      <c r="K173" s="38">
+        <f t="shared" si="5"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L173" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M173" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N173" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O173" s="37"/>
-      <c r="P173" s="38"/>
+      <c r="P173" s="38">
+        <v>22</v>
+      </c>
       <c r="Q173" s="38"/>
       <c r="R173" s="37"/>
       <c r="S173" s="37"/>
@@ -11578,21 +11811,44 @@
     </row>
     <row r="174" spans="1:20" ht="18" customHeight="1">
       <c r="A174" s="50"/>
-      <c r="B174" s="31"/>
+      <c r="B174" s="31" t="s">
+        <v>326</v>
+      </c>
       <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
+      <c r="D174" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E174" s="31"/>
-      <c r="F174" s="52"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="47"/>
-      <c r="I174" s="34"/>
-      <c r="J174" s="48"/>
-      <c r="K174" s="38"/>
-      <c r="L174" s="49"/>
-      <c r="M174" s="49"/>
-      <c r="N174" s="30"/>
+      <c r="F174" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G174" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" s="33"/>
+      <c r="I174" s="34">
+        <v>298</v>
+      </c>
+      <c r="J174" s="48">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="K174" s="38">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L174" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M174" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N174" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O174" s="37"/>
-      <c r="P174" s="38"/>
+      <c r="P174" s="38">
+        <v>3</v>
+      </c>
       <c r="Q174" s="38"/>
       <c r="R174" s="37"/>
       <c r="S174" s="37"/>
@@ -11600,21 +11856,44 @@
     </row>
     <row r="175" spans="1:20" ht="18" customHeight="1">
       <c r="A175" s="50"/>
-      <c r="B175" s="31"/>
+      <c r="B175" s="31" t="s">
+        <v>327</v>
+      </c>
       <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
+      <c r="D175" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E175" s="31"/>
-      <c r="F175" s="52"/>
-      <c r="G175" s="32"/>
-      <c r="H175" s="56"/>
-      <c r="I175" s="34"/>
-      <c r="J175" s="48"/>
-      <c r="K175" s="38"/>
-      <c r="L175" s="49"/>
-      <c r="M175" s="49"/>
-      <c r="N175" s="30"/>
+      <c r="F175" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G175" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" s="33"/>
+      <c r="I175" s="34">
+        <v>298</v>
+      </c>
+      <c r="J175" s="48">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="K175" s="38">
+        <f t="shared" si="5"/>
+        <v>2E-3</v>
+      </c>
+      <c r="L175" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M175" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N175" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O175" s="37"/>
-      <c r="P175" s="38"/>
+      <c r="P175" s="38">
+        <v>2</v>
+      </c>
       <c r="Q175" s="38"/>
       <c r="R175" s="37"/>
       <c r="S175" s="37"/>
@@ -11622,21 +11901,46 @@
     </row>
     <row r="176" spans="1:20" ht="18" customHeight="1">
       <c r="A176" s="50"/>
-      <c r="B176" s="31"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
+      <c r="B176" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="E176" s="31"/>
-      <c r="F176" s="52"/>
-      <c r="G176" s="32"/>
-      <c r="H176" s="56"/>
-      <c r="I176" s="54"/>
-      <c r="J176" s="48"/>
-      <c r="K176" s="38"/>
-      <c r="L176" s="49"/>
-      <c r="M176" s="49"/>
-      <c r="N176" s="30"/>
+      <c r="F176" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G176" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" s="33"/>
+      <c r="I176" s="34">
+        <v>298</v>
+      </c>
+      <c r="J176" s="48">
+        <v>1.17</v>
+      </c>
+      <c r="K176" s="38">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L176" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M176" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N176" s="30" t="s">
+        <v>330</v>
+      </c>
       <c r="O176" s="37"/>
-      <c r="P176" s="38"/>
+      <c r="P176" s="38">
+        <v>5</v>
+      </c>
       <c r="Q176" s="38"/>
       <c r="R176" s="37"/>
       <c r="S176" s="37"/>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1611144-E8A0-B04B-BFAA-88586D7647C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06C46E3-93F2-3B4D-BED7-FEB5E53ED29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="8100" windowWidth="31960" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="351">
   <si>
     <r>
       <rPr>
@@ -1123,6 +1123,66 @@
   </si>
   <si>
     <t>10.1016/j.electacta.2025.146685</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijrmhm.2025.107349</t>
+  </si>
+  <si>
+    <t>Ti35V35Nb10Mo20</t>
+  </si>
+  <si>
+    <t>Ti35V35Nb10Mo20Al5</t>
+  </si>
+  <si>
+    <t>Ti35V35Nb10Mo20Al10</t>
+  </si>
+  <si>
+    <t>Ti35V35Nb10Mo20Al15</t>
+  </si>
+  <si>
+    <t>F5b</t>
+  </si>
+  <si>
+    <t>compressive yield stress</t>
+  </si>
+  <si>
+    <t>minimum UCS</t>
+  </si>
+  <si>
+    <t>UCS</t>
+  </si>
+  <si>
+    <t>minimum compressive ductility</t>
+  </si>
+  <si>
+    <t>compressive ductility</t>
+  </si>
+  <si>
+    <t>1e-3 strain rate</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>F5a</t>
+  </si>
+  <si>
+    <t>DFT</t>
+  </si>
+  <si>
+    <t>B/G ratio</t>
+  </si>
+  <si>
+    <t>reduced elastic modulus</t>
+  </si>
+  <si>
+    <t>poissons ratio</t>
+  </si>
+  <si>
+    <t>100-atom SQS from ATAT run with PAW-GGA-PBE in VASP</t>
+  </si>
+  <si>
+    <t>105-atom SQS from ATAT run with PAW-GGA-PBE in VASP</t>
   </si>
 </sst>
 </file>
@@ -2348,57 +2408,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2458,6 +2467,57 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3621,8 +3681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N179" sqref="N179"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H204" sqref="H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3679,19 +3739,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="130"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="113"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3707,17 +3767,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="134"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="117"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3758,43 +3818,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="138" t="s">
+      <c r="H5" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="137" t="s">
+      <c r="M5" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="137" t="s">
+      <c r="N5" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="105" t="s">
+      <c r="O5" s="125" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3810,19 +3870,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="106"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3872,7 +3932,7 @@
       <c r="N7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="107"/>
+      <c r="O7" s="127"/>
       <c r="P7" s="65" t="s">
         <v>62</v>
       </c>
@@ -3887,35 +3947,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="60"/>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116" t="s">
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="117"/>
+      <c r="N8" s="137"/>
       <c r="O8" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="118" t="s">
+      <c r="P8" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="121"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="141"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="61" t="s">
@@ -11471,7 +11531,7 @@
         <v>-0.28100000000000003</v>
       </c>
       <c r="K166" s="38">
-        <f t="shared" ref="K166:K176" si="5">P166*0.001</f>
+        <f t="shared" ref="K166:K180" si="5">P166*0.001</f>
         <v>1.6E-2</v>
       </c>
       <c r="L166" s="49" t="s">
@@ -11948,21 +12008,47 @@
     </row>
     <row r="177" spans="1:20" ht="18" customHeight="1">
       <c r="A177" s="50"/>
-      <c r="B177" s="31"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
+      <c r="B177" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E177" s="31"/>
-      <c r="F177" s="52"/>
-      <c r="G177" s="32"/>
+      <c r="F177" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G177" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H177" s="56"/>
-      <c r="I177" s="54"/>
-      <c r="J177" s="48"/>
-      <c r="K177" s="38"/>
-      <c r="L177" s="49"/>
-      <c r="M177" s="49"/>
-      <c r="N177" s="30"/>
+      <c r="I177" s="54">
+        <v>298</v>
+      </c>
+      <c r="J177" s="35">
+        <f t="shared" ref="J177:J180" si="6">P177*9807000</f>
+        <v>3577593600</v>
+      </c>
+      <c r="K177" s="38">
+        <f t="shared" si="5"/>
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="L177" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M177" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="N177" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O177" s="37"/>
-      <c r="P177" s="38"/>
+      <c r="P177" s="38">
+        <v>364.8</v>
+      </c>
       <c r="Q177" s="38"/>
       <c r="R177" s="37"/>
       <c r="S177" s="37"/>
@@ -11970,21 +12056,47 @@
     </row>
     <row r="178" spans="1:20" ht="18" customHeight="1">
       <c r="A178" s="50"/>
-      <c r="B178" s="31"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
+      <c r="B178" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D178" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E178" s="31"/>
-      <c r="F178" s="52"/>
-      <c r="G178" s="32"/>
+      <c r="F178" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G178" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H178" s="56"/>
-      <c r="I178" s="54"/>
-      <c r="J178" s="48"/>
-      <c r="K178" s="38"/>
-      <c r="L178" s="49"/>
-      <c r="M178" s="49"/>
-      <c r="N178" s="30"/>
+      <c r="I178" s="54">
+        <v>298</v>
+      </c>
+      <c r="J178" s="35">
+        <f t="shared" si="6"/>
+        <v>3942414000</v>
+      </c>
+      <c r="K178" s="38">
+        <f t="shared" si="5"/>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="L178" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M178" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="N178" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O178" s="37"/>
-      <c r="P178" s="38"/>
+      <c r="P178" s="38">
+        <v>402</v>
+      </c>
       <c r="Q178" s="38"/>
       <c r="R178" s="37"/>
       <c r="S178" s="37"/>
@@ -11992,21 +12104,47 @@
     </row>
     <row r="179" spans="1:20" ht="18" customHeight="1">
       <c r="A179" s="50"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
+      <c r="B179" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E179" s="31"/>
-      <c r="F179" s="52"/>
-      <c r="G179" s="32"/>
+      <c r="F179" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G179" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H179" s="47"/>
-      <c r="I179" s="54"/>
-      <c r="J179" s="48"/>
-      <c r="K179" s="38"/>
-      <c r="L179" s="49"/>
-      <c r="M179" s="49"/>
-      <c r="N179" s="30"/>
+      <c r="I179" s="54">
+        <v>298</v>
+      </c>
+      <c r="J179" s="35">
+        <f t="shared" si="6"/>
+        <v>3750196800</v>
+      </c>
+      <c r="K179" s="38">
+        <f t="shared" si="5"/>
+        <v>0.38239999999999996</v>
+      </c>
+      <c r="L179" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M179" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="N179" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O179" s="37"/>
-      <c r="P179" s="38"/>
+      <c r="P179" s="38">
+        <v>382.4</v>
+      </c>
       <c r="Q179" s="38"/>
       <c r="R179" s="37"/>
       <c r="S179" s="37"/>
@@ -12014,21 +12152,47 @@
     </row>
     <row r="180" spans="1:20" ht="18" customHeight="1">
       <c r="A180" s="50"/>
-      <c r="B180" s="31"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
+      <c r="B180" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D180" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E180" s="31"/>
-      <c r="F180" s="52"/>
-      <c r="G180" s="32"/>
+      <c r="F180" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G180" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H180" s="47"/>
-      <c r="I180" s="54"/>
-      <c r="J180" s="48"/>
-      <c r="K180" s="38"/>
-      <c r="L180" s="49"/>
-      <c r="M180" s="49"/>
-      <c r="N180" s="30"/>
+      <c r="I180" s="54">
+        <v>298</v>
+      </c>
+      <c r="J180" s="35">
+        <f t="shared" si="6"/>
+        <v>3927703500</v>
+      </c>
+      <c r="K180" s="38">
+        <f t="shared" si="5"/>
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="L180" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M180" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="N180" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O180" s="37"/>
-      <c r="P180" s="38"/>
+      <c r="P180" s="38">
+        <v>400.5</v>
+      </c>
       <c r="Q180" s="38"/>
       <c r="R180" s="37"/>
       <c r="S180" s="37"/>
@@ -12036,19 +12200,41 @@
     </row>
     <row r="181" spans="1:20" ht="18" customHeight="1">
       <c r="A181" s="40"/>
-      <c r="B181" s="41"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
+      <c r="B181" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D181" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E181" s="31"/>
-      <c r="F181" s="52"/>
-      <c r="G181" s="32"/>
-      <c r="H181" s="47"/>
-      <c r="I181" s="54"/>
-      <c r="J181" s="48"/>
+      <c r="F181" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G181" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H181" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I181" s="54">
+        <v>298</v>
+      </c>
+      <c r="J181" s="48">
+        <v>904000000</v>
+      </c>
       <c r="K181" s="38"/>
-      <c r="L181" s="49"/>
-      <c r="M181" s="49"/>
-      <c r="N181" s="30"/>
+      <c r="L181" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M181" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N181" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O181" s="37"/>
       <c r="P181" s="37"/>
       <c r="Q181" s="38"/>
@@ -12058,19 +12244,41 @@
     </row>
     <row r="182" spans="1:20" ht="18" customHeight="1">
       <c r="A182" s="40"/>
-      <c r="B182" s="31"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
+      <c r="B182" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D182" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E182" s="31"/>
-      <c r="F182" s="52"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="34"/>
-      <c r="J182" s="38"/>
+      <c r="F182" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G182" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I182" s="54">
+        <v>298</v>
+      </c>
+      <c r="J182" s="51">
+        <v>1025000000</v>
+      </c>
       <c r="K182" s="38"/>
-      <c r="L182" s="40"/>
-      <c r="M182" s="40"/>
-      <c r="N182" s="30"/>
+      <c r="L182" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M182" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N182" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O182" s="37"/>
       <c r="P182" s="37"/>
       <c r="Q182" s="38"/>
@@ -12080,19 +12288,41 @@
     </row>
     <row r="183" spans="1:20" ht="18" customHeight="1">
       <c r="A183" s="40"/>
-      <c r="B183" s="41"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
+      <c r="B183" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D183" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E183" s="31"/>
-      <c r="F183" s="52"/>
-      <c r="G183" s="32"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="34"/>
-      <c r="J183" s="38"/>
+      <c r="F183" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G183" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I183" s="54">
+        <v>298</v>
+      </c>
+      <c r="J183" s="51">
+        <v>951000000</v>
+      </c>
       <c r="K183" s="38"/>
-      <c r="L183" s="40"/>
-      <c r="M183" s="40"/>
-      <c r="N183" s="30"/>
+      <c r="L183" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M183" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N183" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O183" s="37"/>
       <c r="P183" s="37"/>
       <c r="Q183" s="38"/>
@@ -12102,19 +12332,41 @@
     </row>
     <row r="184" spans="1:20" ht="18" customHeight="1">
       <c r="A184" s="40"/>
-      <c r="B184" s="41"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
+      <c r="B184" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E184" s="31"/>
-      <c r="F184" s="52"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="34"/>
-      <c r="J184" s="38"/>
+      <c r="F184" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G184" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I184" s="54">
+        <v>298</v>
+      </c>
+      <c r="J184" s="51">
+        <v>1069000000</v>
+      </c>
       <c r="K184" s="38"/>
-      <c r="L184" s="40"/>
-      <c r="M184" s="40"/>
-      <c r="N184" s="30"/>
+      <c r="L184" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M184" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N184" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O184" s="37"/>
       <c r="P184" s="37"/>
       <c r="Q184" s="38"/>
@@ -12124,19 +12376,41 @@
     </row>
     <row r="185" spans="1:20" ht="18" customHeight="1">
       <c r="A185" s="40"/>
-      <c r="B185" s="31"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
+      <c r="B185" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E185" s="31"/>
-      <c r="F185" s="52"/>
-      <c r="G185" s="32"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="34"/>
-      <c r="J185" s="38"/>
+      <c r="F185" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G185" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H185" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I185" s="54">
+        <v>298</v>
+      </c>
+      <c r="J185" s="51">
+        <v>2324000000</v>
+      </c>
       <c r="K185" s="38"/>
-      <c r="L185" s="40"/>
-      <c r="M185" s="40"/>
-      <c r="N185" s="30"/>
+      <c r="L185" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M185" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N185" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O185" s="37"/>
       <c r="P185" s="37"/>
       <c r="Q185" s="38"/>
@@ -12146,19 +12420,41 @@
     </row>
     <row r="186" spans="1:20" ht="18" customHeight="1">
       <c r="A186" s="40"/>
-      <c r="B186" s="41"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="30"/>
+      <c r="B186" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D186" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E186" s="31"/>
-      <c r="F186" s="52"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="34"/>
-      <c r="J186" s="38"/>
+      <c r="F186" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G186" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I186" s="54">
+        <v>298</v>
+      </c>
+      <c r="J186" s="51">
+        <v>2194000000</v>
+      </c>
       <c r="K186" s="38"/>
-      <c r="L186" s="40"/>
-      <c r="M186" s="40"/>
-      <c r="N186" s="30"/>
+      <c r="L186" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M186" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N186" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O186" s="37"/>
       <c r="P186" s="37"/>
       <c r="Q186" s="38"/>
@@ -12168,19 +12464,41 @@
     </row>
     <row r="187" spans="1:20" ht="18" customHeight="1">
       <c r="A187" s="40"/>
-      <c r="B187" s="41"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
+      <c r="B187" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D187" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E187" s="31"/>
-      <c r="F187" s="52"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="34"/>
-      <c r="J187" s="38"/>
+      <c r="F187" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G187" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H187" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I187" s="54">
+        <v>298</v>
+      </c>
+      <c r="J187" s="51">
+        <v>2040000000</v>
+      </c>
       <c r="K187" s="38"/>
-      <c r="L187" s="40"/>
-      <c r="M187" s="40"/>
-      <c r="N187" s="30"/>
+      <c r="L187" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M187" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N187" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O187" s="37"/>
       <c r="P187" s="37"/>
       <c r="Q187" s="38"/>
@@ -12190,19 +12508,41 @@
     </row>
     <row r="188" spans="1:20" ht="18" customHeight="1">
       <c r="A188" s="40"/>
-      <c r="B188" s="31"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="30"/>
+      <c r="B188" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C188" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D188" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E188" s="31"/>
-      <c r="F188" s="52"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="34"/>
-      <c r="J188" s="38"/>
+      <c r="F188" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="G188" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I188" s="54">
+        <v>298</v>
+      </c>
+      <c r="J188" s="51">
+        <v>1444000000</v>
+      </c>
       <c r="K188" s="38"/>
-      <c r="L188" s="40"/>
-      <c r="M188" s="40"/>
-      <c r="N188" s="30"/>
+      <c r="L188" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M188" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N188" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O188" s="37"/>
       <c r="P188" s="37"/>
       <c r="Q188" s="38"/>
@@ -12212,19 +12552,41 @@
     </row>
     <row r="189" spans="1:20" ht="18" customHeight="1">
       <c r="A189" s="40"/>
-      <c r="B189" s="41"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="30"/>
+      <c r="B189" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C189" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D189" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E189" s="31"/>
-      <c r="F189" s="52"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="34"/>
-      <c r="J189" s="38"/>
+      <c r="F189" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G189" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I189" s="54">
+        <v>298</v>
+      </c>
+      <c r="J189" s="38">
+        <v>50</v>
+      </c>
       <c r="K189" s="38"/>
-      <c r="L189" s="40"/>
-      <c r="M189" s="40"/>
-      <c r="N189" s="30"/>
+      <c r="L189" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M189" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N189" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O189" s="37"/>
       <c r="P189" s="37"/>
       <c r="Q189" s="38"/>
@@ -12234,19 +12596,41 @@
     </row>
     <row r="190" spans="1:20" ht="18" customHeight="1">
       <c r="A190" s="40"/>
-      <c r="B190" s="41"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30"/>
+      <c r="B190" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D190" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E190" s="31"/>
-      <c r="F190" s="52"/>
-      <c r="G190" s="32"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="34"/>
-      <c r="J190" s="38"/>
+      <c r="F190" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G190" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I190" s="54">
+        <v>298</v>
+      </c>
+      <c r="J190" s="38">
+        <v>50</v>
+      </c>
       <c r="K190" s="38"/>
-      <c r="L190" s="40"/>
-      <c r="M190" s="40"/>
-      <c r="N190" s="30"/>
+      <c r="L190" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M190" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N190" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O190" s="37"/>
       <c r="P190" s="37"/>
       <c r="Q190" s="38"/>
@@ -12256,19 +12640,41 @@
     </row>
     <row r="191" spans="1:20" ht="18" customHeight="1">
       <c r="A191" s="40"/>
-      <c r="B191" s="31"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="30"/>
+      <c r="B191" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E191" s="31"/>
-      <c r="F191" s="52"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="34"/>
-      <c r="J191" s="38"/>
+      <c r="F191" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G191" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I191" s="54">
+        <v>298</v>
+      </c>
+      <c r="J191" s="38">
+        <v>50</v>
+      </c>
       <c r="K191" s="38"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="40"/>
-      <c r="N191" s="30"/>
+      <c r="L191" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M191" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N191" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O191" s="37"/>
       <c r="P191" s="37"/>
       <c r="Q191" s="38"/>
@@ -12278,19 +12684,41 @@
     </row>
     <row r="192" spans="1:20" ht="18" customHeight="1">
       <c r="A192" s="40"/>
-      <c r="B192" s="41"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="30"/>
+      <c r="B192" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C192" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D192" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="E192" s="31"/>
-      <c r="F192" s="52"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="47"/>
-      <c r="I192" s="34"/>
-      <c r="J192" s="38"/>
+      <c r="F192" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="G192" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H192" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="I192" s="54">
+        <v>298</v>
+      </c>
+      <c r="J192" s="38">
+        <v>38.4</v>
+      </c>
       <c r="K192" s="38"/>
-      <c r="L192" s="40"/>
-      <c r="M192" s="40"/>
-      <c r="N192" s="30"/>
+      <c r="L192" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M192" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N192" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O192" s="37"/>
       <c r="P192" s="37"/>
       <c r="Q192" s="38"/>
@@ -12300,19 +12728,35 @@
     </row>
     <row r="193" spans="1:20" ht="18" customHeight="1">
       <c r="A193" s="40"/>
-      <c r="B193" s="41"/>
-      <c r="C193" s="30"/>
+      <c r="B193" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C193" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="D193" s="30"/>
-      <c r="E193" s="31"/>
-      <c r="F193" s="52"/>
-      <c r="G193" s="32"/>
+      <c r="E193" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="F193" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="G193" s="32" t="s">
+        <v>345</v>
+      </c>
       <c r="H193" s="56"/>
       <c r="I193" s="34"/>
-      <c r="J193" s="38"/>
+      <c r="J193" s="38">
+        <v>3.62</v>
+      </c>
       <c r="K193" s="38"/>
       <c r="L193" s="40"/>
-      <c r="M193" s="40"/>
-      <c r="N193" s="30"/>
+      <c r="M193" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N193" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O193" s="37"/>
       <c r="P193" s="37"/>
       <c r="Q193" s="38"/>
@@ -12322,19 +12766,35 @@
     </row>
     <row r="194" spans="1:20" ht="18" customHeight="1">
       <c r="A194" s="40"/>
-      <c r="B194" s="31"/>
-      <c r="C194" s="30"/>
+      <c r="B194" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C194" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="D194" s="30"/>
-      <c r="E194" s="31"/>
-      <c r="F194" s="52"/>
-      <c r="G194" s="32"/>
+      <c r="E194" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="F194" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="G194" s="32" t="s">
+        <v>345</v>
+      </c>
       <c r="H194" s="56"/>
       <c r="I194" s="54"/>
-      <c r="J194" s="38"/>
+      <c r="J194" s="38">
+        <v>3.27</v>
+      </c>
       <c r="K194" s="38"/>
       <c r="L194" s="40"/>
-      <c r="M194" s="40"/>
-      <c r="N194" s="30"/>
+      <c r="M194" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N194" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O194" s="37"/>
       <c r="P194" s="37"/>
       <c r="Q194" s="38"/>
@@ -12344,19 +12804,37 @@
     </row>
     <row r="195" spans="1:20" ht="18" customHeight="1">
       <c r="A195" s="40"/>
-      <c r="B195" s="41"/>
-      <c r="C195" s="30"/>
+      <c r="B195" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C195" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="D195" s="30"/>
-      <c r="E195" s="31"/>
-      <c r="F195" s="52"/>
-      <c r="G195" s="32"/>
+      <c r="E195" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="F195" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="G195" s="32" t="s">
+        <v>345</v>
+      </c>
       <c r="H195" s="56"/>
       <c r="I195" s="54"/>
-      <c r="J195" s="38"/>
+      <c r="J195" s="51">
+        <v>123650000000</v>
+      </c>
       <c r="K195" s="38"/>
-      <c r="L195" s="40"/>
-      <c r="M195" s="40"/>
-      <c r="N195" s="30"/>
+      <c r="L195" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M195" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N195" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O195" s="37"/>
       <c r="P195" s="37"/>
       <c r="Q195" s="38"/>
@@ -12366,19 +12844,37 @@
     </row>
     <row r="196" spans="1:20" ht="18" customHeight="1">
       <c r="A196" s="40"/>
-      <c r="B196" s="41"/>
-      <c r="C196" s="30"/>
+      <c r="B196" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C196" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="D196" s="30"/>
-      <c r="E196" s="31"/>
-      <c r="F196" s="52"/>
-      <c r="G196" s="32"/>
+      <c r="E196" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="F196" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="G196" s="32" t="s">
+        <v>345</v>
+      </c>
       <c r="H196" s="56"/>
       <c r="I196" s="54"/>
-      <c r="J196" s="38"/>
+      <c r="J196" s="51">
+        <v>133200000000</v>
+      </c>
       <c r="K196" s="38"/>
-      <c r="L196" s="40"/>
-      <c r="M196" s="40"/>
-      <c r="N196" s="30"/>
+      <c r="L196" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M196" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N196" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O196" s="37"/>
       <c r="P196" s="37"/>
       <c r="Q196" s="38"/>
@@ -12388,19 +12884,35 @@
     </row>
     <row r="197" spans="1:20" ht="18" customHeight="1">
       <c r="A197" s="40"/>
-      <c r="B197" s="31"/>
-      <c r="C197" s="30"/>
+      <c r="B197" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="D197" s="30"/>
-      <c r="E197" s="31"/>
-      <c r="F197" s="52"/>
-      <c r="G197" s="32"/>
+      <c r="E197" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="F197" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="G197" s="32" t="s">
+        <v>345</v>
+      </c>
       <c r="H197" s="47"/>
       <c r="I197" s="54"/>
-      <c r="J197" s="38"/>
+      <c r="J197" s="38">
+        <v>0.374</v>
+      </c>
       <c r="K197" s="38"/>
       <c r="L197" s="40"/>
-      <c r="M197" s="40"/>
-      <c r="N197" s="30"/>
+      <c r="M197" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N197" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O197" s="37"/>
       <c r="P197" s="37"/>
       <c r="Q197" s="38"/>
@@ -12410,19 +12922,35 @@
     </row>
     <row r="198" spans="1:20" ht="18" customHeight="1">
       <c r="A198" s="40"/>
-      <c r="B198" s="41"/>
-      <c r="C198" s="30"/>
+      <c r="B198" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C198" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="D198" s="30"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="52"/>
-      <c r="G198" s="32"/>
+      <c r="E198" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="F198" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="G198" s="32" t="s">
+        <v>345</v>
+      </c>
       <c r="H198" s="47"/>
       <c r="I198" s="54"/>
-      <c r="J198" s="38"/>
+      <c r="J198" s="38">
+        <v>0.36099999999999999</v>
+      </c>
       <c r="K198" s="38"/>
       <c r="L198" s="40"/>
-      <c r="M198" s="40"/>
-      <c r="N198" s="30"/>
+      <c r="M198" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N198" s="30" t="s">
+        <v>331</v>
+      </c>
       <c r="O198" s="37"/>
       <c r="P198" s="37"/>
       <c r="Q198" s="38"/>
@@ -29054,6 +29582,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -29068,11 +29601,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52568864-DA69-6D49-878D-5D06F397AE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5B235-E59B-6549-9CE8-D61AD6F7B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7360" windowWidth="34560" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="370">
   <si>
     <r>
       <rPr>
@@ -1207,6 +1207,39 @@
   </si>
   <si>
     <t>F10</t>
+  </si>
+  <si>
+    <t>Ti66.8 V11.2 Al9.6 Zr6.2 Nb6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homogenized at 1273K for 6h then air cooled and hot rolled to medium level of reduction at 1073K with 30min hold after each pass then quenched and cold rolled several times to 80% reduction and finally annealed at 1013K for 15min and at 1123K for 30min to recrystallize into single phase with coarse grain structure and quenched </t>
+  </si>
+  <si>
+    <t xml:space="preserve">homogenized at 1273K for 6h then air cooled and hot rolled to medium level of reduction at 1073K with 30min hold after each pass then quenched and cold rolled several times to 80% reduction and finally annealed at 853K for 6h and at 1013K for 15min to recrystallize into single phase and quenched </t>
+  </si>
+  <si>
+    <t>AAM+H+AQ+HR+WQ+CR+RX+WQ</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>tensile yield stress</t>
+  </si>
+  <si>
+    <t>UTS</t>
+  </si>
+  <si>
+    <t>tensile ductility</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>10.1016/j.mtcomm.2025.113383</t>
   </si>
 </sst>
 </file>
@@ -3706,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A172" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J221" sqref="J221"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A211" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N225" sqref="N225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -13752,20 +13785,48 @@
       <c r="T214" s="37"/>
     </row>
     <row r="215" spans="1:20" ht="18" customHeight="1">
-      <c r="A215" s="40"/>
-      <c r="B215" s="31"/>
-      <c r="C215" s="30"/>
-      <c r="D215" s="30"/>
-      <c r="E215" s="31"/>
-      <c r="F215" s="53"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="47"/>
-      <c r="I215" s="38"/>
-      <c r="J215" s="90"/>
-      <c r="K215" s="38"/>
-      <c r="L215" s="40"/>
-      <c r="M215" s="40"/>
-      <c r="N215" s="40"/>
+      <c r="A215" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B215" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C215" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D215" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="F215" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G215" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H215" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="I215" s="54">
+        <v>298</v>
+      </c>
+      <c r="J215" s="90">
+        <v>1000000000</v>
+      </c>
+      <c r="K215" s="51">
+        <v>15000000</v>
+      </c>
+      <c r="L215" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M215" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="N215" s="40" t="s">
+        <v>369</v>
+      </c>
       <c r="O215" s="37"/>
       <c r="P215" s="44"/>
       <c r="Q215" s="38"/>
@@ -13774,20 +13835,48 @@
       <c r="T215" s="37"/>
     </row>
     <row r="216" spans="1:20" ht="18" customHeight="1">
-      <c r="A216" s="40"/>
-      <c r="B216" s="41"/>
-      <c r="C216" s="30"/>
-      <c r="D216" s="30"/>
-      <c r="E216" s="31"/>
-      <c r="F216" s="53"/>
-      <c r="G216" s="32"/>
-      <c r="H216" s="56"/>
-      <c r="I216" s="38"/>
-      <c r="J216" s="90"/>
-      <c r="K216" s="38"/>
-      <c r="L216" s="40"/>
-      <c r="M216" s="40"/>
-      <c r="N216" s="40"/>
+      <c r="A216" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B216" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C216" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D216" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F216" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G216" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H216" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="I216" s="54">
+        <v>298</v>
+      </c>
+      <c r="J216" s="90">
+        <v>800000000</v>
+      </c>
+      <c r="K216" s="51">
+        <v>10000000</v>
+      </c>
+      <c r="L216" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M216" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="N216" s="40" t="s">
+        <v>369</v>
+      </c>
       <c r="O216" s="44"/>
       <c r="P216" s="44"/>
       <c r="Q216" s="44"/>
@@ -13796,20 +13885,48 @@
       <c r="T216" s="37"/>
     </row>
     <row r="217" spans="1:20" ht="18" customHeight="1">
-      <c r="A217" s="40"/>
-      <c r="B217" s="41"/>
-      <c r="C217" s="30"/>
-      <c r="D217" s="30"/>
-      <c r="E217" s="31"/>
-      <c r="F217" s="53"/>
-      <c r="G217" s="32"/>
-      <c r="H217" s="56"/>
-      <c r="I217" s="38"/>
-      <c r="J217" s="90"/>
-      <c r="K217" s="38"/>
-      <c r="L217" s="40"/>
-      <c r="M217" s="40"/>
-      <c r="N217" s="40"/>
+      <c r="A217" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B217" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C217" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D217" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="F217" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="G217" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H217" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="I217" s="54">
+        <v>298</v>
+      </c>
+      <c r="J217" s="90">
+        <v>1025000000</v>
+      </c>
+      <c r="K217" s="51">
+        <v>10000000</v>
+      </c>
+      <c r="L217" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M217" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="N217" s="40" t="s">
+        <v>369</v>
+      </c>
       <c r="O217" s="44"/>
       <c r="P217" s="44"/>
       <c r="Q217" s="44"/>
@@ -13818,20 +13935,48 @@
       <c r="T217" s="37"/>
     </row>
     <row r="218" spans="1:20" ht="18" customHeight="1">
-      <c r="A218" s="40"/>
-      <c r="B218" s="41"/>
-      <c r="C218" s="30"/>
-      <c r="D218" s="30"/>
-      <c r="E218" s="31"/>
-      <c r="F218" s="53"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="56"/>
-      <c r="I218" s="38"/>
-      <c r="J218" s="90"/>
-      <c r="K218" s="38"/>
-      <c r="L218" s="40"/>
-      <c r="M218" s="40"/>
-      <c r="N218" s="40"/>
+      <c r="A218" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B218" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D218" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F218" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="G218" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H218" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="I218" s="54">
+        <v>298</v>
+      </c>
+      <c r="J218" s="90">
+        <v>860000000</v>
+      </c>
+      <c r="K218" s="51">
+        <v>12000000</v>
+      </c>
+      <c r="L218" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M218" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="N218" s="40" t="s">
+        <v>369</v>
+      </c>
       <c r="O218" s="44"/>
       <c r="P218" s="44"/>
       <c r="Q218" s="44"/>
@@ -13840,20 +13985,48 @@
       <c r="T218" s="37"/>
     </row>
     <row r="219" spans="1:20" ht="18" customHeight="1">
-      <c r="A219" s="40"/>
-      <c r="B219" s="41"/>
-      <c r="C219" s="30"/>
-      <c r="D219" s="30"/>
-      <c r="E219" s="31"/>
-      <c r="F219" s="53"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="56"/>
-      <c r="I219" s="38"/>
-      <c r="J219" s="90"/>
-      <c r="K219" s="38"/>
-      <c r="L219" s="40"/>
-      <c r="M219" s="40"/>
-      <c r="N219" s="40"/>
+      <c r="A219" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C219" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D219" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E219" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="F219" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="G219" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H219" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="I219" s="54">
+        <v>298</v>
+      </c>
+      <c r="J219" s="90">
+        <v>23</v>
+      </c>
+      <c r="K219" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="L219" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M219" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="N219" s="40" t="s">
+        <v>369</v>
+      </c>
       <c r="O219" s="44"/>
       <c r="P219" s="44"/>
       <c r="Q219" s="44"/>
@@ -13862,20 +14035,48 @@
       <c r="T219" s="37"/>
     </row>
     <row r="220" spans="1:20" ht="18" customHeight="1">
-      <c r="A220" s="40"/>
-      <c r="B220" s="41"/>
-      <c r="C220" s="30"/>
-      <c r="D220" s="30"/>
-      <c r="E220" s="31"/>
-      <c r="F220" s="53"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="56"/>
-      <c r="I220" s="38"/>
-      <c r="J220" s="90"/>
-      <c r="K220" s="38"/>
-      <c r="L220" s="40"/>
-      <c r="M220" s="40"/>
-      <c r="N220" s="40"/>
+      <c r="A220" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C220" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D220" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E220" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F220" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="G220" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H220" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="I220" s="54">
+        <v>298</v>
+      </c>
+      <c r="J220" s="90">
+        <v>15.5</v>
+      </c>
+      <c r="K220" s="38">
+        <v>1</v>
+      </c>
+      <c r="L220" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M220" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="N220" s="40" t="s">
+        <v>369</v>
+      </c>
       <c r="O220" s="44"/>
       <c r="P220" s="44"/>
       <c r="Q220" s="44"/>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5B235-E59B-6549-9CE8-D61AD6F7B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CC257E-A5D1-8145-B8C7-7708B9BC48B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7360" windowWidth="34560" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="382">
   <si>
     <r>
       <rPr>
@@ -1240,6 +1240,42 @@
   </si>
   <si>
     <t>10.1016/j.mtcomm.2025.113383</t>
+  </si>
+  <si>
+    <t>cold rolled to 50% reduction and annealed at 1373K for 10min followed by water quenching</t>
+  </si>
+  <si>
+    <t>Ti33.333 Zr16.667 Nb50</t>
+  </si>
+  <si>
+    <t>1e-4 strain rate</t>
+  </si>
+  <si>
+    <t>cold rolled to 50% reduction and annealed at 1473K for 60min followed by water quenching</t>
+  </si>
+  <si>
+    <t>Ti Zr Nb</t>
+  </si>
+  <si>
+    <t>AAM+CR+A+WQ</t>
+  </si>
+  <si>
+    <t>cold rolled to 50% reduction and annealed at 1473K for 840min followed by water quenching</t>
+  </si>
+  <si>
+    <t>Ti33.333 Zr50 Nb16.667</t>
+  </si>
+  <si>
+    <t>Nb16.7</t>
+  </si>
+  <si>
+    <t>Nb33.3</t>
+  </si>
+  <si>
+    <t>Nb50</t>
+  </si>
+  <si>
+    <t>10.1016/j.actamat.2025.121367</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2447,7 +2483,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3739,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A211" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N225" sqref="N225"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O260" sqref="O260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3797,19 +3832,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="112"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="111"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3825,17 +3860,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="116"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="115"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3876,43 +3911,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="K5" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="119" t="s">
+      <c r="M5" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="119" t="s">
+      <c r="N5" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="123" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3928,19 +3963,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="125"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="124"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3990,7 +4025,7 @@
       <c r="N7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="126"/>
+      <c r="O7" s="125"/>
       <c r="P7" s="64" t="s">
         <v>62</v>
       </c>
@@ -4005,35 +4040,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="59"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="130" t="s">
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="135" t="s">
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="136"/>
+      <c r="N8" s="135"/>
       <c r="O8" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="137" t="s">
+      <c r="P8" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="140"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="139"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="60" t="s">
@@ -13418,7 +13453,7 @@
     </row>
     <row r="207" spans="1:20" ht="18" customHeight="1">
       <c r="A207" s="40"/>
-      <c r="B207" s="141" t="s">
+      <c r="B207" s="140" t="s">
         <v>352</v>
       </c>
       <c r="C207" s="91" t="s">
@@ -13427,13 +13462,13 @@
       <c r="D207" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E207" s="142" t="s">
+      <c r="E207" s="141" t="s">
         <v>357</v>
       </c>
-      <c r="F207" s="99" t="s">
+      <c r="F207" s="98" t="s">
         <v>341</v>
       </c>
-      <c r="G207" s="99" t="s">
+      <c r="G207" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H207" s="47" t="s">
@@ -13464,7 +13499,7 @@
     </row>
     <row r="208" spans="1:20" ht="18" customHeight="1">
       <c r="A208" s="40"/>
-      <c r="B208" s="143" t="s">
+      <c r="B208" s="142" t="s">
         <v>353</v>
       </c>
       <c r="C208" s="92" t="s">
@@ -13473,13 +13508,13 @@
       <c r="D208" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E208" s="144" t="s">
+      <c r="E208" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="F208" s="99" t="s">
+      <c r="F208" s="98" t="s">
         <v>341</v>
       </c>
-      <c r="G208" s="100" t="s">
+      <c r="G208" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H208" s="47" t="s">
@@ -13510,7 +13545,7 @@
     </row>
     <row r="209" spans="1:20" ht="18" customHeight="1">
       <c r="A209" s="40"/>
-      <c r="B209" s="143" t="s">
+      <c r="B209" s="142" t="s">
         <v>354</v>
       </c>
       <c r="C209" s="92" t="s">
@@ -13519,13 +13554,13 @@
       <c r="D209" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E209" s="144" t="s">
+      <c r="E209" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="F209" s="99" t="s">
+      <c r="F209" s="98" t="s">
         <v>341</v>
       </c>
-      <c r="G209" s="100" t="s">
+      <c r="G209" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H209" s="47" t="s">
@@ -13556,7 +13591,7 @@
     </row>
     <row r="210" spans="1:20" ht="18" customHeight="1">
       <c r="A210" s="40"/>
-      <c r="B210" s="143" t="s">
+      <c r="B210" s="142" t="s">
         <v>355</v>
       </c>
       <c r="C210" s="92" t="s">
@@ -13565,13 +13600,13 @@
       <c r="D210" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E210" s="144" t="s">
+      <c r="E210" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="F210" s="99" t="s">
+      <c r="F210" s="98" t="s">
         <v>341</v>
       </c>
-      <c r="G210" s="100" t="s">
+      <c r="G210" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H210" s="47" t="s">
@@ -13602,7 +13637,7 @@
     </row>
     <row r="211" spans="1:20" ht="18" customHeight="1">
       <c r="A211" s="40"/>
-      <c r="B211" s="141" t="s">
+      <c r="B211" s="140" t="s">
         <v>352</v>
       </c>
       <c r="C211" s="91" t="s">
@@ -13611,13 +13646,13 @@
       <c r="D211" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E211" s="142" t="s">
+      <c r="E211" s="141" t="s">
         <v>357</v>
       </c>
-      <c r="F211" s="99" t="s">
+      <c r="F211" s="98" t="s">
         <v>339</v>
       </c>
-      <c r="G211" s="99" t="s">
+      <c r="G211" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H211" s="47" t="s">
@@ -13648,7 +13683,7 @@
     </row>
     <row r="212" spans="1:20" ht="18" customHeight="1">
       <c r="A212" s="40"/>
-      <c r="B212" s="143" t="s">
+      <c r="B212" s="142" t="s">
         <v>353</v>
       </c>
       <c r="C212" s="92" t="s">
@@ -13657,13 +13692,13 @@
       <c r="D212" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E212" s="144" t="s">
+      <c r="E212" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="F212" s="99" t="s">
+      <c r="F212" s="98" t="s">
         <v>339</v>
       </c>
-      <c r="G212" s="100" t="s">
+      <c r="G212" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H212" s="47" t="s">
@@ -13694,7 +13729,7 @@
     </row>
     <row r="213" spans="1:20" ht="18" customHeight="1">
       <c r="A213" s="40"/>
-      <c r="B213" s="143" t="s">
+      <c r="B213" s="142" t="s">
         <v>354</v>
       </c>
       <c r="C213" s="92" t="s">
@@ -13703,13 +13738,13 @@
       <c r="D213" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E213" s="144" t="s">
+      <c r="E213" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="F213" s="99" t="s">
+      <c r="F213" s="98" t="s">
         <v>339</v>
       </c>
-      <c r="G213" s="100" t="s">
+      <c r="G213" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H213" s="47" t="s">
@@ -13740,7 +13775,7 @@
     </row>
     <row r="214" spans="1:20" ht="18" customHeight="1">
       <c r="A214" s="40"/>
-      <c r="B214" s="143" t="s">
+      <c r="B214" s="142" t="s">
         <v>355</v>
       </c>
       <c r="C214" s="92" t="s">
@@ -13749,13 +13784,13 @@
       <c r="D214" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E214" s="144" t="s">
+      <c r="E214" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="F214" s="99" t="s">
+      <c r="F214" s="98" t="s">
         <v>339</v>
       </c>
-      <c r="G214" s="100" t="s">
+      <c r="G214" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H214" s="47" t="s">
@@ -13803,7 +13838,7 @@
       <c r="F215" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="G215" s="100" t="s">
+      <c r="G215" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H215" s="47" t="s">
@@ -13853,7 +13888,7 @@
       <c r="F216" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="G216" s="100" t="s">
+      <c r="G216" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H216" s="47" t="s">
@@ -13903,7 +13938,7 @@
       <c r="F217" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="G217" s="100" t="s">
+      <c r="G217" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H217" s="47" t="s">
@@ -13953,7 +13988,7 @@
       <c r="F218" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="G218" s="100" t="s">
+      <c r="G218" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H218" s="47" t="s">
@@ -14003,7 +14038,7 @@
       <c r="F219" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="G219" s="100" t="s">
+      <c r="G219" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H219" s="47" t="s">
@@ -14053,7 +14088,7 @@
       <c r="F220" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="G220" s="100" t="s">
+      <c r="G220" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H220" s="47" t="s">
@@ -14085,20 +14120,46 @@
       <c r="T220" s="37"/>
     </row>
     <row r="221" spans="1:20" ht="18" customHeight="1">
-      <c r="A221" s="40"/>
-      <c r="B221" s="41"/>
-      <c r="C221" s="30"/>
-      <c r="D221" s="30"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="53"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="56"/>
-      <c r="I221" s="38"/>
-      <c r="J221" s="90"/>
+      <c r="A221" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B221" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C221" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D221" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E221" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F221" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G221" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I221" s="44">
+        <v>50</v>
+      </c>
+      <c r="J221" s="44">
+        <v>1509228441.75491</v>
+      </c>
       <c r="K221" s="38"/>
-      <c r="L221" s="40"/>
-      <c r="M221" s="40"/>
-      <c r="N221" s="40"/>
+      <c r="L221" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M221" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N221" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O221" s="44"/>
       <c r="P221" s="44"/>
       <c r="Q221" s="44"/>
@@ -14107,20 +14168,46 @@
       <c r="T221" s="37"/>
     </row>
     <row r="222" spans="1:20" ht="18" customHeight="1">
-      <c r="A222" s="40"/>
-      <c r="B222" s="31"/>
-      <c r="C222" s="30"/>
-      <c r="D222" s="30"/>
-      <c r="E222" s="31"/>
-      <c r="F222" s="53"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="56"/>
-      <c r="I222" s="38"/>
-      <c r="J222" s="51"/>
+      <c r="A222" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B222" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C222" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D222" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E222" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F222" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G222" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H222" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I222" s="44">
+        <v>60</v>
+      </c>
+      <c r="J222" s="44">
+        <v>1413615733.7367599</v>
+      </c>
       <c r="K222" s="38"/>
-      <c r="L222" s="40"/>
-      <c r="M222" s="40"/>
-      <c r="N222" s="40"/>
+      <c r="L222" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M222" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N222" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O222" s="44"/>
       <c r="P222" s="44"/>
       <c r="Q222" s="44"/>
@@ -14129,20 +14216,46 @@
       <c r="T222" s="37"/>
     </row>
     <row r="223" spans="1:20" ht="18" customHeight="1">
-      <c r="A223" s="40"/>
-      <c r="B223" s="41"/>
-      <c r="C223" s="30"/>
-      <c r="D223" s="30"/>
-      <c r="E223" s="31"/>
-      <c r="F223" s="53"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="56"/>
-      <c r="I223" s="38"/>
-      <c r="J223" s="51"/>
+      <c r="A223" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C223" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D223" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E223" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F223" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G223" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I223" s="44">
+        <v>70</v>
+      </c>
+      <c r="J223" s="44">
+        <v>1345839636.9137599</v>
+      </c>
       <c r="K223" s="38"/>
-      <c r="L223" s="40"/>
-      <c r="M223" s="40"/>
-      <c r="N223" s="40"/>
+      <c r="L223" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M223" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N223" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O223" s="44"/>
       <c r="P223" s="44"/>
       <c r="Q223" s="44"/>
@@ -14151,20 +14264,46 @@
       <c r="T223" s="37"/>
     </row>
     <row r="224" spans="1:20" ht="18" customHeight="1">
-      <c r="A224" s="40"/>
-      <c r="B224" s="41"/>
-      <c r="C224" s="30"/>
-      <c r="D224" s="30"/>
-      <c r="E224" s="31"/>
-      <c r="F224" s="53"/>
-      <c r="G224" s="32"/>
-      <c r="H224" s="56"/>
-      <c r="I224" s="38"/>
-      <c r="J224" s="51"/>
+      <c r="A224" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C224" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D224" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E224" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F224" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G224" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H224" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I224" s="44">
+        <v>73</v>
+      </c>
+      <c r="J224" s="44">
+        <v>1281694402.4205699</v>
+      </c>
       <c r="K224" s="38"/>
-      <c r="L224" s="40"/>
-      <c r="M224" s="40"/>
-      <c r="N224" s="40"/>
+      <c r="L224" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M224" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N224" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O224" s="44"/>
       <c r="P224" s="44"/>
       <c r="Q224" s="44"/>
@@ -14173,20 +14312,46 @@
       <c r="T224" s="37"/>
     </row>
     <row r="225" spans="1:20" ht="18" customHeight="1">
-      <c r="A225" s="40"/>
-      <c r="B225" s="41"/>
-      <c r="C225" s="30"/>
-      <c r="D225" s="30"/>
-      <c r="E225" s="31"/>
-      <c r="F225" s="53"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="56"/>
-      <c r="I225" s="38"/>
-      <c r="J225" s="51"/>
+      <c r="A225" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C225" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D225" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E225" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F225" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G225" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H225" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I225" s="44">
+        <v>83</v>
+      </c>
+      <c r="J225" s="44">
+        <v>1206656580.9379699</v>
+      </c>
       <c r="K225" s="38"/>
-      <c r="L225" s="40"/>
-      <c r="M225" s="40"/>
-      <c r="N225" s="40"/>
+      <c r="L225" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M225" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N225" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O225" s="44"/>
       <c r="P225" s="44"/>
       <c r="Q225" s="44"/>
@@ -14195,20 +14360,46 @@
       <c r="T225" s="37"/>
     </row>
     <row r="226" spans="1:20" ht="18" customHeight="1">
-      <c r="A226" s="40"/>
-      <c r="B226" s="31"/>
-      <c r="C226" s="30"/>
-      <c r="D226" s="30"/>
-      <c r="E226" s="31"/>
-      <c r="F226" s="53"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="56"/>
-      <c r="I226" s="38"/>
-      <c r="J226" s="51"/>
+      <c r="A226" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B226" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C226" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D226" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E226" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F226" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G226" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H226" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I226" s="44">
+        <v>140</v>
+      </c>
+      <c r="J226" s="44">
+        <v>885930408.47201204</v>
+      </c>
       <c r="K226" s="38"/>
-      <c r="L226" s="40"/>
-      <c r="M226" s="40"/>
-      <c r="N226" s="40"/>
+      <c r="L226" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M226" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N226" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O226" s="44"/>
       <c r="P226" s="44"/>
       <c r="Q226" s="44"/>
@@ -14217,20 +14408,46 @@
       <c r="T226" s="37"/>
     </row>
     <row r="227" spans="1:20" ht="18" customHeight="1">
-      <c r="A227" s="40"/>
-      <c r="B227" s="41"/>
-      <c r="C227" s="30"/>
-      <c r="D227" s="30"/>
-      <c r="E227" s="31"/>
-      <c r="F227" s="53"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="56"/>
-      <c r="I227" s="38"/>
-      <c r="J227" s="51"/>
+      <c r="A227" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B227" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C227" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D227" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E227" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F227" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G227" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H227" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I227" s="44">
+        <v>163</v>
+      </c>
+      <c r="J227" s="44">
+        <v>814523449.31921303</v>
+      </c>
       <c r="K227" s="38"/>
-      <c r="L227" s="40"/>
-      <c r="M227" s="40"/>
-      <c r="N227" s="40"/>
+      <c r="L227" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M227" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N227" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O227" s="44"/>
       <c r="P227" s="44"/>
       <c r="Q227" s="44"/>
@@ -14239,20 +14456,46 @@
       <c r="T227" s="37"/>
     </row>
     <row r="228" spans="1:20" ht="18" customHeight="1">
-      <c r="A228" s="40"/>
-      <c r="B228" s="41"/>
-      <c r="C228" s="30"/>
-      <c r="D228" s="30"/>
-      <c r="E228" s="31"/>
-      <c r="F228" s="53"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="56"/>
-      <c r="I228" s="38"/>
-      <c r="J228" s="51"/>
+      <c r="A228" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B228" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D228" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E228" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F228" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G228" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H228" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I228" s="44">
+        <v>182</v>
+      </c>
+      <c r="J228" s="44">
+        <v>744326777.60968196</v>
+      </c>
       <c r="K228" s="38"/>
-      <c r="L228" s="40"/>
-      <c r="M228" s="40"/>
-      <c r="N228" s="40"/>
+      <c r="L228" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M228" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N228" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O228" s="44"/>
       <c r="P228" s="44"/>
       <c r="Q228" s="44"/>
@@ -14261,20 +14504,46 @@
       <c r="T228" s="37"/>
     </row>
     <row r="229" spans="1:20" ht="18" customHeight="1">
-      <c r="A229" s="40"/>
-      <c r="B229" s="41"/>
-      <c r="C229" s="30"/>
-      <c r="D229" s="30"/>
-      <c r="E229" s="31"/>
-      <c r="F229" s="53"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="56"/>
-      <c r="I229" s="38"/>
-      <c r="J229" s="51"/>
+      <c r="A229" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B229" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C229" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D229" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E229" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F229" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G229" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H229" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I229" s="44">
+        <v>220</v>
+      </c>
+      <c r="J229" s="44">
+        <v>664447806.35400903</v>
+      </c>
       <c r="K229" s="38"/>
-      <c r="L229" s="40"/>
-      <c r="M229" s="40"/>
-      <c r="N229" s="40"/>
+      <c r="L229" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M229" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N229" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O229" s="44"/>
       <c r="P229" s="44"/>
       <c r="Q229" s="44"/>
@@ -14283,20 +14552,46 @@
       <c r="T229" s="37"/>
     </row>
     <row r="230" spans="1:20" ht="18" customHeight="1">
-      <c r="A230" s="40"/>
-      <c r="B230" s="41"/>
-      <c r="C230" s="30"/>
-      <c r="D230" s="30"/>
-      <c r="E230" s="31"/>
-      <c r="F230" s="53"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="56"/>
-      <c r="I230" s="38"/>
-      <c r="J230" s="51"/>
+      <c r="A230" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B230" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C230" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D230" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E230" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F230" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G230" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H230" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I230" s="44">
+        <v>250</v>
+      </c>
+      <c r="J230" s="44">
+        <v>634190620.27231395</v>
+      </c>
       <c r="K230" s="38"/>
-      <c r="L230" s="40"/>
-      <c r="M230" s="40"/>
-      <c r="N230" s="40"/>
+      <c r="L230" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M230" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N230" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O230" s="44"/>
       <c r="P230" s="44"/>
       <c r="Q230" s="44"/>
@@ -14305,20 +14600,46 @@
       <c r="T230" s="37"/>
     </row>
     <row r="231" spans="1:20" ht="18" customHeight="1">
-      <c r="A231" s="40"/>
-      <c r="B231" s="41"/>
-      <c r="C231" s="30"/>
-      <c r="D231" s="30"/>
-      <c r="E231" s="31"/>
-      <c r="F231" s="53"/>
-      <c r="G231" s="32"/>
-      <c r="H231" s="56"/>
-      <c r="I231" s="38"/>
-      <c r="J231" s="51"/>
+      <c r="A231" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B231" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C231" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D231" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E231" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F231" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G231" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H231" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I231" s="44">
+        <v>298</v>
+      </c>
+      <c r="J231" s="44">
+        <v>612405446.29349399</v>
+      </c>
       <c r="K231" s="38"/>
-      <c r="L231" s="40"/>
-      <c r="M231" s="40"/>
-      <c r="N231" s="40"/>
+      <c r="L231" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M231" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N231" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O231" s="44"/>
       <c r="P231" s="44"/>
       <c r="Q231" s="44"/>
@@ -14327,20 +14648,46 @@
       <c r="T231" s="37"/>
     </row>
     <row r="232" spans="1:20" ht="18" customHeight="1">
-      <c r="A232" s="40"/>
-      <c r="B232" s="41"/>
-      <c r="C232" s="30"/>
-      <c r="D232" s="30"/>
-      <c r="E232" s="31"/>
-      <c r="F232" s="53"/>
-      <c r="G232" s="32"/>
-      <c r="H232" s="56"/>
-      <c r="I232" s="38"/>
-      <c r="J232" s="51"/>
+      <c r="A232" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C232" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D232" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E232" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F232" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G232" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H232" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I232" s="44">
+        <v>373</v>
+      </c>
+      <c r="J232" s="44">
+        <v>608774583.963691</v>
+      </c>
       <c r="K232" s="38"/>
-      <c r="L232" s="40"/>
-      <c r="M232" s="40"/>
-      <c r="N232" s="40"/>
+      <c r="L232" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M232" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N232" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O232" s="44"/>
       <c r="P232" s="44"/>
       <c r="Q232" s="44"/>
@@ -14349,20 +14696,46 @@
       <c r="T232" s="37"/>
     </row>
     <row r="233" spans="1:20" ht="18" customHeight="1">
-      <c r="A233" s="40"/>
-      <c r="B233" s="31"/>
-      <c r="C233" s="30"/>
-      <c r="D233" s="30"/>
-      <c r="E233" s="31"/>
-      <c r="F233" s="53"/>
-      <c r="G233" s="32"/>
-      <c r="H233" s="56"/>
-      <c r="I233" s="38"/>
-      <c r="J233" s="51"/>
+      <c r="A233" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B233" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C233" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D233" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E233" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F233" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G233" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H233" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I233" s="44">
+        <v>473</v>
+      </c>
+      <c r="J233" s="44">
+        <v>572465960.665658</v>
+      </c>
       <c r="K233" s="38"/>
-      <c r="L233" s="40"/>
-      <c r="M233" s="40"/>
-      <c r="N233" s="40"/>
+      <c r="L233" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M233" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N233" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O233" s="44"/>
       <c r="P233" s="44"/>
       <c r="Q233" s="44"/>
@@ -14371,20 +14744,46 @@
       <c r="T233" s="37"/>
     </row>
     <row r="234" spans="1:20" ht="18" customHeight="1">
-      <c r="A234" s="40"/>
-      <c r="B234" s="41"/>
-      <c r="C234" s="30"/>
-      <c r="D234" s="30"/>
-      <c r="E234" s="31"/>
-      <c r="F234" s="53"/>
-      <c r="G234" s="32"/>
-      <c r="H234" s="56"/>
-      <c r="I234" s="38"/>
-      <c r="J234" s="51"/>
+      <c r="A234" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B234" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C234" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D234" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E234" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F234" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G234" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I234" s="44">
+        <v>573</v>
+      </c>
+      <c r="J234" s="44">
+        <v>509531013.61573303</v>
+      </c>
       <c r="K234" s="38"/>
-      <c r="L234" s="40"/>
-      <c r="M234" s="40"/>
-      <c r="N234" s="40"/>
+      <c r="L234" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M234" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N234" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O234" s="44"/>
       <c r="P234" s="44"/>
       <c r="Q234" s="44"/>
@@ -14393,20 +14792,46 @@
       <c r="T234" s="37"/>
     </row>
     <row r="235" spans="1:20" ht="18" customHeight="1">
-      <c r="A235" s="40"/>
-      <c r="B235" s="41"/>
-      <c r="C235" s="30"/>
-      <c r="D235" s="30"/>
-      <c r="E235" s="31"/>
-      <c r="F235" s="53"/>
-      <c r="G235" s="32"/>
-      <c r="H235" s="56"/>
-      <c r="I235" s="38"/>
-      <c r="J235" s="51"/>
+      <c r="A235" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B235" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C235" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D235" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E235" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F235" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G235" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H235" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I235" s="44">
+        <v>673</v>
+      </c>
+      <c r="J235" s="44">
+        <v>496217851.739788</v>
+      </c>
       <c r="K235" s="38"/>
-      <c r="L235" s="40"/>
-      <c r="M235" s="40"/>
-      <c r="N235" s="40"/>
+      <c r="L235" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M235" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N235" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O235" s="44"/>
       <c r="P235" s="44"/>
       <c r="Q235" s="44"/>
@@ -14415,20 +14840,46 @@
       <c r="T235" s="37"/>
     </row>
     <row r="236" spans="1:20" ht="18" customHeight="1">
-      <c r="A236" s="40"/>
-      <c r="B236" s="41"/>
-      <c r="C236" s="30"/>
-      <c r="D236" s="30"/>
-      <c r="E236" s="31"/>
-      <c r="F236" s="53"/>
-      <c r="G236" s="32"/>
-      <c r="H236" s="56"/>
-      <c r="I236" s="38"/>
-      <c r="J236" s="51"/>
+      <c r="A236" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B236" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C236" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D236" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E236" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F236" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G236" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H236" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I236" s="44">
+        <v>723</v>
+      </c>
+      <c r="J236" s="44">
+        <v>491376701.966717</v>
+      </c>
       <c r="K236" s="38"/>
-      <c r="L236" s="40"/>
-      <c r="M236" s="40"/>
-      <c r="N236" s="40"/>
+      <c r="L236" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M236" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N236" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O236" s="44"/>
       <c r="P236" s="44"/>
       <c r="Q236" s="44"/>
@@ -14437,20 +14888,46 @@
       <c r="T236" s="37"/>
     </row>
     <row r="237" spans="1:20" ht="18" customHeight="1">
-      <c r="A237" s="40"/>
-      <c r="B237" s="31"/>
-      <c r="C237" s="30"/>
-      <c r="D237" s="30"/>
-      <c r="E237" s="31"/>
-      <c r="F237" s="53"/>
-      <c r="G237" s="32"/>
-      <c r="H237" s="56"/>
-      <c r="I237" s="38"/>
-      <c r="J237" s="51"/>
+      <c r="A237" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B237" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C237" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D237" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E237" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F237" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G237" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H237" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I237" s="44">
+        <v>773</v>
+      </c>
+      <c r="J237" s="44">
+        <v>490166414.523449</v>
+      </c>
       <c r="K237" s="38"/>
-      <c r="L237" s="40"/>
-      <c r="M237" s="40"/>
-      <c r="N237" s="40"/>
+      <c r="L237" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M237" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N237" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O237" s="44"/>
       <c r="P237" s="44"/>
       <c r="Q237" s="44"/>
@@ -14459,20 +14936,46 @@
       <c r="T237" s="37"/>
     </row>
     <row r="238" spans="1:20" ht="18" customHeight="1">
-      <c r="A238" s="40"/>
-      <c r="B238" s="41"/>
-      <c r="C238" s="30"/>
-      <c r="D238" s="30"/>
-      <c r="E238" s="31"/>
-      <c r="F238" s="53"/>
-      <c r="G238" s="32"/>
-      <c r="H238" s="56"/>
-      <c r="I238" s="38"/>
-      <c r="J238" s="51"/>
+      <c r="A238" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B238" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C238" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D238" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E238" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F238" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G238" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H238" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I238" s="44">
+        <v>823</v>
+      </c>
+      <c r="J238" s="44">
+        <v>475642965.20423597</v>
+      </c>
       <c r="K238" s="38"/>
-      <c r="L238" s="40"/>
-      <c r="M238" s="40"/>
-      <c r="N238" s="40"/>
+      <c r="L238" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M238" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N238" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O238" s="44"/>
       <c r="P238" s="44"/>
       <c r="Q238" s="44"/>
@@ -14481,20 +14984,46 @@
       <c r="T238" s="37"/>
     </row>
     <row r="239" spans="1:20" ht="18" customHeight="1">
-      <c r="A239" s="40"/>
-      <c r="B239" s="41"/>
-      <c r="C239" s="30"/>
-      <c r="D239" s="30"/>
-      <c r="E239" s="31"/>
-      <c r="F239" s="53"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="56"/>
-      <c r="I239" s="38"/>
-      <c r="J239" s="51"/>
+      <c r="A239" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B239" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C239" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D239" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E239" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F239" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G239" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H239" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I239" s="44">
+        <v>873</v>
+      </c>
+      <c r="J239" s="44">
+        <v>430862329.80332798</v>
+      </c>
       <c r="K239" s="38"/>
-      <c r="L239" s="40"/>
-      <c r="M239" s="40"/>
-      <c r="N239" s="40"/>
+      <c r="L239" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M239" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N239" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O239" s="44"/>
       <c r="P239" s="44"/>
       <c r="Q239" s="44"/>
@@ -14503,20 +15032,46 @@
       <c r="T239" s="37"/>
     </row>
     <row r="240" spans="1:20" ht="18" customHeight="1">
-      <c r="A240" s="40"/>
-      <c r="B240" s="41"/>
-      <c r="C240" s="30"/>
-      <c r="D240" s="30"/>
-      <c r="E240" s="31"/>
-      <c r="F240" s="53"/>
-      <c r="G240" s="32"/>
-      <c r="H240" s="56"/>
-      <c r="I240" s="38"/>
-      <c r="J240" s="51"/>
+      <c r="A240" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B240" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C240" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D240" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E240" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F240" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G240" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H240" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I240" s="44">
+        <v>973</v>
+      </c>
+      <c r="J240" s="44">
+        <v>177912254.16036201</v>
+      </c>
       <c r="K240" s="38"/>
-      <c r="L240" s="40"/>
-      <c r="M240" s="40"/>
-      <c r="N240" s="40"/>
+      <c r="L240" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M240" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N240" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O240" s="44"/>
       <c r="P240" s="44"/>
       <c r="Q240" s="44"/>
@@ -14525,20 +15080,46 @@
       <c r="T240" s="37"/>
     </row>
     <row r="241" spans="1:20" ht="18" customHeight="1">
-      <c r="A241" s="40"/>
-      <c r="B241" s="41"/>
-      <c r="C241" s="30"/>
-      <c r="D241" s="30"/>
-      <c r="E241" s="31"/>
-      <c r="F241" s="53"/>
-      <c r="G241" s="32"/>
-      <c r="H241" s="56"/>
-      <c r="I241" s="38"/>
-      <c r="J241" s="51"/>
+      <c r="A241" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B241" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C241" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D241" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E241" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F241" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G241" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H241" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I241" s="40">
+        <v>48</v>
+      </c>
+      <c r="J241" s="40">
+        <v>1434190620.27231</v>
+      </c>
       <c r="K241" s="38"/>
-      <c r="L241" s="40"/>
-      <c r="M241" s="40"/>
-      <c r="N241" s="40"/>
+      <c r="L241" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M241" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N241" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O241" s="44"/>
       <c r="P241" s="44"/>
       <c r="Q241" s="44"/>
@@ -14547,20 +15128,46 @@
       <c r="T241" s="37"/>
     </row>
     <row r="242" spans="1:20" ht="18" customHeight="1">
-      <c r="A242" s="40"/>
-      <c r="B242" s="41"/>
-      <c r="C242" s="30"/>
-      <c r="D242" s="30"/>
-      <c r="E242" s="31"/>
-      <c r="F242" s="53"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="56"/>
-      <c r="I242" s="38"/>
-      <c r="J242" s="51"/>
+      <c r="A242" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B242" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C242" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D242" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E242" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F242" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G242" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H242" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I242" s="40">
+        <v>56</v>
+      </c>
+      <c r="J242" s="40">
+        <v>1386989409.98487</v>
+      </c>
       <c r="K242" s="38"/>
-      <c r="L242" s="40"/>
-      <c r="M242" s="40"/>
-      <c r="N242" s="40"/>
+      <c r="L242" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M242" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N242" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O242" s="44"/>
       <c r="P242" s="44"/>
       <c r="Q242" s="44"/>
@@ -14569,20 +15176,46 @@
       <c r="T242" s="37"/>
     </row>
     <row r="243" spans="1:20" ht="18" customHeight="1">
-      <c r="A243" s="40"/>
-      <c r="B243" s="31"/>
-      <c r="C243" s="93"/>
-      <c r="D243" s="57"/>
-      <c r="E243" s="55"/>
-      <c r="F243" s="53"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="56"/>
-      <c r="I243" s="38"/>
-      <c r="J243" s="51"/>
+      <c r="A243" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B243" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C243" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D243" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E243" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F243" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G243" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H243" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I243" s="40">
+        <v>77</v>
+      </c>
+      <c r="J243" s="40">
+        <v>1287745839.63691</v>
+      </c>
       <c r="K243" s="38"/>
-      <c r="L243" s="57"/>
-      <c r="M243" s="40"/>
-      <c r="N243" s="40"/>
+      <c r="L243" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M243" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N243" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O243" s="44"/>
       <c r="P243" s="44"/>
       <c r="Q243" s="44"/>
@@ -14591,20 +15224,46 @@
       <c r="T243" s="37"/>
     </row>
     <row r="244" spans="1:20" ht="18" customHeight="1">
-      <c r="A244" s="40"/>
-      <c r="B244" s="31"/>
-      <c r="C244" s="93"/>
-      <c r="D244" s="57"/>
-      <c r="E244" s="55"/>
-      <c r="F244" s="53"/>
-      <c r="G244" s="32"/>
-      <c r="H244" s="56"/>
-      <c r="I244" s="38"/>
-      <c r="J244" s="51"/>
+      <c r="A244" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B244" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C244" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D244" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E244" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F244" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G244" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H244" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I244" s="40">
+        <v>110</v>
+      </c>
+      <c r="J244" s="40">
+        <v>1155824508.32072</v>
+      </c>
       <c r="K244" s="38"/>
-      <c r="L244" s="57"/>
-      <c r="M244" s="40"/>
-      <c r="N244" s="40"/>
+      <c r="L244" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M244" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N244" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O244" s="44"/>
       <c r="P244" s="44"/>
       <c r="Q244" s="44"/>
@@ -14613,20 +15272,46 @@
       <c r="T244" s="37"/>
     </row>
     <row r="245" spans="1:20" ht="18" customHeight="1">
-      <c r="A245" s="40"/>
-      <c r="B245" s="31"/>
-      <c r="C245" s="93"/>
-      <c r="D245" s="57"/>
-      <c r="E245" s="55"/>
-      <c r="F245" s="53"/>
-      <c r="G245" s="32"/>
-      <c r="H245" s="56"/>
-      <c r="I245" s="38"/>
-      <c r="J245" s="51"/>
+      <c r="A245" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B245" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C245" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D245" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E245" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F245" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G245" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H245" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I245" s="40">
+        <v>150</v>
+      </c>
+      <c r="J245" s="40">
+        <v>1011800302.57186</v>
+      </c>
       <c r="K245" s="38"/>
-      <c r="L245" s="57"/>
-      <c r="M245" s="40"/>
-      <c r="N245" s="40"/>
+      <c r="L245" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M245" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N245" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O245" s="44"/>
       <c r="P245" s="44"/>
       <c r="Q245" s="44"/>
@@ -14635,20 +15320,46 @@
       <c r="T245" s="37"/>
     </row>
     <row r="246" spans="1:20" ht="18" customHeight="1">
-      <c r="A246" s="40"/>
-      <c r="B246" s="31"/>
-      <c r="C246" s="93"/>
-      <c r="D246" s="57"/>
-      <c r="E246" s="55"/>
-      <c r="F246" s="53"/>
-      <c r="G246" s="32"/>
-      <c r="H246" s="56"/>
-      <c r="I246" s="38"/>
-      <c r="J246" s="51"/>
+      <c r="A246" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B246" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C246" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D246" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E246" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F246" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G246" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H246" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I246" s="40">
+        <v>200</v>
+      </c>
+      <c r="J246" s="40">
+        <v>870196671.70953095</v>
+      </c>
       <c r="K246" s="38"/>
-      <c r="L246" s="57"/>
-      <c r="M246" s="40"/>
-      <c r="N246" s="40"/>
+      <c r="L246" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M246" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N246" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O246" s="44"/>
       <c r="P246" s="44"/>
       <c r="Q246" s="44"/>
@@ -14657,20 +15368,46 @@
       <c r="T246" s="37"/>
     </row>
     <row r="247" spans="1:20" ht="18" customHeight="1">
-      <c r="A247" s="40"/>
-      <c r="B247" s="31"/>
-      <c r="C247" s="93"/>
-      <c r="D247" s="57"/>
-      <c r="E247" s="55"/>
-      <c r="F247" s="53"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="56"/>
-      <c r="I247" s="38"/>
-      <c r="J247" s="51"/>
+      <c r="A247" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B247" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C247" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D247" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E247" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F247" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G247" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H247" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I247" s="40">
+        <v>298</v>
+      </c>
+      <c r="J247" s="40">
+        <v>724962178.51739705</v>
+      </c>
       <c r="K247" s="38"/>
-      <c r="L247" s="57"/>
-      <c r="M247" s="40"/>
-      <c r="N247" s="40"/>
+      <c r="L247" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M247" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N247" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O247" s="44"/>
       <c r="P247" s="44"/>
       <c r="Q247" s="44"/>
@@ -14679,20 +15416,46 @@
       <c r="T247" s="44"/>
     </row>
     <row r="248" spans="1:20" ht="18" customHeight="1">
-      <c r="A248" s="40"/>
-      <c r="B248" s="31"/>
-      <c r="C248" s="93"/>
-      <c r="D248" s="57"/>
-      <c r="E248" s="55"/>
-      <c r="F248" s="57"/>
-      <c r="G248" s="32"/>
-      <c r="H248" s="56"/>
-      <c r="I248" s="38"/>
-      <c r="J248" s="51"/>
+      <c r="A248" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B248" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C248" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D248" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E248" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F248" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G248" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H248" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I248" s="40">
+        <v>473</v>
+      </c>
+      <c r="J248" s="40">
+        <v>613615733.73676205</v>
+      </c>
       <c r="K248" s="38"/>
-      <c r="L248" s="57"/>
-      <c r="M248" s="40"/>
-      <c r="N248" s="40"/>
+      <c r="L248" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M248" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N248" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O248" s="44"/>
       <c r="P248" s="44"/>
       <c r="Q248" s="44"/>
@@ -14701,20 +15464,46 @@
       <c r="T248" s="44"/>
     </row>
     <row r="249" spans="1:20" ht="18" customHeight="1">
-      <c r="A249" s="57"/>
-      <c r="B249" s="57"/>
-      <c r="C249" s="93"/>
-      <c r="D249" s="57"/>
-      <c r="E249" s="55"/>
-      <c r="F249" s="57"/>
-      <c r="G249" s="32"/>
-      <c r="H249" s="44"/>
-      <c r="I249" s="38"/>
-      <c r="J249" s="51"/>
+      <c r="A249" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B249" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C249" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D249" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E249" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F249" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G249" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H249" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I249" s="57">
+        <v>573</v>
+      </c>
+      <c r="J249" s="40">
+        <v>562783661.11951494</v>
+      </c>
       <c r="K249" s="38"/>
-      <c r="L249" s="57"/>
-      <c r="M249" s="57"/>
-      <c r="N249" s="40"/>
+      <c r="L249" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M249" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N249" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O249" s="44"/>
       <c r="P249" s="44"/>
       <c r="Q249" s="44"/>
@@ -14723,20 +15512,46 @@
       <c r="T249" s="44"/>
     </row>
     <row r="250" spans="1:20" ht="18" customHeight="1">
-      <c r="A250" s="57"/>
-      <c r="B250" s="57"/>
-      <c r="C250" s="93"/>
-      <c r="D250" s="57"/>
-      <c r="E250" s="55"/>
-      <c r="F250" s="57"/>
-      <c r="G250" s="32"/>
-      <c r="H250" s="44"/>
-      <c r="I250" s="38"/>
-      <c r="J250" s="51"/>
+      <c r="A250" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B250" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C250" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D250" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E250" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F250" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G250" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H250" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I250" s="57">
+        <v>673</v>
+      </c>
+      <c r="J250" s="40">
+        <v>534947049.92435598</v>
+      </c>
       <c r="K250" s="38"/>
-      <c r="L250" s="57"/>
-      <c r="M250" s="57"/>
-      <c r="N250" s="40"/>
+      <c r="L250" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M250" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N250" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O250" s="44"/>
       <c r="P250" s="44"/>
       <c r="Q250" s="44"/>
@@ -14745,20 +15560,46 @@
       <c r="T250" s="37"/>
     </row>
     <row r="251" spans="1:20" ht="18" customHeight="1">
-      <c r="A251" s="57"/>
-      <c r="B251" s="57"/>
-      <c r="C251" s="93"/>
-      <c r="D251" s="57"/>
-      <c r="E251" s="55"/>
-      <c r="F251" s="57"/>
-      <c r="G251" s="32"/>
-      <c r="H251" s="44"/>
-      <c r="I251" s="38"/>
-      <c r="J251" s="51"/>
+      <c r="A251" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B251" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C251" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D251" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E251" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F251" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G251" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H251" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I251" s="57">
+        <v>773</v>
+      </c>
+      <c r="J251" s="40">
+        <v>534947049.92435598</v>
+      </c>
       <c r="K251" s="38"/>
-      <c r="L251" s="57"/>
-      <c r="M251" s="57"/>
-      <c r="N251" s="40"/>
+      <c r="L251" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M251" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N251" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O251" s="44"/>
       <c r="P251" s="44"/>
       <c r="Q251" s="44"/>
@@ -14767,20 +15608,46 @@
       <c r="T251" s="37"/>
     </row>
     <row r="252" spans="1:20" ht="18" customHeight="1">
-      <c r="A252" s="57"/>
-      <c r="B252" s="57"/>
-      <c r="C252" s="93"/>
-      <c r="D252" s="57"/>
-      <c r="E252" s="55"/>
-      <c r="F252" s="57"/>
-      <c r="G252" s="32"/>
-      <c r="H252" s="44"/>
-      <c r="I252" s="38"/>
-      <c r="J252" s="51"/>
+      <c r="A252" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B252" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C252" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D252" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E252" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F252" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G252" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H252" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I252" s="57">
+        <v>873</v>
+      </c>
+      <c r="J252" s="40">
+        <v>528895612.708018</v>
+      </c>
       <c r="K252" s="38"/>
-      <c r="L252" s="57"/>
-      <c r="M252" s="57"/>
-      <c r="N252" s="40"/>
+      <c r="L252" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M252" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N252" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O252" s="44"/>
       <c r="P252" s="44"/>
       <c r="Q252" s="44"/>
@@ -14789,20 +15656,46 @@
       <c r="T252" s="37"/>
     </row>
     <row r="253" spans="1:20" ht="18" customHeight="1">
-      <c r="A253" s="57"/>
-      <c r="B253" s="57"/>
-      <c r="C253" s="93"/>
-      <c r="D253" s="57"/>
-      <c r="E253" s="55"/>
-      <c r="F253" s="57"/>
-      <c r="G253" s="32"/>
-      <c r="H253" s="44"/>
-      <c r="I253" s="38"/>
-      <c r="J253" s="51"/>
+      <c r="A253" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B253" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C253" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D253" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E253" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F253" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G253" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H253" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I253" s="57">
+        <v>923</v>
+      </c>
+      <c r="J253" s="40">
+        <v>455068078.66868299</v>
+      </c>
       <c r="K253" s="38"/>
-      <c r="L253" s="57"/>
-      <c r="M253" s="57"/>
-      <c r="N253" s="40"/>
+      <c r="L253" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M253" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N253" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O253" s="44"/>
       <c r="P253" s="44"/>
       <c r="Q253" s="44"/>
@@ -14811,20 +15704,46 @@
       <c r="T253" s="37"/>
     </row>
     <row r="254" spans="1:20" ht="18" customHeight="1">
-      <c r="A254" s="57"/>
-      <c r="B254" s="57"/>
-      <c r="C254" s="93"/>
-      <c r="D254" s="57"/>
-      <c r="E254" s="55"/>
-      <c r="F254" s="57"/>
-      <c r="G254" s="32"/>
-      <c r="H254" s="44"/>
-      <c r="I254" s="38"/>
-      <c r="J254" s="51"/>
+      <c r="A254" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B254" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C254" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D254" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E254" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F254" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G254" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H254" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I254" s="57">
+        <v>973</v>
+      </c>
+      <c r="J254" s="40">
+        <v>350983358.54765499</v>
+      </c>
       <c r="K254" s="38"/>
-      <c r="L254" s="57"/>
-      <c r="M254" s="57"/>
-      <c r="N254" s="40"/>
+      <c r="L254" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M254" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N254" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O254" s="44"/>
       <c r="P254" s="44"/>
       <c r="Q254" s="44"/>
@@ -14833,20 +15752,46 @@
       <c r="T254" s="37"/>
     </row>
     <row r="255" spans="1:20" ht="18" customHeight="1">
-      <c r="A255" s="57"/>
-      <c r="B255" s="57"/>
-      <c r="C255" s="93"/>
-      <c r="D255" s="57"/>
-      <c r="E255" s="55"/>
-      <c r="F255" s="57"/>
-      <c r="G255" s="32"/>
-      <c r="H255" s="44"/>
-      <c r="I255" s="38"/>
-      <c r="J255" s="51"/>
+      <c r="A255" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B255" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C255" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D255" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E255" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F255" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G255" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H255" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I255" s="57">
+        <v>150</v>
+      </c>
+      <c r="J255" s="40">
+        <v>1137670196.6717</v>
+      </c>
       <c r="K255" s="38"/>
-      <c r="L255" s="57"/>
-      <c r="M255" s="57"/>
-      <c r="N255" s="40"/>
+      <c r="L255" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M255" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N255" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O255" s="44"/>
       <c r="P255" s="44"/>
       <c r="Q255" s="44"/>
@@ -14855,20 +15800,46 @@
       <c r="T255" s="37"/>
     </row>
     <row r="256" spans="1:20" ht="18" customHeight="1">
-      <c r="A256" s="57"/>
-      <c r="B256" s="57"/>
-      <c r="C256" s="93"/>
-      <c r="D256" s="57"/>
-      <c r="E256" s="55"/>
-      <c r="F256" s="57"/>
-      <c r="G256" s="32"/>
-      <c r="H256" s="44"/>
-      <c r="I256" s="38"/>
-      <c r="J256" s="51"/>
+      <c r="A256" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B256" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C256" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D256" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E256" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F256" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G256" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H256" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I256" s="57">
+        <v>180</v>
+      </c>
+      <c r="J256" s="40">
+        <v>1044478063.54009</v>
+      </c>
       <c r="K256" s="38"/>
-      <c r="L256" s="57"/>
-      <c r="M256" s="57"/>
-      <c r="N256" s="40"/>
+      <c r="L256" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M256" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N256" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O256" s="44"/>
       <c r="P256" s="44"/>
       <c r="Q256" s="44"/>
@@ -14877,20 +15848,46 @@
       <c r="T256" s="37"/>
     </row>
     <row r="257" spans="1:20" ht="18" customHeight="1">
-      <c r="A257" s="57"/>
-      <c r="B257" s="57"/>
-      <c r="C257" s="93"/>
-      <c r="D257" s="57"/>
-      <c r="E257" s="55"/>
-      <c r="F257" s="57"/>
-      <c r="G257" s="32"/>
-      <c r="H257" s="44"/>
-      <c r="I257" s="38"/>
-      <c r="J257" s="51"/>
+      <c r="A257" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B257" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C257" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D257" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E257" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F257" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G257" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I257" s="57">
+        <v>210</v>
+      </c>
+      <c r="J257" s="40">
+        <v>958547655.06807804</v>
+      </c>
       <c r="K257" s="38"/>
-      <c r="L257" s="57"/>
-      <c r="M257" s="57"/>
-      <c r="N257" s="40"/>
+      <c r="L257" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M257" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N257" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O257" s="44"/>
       <c r="P257" s="44"/>
       <c r="Q257" s="44"/>
@@ -14899,20 +15896,46 @@
       <c r="T257" s="37"/>
     </row>
     <row r="258" spans="1:20" ht="18" customHeight="1">
-      <c r="A258" s="57"/>
-      <c r="B258" s="57"/>
-      <c r="C258" s="93"/>
-      <c r="D258" s="57"/>
-      <c r="E258" s="55"/>
-      <c r="F258" s="57"/>
-      <c r="G258" s="32"/>
-      <c r="H258" s="44"/>
-      <c r="I258" s="38"/>
-      <c r="J258" s="51"/>
+      <c r="A258" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B258" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C258" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D258" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E258" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F258" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G258" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H258" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I258" s="57">
+        <v>240</v>
+      </c>
+      <c r="J258" s="40">
+        <v>911346444.780635</v>
+      </c>
       <c r="K258" s="38"/>
-      <c r="L258" s="57"/>
-      <c r="M258" s="57"/>
-      <c r="N258" s="40"/>
+      <c r="L258" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M258" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N258" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O258" s="44"/>
       <c r="P258" s="44"/>
       <c r="Q258" s="44"/>
@@ -14921,20 +15944,46 @@
       <c r="T258" s="37"/>
     </row>
     <row r="259" spans="1:20" ht="18" customHeight="1">
-      <c r="A259" s="57"/>
-      <c r="B259" s="57"/>
-      <c r="C259" s="57"/>
-      <c r="D259" s="57"/>
-      <c r="E259" s="55"/>
-      <c r="F259" s="57"/>
-      <c r="G259" s="32"/>
-      <c r="H259" s="44"/>
-      <c r="I259" s="38"/>
-      <c r="J259" s="51"/>
+      <c r="A259" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B259" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C259" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D259" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E259" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F259" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G259" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H259" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I259" s="57">
+        <v>270</v>
+      </c>
+      <c r="J259" s="40">
+        <v>852042360.06051397</v>
+      </c>
       <c r="K259" s="38"/>
-      <c r="L259" s="57"/>
-      <c r="M259" s="57"/>
-      <c r="N259" s="40"/>
+      <c r="L259" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M259" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N259" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O259" s="44"/>
       <c r="P259" s="44"/>
       <c r="Q259" s="44"/>
@@ -14943,20 +15992,46 @@
       <c r="T259" s="37"/>
     </row>
     <row r="260" spans="1:20" ht="18" customHeight="1">
-      <c r="A260" s="57"/>
-      <c r="B260" s="57"/>
-      <c r="C260" s="57"/>
-      <c r="D260" s="57"/>
-      <c r="E260" s="55"/>
-      <c r="F260" s="57"/>
-      <c r="G260" s="32"/>
-      <c r="H260" s="44"/>
-      <c r="I260" s="38"/>
-      <c r="J260" s="51"/>
+      <c r="A260" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B260" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C260" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D260" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E260" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F260" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G260" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H260" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I260" s="57">
+        <v>298</v>
+      </c>
+      <c r="J260" s="40">
+        <v>819364599.09228396</v>
+      </c>
       <c r="K260" s="38"/>
-      <c r="L260" s="57"/>
-      <c r="M260" s="57"/>
-      <c r="N260" s="40"/>
+      <c r="L260" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M260" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N260" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O260" s="44"/>
       <c r="P260" s="44"/>
       <c r="Q260" s="44"/>
@@ -14965,20 +16040,46 @@
       <c r="T260" s="37"/>
     </row>
     <row r="261" spans="1:20" ht="18" customHeight="1">
-      <c r="A261" s="57"/>
-      <c r="B261" s="57"/>
-      <c r="C261" s="57"/>
-      <c r="D261" s="57"/>
-      <c r="E261" s="55"/>
-      <c r="F261" s="57"/>
-      <c r="G261" s="32"/>
-      <c r="H261" s="44"/>
-      <c r="I261" s="38"/>
-      <c r="J261" s="51"/>
+      <c r="A261" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B261" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C261" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D261" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E261" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F261" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G261" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H261" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I261" s="57">
+        <v>473</v>
+      </c>
+      <c r="J261" s="40">
+        <v>665658093.79727602</v>
+      </c>
       <c r="K261" s="38"/>
-      <c r="L261" s="57"/>
-      <c r="M261" s="57"/>
-      <c r="N261" s="40"/>
+      <c r="L261" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M261" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N261" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O261" s="44"/>
       <c r="P261" s="44"/>
       <c r="Q261" s="44"/>
@@ -14987,20 +16088,46 @@
       <c r="T261" s="37"/>
     </row>
     <row r="262" spans="1:20" ht="18" customHeight="1">
-      <c r="A262" s="57"/>
-      <c r="B262" s="57"/>
-      <c r="C262" s="57"/>
-      <c r="D262" s="57"/>
-      <c r="E262" s="55"/>
-      <c r="F262" s="57"/>
-      <c r="G262" s="32"/>
-      <c r="H262" s="44"/>
-      <c r="I262" s="38"/>
-      <c r="J262" s="51"/>
+      <c r="A262" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B262" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C262" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D262" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E262" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F262" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G262" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H262" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I262" s="57">
+        <v>573</v>
+      </c>
+      <c r="J262" s="40">
+        <v>579727685.32526398</v>
+      </c>
       <c r="K262" s="38"/>
-      <c r="L262" s="57"/>
-      <c r="M262" s="57"/>
-      <c r="N262" s="40"/>
+      <c r="L262" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M262" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N262" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O262" s="44"/>
       <c r="P262" s="44"/>
       <c r="Q262" s="44"/>
@@ -15009,20 +16136,46 @@
       <c r="T262" s="37"/>
     </row>
     <row r="263" spans="1:20" ht="18" customHeight="1">
-      <c r="A263" s="57"/>
-      <c r="B263" s="57"/>
-      <c r="C263" s="57"/>
-      <c r="D263" s="57"/>
-      <c r="E263" s="55"/>
-      <c r="F263" s="57"/>
-      <c r="G263" s="32"/>
-      <c r="H263" s="44"/>
-      <c r="I263" s="38"/>
-      <c r="J263" s="51"/>
+      <c r="A263" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B263" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C263" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D263" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E263" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F263" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G263" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H263" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I263" s="57">
+        <v>673</v>
+      </c>
+      <c r="J263" s="40">
+        <v>537367624.81089199</v>
+      </c>
       <c r="K263" s="38"/>
-      <c r="L263" s="57"/>
-      <c r="M263" s="57"/>
-      <c r="N263" s="40"/>
+      <c r="L263" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M263" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N263" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O263" s="44"/>
       <c r="P263" s="44"/>
       <c r="Q263" s="44"/>
@@ -15031,20 +16184,46 @@
       <c r="T263" s="37"/>
     </row>
     <row r="264" spans="1:20" ht="18" customHeight="1">
-      <c r="A264" s="57"/>
-      <c r="B264" s="57"/>
-      <c r="C264" s="57"/>
-      <c r="D264" s="57"/>
-      <c r="E264" s="55"/>
-      <c r="F264" s="57"/>
-      <c r="G264" s="32"/>
-      <c r="H264" s="44"/>
-      <c r="I264" s="38"/>
-      <c r="J264" s="51"/>
+      <c r="A264" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B264" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C264" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D264" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E264" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F264" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G264" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H264" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I264" s="57">
+        <v>773</v>
+      </c>
+      <c r="J264" s="40">
+        <v>515582450.83207202</v>
+      </c>
       <c r="K264" s="38"/>
-      <c r="L264" s="57"/>
-      <c r="M264" s="57"/>
-      <c r="N264" s="40"/>
+      <c r="L264" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M264" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N264" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O264" s="44"/>
       <c r="P264" s="44"/>
       <c r="Q264" s="44"/>
@@ -15053,20 +16232,46 @@
       <c r="T264" s="37"/>
     </row>
     <row r="265" spans="1:20" ht="18" customHeight="1">
-      <c r="A265" s="57"/>
-      <c r="B265" s="57"/>
-      <c r="C265" s="57"/>
-      <c r="D265" s="57"/>
-      <c r="E265" s="55"/>
-      <c r="F265" s="57"/>
-      <c r="G265" s="32"/>
-      <c r="H265" s="44"/>
-      <c r="I265" s="38"/>
-      <c r="J265" s="51"/>
+      <c r="A265" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B265" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C265" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D265" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E265" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F265" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G265" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H265" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I265" s="57">
+        <v>873</v>
+      </c>
+      <c r="J265" s="40">
+        <v>515582450.83207202</v>
+      </c>
       <c r="K265" s="38"/>
-      <c r="L265" s="57"/>
-      <c r="M265" s="57"/>
-      <c r="N265" s="40"/>
+      <c r="L265" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M265" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N265" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O265" s="44"/>
       <c r="P265" s="44"/>
       <c r="Q265" s="44"/>
@@ -15075,20 +16280,46 @@
       <c r="T265" s="37"/>
     </row>
     <row r="266" spans="1:20" ht="18" customHeight="1">
-      <c r="A266" s="57"/>
-      <c r="B266" s="57"/>
-      <c r="C266" s="57"/>
-      <c r="D266" s="57"/>
-      <c r="E266" s="55"/>
-      <c r="F266" s="57"/>
-      <c r="G266" s="32"/>
-      <c r="H266" s="44"/>
-      <c r="I266" s="38"/>
-      <c r="J266" s="51"/>
+      <c r="A266" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B266" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C266" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D266" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E266" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F266" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G266" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H266" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I266" s="57">
+        <v>973</v>
+      </c>
+      <c r="J266" s="40">
+        <v>492586989.40998399</v>
+      </c>
       <c r="K266" s="38"/>
-      <c r="L266" s="57"/>
-      <c r="M266" s="57"/>
-      <c r="N266" s="40"/>
+      <c r="L266" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M266" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N266" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O266" s="44"/>
       <c r="P266" s="44"/>
       <c r="Q266" s="44"/>
@@ -15097,20 +16328,46 @@
       <c r="T266" s="37"/>
     </row>
     <row r="267" spans="1:20" ht="18" customHeight="1">
-      <c r="A267" s="57"/>
-      <c r="B267" s="57"/>
-      <c r="C267" s="57"/>
-      <c r="D267" s="57"/>
-      <c r="E267" s="55"/>
-      <c r="F267" s="57"/>
-      <c r="G267" s="32"/>
-      <c r="H267" s="44"/>
-      <c r="I267" s="38"/>
-      <c r="J267" s="51"/>
+      <c r="A267" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B267" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C267" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D267" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E267" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F267" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G267" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H267" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I267" s="57">
+        <v>1073</v>
+      </c>
+      <c r="J267" s="40">
+        <v>349773071.10438699</v>
+      </c>
       <c r="K267" s="38"/>
-      <c r="L267" s="57"/>
-      <c r="M267" s="57"/>
-      <c r="N267" s="40"/>
+      <c r="L267" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M267" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N267" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O267" s="44"/>
       <c r="P267" s="44"/>
       <c r="Q267" s="44"/>
@@ -15119,20 +16376,46 @@
       <c r="T267" s="37"/>
     </row>
     <row r="268" spans="1:20" ht="18" customHeight="1">
-      <c r="A268" s="57"/>
-      <c r="B268" s="57"/>
-      <c r="C268" s="57"/>
-      <c r="D268" s="57"/>
-      <c r="E268" s="55"/>
-      <c r="F268" s="57"/>
-      <c r="G268" s="32"/>
-      <c r="H268" s="44"/>
-      <c r="I268" s="38"/>
-      <c r="J268" s="51"/>
+      <c r="A268" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B268" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="C268" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D268" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E268" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F268" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G268" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H268" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I268" s="57">
+        <v>1173</v>
+      </c>
+      <c r="J268" s="40">
+        <v>137972768.53252599</v>
+      </c>
       <c r="K268" s="38"/>
-      <c r="L268" s="57"/>
-      <c r="M268" s="57"/>
-      <c r="N268" s="40"/>
+      <c r="L268" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M268" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N268" s="40" t="s">
+        <v>381</v>
+      </c>
       <c r="O268" s="44"/>
       <c r="P268" s="44"/>
       <c r="Q268" s="44"/>
@@ -15309,7 +16592,7 @@
       <c r="L276" s="57"/>
       <c r="M276" s="57"/>
       <c r="N276" s="40"/>
-      <c r="O276" s="94"/>
+      <c r="O276" s="93"/>
       <c r="P276" s="44"/>
       <c r="Q276" s="44"/>
       <c r="R276" s="44"/>
@@ -18244,14 +19527,14 @@
     </row>
     <row r="410" spans="1:20" ht="18" customHeight="1">
       <c r="A410" s="44"/>
-      <c r="B410" s="95"/>
-      <c r="C410" s="96"/>
-      <c r="D410" s="96"/>
-      <c r="E410" s="96"/>
-      <c r="F410" s="96"/>
-      <c r="G410" s="96"/>
-      <c r="H410" s="96"/>
-      <c r="I410" s="96"/>
+      <c r="B410" s="94"/>
+      <c r="C410" s="95"/>
+      <c r="D410" s="95"/>
+      <c r="E410" s="95"/>
+      <c r="F410" s="95"/>
+      <c r="G410" s="95"/>
+      <c r="H410" s="95"/>
+      <c r="I410" s="95"/>
       <c r="J410" s="44"/>
       <c r="K410" s="48"/>
       <c r="L410" s="57"/>
@@ -18266,14 +19549,14 @@
     </row>
     <row r="411" spans="1:20" ht="18" customHeight="1">
       <c r="A411" s="44"/>
-      <c r="B411" s="97"/>
-      <c r="C411" s="98"/>
-      <c r="D411" s="98"/>
-      <c r="E411" s="98"/>
-      <c r="F411" s="96"/>
-      <c r="G411" s="98"/>
-      <c r="H411" s="98"/>
-      <c r="I411" s="98"/>
+      <c r="B411" s="96"/>
+      <c r="C411" s="97"/>
+      <c r="D411" s="97"/>
+      <c r="E411" s="97"/>
+      <c r="F411" s="95"/>
+      <c r="G411" s="97"/>
+      <c r="H411" s="97"/>
+      <c r="I411" s="97"/>
       <c r="J411" s="44"/>
       <c r="K411" s="44"/>
       <c r="L411" s="57"/>
@@ -18288,14 +19571,14 @@
     </row>
     <row r="412" spans="1:20" ht="18" customHeight="1">
       <c r="A412" s="44"/>
-      <c r="B412" s="97"/>
-      <c r="C412" s="98"/>
-      <c r="D412" s="98"/>
-      <c r="E412" s="98"/>
-      <c r="F412" s="96"/>
-      <c r="G412" s="98"/>
-      <c r="H412" s="98"/>
-      <c r="I412" s="98"/>
+      <c r="B412" s="96"/>
+      <c r="C412" s="97"/>
+      <c r="D412" s="97"/>
+      <c r="E412" s="97"/>
+      <c r="F412" s="95"/>
+      <c r="G412" s="97"/>
+      <c r="H412" s="97"/>
+      <c r="I412" s="97"/>
       <c r="J412" s="44"/>
       <c r="K412" s="44"/>
       <c r="L412" s="57"/>
@@ -18310,14 +19593,14 @@
     </row>
     <row r="413" spans="1:20" ht="18" customHeight="1">
       <c r="A413" s="44"/>
-      <c r="B413" s="97"/>
-      <c r="C413" s="98"/>
-      <c r="D413" s="98"/>
-      <c r="E413" s="98"/>
-      <c r="F413" s="96"/>
-      <c r="G413" s="98"/>
-      <c r="H413" s="98"/>
-      <c r="I413" s="98"/>
+      <c r="B413" s="96"/>
+      <c r="C413" s="97"/>
+      <c r="D413" s="97"/>
+      <c r="E413" s="97"/>
+      <c r="F413" s="95"/>
+      <c r="G413" s="97"/>
+      <c r="H413" s="97"/>
+      <c r="I413" s="97"/>
       <c r="J413" s="44"/>
       <c r="K413" s="44"/>
       <c r="L413" s="57"/>
@@ -18337,9 +19620,9 @@
       <c r="D414" s="57"/>
       <c r="E414" s="57"/>
       <c r="F414" s="57"/>
-      <c r="G414" s="98"/>
-      <c r="H414" s="98"/>
-      <c r="I414" s="98"/>
+      <c r="G414" s="97"/>
+      <c r="H414" s="97"/>
+      <c r="I414" s="97"/>
       <c r="J414" s="58"/>
       <c r="K414" s="44"/>
       <c r="L414" s="57"/>
@@ -18359,9 +19642,9 @@
       <c r="D415" s="57"/>
       <c r="E415" s="57"/>
       <c r="F415" s="57"/>
-      <c r="G415" s="98"/>
-      <c r="H415" s="98"/>
-      <c r="I415" s="98"/>
+      <c r="G415" s="97"/>
+      <c r="H415" s="97"/>
+      <c r="I415" s="97"/>
       <c r="J415" s="58"/>
       <c r="K415" s="58"/>
       <c r="L415" s="57"/>
@@ -18381,9 +19664,9 @@
       <c r="D416" s="57"/>
       <c r="E416" s="57"/>
       <c r="F416" s="57"/>
-      <c r="G416" s="98"/>
-      <c r="H416" s="98"/>
-      <c r="I416" s="98"/>
+      <c r="G416" s="97"/>
+      <c r="H416" s="97"/>
+      <c r="I416" s="97"/>
       <c r="J416" s="58"/>
       <c r="K416" s="58"/>
       <c r="L416" s="57"/>
@@ -18403,9 +19686,9 @@
       <c r="D417" s="57"/>
       <c r="E417" s="57"/>
       <c r="F417" s="57"/>
-      <c r="G417" s="98"/>
-      <c r="H417" s="98"/>
-      <c r="I417" s="98"/>
+      <c r="G417" s="97"/>
+      <c r="H417" s="97"/>
+      <c r="I417" s="97"/>
       <c r="J417" s="58"/>
       <c r="K417" s="58"/>
       <c r="L417" s="57"/>
@@ -18425,9 +19708,9 @@
       <c r="D418" s="57"/>
       <c r="E418" s="57"/>
       <c r="F418" s="57"/>
-      <c r="G418" s="98"/>
-      <c r="H418" s="98"/>
-      <c r="I418" s="98"/>
+      <c r="G418" s="97"/>
+      <c r="H418" s="97"/>
+      <c r="I418" s="97"/>
       <c r="J418" s="58"/>
       <c r="K418" s="58"/>
       <c r="L418" s="57"/>
@@ -18447,9 +19730,9 @@
       <c r="D419" s="57"/>
       <c r="E419" s="57"/>
       <c r="F419" s="57"/>
-      <c r="G419" s="98"/>
-      <c r="H419" s="98"/>
-      <c r="I419" s="98"/>
+      <c r="G419" s="97"/>
+      <c r="H419" s="97"/>
+      <c r="I419" s="97"/>
       <c r="J419" s="58"/>
       <c r="K419" s="58"/>
       <c r="L419" s="57"/>
@@ -18464,14 +19747,14 @@
     </row>
     <row r="420" spans="1:20" ht="18" customHeight="1">
       <c r="A420" s="57"/>
-      <c r="B420" s="95"/>
-      <c r="C420" s="96"/>
-      <c r="D420" s="96"/>
+      <c r="B420" s="94"/>
+      <c r="C420" s="95"/>
+      <c r="D420" s="95"/>
       <c r="E420" s="57"/>
       <c r="F420" s="57"/>
-      <c r="G420" s="98"/>
-      <c r="H420" s="98"/>
-      <c r="I420" s="98"/>
+      <c r="G420" s="97"/>
+      <c r="H420" s="97"/>
+      <c r="I420" s="97"/>
       <c r="J420" s="58"/>
       <c r="K420" s="58"/>
       <c r="L420" s="57"/>
@@ -18486,14 +19769,14 @@
     </row>
     <row r="421" spans="1:20" ht="18" customHeight="1">
       <c r="A421" s="57"/>
-      <c r="B421" s="97"/>
-      <c r="C421" s="98"/>
-      <c r="D421" s="98"/>
+      <c r="B421" s="96"/>
+      <c r="C421" s="97"/>
+      <c r="D421" s="97"/>
       <c r="E421" s="57"/>
       <c r="F421" s="57"/>
-      <c r="G421" s="98"/>
-      <c r="H421" s="98"/>
-      <c r="I421" s="98"/>
+      <c r="G421" s="97"/>
+      <c r="H421" s="97"/>
+      <c r="I421" s="97"/>
       <c r="J421" s="58"/>
       <c r="K421" s="58"/>
       <c r="L421" s="57"/>
@@ -18508,14 +19791,14 @@
     </row>
     <row r="422" spans="1:20" ht="18" customHeight="1">
       <c r="A422" s="57"/>
-      <c r="B422" s="97"/>
-      <c r="C422" s="98"/>
-      <c r="D422" s="98"/>
+      <c r="B422" s="96"/>
+      <c r="C422" s="97"/>
+      <c r="D422" s="97"/>
       <c r="E422" s="57"/>
       <c r="F422" s="57"/>
-      <c r="G422" s="98"/>
-      <c r="H422" s="98"/>
-      <c r="I422" s="98"/>
+      <c r="G422" s="97"/>
+      <c r="H422" s="97"/>
+      <c r="I422" s="97"/>
       <c r="J422" s="58"/>
       <c r="K422" s="58"/>
       <c r="L422" s="57"/>
@@ -18535,9 +19818,9 @@
       <c r="D423" s="57"/>
       <c r="E423" s="57"/>
       <c r="F423" s="57"/>
-      <c r="G423" s="98"/>
-      <c r="H423" s="98"/>
-      <c r="I423" s="98"/>
+      <c r="G423" s="97"/>
+      <c r="H423" s="97"/>
+      <c r="I423" s="97"/>
       <c r="J423" s="58"/>
       <c r="K423" s="44"/>
       <c r="L423" s="57"/>
@@ -18557,9 +19840,9 @@
       <c r="D424" s="57"/>
       <c r="E424" s="57"/>
       <c r="F424" s="57"/>
-      <c r="G424" s="98"/>
-      <c r="H424" s="98"/>
-      <c r="I424" s="98"/>
+      <c r="G424" s="97"/>
+      <c r="H424" s="97"/>
+      <c r="I424" s="97"/>
       <c r="J424" s="58"/>
       <c r="K424" s="44"/>
       <c r="L424" s="57"/>
@@ -18579,9 +19862,9 @@
       <c r="D425" s="57"/>
       <c r="E425" s="57"/>
       <c r="F425" s="57"/>
-      <c r="G425" s="98"/>
-      <c r="H425" s="98"/>
-      <c r="I425" s="98"/>
+      <c r="G425" s="97"/>
+      <c r="H425" s="97"/>
+      <c r="I425" s="97"/>
       <c r="J425" s="58"/>
       <c r="K425" s="44"/>
       <c r="L425" s="57"/>
@@ -18601,9 +19884,9 @@
       <c r="D426" s="57"/>
       <c r="E426" s="57"/>
       <c r="F426" s="57"/>
-      <c r="G426" s="98"/>
-      <c r="H426" s="98"/>
-      <c r="I426" s="98"/>
+      <c r="G426" s="97"/>
+      <c r="H426" s="97"/>
+      <c r="I426" s="97"/>
       <c r="J426" s="58"/>
       <c r="K426" s="44"/>
       <c r="L426" s="57"/>
@@ -18623,9 +19906,9 @@
       <c r="D427" s="57"/>
       <c r="E427" s="57"/>
       <c r="F427" s="57"/>
-      <c r="G427" s="98"/>
-      <c r="H427" s="98"/>
-      <c r="I427" s="98"/>
+      <c r="G427" s="97"/>
+      <c r="H427" s="97"/>
+      <c r="I427" s="97"/>
       <c r="J427" s="44"/>
       <c r="K427" s="44"/>
       <c r="L427" s="57"/>
@@ -18645,9 +19928,9 @@
       <c r="D428" s="57"/>
       <c r="E428" s="57"/>
       <c r="F428" s="57"/>
-      <c r="G428" s="98"/>
-      <c r="H428" s="98"/>
-      <c r="I428" s="98"/>
+      <c r="G428" s="97"/>
+      <c r="H428" s="97"/>
+      <c r="I428" s="97"/>
       <c r="J428" s="44"/>
       <c r="K428" s="44"/>
       <c r="L428" s="57"/>
@@ -19146,10 +20429,10 @@
     </row>
     <row r="451" spans="1:20" ht="15" customHeight="1">
       <c r="A451" s="44"/>
-      <c r="B451" s="95"/>
-      <c r="C451" s="96"/>
-      <c r="D451" s="96"/>
-      <c r="E451" s="96"/>
+      <c r="B451" s="94"/>
+      <c r="C451" s="95"/>
+      <c r="D451" s="95"/>
+      <c r="E451" s="95"/>
       <c r="F451" s="57"/>
       <c r="G451" s="57"/>
       <c r="H451" s="57"/>
@@ -19168,10 +20451,10 @@
     </row>
     <row r="452" spans="1:20" ht="15" customHeight="1">
       <c r="A452" s="44"/>
-      <c r="B452" s="97"/>
-      <c r="C452" s="98"/>
-      <c r="D452" s="98"/>
-      <c r="E452" s="98"/>
+      <c r="B452" s="96"/>
+      <c r="C452" s="97"/>
+      <c r="D452" s="97"/>
+      <c r="E452" s="97"/>
       <c r="F452" s="57"/>
       <c r="G452" s="57"/>
       <c r="H452" s="57"/>
@@ -19190,10 +20473,10 @@
     </row>
     <row r="453" spans="1:20" ht="15" customHeight="1">
       <c r="A453" s="44"/>
-      <c r="B453" s="97"/>
-      <c r="C453" s="98"/>
-      <c r="D453" s="98"/>
-      <c r="E453" s="98"/>
+      <c r="B453" s="96"/>
+      <c r="C453" s="97"/>
+      <c r="D453" s="97"/>
+      <c r="E453" s="97"/>
       <c r="F453" s="57"/>
       <c r="G453" s="57"/>
       <c r="H453" s="57"/>
@@ -19212,10 +20495,10 @@
     </row>
     <row r="454" spans="1:20" ht="15" customHeight="1">
       <c r="A454" s="44"/>
-      <c r="B454" s="97"/>
-      <c r="C454" s="98"/>
-      <c r="D454" s="98"/>
-      <c r="E454" s="98"/>
+      <c r="B454" s="96"/>
+      <c r="C454" s="97"/>
+      <c r="D454" s="97"/>
+      <c r="E454" s="97"/>
       <c r="F454" s="57"/>
       <c r="G454" s="57"/>
       <c r="H454" s="57"/>
@@ -19234,10 +20517,10 @@
     </row>
     <row r="455" spans="1:20" ht="15" customHeight="1">
       <c r="A455" s="44"/>
-      <c r="B455" s="97"/>
-      <c r="C455" s="98"/>
-      <c r="D455" s="98"/>
-      <c r="E455" s="98"/>
+      <c r="B455" s="96"/>
+      <c r="C455" s="97"/>
+      <c r="D455" s="97"/>
+      <c r="E455" s="97"/>
       <c r="F455" s="57"/>
       <c r="G455" s="57"/>
       <c r="H455" s="57"/>
@@ -19256,10 +20539,10 @@
     </row>
     <row r="456" spans="1:20" ht="15" customHeight="1">
       <c r="A456" s="44"/>
-      <c r="B456" s="97"/>
-      <c r="C456" s="98"/>
-      <c r="D456" s="98"/>
-      <c r="E456" s="98"/>
+      <c r="B456" s="96"/>
+      <c r="C456" s="97"/>
+      <c r="D456" s="97"/>
+      <c r="E456" s="97"/>
       <c r="F456" s="57"/>
       <c r="G456" s="57"/>
       <c r="H456" s="57"/>
@@ -19278,10 +20561,10 @@
     </row>
     <row r="457" spans="1:20" ht="15" customHeight="1">
       <c r="A457" s="44"/>
-      <c r="B457" s="97"/>
-      <c r="C457" s="98"/>
-      <c r="D457" s="98"/>
-      <c r="E457" s="98"/>
+      <c r="B457" s="96"/>
+      <c r="C457" s="97"/>
+      <c r="D457" s="97"/>
+      <c r="E457" s="97"/>
       <c r="F457" s="57"/>
       <c r="G457" s="57"/>
       <c r="H457" s="57"/>
@@ -19300,10 +20583,10 @@
     </row>
     <row r="458" spans="1:20" ht="15" customHeight="1">
       <c r="A458" s="44"/>
-      <c r="B458" s="97"/>
-      <c r="C458" s="98"/>
-      <c r="D458" s="98"/>
-      <c r="E458" s="98"/>
+      <c r="B458" s="96"/>
+      <c r="C458" s="97"/>
+      <c r="D458" s="97"/>
+      <c r="E458" s="97"/>
       <c r="F458" s="57"/>
       <c r="G458" s="57"/>
       <c r="H458" s="57"/>
@@ -19322,10 +20605,10 @@
     </row>
     <row r="459" spans="1:20" ht="15" customHeight="1">
       <c r="A459" s="44"/>
-      <c r="B459" s="97"/>
-      <c r="C459" s="98"/>
-      <c r="D459" s="98"/>
-      <c r="E459" s="98"/>
+      <c r="B459" s="96"/>
+      <c r="C459" s="97"/>
+      <c r="D459" s="97"/>
+      <c r="E459" s="97"/>
       <c r="F459" s="57"/>
       <c r="G459" s="57"/>
       <c r="H459" s="57"/>
@@ -19344,10 +20627,10 @@
     </row>
     <row r="460" spans="1:20" ht="15" customHeight="1">
       <c r="A460" s="44"/>
-      <c r="B460" s="95"/>
-      <c r="C460" s="96"/>
-      <c r="D460" s="96"/>
-      <c r="E460" s="96"/>
+      <c r="B460" s="94"/>
+      <c r="C460" s="95"/>
+      <c r="D460" s="95"/>
+      <c r="E460" s="95"/>
       <c r="F460" s="57"/>
       <c r="G460" s="57"/>
       <c r="H460" s="57"/>
@@ -19366,10 +20649,10 @@
     </row>
     <row r="461" spans="1:20" ht="15" customHeight="1">
       <c r="A461" s="44"/>
-      <c r="B461" s="97"/>
-      <c r="C461" s="98"/>
-      <c r="D461" s="98"/>
-      <c r="E461" s="98"/>
+      <c r="B461" s="96"/>
+      <c r="C461" s="97"/>
+      <c r="D461" s="97"/>
+      <c r="E461" s="97"/>
       <c r="F461" s="57"/>
       <c r="G461" s="57"/>
       <c r="H461" s="57"/>
@@ -19388,10 +20671,10 @@
     </row>
     <row r="462" spans="1:20" ht="15" customHeight="1">
       <c r="A462" s="44"/>
-      <c r="B462" s="97"/>
-      <c r="C462" s="98"/>
-      <c r="D462" s="98"/>
-      <c r="E462" s="98"/>
+      <c r="B462" s="96"/>
+      <c r="C462" s="97"/>
+      <c r="D462" s="97"/>
+      <c r="E462" s="97"/>
       <c r="F462" s="57"/>
       <c r="G462" s="57"/>
       <c r="H462" s="57"/>
@@ -19410,10 +20693,10 @@
     </row>
     <row r="463" spans="1:20" ht="15" customHeight="1">
       <c r="A463" s="44"/>
-      <c r="B463" s="97"/>
-      <c r="C463" s="98"/>
-      <c r="D463" s="98"/>
-      <c r="E463" s="98"/>
+      <c r="B463" s="96"/>
+      <c r="C463" s="97"/>
+      <c r="D463" s="97"/>
+      <c r="E463" s="97"/>
       <c r="F463" s="57"/>
       <c r="G463" s="57"/>
       <c r="H463" s="57"/>
@@ -19432,10 +20715,10 @@
     </row>
     <row r="464" spans="1:20" ht="15" customHeight="1">
       <c r="A464" s="44"/>
-      <c r="B464" s="97"/>
-      <c r="C464" s="98"/>
-      <c r="D464" s="98"/>
-      <c r="E464" s="98"/>
+      <c r="B464" s="96"/>
+      <c r="C464" s="97"/>
+      <c r="D464" s="97"/>
+      <c r="E464" s="97"/>
       <c r="F464" s="57"/>
       <c r="G464" s="57"/>
       <c r="H464" s="57"/>
@@ -19454,10 +20737,10 @@
     </row>
     <row r="465" spans="1:20" ht="15" customHeight="1">
       <c r="A465" s="44"/>
-      <c r="B465" s="97"/>
-      <c r="C465" s="98"/>
-      <c r="D465" s="98"/>
-      <c r="E465" s="98"/>
+      <c r="B465" s="96"/>
+      <c r="C465" s="97"/>
+      <c r="D465" s="97"/>
+      <c r="E465" s="97"/>
       <c r="F465" s="57"/>
       <c r="G465" s="57"/>
       <c r="H465" s="57"/>
@@ -19476,10 +20759,10 @@
     </row>
     <row r="466" spans="1:20" ht="15" customHeight="1">
       <c r="A466" s="44"/>
-      <c r="B466" s="97"/>
-      <c r="C466" s="98"/>
-      <c r="D466" s="98"/>
-      <c r="E466" s="98"/>
+      <c r="B466" s="96"/>
+      <c r="C466" s="97"/>
+      <c r="D466" s="97"/>
+      <c r="E466" s="97"/>
       <c r="F466" s="57"/>
       <c r="G466" s="57"/>
       <c r="H466" s="57"/>
@@ -19498,10 +20781,10 @@
     </row>
     <row r="467" spans="1:20" ht="15" customHeight="1">
       <c r="A467" s="44"/>
-      <c r="B467" s="97"/>
-      <c r="C467" s="98"/>
-      <c r="D467" s="98"/>
-      <c r="E467" s="98"/>
+      <c r="B467" s="96"/>
+      <c r="C467" s="97"/>
+      <c r="D467" s="97"/>
+      <c r="E467" s="97"/>
       <c r="F467" s="57"/>
       <c r="G467" s="57"/>
       <c r="H467" s="57"/>
@@ -19520,10 +20803,10 @@
     </row>
     <row r="468" spans="1:20" ht="15" customHeight="1">
       <c r="A468" s="44"/>
-      <c r="B468" s="97"/>
-      <c r="C468" s="98"/>
-      <c r="D468" s="98"/>
-      <c r="E468" s="98"/>
+      <c r="B468" s="96"/>
+      <c r="C468" s="97"/>
+      <c r="D468" s="97"/>
+      <c r="E468" s="97"/>
       <c r="F468" s="57"/>
       <c r="G468" s="57"/>
       <c r="H468" s="57"/>
@@ -19542,10 +20825,10 @@
     </row>
     <row r="469" spans="1:20" ht="15" customHeight="1">
       <c r="A469" s="44"/>
-      <c r="B469" s="95"/>
-      <c r="C469" s="96"/>
-      <c r="D469" s="96"/>
-      <c r="E469" s="96"/>
+      <c r="B469" s="94"/>
+      <c r="C469" s="95"/>
+      <c r="D469" s="95"/>
+      <c r="E469" s="95"/>
       <c r="F469" s="57"/>
       <c r="G469" s="57"/>
       <c r="H469" s="44"/>
@@ -19564,10 +20847,10 @@
     </row>
     <row r="470" spans="1:20" ht="15" customHeight="1">
       <c r="A470" s="44"/>
-      <c r="B470" s="97"/>
-      <c r="C470" s="98"/>
-      <c r="D470" s="98"/>
-      <c r="E470" s="98"/>
+      <c r="B470" s="96"/>
+      <c r="C470" s="97"/>
+      <c r="D470" s="97"/>
+      <c r="E470" s="97"/>
       <c r="F470" s="57"/>
       <c r="G470" s="57"/>
       <c r="H470" s="44"/>
@@ -19586,10 +20869,10 @@
     </row>
     <row r="471" spans="1:20" ht="15" customHeight="1">
       <c r="A471" s="44"/>
-      <c r="B471" s="97"/>
-      <c r="C471" s="98"/>
-      <c r="D471" s="98"/>
-      <c r="E471" s="98"/>
+      <c r="B471" s="96"/>
+      <c r="C471" s="97"/>
+      <c r="D471" s="97"/>
+      <c r="E471" s="97"/>
       <c r="F471" s="57"/>
       <c r="G471" s="57"/>
       <c r="H471" s="44"/>
@@ -19608,10 +20891,10 @@
     </row>
     <row r="472" spans="1:20" ht="15" customHeight="1">
       <c r="A472" s="44"/>
-      <c r="B472" s="97"/>
-      <c r="C472" s="98"/>
-      <c r="D472" s="98"/>
-      <c r="E472" s="98"/>
+      <c r="B472" s="96"/>
+      <c r="C472" s="97"/>
+      <c r="D472" s="97"/>
+      <c r="E472" s="97"/>
       <c r="F472" s="57"/>
       <c r="G472" s="57"/>
       <c r="H472" s="44"/>
@@ -19630,10 +20913,10 @@
     </row>
     <row r="473" spans="1:20" ht="15" customHeight="1">
       <c r="A473" s="44"/>
-      <c r="B473" s="97"/>
-      <c r="C473" s="98"/>
-      <c r="D473" s="98"/>
-      <c r="E473" s="98"/>
+      <c r="B473" s="96"/>
+      <c r="C473" s="97"/>
+      <c r="D473" s="97"/>
+      <c r="E473" s="97"/>
       <c r="F473" s="57"/>
       <c r="G473" s="57"/>
       <c r="H473" s="44"/>
@@ -19652,10 +20935,10 @@
     </row>
     <row r="474" spans="1:20" ht="15" customHeight="1">
       <c r="A474" s="44"/>
-      <c r="B474" s="95"/>
-      <c r="C474" s="96"/>
-      <c r="D474" s="96"/>
-      <c r="E474" s="96"/>
+      <c r="B474" s="94"/>
+      <c r="C474" s="95"/>
+      <c r="D474" s="95"/>
+      <c r="E474" s="95"/>
       <c r="F474" s="57"/>
       <c r="G474" s="57"/>
       <c r="H474" s="44"/>
@@ -19674,10 +20957,10 @@
     </row>
     <row r="475" spans="1:20" ht="15" customHeight="1">
       <c r="A475" s="44"/>
-      <c r="B475" s="97"/>
-      <c r="C475" s="98"/>
-      <c r="D475" s="98"/>
-      <c r="E475" s="98"/>
+      <c r="B475" s="96"/>
+      <c r="C475" s="97"/>
+      <c r="D475" s="97"/>
+      <c r="E475" s="97"/>
       <c r="F475" s="57"/>
       <c r="G475" s="57"/>
       <c r="H475" s="44"/>
@@ -19696,10 +20979,10 @@
     </row>
     <row r="476" spans="1:20" ht="15" customHeight="1">
       <c r="A476" s="44"/>
-      <c r="B476" s="97"/>
-      <c r="C476" s="98"/>
-      <c r="D476" s="98"/>
-      <c r="E476" s="98"/>
+      <c r="B476" s="96"/>
+      <c r="C476" s="97"/>
+      <c r="D476" s="97"/>
+      <c r="E476" s="97"/>
       <c r="F476" s="57"/>
       <c r="G476" s="57"/>
       <c r="H476" s="44"/>
@@ -19718,10 +21001,10 @@
     </row>
     <row r="477" spans="1:20" ht="15" customHeight="1">
       <c r="A477" s="44"/>
-      <c r="B477" s="97"/>
-      <c r="C477" s="98"/>
-      <c r="D477" s="98"/>
-      <c r="E477" s="98"/>
+      <c r="B477" s="96"/>
+      <c r="C477" s="97"/>
+      <c r="D477" s="97"/>
+      <c r="E477" s="97"/>
       <c r="F477" s="57"/>
       <c r="G477" s="57"/>
       <c r="H477" s="44"/>
@@ -19740,10 +21023,10 @@
     </row>
     <row r="478" spans="1:20" ht="15" customHeight="1">
       <c r="A478" s="44"/>
-      <c r="B478" s="97"/>
-      <c r="C478" s="98"/>
-      <c r="D478" s="98"/>
-      <c r="E478" s="98"/>
+      <c r="B478" s="96"/>
+      <c r="C478" s="97"/>
+      <c r="D478" s="97"/>
+      <c r="E478" s="97"/>
       <c r="F478" s="57"/>
       <c r="G478" s="57"/>
       <c r="H478" s="44"/>
@@ -19762,10 +21045,10 @@
     </row>
     <row r="479" spans="1:20" ht="15" customHeight="1">
       <c r="A479" s="44"/>
-      <c r="B479" s="95"/>
-      <c r="C479" s="96"/>
-      <c r="D479" s="96"/>
-      <c r="E479" s="96"/>
+      <c r="B479" s="94"/>
+      <c r="C479" s="95"/>
+      <c r="D479" s="95"/>
+      <c r="E479" s="95"/>
       <c r="F479" s="57"/>
       <c r="G479" s="57"/>
       <c r="H479" s="44"/>
@@ -19784,10 +21067,10 @@
     </row>
     <row r="480" spans="1:20" ht="15" customHeight="1">
       <c r="A480" s="44"/>
-      <c r="B480" s="97"/>
-      <c r="C480" s="98"/>
-      <c r="D480" s="98"/>
-      <c r="E480" s="98"/>
+      <c r="B480" s="96"/>
+      <c r="C480" s="97"/>
+      <c r="D480" s="97"/>
+      <c r="E480" s="97"/>
       <c r="F480" s="57"/>
       <c r="G480" s="57"/>
       <c r="H480" s="44"/>
@@ -19806,10 +21089,10 @@
     </row>
     <row r="481" spans="1:20" ht="15" customHeight="1">
       <c r="A481" s="44"/>
-      <c r="B481" s="97"/>
-      <c r="C481" s="98"/>
-      <c r="D481" s="98"/>
-      <c r="E481" s="98"/>
+      <c r="B481" s="96"/>
+      <c r="C481" s="97"/>
+      <c r="D481" s="97"/>
+      <c r="E481" s="97"/>
       <c r="F481" s="57"/>
       <c r="G481" s="57"/>
       <c r="H481" s="44"/>
@@ -19828,10 +21111,10 @@
     </row>
     <row r="482" spans="1:20" ht="15" customHeight="1">
       <c r="A482" s="44"/>
-      <c r="B482" s="97"/>
-      <c r="C482" s="98"/>
-      <c r="D482" s="98"/>
-      <c r="E482" s="98"/>
+      <c r="B482" s="96"/>
+      <c r="C482" s="97"/>
+      <c r="D482" s="97"/>
+      <c r="E482" s="97"/>
       <c r="F482" s="57"/>
       <c r="G482" s="57"/>
       <c r="H482" s="44"/>
@@ -19850,10 +21133,10 @@
     </row>
     <row r="483" spans="1:20" ht="15" customHeight="1">
       <c r="A483" s="44"/>
-      <c r="B483" s="97"/>
-      <c r="C483" s="98"/>
-      <c r="D483" s="98"/>
-      <c r="E483" s="98"/>
+      <c r="B483" s="96"/>
+      <c r="C483" s="97"/>
+      <c r="D483" s="97"/>
+      <c r="E483" s="97"/>
       <c r="F483" s="57"/>
       <c r="G483" s="57"/>
       <c r="H483" s="44"/>
@@ -19872,10 +21155,10 @@
     </row>
     <row r="484" spans="1:20" ht="15" customHeight="1">
       <c r="A484" s="44"/>
-      <c r="B484" s="97"/>
-      <c r="C484" s="98"/>
-      <c r="D484" s="98"/>
-      <c r="E484" s="98"/>
+      <c r="B484" s="96"/>
+      <c r="C484" s="97"/>
+      <c r="D484" s="97"/>
+      <c r="E484" s="97"/>
       <c r="F484" s="57"/>
       <c r="G484" s="57"/>
       <c r="H484" s="44"/>
@@ -19894,10 +21177,10 @@
     </row>
     <row r="485" spans="1:20" ht="15" customHeight="1">
       <c r="A485" s="44"/>
-      <c r="B485" s="97"/>
-      <c r="C485" s="98"/>
-      <c r="D485" s="98"/>
-      <c r="E485" s="98"/>
+      <c r="B485" s="96"/>
+      <c r="C485" s="97"/>
+      <c r="D485" s="97"/>
+      <c r="E485" s="97"/>
       <c r="F485" s="57"/>
       <c r="G485" s="57"/>
       <c r="H485" s="44"/>
@@ -19916,10 +21199,10 @@
     </row>
     <row r="486" spans="1:20" ht="15" customHeight="1">
       <c r="A486" s="44"/>
-      <c r="B486" s="97"/>
-      <c r="C486" s="98"/>
-      <c r="D486" s="98"/>
-      <c r="E486" s="98"/>
+      <c r="B486" s="96"/>
+      <c r="C486" s="97"/>
+      <c r="D486" s="97"/>
+      <c r="E486" s="97"/>
       <c r="F486" s="57"/>
       <c r="G486" s="57"/>
       <c r="H486" s="44"/>
@@ -19938,10 +21221,10 @@
     </row>
     <row r="487" spans="1:20" ht="15" customHeight="1">
       <c r="A487" s="44"/>
-      <c r="B487" s="97"/>
-      <c r="C487" s="98"/>
-      <c r="D487" s="98"/>
-      <c r="E487" s="98"/>
+      <c r="B487" s="96"/>
+      <c r="C487" s="97"/>
+      <c r="D487" s="97"/>
+      <c r="E487" s="97"/>
       <c r="F487" s="57"/>
       <c r="G487" s="57"/>
       <c r="H487" s="44"/>
@@ -20267,20 +21550,20 @@
       <c r="T501" s="37"/>
     </row>
     <row r="502" spans="1:20" ht="15" customHeight="1">
-      <c r="A502" s="95"/>
-      <c r="B502" s="96"/>
-      <c r="C502" s="96"/>
-      <c r="D502" s="96"/>
-      <c r="E502" s="96"/>
-      <c r="F502" s="96"/>
-      <c r="G502" s="99"/>
-      <c r="H502" s="96"/>
-      <c r="I502" s="96"/>
+      <c r="A502" s="94"/>
+      <c r="B502" s="95"/>
+      <c r="C502" s="95"/>
+      <c r="D502" s="95"/>
+      <c r="E502" s="95"/>
+      <c r="F502" s="95"/>
+      <c r="G502" s="98"/>
+      <c r="H502" s="95"/>
+      <c r="I502" s="95"/>
       <c r="J502" s="44"/>
-      <c r="K502" s="96"/>
-      <c r="L502" s="96"/>
-      <c r="M502" s="96"/>
-      <c r="N502" s="96"/>
+      <c r="K502" s="95"/>
+      <c r="L502" s="95"/>
+      <c r="M502" s="95"/>
+      <c r="N502" s="95"/>
       <c r="O502" s="44"/>
       <c r="P502" s="44"/>
       <c r="Q502" s="44"/>
@@ -20289,20 +21572,20 @@
       <c r="T502" s="37"/>
     </row>
     <row r="503" spans="1:20" ht="15" customHeight="1">
-      <c r="A503" s="97"/>
-      <c r="B503" s="98"/>
-      <c r="C503" s="98"/>
-      <c r="D503" s="98"/>
-      <c r="E503" s="98"/>
-      <c r="F503" s="96"/>
-      <c r="G503" s="100"/>
-      <c r="H503" s="98"/>
-      <c r="I503" s="98"/>
+      <c r="A503" s="96"/>
+      <c r="B503" s="97"/>
+      <c r="C503" s="97"/>
+      <c r="D503" s="97"/>
+      <c r="E503" s="97"/>
+      <c r="F503" s="95"/>
+      <c r="G503" s="99"/>
+      <c r="H503" s="97"/>
+      <c r="I503" s="97"/>
       <c r="J503" s="44"/>
-      <c r="K503" s="98"/>
-      <c r="L503" s="96"/>
-      <c r="M503" s="96"/>
-      <c r="N503" s="98"/>
+      <c r="K503" s="97"/>
+      <c r="L503" s="95"/>
+      <c r="M503" s="95"/>
+      <c r="N503" s="97"/>
       <c r="O503" s="44"/>
       <c r="P503" s="44"/>
       <c r="Q503" s="44"/>
@@ -20311,20 +21594,20 @@
       <c r="T503" s="37"/>
     </row>
     <row r="504" spans="1:20" ht="15" customHeight="1">
-      <c r="A504" s="97"/>
-      <c r="B504" s="98"/>
-      <c r="C504" s="98"/>
-      <c r="D504" s="98"/>
-      <c r="E504" s="98"/>
-      <c r="F504" s="96"/>
-      <c r="G504" s="100"/>
-      <c r="H504" s="98"/>
-      <c r="I504" s="98"/>
+      <c r="A504" s="96"/>
+      <c r="B504" s="97"/>
+      <c r="C504" s="97"/>
+      <c r="D504" s="97"/>
+      <c r="E504" s="97"/>
+      <c r="F504" s="95"/>
+      <c r="G504" s="99"/>
+      <c r="H504" s="97"/>
+      <c r="I504" s="97"/>
       <c r="J504" s="44"/>
-      <c r="K504" s="101"/>
-      <c r="L504" s="96"/>
-      <c r="M504" s="96"/>
-      <c r="N504" s="98"/>
+      <c r="K504" s="100"/>
+      <c r="L504" s="95"/>
+      <c r="M504" s="95"/>
+      <c r="N504" s="97"/>
       <c r="O504" s="44"/>
       <c r="P504" s="44"/>
       <c r="Q504" s="44"/>
@@ -20333,20 +21616,20 @@
       <c r="T504" s="37"/>
     </row>
     <row r="505" spans="1:20" ht="15" customHeight="1">
-      <c r="A505" s="97"/>
-      <c r="B505" s="98"/>
-      <c r="C505" s="98"/>
-      <c r="D505" s="98"/>
-      <c r="E505" s="98"/>
-      <c r="F505" s="96"/>
-      <c r="G505" s="100"/>
-      <c r="H505" s="98"/>
-      <c r="I505" s="98"/>
+      <c r="A505" s="96"/>
+      <c r="B505" s="97"/>
+      <c r="C505" s="97"/>
+      <c r="D505" s="97"/>
+      <c r="E505" s="97"/>
+      <c r="F505" s="95"/>
+      <c r="G505" s="99"/>
+      <c r="H505" s="97"/>
+      <c r="I505" s="97"/>
       <c r="J505" s="44"/>
-      <c r="K505" s="101"/>
-      <c r="L505" s="96"/>
-      <c r="M505" s="96"/>
-      <c r="N505" s="98"/>
+      <c r="K505" s="100"/>
+      <c r="L505" s="95"/>
+      <c r="M505" s="95"/>
+      <c r="N505" s="97"/>
       <c r="O505" s="44"/>
       <c r="P505" s="44"/>
       <c r="Q505" s="44"/>
@@ -20355,20 +21638,20 @@
       <c r="T505" s="37"/>
     </row>
     <row r="506" spans="1:20" ht="15" customHeight="1">
-      <c r="A506" s="97"/>
-      <c r="B506" s="98"/>
-      <c r="C506" s="98"/>
-      <c r="D506" s="98"/>
-      <c r="E506" s="98"/>
-      <c r="F506" s="96"/>
-      <c r="G506" s="100"/>
-      <c r="H506" s="98"/>
-      <c r="I506" s="98"/>
+      <c r="A506" s="96"/>
+      <c r="B506" s="97"/>
+      <c r="C506" s="97"/>
+      <c r="D506" s="97"/>
+      <c r="E506" s="97"/>
+      <c r="F506" s="95"/>
+      <c r="G506" s="99"/>
+      <c r="H506" s="97"/>
+      <c r="I506" s="97"/>
       <c r="J506" s="44"/>
-      <c r="K506" s="101"/>
-      <c r="L506" s="96"/>
-      <c r="M506" s="96"/>
-      <c r="N506" s="98"/>
+      <c r="K506" s="100"/>
+      <c r="L506" s="95"/>
+      <c r="M506" s="95"/>
+      <c r="N506" s="97"/>
       <c r="O506" s="44"/>
       <c r="P506" s="44"/>
       <c r="Q506" s="44"/>
@@ -20377,20 +21660,20 @@
       <c r="T506" s="37"/>
     </row>
     <row r="507" spans="1:20" ht="15" customHeight="1">
-      <c r="A507" s="97"/>
-      <c r="B507" s="98"/>
-      <c r="C507" s="98"/>
-      <c r="D507" s="98"/>
-      <c r="E507" s="98"/>
-      <c r="F507" s="96"/>
-      <c r="G507" s="100"/>
-      <c r="H507" s="98"/>
-      <c r="I507" s="98"/>
+      <c r="A507" s="96"/>
+      <c r="B507" s="97"/>
+      <c r="C507" s="97"/>
+      <c r="D507" s="97"/>
+      <c r="E507" s="97"/>
+      <c r="F507" s="95"/>
+      <c r="G507" s="99"/>
+      <c r="H507" s="97"/>
+      <c r="I507" s="97"/>
       <c r="J507" s="44"/>
-      <c r="K507" s="101"/>
-      <c r="L507" s="96"/>
-      <c r="M507" s="96"/>
-      <c r="N507" s="98"/>
+      <c r="K507" s="100"/>
+      <c r="L507" s="95"/>
+      <c r="M507" s="95"/>
+      <c r="N507" s="97"/>
       <c r="O507" s="44"/>
       <c r="P507" s="44"/>
       <c r="Q507" s="44"/>
@@ -20399,20 +21682,20 @@
       <c r="T507" s="37"/>
     </row>
     <row r="508" spans="1:20" ht="15" customHeight="1">
-      <c r="A508" s="97"/>
-      <c r="B508" s="98"/>
-      <c r="C508" s="98"/>
-      <c r="D508" s="98"/>
-      <c r="E508" s="98"/>
-      <c r="F508" s="96"/>
-      <c r="G508" s="100"/>
-      <c r="H508" s="98"/>
-      <c r="I508" s="98"/>
+      <c r="A508" s="96"/>
+      <c r="B508" s="97"/>
+      <c r="C508" s="97"/>
+      <c r="D508" s="97"/>
+      <c r="E508" s="97"/>
+      <c r="F508" s="95"/>
+      <c r="G508" s="99"/>
+      <c r="H508" s="97"/>
+      <c r="I508" s="97"/>
       <c r="J508" s="44"/>
-      <c r="K508" s="101"/>
-      <c r="L508" s="96"/>
-      <c r="M508" s="96"/>
-      <c r="N508" s="98"/>
+      <c r="K508" s="100"/>
+      <c r="L508" s="95"/>
+      <c r="M508" s="95"/>
+      <c r="N508" s="97"/>
       <c r="O508" s="44"/>
       <c r="P508" s="44"/>
       <c r="Q508" s="44"/>
@@ -20421,20 +21704,20 @@
       <c r="T508" s="37"/>
     </row>
     <row r="509" spans="1:20" ht="15" customHeight="1">
-      <c r="A509" s="97"/>
-      <c r="B509" s="98"/>
-      <c r="C509" s="98"/>
-      <c r="D509" s="98"/>
-      <c r="E509" s="98"/>
-      <c r="F509" s="96"/>
-      <c r="G509" s="100"/>
-      <c r="H509" s="98"/>
-      <c r="I509" s="98"/>
+      <c r="A509" s="96"/>
+      <c r="B509" s="97"/>
+      <c r="C509" s="97"/>
+      <c r="D509" s="97"/>
+      <c r="E509" s="97"/>
+      <c r="F509" s="95"/>
+      <c r="G509" s="99"/>
+      <c r="H509" s="97"/>
+      <c r="I509" s="97"/>
       <c r="J509" s="44"/>
-      <c r="K509" s="101"/>
-      <c r="L509" s="96"/>
-      <c r="M509" s="96"/>
-      <c r="N509" s="98"/>
+      <c r="K509" s="100"/>
+      <c r="L509" s="95"/>
+      <c r="M509" s="95"/>
+      <c r="N509" s="97"/>
       <c r="O509" s="44"/>
       <c r="P509" s="44"/>
       <c r="Q509" s="44"/>
@@ -20443,20 +21726,20 @@
       <c r="T509" s="37"/>
     </row>
     <row r="510" spans="1:20" ht="15" customHeight="1">
-      <c r="A510" s="97"/>
-      <c r="B510" s="98"/>
-      <c r="C510" s="98"/>
-      <c r="D510" s="98"/>
-      <c r="E510" s="98"/>
-      <c r="F510" s="96"/>
-      <c r="G510" s="100"/>
-      <c r="H510" s="98"/>
-      <c r="I510" s="98"/>
+      <c r="A510" s="96"/>
+      <c r="B510" s="97"/>
+      <c r="C510" s="97"/>
+      <c r="D510" s="97"/>
+      <c r="E510" s="97"/>
+      <c r="F510" s="95"/>
+      <c r="G510" s="99"/>
+      <c r="H510" s="97"/>
+      <c r="I510" s="97"/>
       <c r="J510" s="44"/>
-      <c r="K510" s="101"/>
-      <c r="L510" s="96"/>
-      <c r="M510" s="96"/>
-      <c r="N510" s="98"/>
+      <c r="K510" s="100"/>
+      <c r="L510" s="95"/>
+      <c r="M510" s="95"/>
+      <c r="N510" s="97"/>
       <c r="O510" s="44"/>
       <c r="P510" s="44"/>
       <c r="Q510" s="44"/>
@@ -20465,20 +21748,20 @@
       <c r="T510" s="37"/>
     </row>
     <row r="511" spans="1:20" ht="15" customHeight="1">
-      <c r="A511" s="97"/>
-      <c r="B511" s="98"/>
-      <c r="C511" s="98"/>
-      <c r="D511" s="98"/>
-      <c r="E511" s="98"/>
-      <c r="F511" s="96"/>
-      <c r="G511" s="100"/>
-      <c r="H511" s="98"/>
-      <c r="I511" s="98"/>
+      <c r="A511" s="96"/>
+      <c r="B511" s="97"/>
+      <c r="C511" s="97"/>
+      <c r="D511" s="97"/>
+      <c r="E511" s="97"/>
+      <c r="F511" s="95"/>
+      <c r="G511" s="99"/>
+      <c r="H511" s="97"/>
+      <c r="I511" s="97"/>
       <c r="J511" s="44"/>
-      <c r="K511" s="101"/>
-      <c r="L511" s="96"/>
-      <c r="M511" s="96"/>
-      <c r="N511" s="98"/>
+      <c r="K511" s="100"/>
+      <c r="L511" s="95"/>
+      <c r="M511" s="95"/>
+      <c r="N511" s="97"/>
       <c r="O511" s="44"/>
       <c r="P511" s="44"/>
       <c r="Q511" s="44"/>
@@ -20487,20 +21770,20 @@
       <c r="T511" s="37"/>
     </row>
     <row r="512" spans="1:20" ht="15" customHeight="1">
-      <c r="A512" s="97"/>
-      <c r="B512" s="98"/>
-      <c r="C512" s="98"/>
-      <c r="D512" s="98"/>
-      <c r="E512" s="98"/>
-      <c r="F512" s="96"/>
-      <c r="G512" s="100"/>
-      <c r="H512" s="98"/>
-      <c r="I512" s="98"/>
+      <c r="A512" s="96"/>
+      <c r="B512" s="97"/>
+      <c r="C512" s="97"/>
+      <c r="D512" s="97"/>
+      <c r="E512" s="97"/>
+      <c r="F512" s="95"/>
+      <c r="G512" s="99"/>
+      <c r="H512" s="97"/>
+      <c r="I512" s="97"/>
       <c r="J512" s="44"/>
-      <c r="K512" s="101"/>
-      <c r="L512" s="96"/>
-      <c r="M512" s="96"/>
-      <c r="N512" s="98"/>
+      <c r="K512" s="100"/>
+      <c r="L512" s="95"/>
+      <c r="M512" s="95"/>
+      <c r="N512" s="97"/>
       <c r="O512" s="44"/>
       <c r="P512" s="44"/>
       <c r="Q512" s="44"/>
@@ -20509,20 +21792,20 @@
       <c r="T512" s="37"/>
     </row>
     <row r="513" spans="1:20" ht="15" customHeight="1">
-      <c r="A513" s="97"/>
-      <c r="B513" s="98"/>
-      <c r="C513" s="98"/>
-      <c r="D513" s="98"/>
-      <c r="E513" s="98"/>
-      <c r="F513" s="96"/>
-      <c r="G513" s="100"/>
-      <c r="H513" s="98"/>
-      <c r="I513" s="98"/>
+      <c r="A513" s="96"/>
+      <c r="B513" s="97"/>
+      <c r="C513" s="97"/>
+      <c r="D513" s="97"/>
+      <c r="E513" s="97"/>
+      <c r="F513" s="95"/>
+      <c r="G513" s="99"/>
+      <c r="H513" s="97"/>
+      <c r="I513" s="97"/>
       <c r="J513" s="44"/>
-      <c r="K513" s="101"/>
-      <c r="L513" s="96"/>
-      <c r="M513" s="96"/>
-      <c r="N513" s="98"/>
+      <c r="K513" s="100"/>
+      <c r="L513" s="95"/>
+      <c r="M513" s="95"/>
+      <c r="N513" s="97"/>
       <c r="O513" s="44"/>
       <c r="P513" s="44"/>
       <c r="Q513" s="44"/>
@@ -20531,20 +21814,20 @@
       <c r="T513" s="37"/>
     </row>
     <row r="514" spans="1:20" ht="15" customHeight="1">
-      <c r="A514" s="97"/>
-      <c r="B514" s="98"/>
-      <c r="C514" s="98"/>
-      <c r="D514" s="98"/>
-      <c r="E514" s="98"/>
-      <c r="F514" s="96"/>
-      <c r="G514" s="100"/>
-      <c r="H514" s="98"/>
-      <c r="I514" s="98"/>
+      <c r="A514" s="96"/>
+      <c r="B514" s="97"/>
+      <c r="C514" s="97"/>
+      <c r="D514" s="97"/>
+      <c r="E514" s="97"/>
+      <c r="F514" s="95"/>
+      <c r="G514" s="99"/>
+      <c r="H514" s="97"/>
+      <c r="I514" s="97"/>
       <c r="J514" s="44"/>
-      <c r="K514" s="101"/>
-      <c r="L514" s="96"/>
-      <c r="M514" s="96"/>
-      <c r="N514" s="98"/>
+      <c r="K514" s="100"/>
+      <c r="L514" s="95"/>
+      <c r="M514" s="95"/>
+      <c r="N514" s="97"/>
       <c r="O514" s="44"/>
       <c r="P514" s="44"/>
       <c r="Q514" s="44"/>
@@ -20553,20 +21836,20 @@
       <c r="T514" s="37"/>
     </row>
     <row r="515" spans="1:20" ht="15" customHeight="1">
-      <c r="A515" s="97"/>
-      <c r="B515" s="98"/>
-      <c r="C515" s="98"/>
-      <c r="D515" s="98"/>
-      <c r="E515" s="98"/>
-      <c r="F515" s="96"/>
-      <c r="G515" s="100"/>
-      <c r="H515" s="98"/>
-      <c r="I515" s="98"/>
+      <c r="A515" s="96"/>
+      <c r="B515" s="97"/>
+      <c r="C515" s="97"/>
+      <c r="D515" s="97"/>
+      <c r="E515" s="97"/>
+      <c r="F515" s="95"/>
+      <c r="G515" s="99"/>
+      <c r="H515" s="97"/>
+      <c r="I515" s="97"/>
       <c r="J515" s="44"/>
-      <c r="K515" s="101"/>
-      <c r="L515" s="96"/>
-      <c r="M515" s="96"/>
-      <c r="N515" s="98"/>
+      <c r="K515" s="100"/>
+      <c r="L515" s="95"/>
+      <c r="M515" s="95"/>
+      <c r="N515" s="97"/>
       <c r="O515" s="44"/>
       <c r="P515" s="44"/>
       <c r="Q515" s="44"/>
@@ -20575,20 +21858,20 @@
       <c r="T515" s="37"/>
     </row>
     <row r="516" spans="1:20" ht="15" customHeight="1">
-      <c r="A516" s="97"/>
-      <c r="B516" s="98"/>
-      <c r="C516" s="98"/>
-      <c r="D516" s="98"/>
-      <c r="E516" s="98"/>
-      <c r="F516" s="96"/>
-      <c r="G516" s="100"/>
-      <c r="H516" s="98"/>
-      <c r="I516" s="98"/>
+      <c r="A516" s="96"/>
+      <c r="B516" s="97"/>
+      <c r="C516" s="97"/>
+      <c r="D516" s="97"/>
+      <c r="E516" s="97"/>
+      <c r="F516" s="95"/>
+      <c r="G516" s="99"/>
+      <c r="H516" s="97"/>
+      <c r="I516" s="97"/>
       <c r="J516" s="44"/>
-      <c r="K516" s="101"/>
-      <c r="L516" s="96"/>
-      <c r="M516" s="96"/>
-      <c r="N516" s="98"/>
+      <c r="K516" s="100"/>
+      <c r="L516" s="95"/>
+      <c r="M516" s="95"/>
+      <c r="N516" s="97"/>
       <c r="O516" s="44"/>
       <c r="P516" s="44"/>
       <c r="Q516" s="44"/>
@@ -20597,20 +21880,20 @@
       <c r="T516" s="37"/>
     </row>
     <row r="517" spans="1:20" ht="15" customHeight="1">
-      <c r="A517" s="97"/>
-      <c r="B517" s="98"/>
-      <c r="C517" s="98"/>
-      <c r="D517" s="98"/>
-      <c r="E517" s="98"/>
-      <c r="F517" s="96"/>
-      <c r="G517" s="100"/>
-      <c r="H517" s="98"/>
-      <c r="I517" s="98"/>
+      <c r="A517" s="96"/>
+      <c r="B517" s="97"/>
+      <c r="C517" s="97"/>
+      <c r="D517" s="97"/>
+      <c r="E517" s="97"/>
+      <c r="F517" s="95"/>
+      <c r="G517" s="99"/>
+      <c r="H517" s="97"/>
+      <c r="I517" s="97"/>
       <c r="J517" s="44"/>
-      <c r="K517" s="101"/>
-      <c r="L517" s="96"/>
-      <c r="M517" s="96"/>
-      <c r="N517" s="98"/>
+      <c r="K517" s="100"/>
+      <c r="L517" s="95"/>
+      <c r="M517" s="95"/>
+      <c r="N517" s="97"/>
       <c r="O517" s="44"/>
       <c r="P517" s="44"/>
       <c r="Q517" s="44"/>
@@ -20619,20 +21902,20 @@
       <c r="T517" s="37"/>
     </row>
     <row r="518" spans="1:20" ht="15" customHeight="1">
-      <c r="A518" s="97"/>
-      <c r="B518" s="98"/>
-      <c r="C518" s="98"/>
-      <c r="D518" s="98"/>
-      <c r="E518" s="98"/>
-      <c r="F518" s="96"/>
-      <c r="G518" s="100"/>
-      <c r="H518" s="98"/>
-      <c r="I518" s="98"/>
+      <c r="A518" s="96"/>
+      <c r="B518" s="97"/>
+      <c r="C518" s="97"/>
+      <c r="D518" s="97"/>
+      <c r="E518" s="97"/>
+      <c r="F518" s="95"/>
+      <c r="G518" s="99"/>
+      <c r="H518" s="97"/>
+      <c r="I518" s="97"/>
       <c r="J518" s="44"/>
-      <c r="K518" s="101"/>
-      <c r="L518" s="96"/>
-      <c r="M518" s="96"/>
-      <c r="N518" s="98"/>
+      <c r="K518" s="100"/>
+      <c r="L518" s="95"/>
+      <c r="M518" s="95"/>
+      <c r="N518" s="97"/>
       <c r="O518" s="44"/>
       <c r="P518" s="44"/>
       <c r="Q518" s="44"/>
@@ -20641,20 +21924,20 @@
       <c r="T518" s="37"/>
     </row>
     <row r="519" spans="1:20" ht="15" customHeight="1">
-      <c r="A519" s="97"/>
-      <c r="B519" s="98"/>
-      <c r="C519" s="98"/>
-      <c r="D519" s="98"/>
-      <c r="E519" s="98"/>
-      <c r="F519" s="96"/>
-      <c r="G519" s="100"/>
-      <c r="H519" s="98"/>
-      <c r="I519" s="98"/>
+      <c r="A519" s="96"/>
+      <c r="B519" s="97"/>
+      <c r="C519" s="97"/>
+      <c r="D519" s="97"/>
+      <c r="E519" s="97"/>
+      <c r="F519" s="95"/>
+      <c r="G519" s="99"/>
+      <c r="H519" s="97"/>
+      <c r="I519" s="97"/>
       <c r="J519" s="44"/>
-      <c r="K519" s="101"/>
-      <c r="L519" s="96"/>
-      <c r="M519" s="96"/>
-      <c r="N519" s="98"/>
+      <c r="K519" s="100"/>
+      <c r="L519" s="95"/>
+      <c r="M519" s="95"/>
+      <c r="N519" s="97"/>
       <c r="O519" s="44"/>
       <c r="P519" s="44"/>
       <c r="Q519" s="44"/>
@@ -20663,20 +21946,20 @@
       <c r="T519" s="37"/>
     </row>
     <row r="520" spans="1:20" ht="15" customHeight="1">
-      <c r="A520" s="97"/>
-      <c r="B520" s="98"/>
-      <c r="C520" s="98"/>
-      <c r="D520" s="98"/>
-      <c r="E520" s="98"/>
-      <c r="F520" s="96"/>
-      <c r="G520" s="100"/>
-      <c r="H520" s="98"/>
-      <c r="I520" s="98"/>
+      <c r="A520" s="96"/>
+      <c r="B520" s="97"/>
+      <c r="C520" s="97"/>
+      <c r="D520" s="97"/>
+      <c r="E520" s="97"/>
+      <c r="F520" s="95"/>
+      <c r="G520" s="99"/>
+      <c r="H520" s="97"/>
+      <c r="I520" s="97"/>
       <c r="J520" s="44"/>
-      <c r="K520" s="101"/>
-      <c r="L520" s="96"/>
-      <c r="M520" s="96"/>
-      <c r="N520" s="98"/>
+      <c r="K520" s="100"/>
+      <c r="L520" s="95"/>
+      <c r="M520" s="95"/>
+      <c r="N520" s="97"/>
       <c r="O520" s="44"/>
       <c r="P520" s="44"/>
       <c r="Q520" s="44"/>
@@ -20685,20 +21968,20 @@
       <c r="T520" s="37"/>
     </row>
     <row r="521" spans="1:20" ht="15" customHeight="1">
-      <c r="A521" s="97"/>
-      <c r="B521" s="98"/>
-      <c r="C521" s="98"/>
-      <c r="D521" s="98"/>
-      <c r="E521" s="98"/>
-      <c r="F521" s="96"/>
-      <c r="G521" s="100"/>
-      <c r="H521" s="98"/>
-      <c r="I521" s="98"/>
+      <c r="A521" s="96"/>
+      <c r="B521" s="97"/>
+      <c r="C521" s="97"/>
+      <c r="D521" s="97"/>
+      <c r="E521" s="97"/>
+      <c r="F521" s="95"/>
+      <c r="G521" s="99"/>
+      <c r="H521" s="97"/>
+      <c r="I521" s="97"/>
       <c r="J521" s="44"/>
-      <c r="K521" s="101"/>
-      <c r="L521" s="96"/>
-      <c r="M521" s="96"/>
-      <c r="N521" s="98"/>
+      <c r="K521" s="100"/>
+      <c r="L521" s="95"/>
+      <c r="M521" s="95"/>
+      <c r="N521" s="97"/>
       <c r="O521" s="44"/>
       <c r="P521" s="44"/>
       <c r="Q521" s="44"/>
@@ -20707,20 +21990,20 @@
       <c r="T521" s="37"/>
     </row>
     <row r="522" spans="1:20" ht="15" customHeight="1">
-      <c r="A522" s="97"/>
-      <c r="B522" s="98"/>
-      <c r="C522" s="98"/>
-      <c r="D522" s="98"/>
-      <c r="E522" s="98"/>
-      <c r="F522" s="96"/>
-      <c r="G522" s="100"/>
-      <c r="H522" s="98"/>
-      <c r="I522" s="98"/>
+      <c r="A522" s="96"/>
+      <c r="B522" s="97"/>
+      <c r="C522" s="97"/>
+      <c r="D522" s="97"/>
+      <c r="E522" s="97"/>
+      <c r="F522" s="95"/>
+      <c r="G522" s="99"/>
+      <c r="H522" s="97"/>
+      <c r="I522" s="97"/>
       <c r="J522" s="44"/>
-      <c r="K522" s="101"/>
-      <c r="L522" s="96"/>
-      <c r="M522" s="96"/>
-      <c r="N522" s="98"/>
+      <c r="K522" s="100"/>
+      <c r="L522" s="95"/>
+      <c r="M522" s="95"/>
+      <c r="N522" s="97"/>
       <c r="O522" s="44"/>
       <c r="P522" s="44"/>
       <c r="Q522" s="44"/>
@@ -20735,7 +22018,7 @@
       <c r="D523" s="57"/>
       <c r="E523" s="44"/>
       <c r="F523" s="57"/>
-      <c r="G523" s="100"/>
+      <c r="G523" s="99"/>
       <c r="H523" s="57"/>
       <c r="I523" s="44"/>
       <c r="J523" s="44"/>
@@ -20757,7 +22040,7 @@
       <c r="D524" s="57"/>
       <c r="E524" s="44"/>
       <c r="F524" s="57"/>
-      <c r="G524" s="100"/>
+      <c r="G524" s="99"/>
       <c r="H524" s="57"/>
       <c r="I524" s="44"/>
       <c r="J524" s="44"/>
@@ -20779,7 +22062,7 @@
       <c r="D525" s="57"/>
       <c r="E525" s="44"/>
       <c r="F525" s="57"/>
-      <c r="G525" s="100"/>
+      <c r="G525" s="99"/>
       <c r="H525" s="57"/>
       <c r="I525" s="44"/>
       <c r="J525" s="44"/>
@@ -20801,7 +22084,7 @@
       <c r="D526" s="57"/>
       <c r="E526" s="44"/>
       <c r="F526" s="57"/>
-      <c r="G526" s="100"/>
+      <c r="G526" s="99"/>
       <c r="H526" s="57"/>
       <c r="I526" s="44"/>
       <c r="J526" s="44"/>
@@ -20823,7 +22106,7 @@
       <c r="D527" s="57"/>
       <c r="E527" s="44"/>
       <c r="F527" s="57"/>
-      <c r="G527" s="100"/>
+      <c r="G527" s="99"/>
       <c r="H527" s="57"/>
       <c r="I527" s="44"/>
       <c r="J527" s="44"/>
@@ -20845,7 +22128,7 @@
       <c r="D528" s="57"/>
       <c r="E528" s="44"/>
       <c r="F528" s="57"/>
-      <c r="G528" s="100"/>
+      <c r="G528" s="99"/>
       <c r="H528" s="57"/>
       <c r="I528" s="44"/>
       <c r="J528" s="44"/>
@@ -20867,7 +22150,7 @@
       <c r="D529" s="57"/>
       <c r="E529" s="44"/>
       <c r="F529" s="57"/>
-      <c r="G529" s="100"/>
+      <c r="G529" s="99"/>
       <c r="H529" s="57"/>
       <c r="I529" s="44"/>
       <c r="J529" s="44"/>
@@ -20889,7 +22172,7 @@
       <c r="D530" s="57"/>
       <c r="E530" s="44"/>
       <c r="F530" s="57"/>
-      <c r="G530" s="100"/>
+      <c r="G530" s="99"/>
       <c r="H530" s="57"/>
       <c r="I530" s="44"/>
       <c r="J530" s="44"/>
@@ -20911,7 +22194,7 @@
       <c r="D531" s="57"/>
       <c r="E531" s="44"/>
       <c r="F531" s="57"/>
-      <c r="G531" s="100"/>
+      <c r="G531" s="99"/>
       <c r="H531" s="44"/>
       <c r="I531" s="44"/>
       <c r="J531" s="44"/>
@@ -20933,7 +22216,7 @@
       <c r="D532" s="57"/>
       <c r="E532" s="44"/>
       <c r="F532" s="57"/>
-      <c r="G532" s="100"/>
+      <c r="G532" s="99"/>
       <c r="H532" s="44"/>
       <c r="I532" s="44"/>
       <c r="J532" s="44"/>
@@ -20955,7 +22238,7 @@
       <c r="D533" s="57"/>
       <c r="E533" s="44"/>
       <c r="F533" s="57"/>
-      <c r="G533" s="100"/>
+      <c r="G533" s="99"/>
       <c r="H533" s="44"/>
       <c r="I533" s="44"/>
       <c r="J533" s="44"/>
@@ -20977,7 +22260,7 @@
       <c r="D534" s="57"/>
       <c r="E534" s="44"/>
       <c r="F534" s="57"/>
-      <c r="G534" s="100"/>
+      <c r="G534" s="99"/>
       <c r="H534" s="44"/>
       <c r="I534" s="44"/>
       <c r="J534" s="44"/>
@@ -20998,7 +22281,7 @@
       <c r="D535" s="57"/>
       <c r="E535" s="44"/>
       <c r="F535" s="57"/>
-      <c r="G535" s="100"/>
+      <c r="G535" s="99"/>
       <c r="H535" s="44"/>
       <c r="I535" s="44"/>
       <c r="J535" s="44"/>
@@ -21020,7 +22303,7 @@
       <c r="D536" s="57"/>
       <c r="E536" s="44"/>
       <c r="F536" s="57"/>
-      <c r="G536" s="100"/>
+      <c r="G536" s="99"/>
       <c r="H536" s="44"/>
       <c r="I536" s="44"/>
       <c r="J536" s="44"/>
@@ -21042,7 +22325,7 @@
       <c r="D537" s="57"/>
       <c r="E537" s="44"/>
       <c r="F537" s="57"/>
-      <c r="G537" s="100"/>
+      <c r="G537" s="99"/>
       <c r="H537" s="44"/>
       <c r="I537" s="44"/>
       <c r="J537" s="44"/>
@@ -21064,7 +22347,7 @@
       <c r="D538" s="57"/>
       <c r="E538" s="44"/>
       <c r="F538" s="57"/>
-      <c r="G538" s="100"/>
+      <c r="G538" s="99"/>
       <c r="H538" s="44"/>
       <c r="I538" s="44"/>
       <c r="J538" s="44"/>
@@ -21086,7 +22369,7 @@
       <c r="D539" s="57"/>
       <c r="E539" s="44"/>
       <c r="F539" s="57"/>
-      <c r="G539" s="100"/>
+      <c r="G539" s="99"/>
       <c r="H539" s="44"/>
       <c r="I539" s="44"/>
       <c r="J539" s="44"/>
@@ -21108,7 +22391,7 @@
       <c r="D540" s="57"/>
       <c r="E540" s="44"/>
       <c r="F540" s="57"/>
-      <c r="G540" s="100"/>
+      <c r="G540" s="99"/>
       <c r="H540" s="44"/>
       <c r="I540" s="44"/>
       <c r="J540" s="44"/>
@@ -21130,7 +22413,7 @@
       <c r="D541" s="57"/>
       <c r="E541" s="57"/>
       <c r="F541" s="57"/>
-      <c r="G541" s="100"/>
+      <c r="G541" s="99"/>
       <c r="H541" s="44"/>
       <c r="I541" s="44"/>
       <c r="J541" s="44"/>
@@ -21152,7 +22435,7 @@
       <c r="D542" s="57"/>
       <c r="E542" s="57"/>
       <c r="F542" s="57"/>
-      <c r="G542" s="100"/>
+      <c r="G542" s="99"/>
       <c r="H542" s="44"/>
       <c r="I542" s="44"/>
       <c r="J542" s="44"/>
@@ -21174,7 +22457,7 @@
       <c r="D543" s="57"/>
       <c r="E543" s="57"/>
       <c r="F543" s="57"/>
-      <c r="G543" s="100"/>
+      <c r="G543" s="99"/>
       <c r="H543" s="44"/>
       <c r="I543" s="44"/>
       <c r="J543" s="44"/>
@@ -21196,7 +22479,7 @@
       <c r="D544" s="57"/>
       <c r="E544" s="57"/>
       <c r="F544" s="57"/>
-      <c r="G544" s="100"/>
+      <c r="G544" s="99"/>
       <c r="H544" s="44"/>
       <c r="I544" s="44"/>
       <c r="J544" s="44"/>
@@ -21218,7 +22501,7 @@
       <c r="D545" s="57"/>
       <c r="E545" s="57"/>
       <c r="F545" s="57"/>
-      <c r="G545" s="100"/>
+      <c r="G545" s="99"/>
       <c r="H545" s="44"/>
       <c r="I545" s="44"/>
       <c r="J545" s="44"/>
@@ -21240,7 +22523,7 @@
       <c r="D546" s="57"/>
       <c r="E546" s="57"/>
       <c r="F546" s="57"/>
-      <c r="G546" s="100"/>
+      <c r="G546" s="99"/>
       <c r="H546" s="44"/>
       <c r="I546" s="44"/>
       <c r="J546" s="44"/>
@@ -21262,7 +22545,7 @@
       <c r="D547" s="57"/>
       <c r="E547" s="57"/>
       <c r="F547" s="57"/>
-      <c r="G547" s="100"/>
+      <c r="G547" s="99"/>
       <c r="H547" s="44"/>
       <c r="I547" s="44"/>
       <c r="J547" s="44"/>
@@ -21284,7 +22567,7 @@
       <c r="D548" s="57"/>
       <c r="E548" s="57"/>
       <c r="F548" s="57"/>
-      <c r="G548" s="100"/>
+      <c r="G548" s="99"/>
       <c r="H548" s="44"/>
       <c r="I548" s="44"/>
       <c r="J548" s="44"/>
@@ -21306,7 +22589,7 @@
       <c r="D549" s="57"/>
       <c r="E549" s="57"/>
       <c r="F549" s="57"/>
-      <c r="G549" s="100"/>
+      <c r="G549" s="99"/>
       <c r="H549" s="44"/>
       <c r="I549" s="44"/>
       <c r="J549" s="44"/>
@@ -21328,7 +22611,7 @@
       <c r="D550" s="57"/>
       <c r="E550" s="57"/>
       <c r="F550" s="57"/>
-      <c r="G550" s="100"/>
+      <c r="G550" s="99"/>
       <c r="H550" s="44"/>
       <c r="I550" s="44"/>
       <c r="J550" s="44"/>
@@ -21350,7 +22633,7 @@
       <c r="D551" s="57"/>
       <c r="E551" s="57"/>
       <c r="F551" s="57"/>
-      <c r="G551" s="100"/>
+      <c r="G551" s="99"/>
       <c r="H551" s="44"/>
       <c r="I551" s="44"/>
       <c r="J551" s="44"/>
@@ -21372,7 +22655,7 @@
       <c r="D552" s="57"/>
       <c r="E552" s="57"/>
       <c r="F552" s="57"/>
-      <c r="G552" s="100"/>
+      <c r="G552" s="99"/>
       <c r="H552" s="44"/>
       <c r="I552" s="44"/>
       <c r="J552" s="44"/>
@@ -21388,15 +22671,15 @@
       <c r="T552" s="37"/>
     </row>
     <row r="553" spans="1:20" ht="15" customHeight="1">
-      <c r="A553" s="95"/>
-      <c r="B553" s="96"/>
-      <c r="C553" s="96"/>
-      <c r="D553" s="96"/>
-      <c r="E553" s="96"/>
-      <c r="F553" s="96"/>
-      <c r="G553" s="100"/>
-      <c r="H553" s="96"/>
-      <c r="I553" s="96"/>
+      <c r="A553" s="94"/>
+      <c r="B553" s="95"/>
+      <c r="C553" s="95"/>
+      <c r="D553" s="95"/>
+      <c r="E553" s="95"/>
+      <c r="F553" s="95"/>
+      <c r="G553" s="99"/>
+      <c r="H553" s="95"/>
+      <c r="I553" s="95"/>
       <c r="J553" s="44"/>
       <c r="K553" s="44"/>
       <c r="L553" s="57"/>
@@ -21410,15 +22693,15 @@
       <c r="T553" s="37"/>
     </row>
     <row r="554" spans="1:20" ht="15" customHeight="1">
-      <c r="A554" s="97"/>
-      <c r="B554" s="98"/>
-      <c r="C554" s="98"/>
-      <c r="D554" s="98"/>
-      <c r="E554" s="98"/>
-      <c r="F554" s="96"/>
-      <c r="G554" s="100"/>
-      <c r="H554" s="98"/>
-      <c r="I554" s="98"/>
+      <c r="A554" s="96"/>
+      <c r="B554" s="97"/>
+      <c r="C554" s="97"/>
+      <c r="D554" s="97"/>
+      <c r="E554" s="97"/>
+      <c r="F554" s="95"/>
+      <c r="G554" s="99"/>
+      <c r="H554" s="97"/>
+      <c r="I554" s="97"/>
       <c r="J554" s="44"/>
       <c r="K554" s="44"/>
       <c r="L554" s="57"/>
@@ -21432,15 +22715,15 @@
       <c r="T554" s="37"/>
     </row>
     <row r="555" spans="1:20" ht="15" customHeight="1">
-      <c r="A555" s="97"/>
-      <c r="B555" s="98"/>
-      <c r="C555" s="98"/>
-      <c r="D555" s="98"/>
-      <c r="E555" s="98"/>
-      <c r="F555" s="96"/>
-      <c r="G555" s="100"/>
-      <c r="H555" s="98"/>
-      <c r="I555" s="98"/>
+      <c r="A555" s="96"/>
+      <c r="B555" s="97"/>
+      <c r="C555" s="97"/>
+      <c r="D555" s="97"/>
+      <c r="E555" s="97"/>
+      <c r="F555" s="95"/>
+      <c r="G555" s="99"/>
+      <c r="H555" s="97"/>
+      <c r="I555" s="97"/>
       <c r="J555" s="44"/>
       <c r="K555" s="44"/>
       <c r="L555" s="57"/>
@@ -21454,15 +22737,15 @@
       <c r="T555" s="37"/>
     </row>
     <row r="556" spans="1:20" ht="15" customHeight="1">
-      <c r="A556" s="97"/>
-      <c r="B556" s="98"/>
-      <c r="C556" s="98"/>
-      <c r="D556" s="98"/>
-      <c r="E556" s="98"/>
-      <c r="F556" s="96"/>
-      <c r="G556" s="100"/>
-      <c r="H556" s="98"/>
-      <c r="I556" s="98"/>
+      <c r="A556" s="96"/>
+      <c r="B556" s="97"/>
+      <c r="C556" s="97"/>
+      <c r="D556" s="97"/>
+      <c r="E556" s="97"/>
+      <c r="F556" s="95"/>
+      <c r="G556" s="99"/>
+      <c r="H556" s="97"/>
+      <c r="I556" s="97"/>
       <c r="J556" s="44"/>
       <c r="K556" s="44"/>
       <c r="L556" s="57"/>
@@ -21476,15 +22759,15 @@
       <c r="T556" s="37"/>
     </row>
     <row r="557" spans="1:20" ht="15" customHeight="1">
-      <c r="A557" s="97"/>
-      <c r="B557" s="98"/>
-      <c r="C557" s="98"/>
-      <c r="D557" s="98"/>
-      <c r="E557" s="98"/>
-      <c r="F557" s="96"/>
-      <c r="G557" s="100"/>
-      <c r="H557" s="98"/>
-      <c r="I557" s="98"/>
+      <c r="A557" s="96"/>
+      <c r="B557" s="97"/>
+      <c r="C557" s="97"/>
+      <c r="D557" s="97"/>
+      <c r="E557" s="97"/>
+      <c r="F557" s="95"/>
+      <c r="G557" s="99"/>
+      <c r="H557" s="97"/>
+      <c r="I557" s="97"/>
       <c r="J557" s="44"/>
       <c r="K557" s="44"/>
       <c r="L557" s="57"/>
@@ -21498,15 +22781,15 @@
       <c r="T557" s="37"/>
     </row>
     <row r="558" spans="1:20" ht="15" customHeight="1">
-      <c r="A558" s="97"/>
-      <c r="B558" s="98"/>
-      <c r="C558" s="98"/>
-      <c r="D558" s="98"/>
-      <c r="E558" s="98"/>
-      <c r="F558" s="96"/>
-      <c r="G558" s="100"/>
-      <c r="H558" s="98"/>
-      <c r="I558" s="98"/>
+      <c r="A558" s="96"/>
+      <c r="B558" s="97"/>
+      <c r="C558" s="97"/>
+      <c r="D558" s="97"/>
+      <c r="E558" s="97"/>
+      <c r="F558" s="95"/>
+      <c r="G558" s="99"/>
+      <c r="H558" s="97"/>
+      <c r="I558" s="97"/>
       <c r="J558" s="44"/>
       <c r="K558" s="44"/>
       <c r="L558" s="57"/>
@@ -21520,13 +22803,13 @@
       <c r="T558" s="37"/>
     </row>
     <row r="559" spans="1:20" ht="15" customHeight="1">
-      <c r="A559" s="95"/>
-      <c r="B559" s="96"/>
-      <c r="C559" s="96"/>
-      <c r="D559" s="96"/>
-      <c r="E559" s="96"/>
-      <c r="F559" s="96"/>
-      <c r="G559" s="100"/>
+      <c r="A559" s="94"/>
+      <c r="B559" s="95"/>
+      <c r="C559" s="95"/>
+      <c r="D559" s="95"/>
+      <c r="E559" s="95"/>
+      <c r="F559" s="95"/>
+      <c r="G559" s="99"/>
       <c r="H559" s="44"/>
       <c r="I559" s="44"/>
       <c r="J559" s="90"/>
@@ -21542,13 +22825,13 @@
       <c r="T559" s="37"/>
     </row>
     <row r="560" spans="1:20" ht="15" customHeight="1">
-      <c r="A560" s="97"/>
-      <c r="B560" s="98"/>
-      <c r="C560" s="98"/>
-      <c r="D560" s="98"/>
-      <c r="E560" s="98"/>
-      <c r="F560" s="96"/>
-      <c r="G560" s="100"/>
+      <c r="A560" s="96"/>
+      <c r="B560" s="97"/>
+      <c r="C560" s="97"/>
+      <c r="D560" s="97"/>
+      <c r="E560" s="97"/>
+      <c r="F560" s="95"/>
+      <c r="G560" s="99"/>
       <c r="H560" s="44"/>
       <c r="I560" s="44"/>
       <c r="J560" s="90"/>
@@ -21564,13 +22847,13 @@
       <c r="T560" s="37"/>
     </row>
     <row r="561" spans="1:20" ht="15" customHeight="1">
-      <c r="A561" s="97"/>
-      <c r="B561" s="98"/>
-      <c r="C561" s="98"/>
-      <c r="D561" s="98"/>
-      <c r="E561" s="98"/>
-      <c r="F561" s="96"/>
-      <c r="G561" s="100"/>
+      <c r="A561" s="96"/>
+      <c r="B561" s="97"/>
+      <c r="C561" s="97"/>
+      <c r="D561" s="97"/>
+      <c r="E561" s="97"/>
+      <c r="F561" s="95"/>
+      <c r="G561" s="99"/>
       <c r="H561" s="44"/>
       <c r="I561" s="44"/>
       <c r="J561" s="90"/>
@@ -21586,13 +22869,13 @@
       <c r="T561" s="37"/>
     </row>
     <row r="562" spans="1:20" ht="15" customHeight="1">
-      <c r="A562" s="97"/>
-      <c r="B562" s="98"/>
-      <c r="C562" s="98"/>
-      <c r="D562" s="98"/>
-      <c r="E562" s="98"/>
-      <c r="F562" s="96"/>
-      <c r="G562" s="100"/>
+      <c r="A562" s="96"/>
+      <c r="B562" s="97"/>
+      <c r="C562" s="97"/>
+      <c r="D562" s="97"/>
+      <c r="E562" s="97"/>
+      <c r="F562" s="95"/>
+      <c r="G562" s="99"/>
       <c r="H562" s="44"/>
       <c r="I562" s="44"/>
       <c r="J562" s="90"/>
@@ -21608,13 +22891,13 @@
       <c r="T562" s="37"/>
     </row>
     <row r="563" spans="1:20" ht="15" customHeight="1">
-      <c r="A563" s="97"/>
-      <c r="B563" s="98"/>
-      <c r="C563" s="98"/>
-      <c r="D563" s="98"/>
-      <c r="E563" s="98"/>
-      <c r="F563" s="96"/>
-      <c r="G563" s="100"/>
+      <c r="A563" s="96"/>
+      <c r="B563" s="97"/>
+      <c r="C563" s="97"/>
+      <c r="D563" s="97"/>
+      <c r="E563" s="97"/>
+      <c r="F563" s="95"/>
+      <c r="G563" s="99"/>
       <c r="H563" s="44"/>
       <c r="I563" s="44"/>
       <c r="J563" s="90"/>
@@ -21630,13 +22913,13 @@
       <c r="T563" s="37"/>
     </row>
     <row r="564" spans="1:20" ht="15" customHeight="1">
-      <c r="A564" s="97"/>
-      <c r="B564" s="98"/>
-      <c r="C564" s="98"/>
-      <c r="D564" s="98"/>
-      <c r="E564" s="98"/>
-      <c r="F564" s="96"/>
-      <c r="G564" s="100"/>
+      <c r="A564" s="96"/>
+      <c r="B564" s="97"/>
+      <c r="C564" s="97"/>
+      <c r="D564" s="97"/>
+      <c r="E564" s="97"/>
+      <c r="F564" s="95"/>
+      <c r="G564" s="99"/>
       <c r="H564" s="44"/>
       <c r="I564" s="44"/>
       <c r="J564" s="90"/>
@@ -21658,7 +22941,7 @@
       <c r="D565" s="57"/>
       <c r="E565" s="57"/>
       <c r="F565" s="57"/>
-      <c r="G565" s="100"/>
+      <c r="G565" s="99"/>
       <c r="H565" s="57"/>
       <c r="I565" s="44"/>
       <c r="J565" s="44"/>
@@ -21680,7 +22963,7 @@
       <c r="D566" s="57"/>
       <c r="E566" s="57"/>
       <c r="F566" s="57"/>
-      <c r="G566" s="100"/>
+      <c r="G566" s="99"/>
       <c r="H566" s="57"/>
       <c r="I566" s="44"/>
       <c r="J566" s="44"/>
@@ -21702,7 +22985,7 @@
       <c r="D567" s="57"/>
       <c r="E567" s="57"/>
       <c r="F567" s="57"/>
-      <c r="G567" s="100"/>
+      <c r="G567" s="99"/>
       <c r="H567" s="57"/>
       <c r="I567" s="44"/>
       <c r="J567" s="44"/>
@@ -21724,7 +23007,7 @@
       <c r="D568" s="57"/>
       <c r="E568" s="57"/>
       <c r="F568" s="57"/>
-      <c r="G568" s="100"/>
+      <c r="G568" s="99"/>
       <c r="H568" s="57"/>
       <c r="I568" s="44"/>
       <c r="J568" s="44"/>
@@ -21746,7 +23029,7 @@
       <c r="D569" s="57"/>
       <c r="E569" s="57"/>
       <c r="F569" s="57"/>
-      <c r="G569" s="100"/>
+      <c r="G569" s="99"/>
       <c r="H569" s="57"/>
       <c r="I569" s="44"/>
       <c r="J569" s="44"/>
@@ -21768,7 +23051,7 @@
       <c r="D570" s="57"/>
       <c r="E570" s="57"/>
       <c r="F570" s="57"/>
-      <c r="G570" s="100"/>
+      <c r="G570" s="99"/>
       <c r="H570" s="57"/>
       <c r="I570" s="44"/>
       <c r="J570" s="44"/>
@@ -21790,7 +23073,7 @@
       <c r="D571" s="57"/>
       <c r="E571" s="57"/>
       <c r="F571" s="57"/>
-      <c r="G571" s="100"/>
+      <c r="G571" s="99"/>
       <c r="H571" s="57"/>
       <c r="I571" s="44"/>
       <c r="J571" s="44"/>
@@ -21812,7 +23095,7 @@
       <c r="D572" s="57"/>
       <c r="E572" s="57"/>
       <c r="F572" s="57"/>
-      <c r="G572" s="100"/>
+      <c r="G572" s="99"/>
       <c r="H572" s="57"/>
       <c r="I572" s="44"/>
       <c r="J572" s="44"/>
@@ -21834,7 +23117,7 @@
       <c r="D573" s="57"/>
       <c r="E573" s="57"/>
       <c r="F573" s="57"/>
-      <c r="G573" s="100"/>
+      <c r="G573" s="99"/>
       <c r="H573" s="57"/>
       <c r="I573" s="44"/>
       <c r="J573" s="44"/>
@@ -21856,7 +23139,7 @@
       <c r="D574" s="57"/>
       <c r="E574" s="57"/>
       <c r="F574" s="57"/>
-      <c r="G574" s="100"/>
+      <c r="G574" s="99"/>
       <c r="H574" s="57"/>
       <c r="I574" s="44"/>
       <c r="J574" s="44"/>
@@ -21878,7 +23161,7 @@
       <c r="D575" s="57"/>
       <c r="E575" s="57"/>
       <c r="F575" s="57"/>
-      <c r="G575" s="100"/>
+      <c r="G575" s="99"/>
       <c r="H575" s="57"/>
       <c r="I575" s="44"/>
       <c r="J575" s="44"/>
@@ -21900,7 +23183,7 @@
       <c r="D576" s="57"/>
       <c r="E576" s="57"/>
       <c r="F576" s="57"/>
-      <c r="G576" s="100"/>
+      <c r="G576" s="99"/>
       <c r="H576" s="57"/>
       <c r="I576" s="44"/>
       <c r="J576" s="44"/>
@@ -21922,7 +23205,7 @@
       <c r="D577" s="57"/>
       <c r="E577" s="57"/>
       <c r="F577" s="57"/>
-      <c r="G577" s="100"/>
+      <c r="G577" s="99"/>
       <c r="H577" s="57"/>
       <c r="I577" s="44"/>
       <c r="J577" s="44"/>
@@ -21944,7 +23227,7 @@
       <c r="D578" s="57"/>
       <c r="E578" s="57"/>
       <c r="F578" s="57"/>
-      <c r="G578" s="100"/>
+      <c r="G578" s="99"/>
       <c r="H578" s="57"/>
       <c r="I578" s="44"/>
       <c r="J578" s="44"/>
@@ -21966,7 +23249,7 @@
       <c r="D579" s="57"/>
       <c r="E579" s="57"/>
       <c r="F579" s="57"/>
-      <c r="G579" s="100"/>
+      <c r="G579" s="99"/>
       <c r="H579" s="57"/>
       <c r="I579" s="44"/>
       <c r="J579" s="44"/>
@@ -21988,7 +23271,7 @@
       <c r="D580" s="57"/>
       <c r="E580" s="57"/>
       <c r="F580" s="57"/>
-      <c r="G580" s="100"/>
+      <c r="G580" s="99"/>
       <c r="H580" s="57"/>
       <c r="I580" s="44"/>
       <c r="J580" s="44"/>
@@ -22010,7 +23293,7 @@
       <c r="D581" s="57"/>
       <c r="E581" s="57"/>
       <c r="F581" s="57"/>
-      <c r="G581" s="100"/>
+      <c r="G581" s="99"/>
       <c r="H581" s="57"/>
       <c r="I581" s="44"/>
       <c r="J581" s="44"/>
@@ -22032,7 +23315,7 @@
       <c r="D582" s="57"/>
       <c r="E582" s="57"/>
       <c r="F582" s="57"/>
-      <c r="G582" s="100"/>
+      <c r="G582" s="99"/>
       <c r="H582" s="57"/>
       <c r="I582" s="44"/>
       <c r="J582" s="44"/>
@@ -22049,12 +23332,12 @@
     </row>
     <row r="583" spans="1:20" ht="15" customHeight="1">
       <c r="A583" s="44"/>
-      <c r="B583" s="95"/>
-      <c r="C583" s="96"/>
-      <c r="D583" s="96"/>
-      <c r="E583" s="96"/>
+      <c r="B583" s="94"/>
+      <c r="C583" s="95"/>
+      <c r="D583" s="95"/>
+      <c r="E583" s="95"/>
       <c r="F583" s="57"/>
-      <c r="G583" s="100"/>
+      <c r="G583" s="99"/>
       <c r="H583" s="57"/>
       <c r="I583" s="44"/>
       <c r="J583" s="44"/>
@@ -22071,12 +23354,12 @@
     </row>
     <row r="584" spans="1:20" ht="15" customHeight="1">
       <c r="A584" s="44"/>
-      <c r="B584" s="97"/>
-      <c r="C584" s="98"/>
-      <c r="D584" s="98"/>
-      <c r="E584" s="98"/>
+      <c r="B584" s="96"/>
+      <c r="C584" s="97"/>
+      <c r="D584" s="97"/>
+      <c r="E584" s="97"/>
       <c r="F584" s="57"/>
-      <c r="G584" s="100"/>
+      <c r="G584" s="99"/>
       <c r="H584" s="57"/>
       <c r="I584" s="44"/>
       <c r="J584" s="44"/>
@@ -22093,12 +23376,12 @@
     </row>
     <row r="585" spans="1:20" ht="15" customHeight="1">
       <c r="A585" s="44"/>
-      <c r="B585" s="97"/>
-      <c r="C585" s="98"/>
-      <c r="D585" s="98"/>
-      <c r="E585" s="98"/>
+      <c r="B585" s="96"/>
+      <c r="C585" s="97"/>
+      <c r="D585" s="97"/>
+      <c r="E585" s="97"/>
       <c r="F585" s="57"/>
-      <c r="G585" s="100"/>
+      <c r="G585" s="99"/>
       <c r="H585" s="57"/>
       <c r="I585" s="44"/>
       <c r="J585" s="44"/>
@@ -22115,12 +23398,12 @@
     </row>
     <row r="586" spans="1:20" ht="15" customHeight="1">
       <c r="A586" s="44"/>
-      <c r="B586" s="97"/>
-      <c r="C586" s="98"/>
-      <c r="D586" s="98"/>
-      <c r="E586" s="98"/>
+      <c r="B586" s="96"/>
+      <c r="C586" s="97"/>
+      <c r="D586" s="97"/>
+      <c r="E586" s="97"/>
       <c r="F586" s="57"/>
-      <c r="G586" s="100"/>
+      <c r="G586" s="99"/>
       <c r="H586" s="57"/>
       <c r="I586" s="44"/>
       <c r="J586" s="44"/>
@@ -22137,12 +23420,12 @@
     </row>
     <row r="587" spans="1:20" ht="15" customHeight="1">
       <c r="A587" s="44"/>
-      <c r="B587" s="97"/>
-      <c r="C587" s="98"/>
-      <c r="D587" s="98"/>
-      <c r="E587" s="98"/>
+      <c r="B587" s="96"/>
+      <c r="C587" s="97"/>
+      <c r="D587" s="97"/>
+      <c r="E587" s="97"/>
       <c r="F587" s="57"/>
-      <c r="G587" s="100"/>
+      <c r="G587" s="99"/>
       <c r="H587" s="57"/>
       <c r="I587" s="44"/>
       <c r="J587" s="44"/>
@@ -22159,12 +23442,12 @@
     </row>
     <row r="588" spans="1:20" ht="15" customHeight="1">
       <c r="A588" s="44"/>
-      <c r="B588" s="97"/>
-      <c r="C588" s="98"/>
-      <c r="D588" s="98"/>
-      <c r="E588" s="98"/>
+      <c r="B588" s="96"/>
+      <c r="C588" s="97"/>
+      <c r="D588" s="97"/>
+      <c r="E588" s="97"/>
       <c r="F588" s="57"/>
-      <c r="G588" s="100"/>
+      <c r="G588" s="99"/>
       <c r="H588" s="57"/>
       <c r="I588" s="44"/>
       <c r="J588" s="44"/>
@@ -22186,7 +23469,7 @@
       <c r="D589" s="57"/>
       <c r="E589" s="44"/>
       <c r="F589" s="57"/>
-      <c r="G589" s="100"/>
+      <c r="G589" s="99"/>
       <c r="H589" s="57"/>
       <c r="I589" s="44"/>
       <c r="J589" s="44"/>
@@ -22202,13 +23485,13 @@
       <c r="T589" s="37"/>
     </row>
     <row r="590" spans="1:20" ht="15" customHeight="1">
-      <c r="A590" s="102"/>
-      <c r="B590" s="102"/>
+      <c r="A590" s="101"/>
+      <c r="B590" s="101"/>
       <c r="C590" s="57"/>
       <c r="D590" s="57"/>
       <c r="E590" s="57"/>
       <c r="F590" s="57"/>
-      <c r="G590" s="100"/>
+      <c r="G590" s="99"/>
       <c r="H590" s="44"/>
       <c r="I590" s="44"/>
       <c r="J590" s="44"/>
@@ -22951,12 +24234,12 @@
     </row>
     <row r="624" spans="1:20" ht="16" customHeight="1">
       <c r="A624" s="44"/>
-      <c r="B624" s="95"/>
-      <c r="C624" s="96"/>
-      <c r="D624" s="96"/>
-      <c r="E624" s="96"/>
-      <c r="F624" s="96"/>
-      <c r="G624" s="96"/>
+      <c r="B624" s="94"/>
+      <c r="C624" s="95"/>
+      <c r="D624" s="95"/>
+      <c r="E624" s="95"/>
+      <c r="F624" s="95"/>
+      <c r="G624" s="95"/>
       <c r="H624" s="44"/>
       <c r="I624" s="44"/>
       <c r="J624" s="58"/>
@@ -22973,12 +24256,12 @@
     </row>
     <row r="625" spans="1:20" ht="16" customHeight="1">
       <c r="A625" s="44"/>
-      <c r="B625" s="97"/>
-      <c r="C625" s="98"/>
-      <c r="D625" s="98"/>
-      <c r="E625" s="98"/>
-      <c r="F625" s="96"/>
-      <c r="G625" s="98"/>
+      <c r="B625" s="96"/>
+      <c r="C625" s="97"/>
+      <c r="D625" s="97"/>
+      <c r="E625" s="97"/>
+      <c r="F625" s="95"/>
+      <c r="G625" s="97"/>
       <c r="H625" s="44"/>
       <c r="I625" s="44"/>
       <c r="J625" s="58"/>
@@ -22995,12 +24278,12 @@
     </row>
     <row r="626" spans="1:20" ht="16" customHeight="1">
       <c r="A626" s="44"/>
-      <c r="B626" s="97"/>
-      <c r="C626" s="98"/>
-      <c r="D626" s="98"/>
-      <c r="E626" s="98"/>
-      <c r="F626" s="96"/>
-      <c r="G626" s="98"/>
+      <c r="B626" s="96"/>
+      <c r="C626" s="97"/>
+      <c r="D626" s="97"/>
+      <c r="E626" s="97"/>
+      <c r="F626" s="95"/>
+      <c r="G626" s="97"/>
       <c r="H626" s="44"/>
       <c r="I626" s="44"/>
       <c r="J626" s="58"/>
@@ -23017,12 +24300,12 @@
     </row>
     <row r="627" spans="1:20" ht="16" customHeight="1">
       <c r="A627" s="44"/>
-      <c r="B627" s="97"/>
-      <c r="C627" s="98"/>
-      <c r="D627" s="98"/>
-      <c r="E627" s="98"/>
-      <c r="F627" s="96"/>
-      <c r="G627" s="98"/>
+      <c r="B627" s="96"/>
+      <c r="C627" s="97"/>
+      <c r="D627" s="97"/>
+      <c r="E627" s="97"/>
+      <c r="F627" s="95"/>
+      <c r="G627" s="97"/>
       <c r="H627" s="44"/>
       <c r="I627" s="44"/>
       <c r="J627" s="58"/>
@@ -23039,12 +24322,12 @@
     </row>
     <row r="628" spans="1:20" ht="16" customHeight="1">
       <c r="A628" s="44"/>
-      <c r="B628" s="97"/>
-      <c r="C628" s="98"/>
-      <c r="D628" s="98"/>
-      <c r="E628" s="98"/>
-      <c r="F628" s="96"/>
-      <c r="G628" s="98"/>
+      <c r="B628" s="96"/>
+      <c r="C628" s="97"/>
+      <c r="D628" s="97"/>
+      <c r="E628" s="97"/>
+      <c r="F628" s="95"/>
+      <c r="G628" s="97"/>
       <c r="H628" s="44"/>
       <c r="I628" s="44"/>
       <c r="J628" s="58"/>
@@ -23061,12 +24344,12 @@
     </row>
     <row r="629" spans="1:20" ht="16" customHeight="1">
       <c r="A629" s="44"/>
-      <c r="B629" s="95"/>
-      <c r="C629" s="96"/>
-      <c r="D629" s="96"/>
-      <c r="E629" s="96"/>
-      <c r="F629" s="96"/>
-      <c r="G629" s="96"/>
+      <c r="B629" s="94"/>
+      <c r="C629" s="95"/>
+      <c r="D629" s="95"/>
+      <c r="E629" s="95"/>
+      <c r="F629" s="95"/>
+      <c r="G629" s="95"/>
       <c r="H629" s="44"/>
       <c r="I629" s="44"/>
       <c r="J629" s="58"/>
@@ -23083,12 +24366,12 @@
     </row>
     <row r="630" spans="1:20" ht="16" customHeight="1">
       <c r="A630" s="44"/>
-      <c r="B630" s="97"/>
-      <c r="C630" s="98"/>
-      <c r="D630" s="98"/>
-      <c r="E630" s="98"/>
-      <c r="F630" s="96"/>
-      <c r="G630" s="98"/>
+      <c r="B630" s="96"/>
+      <c r="C630" s="97"/>
+      <c r="D630" s="97"/>
+      <c r="E630" s="97"/>
+      <c r="F630" s="95"/>
+      <c r="G630" s="97"/>
       <c r="H630" s="44"/>
       <c r="I630" s="44"/>
       <c r="J630" s="58"/>
@@ -23105,12 +24388,12 @@
     </row>
     <row r="631" spans="1:20" ht="16" customHeight="1">
       <c r="A631" s="44"/>
-      <c r="B631" s="97"/>
-      <c r="C631" s="98"/>
-      <c r="D631" s="98"/>
-      <c r="E631" s="98"/>
-      <c r="F631" s="96"/>
-      <c r="G631" s="98"/>
+      <c r="B631" s="96"/>
+      <c r="C631" s="97"/>
+      <c r="D631" s="97"/>
+      <c r="E631" s="97"/>
+      <c r="F631" s="95"/>
+      <c r="G631" s="97"/>
       <c r="H631" s="44"/>
       <c r="I631" s="44"/>
       <c r="J631" s="58"/>
@@ -23127,12 +24410,12 @@
     </row>
     <row r="632" spans="1:20" ht="16" customHeight="1">
       <c r="A632" s="44"/>
-      <c r="B632" s="97"/>
-      <c r="C632" s="98"/>
-      <c r="D632" s="98"/>
-      <c r="E632" s="98"/>
-      <c r="F632" s="96"/>
-      <c r="G632" s="98"/>
+      <c r="B632" s="96"/>
+      <c r="C632" s="97"/>
+      <c r="D632" s="97"/>
+      <c r="E632" s="97"/>
+      <c r="F632" s="95"/>
+      <c r="G632" s="97"/>
       <c r="H632" s="44"/>
       <c r="I632" s="44"/>
       <c r="J632" s="58"/>
@@ -23149,12 +24432,12 @@
     </row>
     <row r="633" spans="1:20" ht="16" customHeight="1">
       <c r="A633" s="44"/>
-      <c r="B633" s="97"/>
-      <c r="C633" s="98"/>
-      <c r="D633" s="98"/>
-      <c r="E633" s="98"/>
-      <c r="F633" s="96"/>
-      <c r="G633" s="98"/>
+      <c r="B633" s="96"/>
+      <c r="C633" s="97"/>
+      <c r="D633" s="97"/>
+      <c r="E633" s="97"/>
+      <c r="F633" s="95"/>
+      <c r="G633" s="97"/>
       <c r="H633" s="44"/>
       <c r="I633" s="44"/>
       <c r="J633" s="58"/>
@@ -23171,12 +24454,12 @@
     </row>
     <row r="634" spans="1:20" ht="16" customHeight="1">
       <c r="A634" s="44"/>
-      <c r="B634" s="95"/>
-      <c r="C634" s="96"/>
-      <c r="D634" s="96"/>
-      <c r="E634" s="96"/>
-      <c r="F634" s="96"/>
-      <c r="G634" s="96"/>
+      <c r="B634" s="94"/>
+      <c r="C634" s="95"/>
+      <c r="D634" s="95"/>
+      <c r="E634" s="95"/>
+      <c r="F634" s="95"/>
+      <c r="G634" s="95"/>
       <c r="H634" s="44"/>
       <c r="I634" s="44"/>
       <c r="J634" s="44"/>
@@ -23193,12 +24476,12 @@
     </row>
     <row r="635" spans="1:20" ht="16" customHeight="1">
       <c r="A635" s="44"/>
-      <c r="B635" s="97"/>
-      <c r="C635" s="98"/>
-      <c r="D635" s="98"/>
-      <c r="E635" s="98"/>
-      <c r="F635" s="96"/>
-      <c r="G635" s="98"/>
+      <c r="B635" s="96"/>
+      <c r="C635" s="97"/>
+      <c r="D635" s="97"/>
+      <c r="E635" s="97"/>
+      <c r="F635" s="95"/>
+      <c r="G635" s="97"/>
       <c r="H635" s="44"/>
       <c r="I635" s="44"/>
       <c r="J635" s="44"/>
@@ -23215,12 +24498,12 @@
     </row>
     <row r="636" spans="1:20" ht="16" customHeight="1">
       <c r="A636" s="44"/>
-      <c r="B636" s="97"/>
-      <c r="C636" s="98"/>
-      <c r="D636" s="98"/>
-      <c r="E636" s="98"/>
-      <c r="F636" s="96"/>
-      <c r="G636" s="98"/>
+      <c r="B636" s="96"/>
+      <c r="C636" s="97"/>
+      <c r="D636" s="97"/>
+      <c r="E636" s="97"/>
+      <c r="F636" s="95"/>
+      <c r="G636" s="97"/>
       <c r="H636" s="44"/>
       <c r="I636" s="44"/>
       <c r="J636" s="44"/>
@@ -23237,12 +24520,12 @@
     </row>
     <row r="637" spans="1:20" ht="16" customHeight="1">
       <c r="A637" s="44"/>
-      <c r="B637" s="97"/>
-      <c r="C637" s="98"/>
-      <c r="D637" s="98"/>
-      <c r="E637" s="98"/>
-      <c r="F637" s="96"/>
-      <c r="G637" s="98"/>
+      <c r="B637" s="96"/>
+      <c r="C637" s="97"/>
+      <c r="D637" s="97"/>
+      <c r="E637" s="97"/>
+      <c r="F637" s="95"/>
+      <c r="G637" s="97"/>
       <c r="H637" s="44"/>
       <c r="I637" s="44"/>
       <c r="J637" s="44"/>
@@ -23259,12 +24542,12 @@
     </row>
     <row r="638" spans="1:20" ht="16" customHeight="1">
       <c r="A638" s="44"/>
-      <c r="B638" s="97"/>
-      <c r="C638" s="98"/>
-      <c r="D638" s="98"/>
-      <c r="E638" s="98"/>
-      <c r="F638" s="96"/>
-      <c r="G638" s="98"/>
+      <c r="B638" s="96"/>
+      <c r="C638" s="97"/>
+      <c r="D638" s="97"/>
+      <c r="E638" s="97"/>
+      <c r="F638" s="95"/>
+      <c r="G638" s="97"/>
       <c r="H638" s="44"/>
       <c r="I638" s="44"/>
       <c r="J638" s="44"/>
@@ -23281,12 +24564,12 @@
     </row>
     <row r="639" spans="1:20" ht="16" customHeight="1">
       <c r="A639" s="44"/>
-      <c r="B639" s="97"/>
-      <c r="C639" s="98"/>
-      <c r="D639" s="98"/>
-      <c r="E639" s="98"/>
-      <c r="F639" s="96"/>
-      <c r="G639" s="98"/>
+      <c r="B639" s="96"/>
+      <c r="C639" s="97"/>
+      <c r="D639" s="97"/>
+      <c r="E639" s="97"/>
+      <c r="F639" s="95"/>
+      <c r="G639" s="97"/>
       <c r="H639" s="44"/>
       <c r="I639" s="44"/>
       <c r="J639" s="44"/>
@@ -24205,7 +25488,7 @@
     </row>
     <row r="681" spans="1:20" ht="16" customHeight="1">
       <c r="A681" s="44"/>
-      <c r="B681" s="103"/>
+      <c r="B681" s="102"/>
       <c r="C681" s="57"/>
       <c r="D681" s="57"/>
       <c r="E681" s="57"/>
@@ -24227,7 +25510,7 @@
     </row>
     <row r="682" spans="1:20" ht="16" customHeight="1">
       <c r="A682" s="44"/>
-      <c r="B682" s="103"/>
+      <c r="B682" s="102"/>
       <c r="C682" s="57"/>
       <c r="D682" s="57"/>
       <c r="E682" s="57"/>
@@ -24249,7 +25532,7 @@
     </row>
     <row r="683" spans="1:20" ht="16" customHeight="1">
       <c r="A683" s="44"/>
-      <c r="B683" s="103"/>
+      <c r="B683" s="102"/>
       <c r="C683" s="57"/>
       <c r="D683" s="57"/>
       <c r="E683" s="57"/>
@@ -24271,7 +25554,7 @@
     </row>
     <row r="684" spans="1:20" ht="16" customHeight="1">
       <c r="A684" s="44"/>
-      <c r="B684" s="103"/>
+      <c r="B684" s="102"/>
       <c r="C684" s="57"/>
       <c r="D684" s="57"/>
       <c r="E684" s="57"/>
@@ -24293,7 +25576,7 @@
     </row>
     <row r="685" spans="1:20" ht="16" customHeight="1">
       <c r="A685" s="44"/>
-      <c r="B685" s="103"/>
+      <c r="B685" s="102"/>
       <c r="C685" s="57"/>
       <c r="D685" s="57"/>
       <c r="E685" s="57"/>
@@ -24315,7 +25598,7 @@
     </row>
     <row r="686" spans="1:20" ht="16" customHeight="1">
       <c r="A686" s="44"/>
-      <c r="B686" s="103"/>
+      <c r="B686" s="102"/>
       <c r="C686" s="57"/>
       <c r="D686" s="57"/>
       <c r="E686" s="57"/>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CC257E-A5D1-8145-B8C7-7708B9BC48B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923BFA8-DEC5-0146-8A31-A32215EBAAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7360" windowWidth="34560" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8580" windowWidth="34560" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="389">
   <si>
     <r>
       <rPr>
@@ -1276,6 +1276,27 @@
   </si>
   <si>
     <t>10.1016/j.actamat.2025.121367</t>
+  </si>
+  <si>
+    <t>ZrHfNbTaW</t>
+  </si>
+  <si>
+    <t>BCC+BCC</t>
+  </si>
+  <si>
+    <t>AAM+HPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut into 10x0.8mm discs and then high pressure torsioned at RT under 6GPa with angular speed of 1rpm for 50 turns (best results with other reported too); torsion induced temperature raise negligable </t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2024.178274</t>
   </si>
 </sst>
 </file>
@@ -3774,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O260" sqref="O260"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A263" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N282" sqref="N282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -16425,21 +16446,42 @@
     </row>
     <row r="269" spans="1:20" ht="18" customHeight="1">
       <c r="A269" s="57"/>
-      <c r="B269" s="57"/>
-      <c r="C269" s="57"/>
-      <c r="D269" s="57"/>
+      <c r="B269" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="C269" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="D269" s="57" t="s">
+        <v>88</v>
+      </c>
       <c r="E269" s="55"/>
-      <c r="F269" s="57"/>
-      <c r="G269" s="32"/>
+      <c r="F269" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G269" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H269" s="44"/>
-      <c r="I269" s="38"/>
-      <c r="J269" s="51"/>
+      <c r="I269" s="38">
+        <v>300</v>
+      </c>
+      <c r="J269" s="35">
+        <f t="shared" ref="J269:J270" si="8">P269*9807000</f>
+        <v>5491920000</v>
+      </c>
       <c r="K269" s="38"/>
-      <c r="L269" s="57"/>
+      <c r="L269" s="57" t="s">
+        <v>33</v>
+      </c>
       <c r="M269" s="57"/>
-      <c r="N269" s="40"/>
+      <c r="N269" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="O269" s="44"/>
-      <c r="P269" s="44"/>
+      <c r="P269" s="44">
+        <v>560</v>
+      </c>
       <c r="Q269" s="44"/>
       <c r="R269" s="44"/>
       <c r="S269" s="37"/>
@@ -16447,21 +16489,44 @@
     </row>
     <row r="270" spans="1:20" ht="18" customHeight="1">
       <c r="A270" s="57"/>
-      <c r="B270" s="57"/>
-      <c r="C270" s="57"/>
-      <c r="D270" s="57"/>
-      <c r="E270" s="55"/>
-      <c r="F270" s="57"/>
-      <c r="G270" s="32"/>
+      <c r="B270" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="C270" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D270" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="E270" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="F270" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G270" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H270" s="44"/>
-      <c r="I270" s="38"/>
-      <c r="J270" s="51"/>
+      <c r="I270" s="38">
+        <v>300</v>
+      </c>
+      <c r="J270" s="35">
+        <f t="shared" si="8"/>
+        <v>8434020000</v>
+      </c>
       <c r="K270" s="38"/>
-      <c r="L270" s="57"/>
+      <c r="L270" s="57" t="s">
+        <v>33</v>
+      </c>
       <c r="M270" s="57"/>
-      <c r="N270" s="40"/>
+      <c r="N270" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="O270" s="44"/>
-      <c r="P270" s="44"/>
+      <c r="P270" s="44">
+        <v>860</v>
+      </c>
       <c r="Q270" s="44"/>
       <c r="R270" s="44"/>
       <c r="S270" s="37"/>
@@ -16469,19 +16534,37 @@
     </row>
     <row r="271" spans="1:20" ht="18" customHeight="1">
       <c r="A271" s="57"/>
-      <c r="B271" s="57"/>
-      <c r="C271" s="57"/>
-      <c r="D271" s="57"/>
+      <c r="B271" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="C271" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="D271" s="57" t="s">
+        <v>88</v>
+      </c>
       <c r="E271" s="55"/>
-      <c r="F271" s="57"/>
-      <c r="G271" s="32"/>
+      <c r="F271" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G271" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H271" s="44"/>
-      <c r="I271" s="38"/>
-      <c r="J271" s="51"/>
+      <c r="I271" s="38">
+        <v>300</v>
+      </c>
+      <c r="J271" s="51">
+        <v>1230</v>
+      </c>
       <c r="K271" s="38"/>
-      <c r="L271" s="57"/>
+      <c r="L271" s="57" t="s">
+        <v>387</v>
+      </c>
       <c r="M271" s="57"/>
-      <c r="N271" s="40"/>
+      <c r="N271" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="O271" s="44"/>
       <c r="P271" s="44"/>
       <c r="Q271" s="44"/>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923BFA8-DEC5-0146-8A31-A32215EBAAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9089DD8A-0CC6-0C44-80E5-6ACB4E5F9373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8580" windowWidth="34560" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8500" windowWidth="34560" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="395">
   <si>
     <r>
       <rPr>
@@ -1297,6 +1297,24 @@
   </si>
   <si>
     <t>10.1016/j.jallcom.2024.178274</t>
+  </si>
+  <si>
+    <t>Hf15 Mo25 Nb20 Ta5 Ti35</t>
+  </si>
+  <si>
+    <t>homogenized ar 1363K for 1h; likely not full homogenization as noted by the authors</t>
+  </si>
+  <si>
+    <t>VAM</t>
+  </si>
+  <si>
+    <t>VAM+H</t>
+  </si>
+  <si>
+    <t>minimum melting temperature</t>
+  </si>
+  <si>
+    <t>10.1016/j.actamat.2022.118132</t>
   </si>
 </sst>
 </file>
@@ -2518,6 +2536,61 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2578,61 +2651,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3796,7 +3814,7 @@
   <dimension ref="A1:T960"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A263" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N282" sqref="N282"/>
+      <selection activeCell="N278" sqref="N278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3853,19 +3871,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="111"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3881,17 +3899,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="115"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="136"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3932,43 +3950,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="118" t="s">
+      <c r="K5" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="118" t="s">
+      <c r="L5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="118" t="s">
+      <c r="M5" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="118" t="s">
+      <c r="N5" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="123" t="s">
+      <c r="O5" s="107" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3984,19 +4002,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="124"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="108"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -4046,7 +4064,7 @@
       <c r="N7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="125"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="64" t="s">
         <v>62</v>
       </c>
@@ -4061,35 +4079,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="59"/>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129" t="s">
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="134" t="s">
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="135"/>
+      <c r="N8" s="119"/>
       <c r="O8" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="136" t="s">
+      <c r="P8" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="139"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="123"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="60" t="s">
@@ -13474,7 +13492,7 @@
     </row>
     <row r="207" spans="1:20" ht="18" customHeight="1">
       <c r="A207" s="40"/>
-      <c r="B207" s="140" t="s">
+      <c r="B207" s="103" t="s">
         <v>352</v>
       </c>
       <c r="C207" s="91" t="s">
@@ -13483,7 +13501,7 @@
       <c r="D207" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E207" s="141" t="s">
+      <c r="E207" s="104" t="s">
         <v>357</v>
       </c>
       <c r="F207" s="98" t="s">
@@ -13520,7 +13538,7 @@
     </row>
     <row r="208" spans="1:20" ht="18" customHeight="1">
       <c r="A208" s="40"/>
-      <c r="B208" s="142" t="s">
+      <c r="B208" s="105" t="s">
         <v>353</v>
       </c>
       <c r="C208" s="92" t="s">
@@ -13529,7 +13547,7 @@
       <c r="D208" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E208" s="143" t="s">
+      <c r="E208" s="106" t="s">
         <v>357</v>
       </c>
       <c r="F208" s="98" t="s">
@@ -13566,7 +13584,7 @@
     </row>
     <row r="209" spans="1:20" ht="18" customHeight="1">
       <c r="A209" s="40"/>
-      <c r="B209" s="142" t="s">
+      <c r="B209" s="105" t="s">
         <v>354</v>
       </c>
       <c r="C209" s="92" t="s">
@@ -13575,7 +13593,7 @@
       <c r="D209" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E209" s="143" t="s">
+      <c r="E209" s="106" t="s">
         <v>357</v>
       </c>
       <c r="F209" s="98" t="s">
@@ -13612,7 +13630,7 @@
     </row>
     <row r="210" spans="1:20" ht="18" customHeight="1">
       <c r="A210" s="40"/>
-      <c r="B210" s="142" t="s">
+      <c r="B210" s="105" t="s">
         <v>355</v>
       </c>
       <c r="C210" s="92" t="s">
@@ -13621,7 +13639,7 @@
       <c r="D210" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E210" s="143" t="s">
+      <c r="E210" s="106" t="s">
         <v>357</v>
       </c>
       <c r="F210" s="98" t="s">
@@ -13658,7 +13676,7 @@
     </row>
     <row r="211" spans="1:20" ht="18" customHeight="1">
       <c r="A211" s="40"/>
-      <c r="B211" s="140" t="s">
+      <c r="B211" s="103" t="s">
         <v>352</v>
       </c>
       <c r="C211" s="91" t="s">
@@ -13667,7 +13685,7 @@
       <c r="D211" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E211" s="141" t="s">
+      <c r="E211" s="104" t="s">
         <v>357</v>
       </c>
       <c r="F211" s="98" t="s">
@@ -13704,7 +13722,7 @@
     </row>
     <row r="212" spans="1:20" ht="18" customHeight="1">
       <c r="A212" s="40"/>
-      <c r="B212" s="142" t="s">
+      <c r="B212" s="105" t="s">
         <v>353</v>
       </c>
       <c r="C212" s="92" t="s">
@@ -13713,7 +13731,7 @@
       <c r="D212" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E212" s="143" t="s">
+      <c r="E212" s="106" t="s">
         <v>357</v>
       </c>
       <c r="F212" s="98" t="s">
@@ -13750,7 +13768,7 @@
     </row>
     <row r="213" spans="1:20" ht="18" customHeight="1">
       <c r="A213" s="40"/>
-      <c r="B213" s="142" t="s">
+      <c r="B213" s="105" t="s">
         <v>354</v>
       </c>
       <c r="C213" s="92" t="s">
@@ -13759,7 +13777,7 @@
       <c r="D213" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E213" s="143" t="s">
+      <c r="E213" s="106" t="s">
         <v>357</v>
       </c>
       <c r="F213" s="98" t="s">
@@ -13796,7 +13814,7 @@
     </row>
     <row r="214" spans="1:20" ht="18" customHeight="1">
       <c r="A214" s="40"/>
-      <c r="B214" s="142" t="s">
+      <c r="B214" s="105" t="s">
         <v>355</v>
       </c>
       <c r="C214" s="92" t="s">
@@ -13805,7 +13823,7 @@
       <c r="D214" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E214" s="143" t="s">
+      <c r="E214" s="106" t="s">
         <v>357</v>
       </c>
       <c r="F214" s="98" t="s">
@@ -16574,19 +16592,39 @@
     </row>
     <row r="272" spans="1:20" ht="18" customHeight="1">
       <c r="A272" s="57"/>
-      <c r="B272" s="57"/>
-      <c r="C272" s="57"/>
-      <c r="D272" s="57"/>
+      <c r="B272" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C272" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D272" s="57" t="s">
+        <v>391</v>
+      </c>
       <c r="E272" s="55"/>
-      <c r="F272" s="57"/>
-      <c r="G272" s="32"/>
+      <c r="F272" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G272" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H272" s="44"/>
-      <c r="I272" s="38"/>
-      <c r="J272" s="51"/>
-      <c r="K272" s="38"/>
-      <c r="L272" s="57"/>
+      <c r="I272" s="38">
+        <v>298</v>
+      </c>
+      <c r="J272" s="51">
+        <v>4960000000</v>
+      </c>
+      <c r="K272" s="51">
+        <v>120000000</v>
+      </c>
+      <c r="L272" s="57" t="s">
+        <v>33</v>
+      </c>
       <c r="M272" s="57"/>
-      <c r="N272" s="40"/>
+      <c r="N272" s="40" t="s">
+        <v>394</v>
+      </c>
       <c r="O272" s="44"/>
       <c r="P272" s="44"/>
       <c r="Q272" s="44"/>
@@ -16596,19 +16634,41 @@
     </row>
     <row r="273" spans="1:20" ht="18" customHeight="1">
       <c r="A273" s="57"/>
-      <c r="B273" s="57"/>
-      <c r="C273" s="57"/>
-      <c r="D273" s="57"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="57"/>
-      <c r="G273" s="32"/>
+      <c r="B273" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C273" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D273" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="E273" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="F273" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G273" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H273" s="44"/>
-      <c r="I273" s="38"/>
-      <c r="J273" s="51"/>
-      <c r="K273" s="38"/>
-      <c r="L273" s="57"/>
+      <c r="I273" s="38">
+        <v>298</v>
+      </c>
+      <c r="J273" s="51">
+        <v>5320000000</v>
+      </c>
+      <c r="K273" s="51">
+        <v>380000000</v>
+      </c>
+      <c r="L273" s="57" t="s">
+        <v>33</v>
+      </c>
       <c r="M273" s="57"/>
-      <c r="N273" s="40"/>
+      <c r="N273" s="40" t="s">
+        <v>394</v>
+      </c>
       <c r="O273" s="44"/>
       <c r="P273" s="44"/>
       <c r="Q273" s="44"/>
@@ -16618,19 +16678,35 @@
     </row>
     <row r="274" spans="1:20" ht="18" customHeight="1">
       <c r="A274" s="57"/>
-      <c r="B274" s="57"/>
-      <c r="C274" s="57"/>
-      <c r="D274" s="57"/>
+      <c r="B274" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C274" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D274" s="57" t="s">
+        <v>391</v>
+      </c>
       <c r="E274" s="55"/>
-      <c r="F274" s="57"/>
-      <c r="G274" s="32"/>
+      <c r="F274" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G274" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H274" s="44"/>
       <c r="I274" s="38"/>
-      <c r="J274" s="51"/>
+      <c r="J274" s="51">
+        <v>8860</v>
+      </c>
       <c r="K274" s="38"/>
-      <c r="L274" s="57"/>
+      <c r="L274" s="57" t="s">
+        <v>387</v>
+      </c>
       <c r="M274" s="57"/>
-      <c r="N274" s="40"/>
+      <c r="N274" s="40" t="s">
+        <v>394</v>
+      </c>
       <c r="O274" s="44"/>
       <c r="P274" s="44"/>
       <c r="Q274" s="44"/>
@@ -16640,19 +16716,35 @@
     </row>
     <row r="275" spans="1:20" ht="18" customHeight="1">
       <c r="A275" s="57"/>
-      <c r="B275" s="57"/>
-      <c r="C275" s="57"/>
-      <c r="D275" s="57"/>
+      <c r="B275" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C275" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D275" s="57" t="s">
+        <v>391</v>
+      </c>
       <c r="E275" s="55"/>
-      <c r="F275" s="57"/>
-      <c r="G275" s="32"/>
+      <c r="F275" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G275" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H275" s="44"/>
       <c r="I275" s="38"/>
-      <c r="J275" s="51"/>
+      <c r="J275" s="51">
+        <v>2273</v>
+      </c>
       <c r="K275" s="38"/>
-      <c r="L275" s="57"/>
+      <c r="L275" s="57" t="s">
+        <v>93</v>
+      </c>
       <c r="M275" s="57"/>
-      <c r="N275" s="40"/>
+      <c r="N275" s="40" t="s">
+        <v>394</v>
+      </c>
       <c r="O275" s="44"/>
       <c r="P275" s="44"/>
       <c r="Q275" s="44"/>
@@ -31590,11 +31682,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -31609,6 +31696,11 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9089DD8A-0CC6-0C44-80E5-6ACB4E5F9373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6252FD-D292-2E4E-B998-8BA6CCA07D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8500" windowWidth="34560" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-560" yWindow="7280" windowWidth="34560" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="402">
   <si>
     <r>
       <rPr>
@@ -1315,6 +1315,27 @@
   </si>
   <si>
     <t>10.1016/j.actamat.2022.118132</t>
+  </si>
+  <si>
+    <t>ScTiZrHf</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>W / (K m)</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2020.106802</t>
+  </si>
+  <si>
+    <t>thermal conductivity</t>
+  </si>
+  <si>
+    <t>AAM+H</t>
+  </si>
+  <si>
+    <t>arc melted under flowing helium not argon; homogenized at 973K for 140h</t>
   </si>
 </sst>
 </file>
@@ -2540,57 +2561,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2650,6 +2620,57 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3813,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A263" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N278" sqref="N278"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A272" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3871,19 +3892,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="132"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="115"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3899,17 +3920,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="136"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3950,43 +3971,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="139" t="s">
+      <c r="J5" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="139" t="s">
+      <c r="K5" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="139" t="s">
+      <c r="M5" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="N5" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="107" t="s">
+      <c r="O5" s="127" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -4002,19 +4023,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="108"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="128"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -4064,7 +4085,7 @@
       <c r="N7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="109"/>
+      <c r="O7" s="129"/>
       <c r="P7" s="64" t="s">
         <v>62</v>
       </c>
@@ -4079,35 +4100,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="59"/>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="113" t="s">
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="118" t="s">
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="119"/>
+      <c r="N8" s="139"/>
       <c r="O8" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="120" t="s">
+      <c r="P8" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="123"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="143"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="60" t="s">
@@ -16695,7 +16716,9 @@
         <v>29</v>
       </c>
       <c r="H274" s="44"/>
-      <c r="I274" s="38"/>
+      <c r="I274" s="38">
+        <v>298</v>
+      </c>
       <c r="J274" s="51">
         <v>8860</v>
       </c>
@@ -16754,21 +16777,44 @@
     </row>
     <row r="276" spans="1:20" ht="18" customHeight="1">
       <c r="A276" s="57"/>
-      <c r="B276" s="57"/>
-      <c r="C276" s="57"/>
-      <c r="D276" s="57"/>
-      <c r="E276" s="55"/>
-      <c r="F276" s="57"/>
-      <c r="G276" s="32"/>
+      <c r="B276" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C276" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D276" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E276" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F276" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G276" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H276" s="44"/>
-      <c r="I276" s="38"/>
-      <c r="J276" s="51"/>
+      <c r="I276" s="44">
+        <v>5</v>
+      </c>
+      <c r="J276" s="51">
+        <f>P276*0.00000001</f>
+        <v>1.0949712643678101E-6</v>
+      </c>
       <c r="K276" s="44"/>
-      <c r="L276" s="57"/>
+      <c r="L276" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M276" s="57"/>
-      <c r="N276" s="40"/>
+      <c r="N276" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O276" s="93"/>
-      <c r="P276" s="44"/>
+      <c r="P276" s="44">
+        <v>109.497126436781</v>
+      </c>
       <c r="Q276" s="44"/>
       <c r="R276" s="44"/>
       <c r="S276" s="37"/>
@@ -16776,21 +16822,44 @@
     </row>
     <row r="277" spans="1:20" ht="18" customHeight="1">
       <c r="A277" s="57"/>
-      <c r="B277" s="57"/>
-      <c r="C277" s="57"/>
-      <c r="D277" s="57"/>
-      <c r="E277" s="55"/>
-      <c r="F277" s="57"/>
-      <c r="G277" s="32"/>
+      <c r="B277" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C277" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D277" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E277" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F277" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G277" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H277" s="44"/>
-      <c r="I277" s="38"/>
-      <c r="J277" s="51"/>
+      <c r="I277" s="44">
+        <v>25</v>
+      </c>
+      <c r="J277" s="51">
+        <f t="shared" ref="J277:J280" si="9">P277*0.00000001</f>
+        <v>1.0971264367816001E-6</v>
+      </c>
       <c r="K277" s="44"/>
-      <c r="L277" s="57"/>
+      <c r="L277" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M277" s="57"/>
-      <c r="N277" s="40"/>
+      <c r="N277" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O277" s="44"/>
-      <c r="P277" s="44"/>
+      <c r="P277" s="44">
+        <v>109.71264367816001</v>
+      </c>
       <c r="Q277" s="44"/>
       <c r="R277" s="44"/>
       <c r="S277" s="37"/>
@@ -16798,21 +16867,44 @@
     </row>
     <row r="278" spans="1:20" ht="18" customHeight="1">
       <c r="A278" s="57"/>
-      <c r="B278" s="57"/>
-      <c r="C278" s="57"/>
-      <c r="D278" s="57"/>
-      <c r="E278" s="55"/>
-      <c r="F278" s="57"/>
-      <c r="G278" s="32"/>
+      <c r="B278" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C278" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D278" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E278" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F278" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G278" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H278" s="44"/>
-      <c r="I278" s="38"/>
-      <c r="J278" s="51"/>
+      <c r="I278" s="44">
+        <v>100</v>
+      </c>
+      <c r="J278" s="51">
+        <f t="shared" si="9"/>
+        <v>1.22068965517241E-6</v>
+      </c>
       <c r="K278" s="44"/>
-      <c r="L278" s="57"/>
+      <c r="L278" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M278" s="57"/>
-      <c r="N278" s="40"/>
+      <c r="N278" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O278" s="44"/>
-      <c r="P278" s="44"/>
+      <c r="P278" s="44">
+        <v>122.068965517241</v>
+      </c>
       <c r="Q278" s="44"/>
       <c r="R278" s="44"/>
       <c r="S278" s="37"/>
@@ -16820,21 +16912,44 @@
     </row>
     <row r="279" spans="1:20" ht="18" customHeight="1">
       <c r="A279" s="57"/>
-      <c r="B279" s="57"/>
-      <c r="C279" s="57"/>
-      <c r="D279" s="57"/>
-      <c r="E279" s="55"/>
-      <c r="F279" s="57"/>
-      <c r="G279" s="32"/>
+      <c r="B279" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C279" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D279" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E279" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F279" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G279" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H279" s="44"/>
-      <c r="I279" s="38"/>
-      <c r="J279" s="51"/>
+      <c r="I279" s="44">
+        <v>200</v>
+      </c>
+      <c r="J279" s="51">
+        <f t="shared" si="9"/>
+        <v>1.4117816091954E-6</v>
+      </c>
       <c r="K279" s="44"/>
-      <c r="L279" s="57"/>
+      <c r="L279" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M279" s="57"/>
-      <c r="N279" s="40"/>
+      <c r="N279" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O279" s="44"/>
-      <c r="P279" s="44"/>
+      <c r="P279" s="44">
+        <v>141.17816091954001</v>
+      </c>
       <c r="Q279" s="44"/>
       <c r="R279" s="44"/>
       <c r="S279" s="37"/>
@@ -16842,21 +16957,44 @@
     </row>
     <row r="280" spans="1:20" ht="18" customHeight="1">
       <c r="A280" s="57"/>
-      <c r="B280" s="57"/>
-      <c r="C280" s="57"/>
-      <c r="D280" s="57"/>
-      <c r="E280" s="55"/>
-      <c r="F280" s="57"/>
-      <c r="G280" s="32"/>
+      <c r="B280" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C280" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D280" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E280" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F280" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G280" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H280" s="44"/>
-      <c r="I280" s="38"/>
-      <c r="J280" s="51"/>
+      <c r="I280" s="44">
+        <v>300</v>
+      </c>
+      <c r="J280" s="51">
+        <f t="shared" si="9"/>
+        <v>1.59497126436781E-6</v>
+      </c>
       <c r="K280" s="44"/>
-      <c r="L280" s="57"/>
+      <c r="L280" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M280" s="57"/>
-      <c r="N280" s="40"/>
+      <c r="N280" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O280" s="44"/>
-      <c r="P280" s="44"/>
+      <c r="P280" s="44">
+        <v>159.497126436781</v>
+      </c>
       <c r="Q280" s="44"/>
       <c r="R280" s="44"/>
       <c r="S280" s="37"/>
@@ -16864,19 +17002,39 @@
     </row>
     <row r="281" spans="1:20" ht="18" customHeight="1">
       <c r="A281" s="57"/>
-      <c r="B281" s="57"/>
-      <c r="C281" s="57"/>
-      <c r="D281" s="57"/>
-      <c r="E281" s="55"/>
-      <c r="F281" s="57"/>
-      <c r="G281" s="32"/>
+      <c r="B281" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C281" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D281" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E281" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F281" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G281" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H281" s="44"/>
-      <c r="I281" s="38"/>
-      <c r="J281" s="51"/>
+      <c r="I281" s="38">
+        <v>298</v>
+      </c>
+      <c r="J281" s="44">
+        <v>6.8765008576329301</v>
+      </c>
       <c r="K281" s="44"/>
-      <c r="L281" s="57"/>
+      <c r="L281" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M281" s="57"/>
-      <c r="N281" s="40"/>
+      <c r="N281" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O281" s="44"/>
       <c r="P281" s="44"/>
       <c r="Q281" s="44"/>
@@ -16886,19 +17044,39 @@
     </row>
     <row r="282" spans="1:20" ht="18" customHeight="1">
       <c r="A282" s="57"/>
-      <c r="B282" s="57"/>
-      <c r="C282" s="57"/>
-      <c r="D282" s="57"/>
-      <c r="E282" s="55"/>
-      <c r="F282" s="57"/>
-      <c r="G282" s="32"/>
+      <c r="B282" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C282" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D282" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E282" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F282" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G282" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H282" s="44"/>
-      <c r="I282" s="38"/>
-      <c r="J282" s="51"/>
+      <c r="I282" s="38">
+        <v>373</v>
+      </c>
+      <c r="J282" s="44">
+        <v>7.8644939965694602</v>
+      </c>
       <c r="K282" s="44"/>
-      <c r="L282" s="57"/>
+      <c r="L282" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M282" s="57"/>
-      <c r="N282" s="40"/>
+      <c r="N282" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O282" s="44"/>
       <c r="P282" s="44"/>
       <c r="Q282" s="44"/>
@@ -16908,19 +17086,39 @@
     </row>
     <row r="283" spans="1:20" ht="18" customHeight="1">
       <c r="A283" s="57"/>
-      <c r="B283" s="57"/>
-      <c r="C283" s="57"/>
-      <c r="D283" s="57"/>
-      <c r="E283" s="55"/>
-      <c r="F283" s="57"/>
-      <c r="G283" s="32"/>
+      <c r="B283" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C283" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D283" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E283" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F283" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G283" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H283" s="44"/>
-      <c r="I283" s="38"/>
-      <c r="J283" s="51"/>
+      <c r="I283" s="38">
+        <v>423</v>
+      </c>
+      <c r="J283" s="44">
+        <v>8.3927958833619201</v>
+      </c>
       <c r="K283" s="48"/>
-      <c r="L283" s="57"/>
+      <c r="L283" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M283" s="57"/>
-      <c r="N283" s="40"/>
+      <c r="N283" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O283" s="44"/>
       <c r="P283" s="44"/>
       <c r="Q283" s="44"/>
@@ -16930,19 +17128,39 @@
     </row>
     <row r="284" spans="1:20" ht="18" customHeight="1">
       <c r="A284" s="57"/>
-      <c r="B284" s="57"/>
-      <c r="C284" s="57"/>
-      <c r="D284" s="57"/>
-      <c r="E284" s="55"/>
-      <c r="F284" s="57"/>
-      <c r="G284" s="32"/>
+      <c r="B284" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C284" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D284" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E284" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F284" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G284" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H284" s="44"/>
-      <c r="I284" s="38"/>
-      <c r="J284" s="51"/>
+      <c r="I284" s="38">
+        <v>473</v>
+      </c>
+      <c r="J284" s="44">
+        <v>9.0514579759862706</v>
+      </c>
       <c r="K284" s="58"/>
-      <c r="L284" s="57"/>
+      <c r="L284" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M284" s="57"/>
-      <c r="N284" s="40"/>
+      <c r="N284" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O284" s="44"/>
       <c r="P284" s="44"/>
       <c r="Q284" s="44"/>
@@ -16952,19 +17170,39 @@
     </row>
     <row r="285" spans="1:20" ht="18" customHeight="1">
       <c r="A285" s="57"/>
-      <c r="B285" s="57"/>
-      <c r="C285" s="57"/>
-      <c r="D285" s="57"/>
-      <c r="E285" s="55"/>
-      <c r="F285" s="57"/>
-      <c r="G285" s="32"/>
+      <c r="B285" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C285" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D285" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E285" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F285" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G285" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H285" s="44"/>
-      <c r="I285" s="38"/>
-      <c r="J285" s="51"/>
+      <c r="I285" s="38">
+        <v>523</v>
+      </c>
+      <c r="J285" s="44">
+        <v>9.4013722126929604</v>
+      </c>
       <c r="K285" s="58"/>
-      <c r="L285" s="57"/>
+      <c r="L285" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M285" s="57"/>
-      <c r="N285" s="40"/>
+      <c r="N285" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O285" s="44"/>
       <c r="P285" s="44"/>
       <c r="Q285" s="44"/>
@@ -16974,19 +17212,39 @@
     </row>
     <row r="286" spans="1:20" ht="18" customHeight="1">
       <c r="A286" s="57"/>
-      <c r="B286" s="57"/>
-      <c r="C286" s="57"/>
-      <c r="D286" s="57"/>
-      <c r="E286" s="55"/>
-      <c r="F286" s="57"/>
-      <c r="G286" s="32"/>
+      <c r="B286" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C286" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D286" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E286" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F286" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G286" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H286" s="44"/>
-      <c r="I286" s="38"/>
-      <c r="J286" s="51"/>
+      <c r="I286" s="38">
+        <v>573</v>
+      </c>
+      <c r="J286" s="44">
+        <v>9.7855917667238401</v>
+      </c>
       <c r="K286" s="44"/>
-      <c r="L286" s="57"/>
+      <c r="L286" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M286" s="57"/>
-      <c r="N286" s="40"/>
+      <c r="N286" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O286" s="44"/>
       <c r="P286" s="44"/>
       <c r="Q286" s="44"/>
@@ -16996,19 +17254,39 @@
     </row>
     <row r="287" spans="1:20" ht="18" customHeight="1">
       <c r="A287" s="57"/>
-      <c r="B287" s="57"/>
-      <c r="C287" s="57"/>
-      <c r="D287" s="57"/>
-      <c r="E287" s="55"/>
-      <c r="F287" s="57"/>
-      <c r="G287" s="32"/>
+      <c r="B287" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C287" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D287" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E287" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F287" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G287" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H287" s="44"/>
-      <c r="I287" s="38"/>
-      <c r="J287" s="51"/>
+      <c r="I287" s="38">
+        <v>623</v>
+      </c>
+      <c r="J287" s="44">
+        <v>10.444253859348199</v>
+      </c>
       <c r="K287" s="44"/>
-      <c r="L287" s="57"/>
+      <c r="L287" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M287" s="57"/>
-      <c r="N287" s="40"/>
+      <c r="N287" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O287" s="44"/>
       <c r="P287" s="44"/>
       <c r="Q287" s="44"/>
@@ -17018,19 +17296,39 @@
     </row>
     <row r="288" spans="1:20" ht="18" customHeight="1">
       <c r="A288" s="57"/>
-      <c r="B288" s="57"/>
-      <c r="C288" s="57"/>
-      <c r="D288" s="57"/>
-      <c r="E288" s="55"/>
-      <c r="F288" s="57"/>
-      <c r="G288" s="32"/>
+      <c r="B288" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C288" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D288" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E288" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F288" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G288" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H288" s="44"/>
-      <c r="I288" s="38"/>
-      <c r="J288" s="51"/>
+      <c r="I288" s="38">
+        <v>673</v>
+      </c>
+      <c r="J288" s="44">
+        <v>10.5814751286449</v>
+      </c>
       <c r="K288" s="44"/>
-      <c r="L288" s="57"/>
+      <c r="L288" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M288" s="57"/>
-      <c r="N288" s="40"/>
+      <c r="N288" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O288" s="44"/>
       <c r="P288" s="44"/>
       <c r="Q288" s="44"/>
@@ -17040,19 +17338,39 @@
     </row>
     <row r="289" spans="1:20" ht="18" customHeight="1">
       <c r="A289" s="57"/>
-      <c r="B289" s="57"/>
-      <c r="C289" s="57"/>
-      <c r="D289" s="57"/>
-      <c r="E289" s="55"/>
-      <c r="F289" s="57"/>
-      <c r="G289" s="32"/>
+      <c r="B289" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C289" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D289" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E289" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="F289" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G289" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H289" s="44"/>
-      <c r="I289" s="38"/>
-      <c r="J289" s="51"/>
+      <c r="I289" s="38">
+        <v>723</v>
+      </c>
+      <c r="J289" s="44">
+        <v>11.0068610634648</v>
+      </c>
       <c r="K289" s="44"/>
-      <c r="L289" s="57"/>
+      <c r="L289" s="57" t="s">
+        <v>397</v>
+      </c>
       <c r="M289" s="57"/>
-      <c r="N289" s="40"/>
+      <c r="N289" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="O289" s="44"/>
       <c r="P289" s="44"/>
       <c r="Q289" s="44"/>
@@ -31682,6 +32000,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -31696,11 +32019,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Jul2025.xlsx
+++ b/MiscSmallUploads_Jul2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6252FD-D292-2E4E-B998-8BA6CCA07D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C9670-71CE-D04E-B1DC-BC17DB17D2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-560" yWindow="7280" windowWidth="34560" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="10060" windowWidth="34560" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="419">
   <si>
     <r>
       <rPr>
@@ -1336,6 +1336,57 @@
   </si>
   <si>
     <t>arc melted under flowing helium not argon; homogenized at 973K for 140h</t>
+  </si>
+  <si>
+    <t>10.1080/02670836.2023.2196473</t>
+  </si>
+  <si>
+    <t>AAM+SR</t>
+  </si>
+  <si>
+    <t>stress relief annealing at 473K for 3h</t>
+  </si>
+  <si>
+    <t>Sc0.2</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNi2.1 Y0.2</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNi2.1 Sc0.2</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNi2.1 La0.2</t>
+  </si>
+  <si>
+    <t>Y0.2</t>
+  </si>
+  <si>
+    <t>La0.2</t>
+  </si>
+  <si>
+    <t>FCC+B2+Ni2Sc</t>
+  </si>
+  <si>
+    <t>FCC+B2+HCP+laves</t>
+  </si>
+  <si>
+    <t>FCC+BCC+laves</t>
+  </si>
+  <si>
+    <t>3.5% NaCl</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNi2.1</t>
+  </si>
+  <si>
+    <t>FCC+B2</t>
+  </si>
+  <si>
+    <t>3e-3 strain rate</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2672,6 +2723,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3834,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A272" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E292" sqref="E292"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A288" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K310" sqref="K310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -17379,20 +17434,46 @@
       <c r="T289" s="37"/>
     </row>
     <row r="290" spans="1:20" ht="18" customHeight="1">
-      <c r="A290" s="57"/>
-      <c r="B290" s="57"/>
-      <c r="C290" s="57"/>
-      <c r="D290" s="57"/>
-      <c r="E290" s="55"/>
-      <c r="F290" s="57"/>
-      <c r="G290" s="32"/>
-      <c r="H290" s="44"/>
-      <c r="I290" s="38"/>
-      <c r="J290" s="51"/>
+      <c r="A290" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="B290" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="C290" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="D290" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E290" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F290" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G290" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H290" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="I290" s="38">
+        <v>298</v>
+      </c>
+      <c r="J290" s="51">
+        <v>-0.35499999999999998</v>
+      </c>
       <c r="K290" s="44"/>
-      <c r="L290" s="57"/>
-      <c r="M290" s="57"/>
-      <c r="N290" s="40"/>
+      <c r="L290" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="M290" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="N290" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O290" s="44"/>
       <c r="P290" s="44"/>
       <c r="Q290" s="44"/>
@@ -17401,20 +17482,46 @@
       <c r="T290" s="37"/>
     </row>
     <row r="291" spans="1:20" ht="18" customHeight="1">
-      <c r="A291" s="57"/>
-      <c r="B291" s="57"/>
-      <c r="C291" s="57"/>
-      <c r="D291" s="57"/>
-      <c r="E291" s="55"/>
-      <c r="F291" s="57"/>
-      <c r="G291" s="32"/>
-      <c r="H291" s="44"/>
-      <c r="I291" s="38"/>
-      <c r="J291" s="51"/>
+      <c r="A291" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="B291" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="C291" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="D291" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E291" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F291" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G291" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H291" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="I291" s="38">
+        <v>298</v>
+      </c>
+      <c r="J291" s="51">
+        <v>-0.247</v>
+      </c>
       <c r="K291" s="44"/>
-      <c r="L291" s="57"/>
-      <c r="M291" s="57"/>
-      <c r="N291" s="40"/>
+      <c r="L291" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="M291" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="N291" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O291" s="44"/>
       <c r="P291" s="44"/>
       <c r="Q291" s="44"/>
@@ -17423,20 +17530,46 @@
       <c r="T291" s="37"/>
     </row>
     <row r="292" spans="1:20" ht="18" customHeight="1">
-      <c r="A292" s="57"/>
-      <c r="B292" s="57"/>
-      <c r="C292" s="57"/>
-      <c r="D292" s="57"/>
-      <c r="E292" s="55"/>
-      <c r="F292" s="57"/>
-      <c r="G292" s="32"/>
-      <c r="H292" s="44"/>
-      <c r="I292" s="38"/>
-      <c r="J292" s="51"/>
+      <c r="A292" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B292" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="C292" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D292" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E292" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F292" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G292" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H292" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="I292" s="38">
+        <v>298</v>
+      </c>
+      <c r="J292" s="51">
+        <v>-0.38600000000000001</v>
+      </c>
       <c r="K292" s="44"/>
-      <c r="L292" s="57"/>
-      <c r="M292" s="57"/>
-      <c r="N292" s="40"/>
+      <c r="L292" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="M292" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="N292" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O292" s="44"/>
       <c r="P292" s="44"/>
       <c r="Q292" s="44"/>
@@ -17445,20 +17578,46 @@
       <c r="T292" s="37"/>
     </row>
     <row r="293" spans="1:20" ht="18" customHeight="1">
-      <c r="A293" s="57"/>
-      <c r="B293" s="57"/>
-      <c r="C293" s="57"/>
-      <c r="D293" s="57"/>
-      <c r="E293" s="55"/>
-      <c r="F293" s="57"/>
-      <c r="G293" s="32"/>
-      <c r="H293" s="44"/>
-      <c r="I293" s="38"/>
-      <c r="J293" s="51"/>
+      <c r="A293" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="B293" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="C293" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="D293" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E293" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F293" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="G293" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H293" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="I293" s="38">
+        <v>298</v>
+      </c>
+      <c r="J293" s="51">
+        <v>9.1339999999999998E-3</v>
+      </c>
       <c r="K293" s="44"/>
-      <c r="L293" s="57"/>
-      <c r="M293" s="57"/>
-      <c r="N293" s="40"/>
+      <c r="L293" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="M293" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="N293" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O293" s="44"/>
       <c r="P293" s="44"/>
       <c r="Q293" s="44"/>
@@ -17467,20 +17626,46 @@
       <c r="T293" s="37"/>
     </row>
     <row r="294" spans="1:20" ht="18" customHeight="1">
-      <c r="A294" s="57"/>
-      <c r="B294" s="57"/>
-      <c r="C294" s="57"/>
-      <c r="D294" s="57"/>
-      <c r="E294" s="55"/>
-      <c r="F294" s="57"/>
-      <c r="G294" s="32"/>
-      <c r="H294" s="44"/>
-      <c r="I294" s="38"/>
-      <c r="J294" s="51"/>
+      <c r="A294" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="B294" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="C294" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="D294" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E294" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F294" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="G294" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H294" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="I294" s="38">
+        <v>298</v>
+      </c>
+      <c r="J294" s="51">
+        <v>8.2229999999999998E-4</v>
+      </c>
       <c r="K294" s="44"/>
-      <c r="L294" s="57"/>
-      <c r="M294" s="57"/>
-      <c r="N294" s="40"/>
+      <c r="L294" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="M294" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="N294" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O294" s="44"/>
       <c r="P294" s="44"/>
       <c r="Q294" s="44"/>
@@ -17489,20 +17674,46 @@
       <c r="T294" s="37"/>
     </row>
     <row r="295" spans="1:20" ht="18" customHeight="1">
-      <c r="A295" s="57"/>
-      <c r="B295" s="57"/>
-      <c r="C295" s="57"/>
-      <c r="D295" s="57"/>
-      <c r="E295" s="55"/>
-      <c r="F295" s="57"/>
-      <c r="G295" s="32"/>
-      <c r="H295" s="44"/>
-      <c r="I295" s="38"/>
-      <c r="J295" s="44"/>
+      <c r="A295" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B295" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="C295" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D295" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E295" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F295" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="G295" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H295" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="I295" s="38">
+        <v>298</v>
+      </c>
+      <c r="J295" s="58">
+        <v>2.4490000000000001E-2</v>
+      </c>
       <c r="K295" s="44"/>
-      <c r="L295" s="57"/>
-      <c r="M295" s="57"/>
-      <c r="N295" s="40"/>
+      <c r="L295" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="M295" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="N295" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O295" s="44"/>
       <c r="P295" s="44"/>
       <c r="Q295" s="44"/>
@@ -17512,107 +17723,239 @@
     </row>
     <row r="296" spans="1:20" ht="18" customHeight="1">
       <c r="A296" s="57"/>
-      <c r="B296" s="57"/>
-      <c r="C296" s="57"/>
-      <c r="D296" s="57"/>
-      <c r="E296" s="55"/>
-      <c r="F296" s="57"/>
-      <c r="G296" s="32"/>
+      <c r="B296" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="C296" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="D296" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E296" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F296" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G296" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H296" s="44"/>
-      <c r="I296" s="38"/>
-      <c r="J296" s="44"/>
+      <c r="I296" s="38">
+        <v>298</v>
+      </c>
+      <c r="J296" s="35">
+        <f t="shared" ref="J296:J299" si="10">P296*9807000</f>
+        <v>3292209900</v>
+      </c>
       <c r="K296" s="44"/>
-      <c r="L296" s="57"/>
-      <c r="M296" s="57"/>
-      <c r="N296" s="40"/>
+      <c r="L296" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M296" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N296" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O296" s="44"/>
-      <c r="P296" s="44"/>
+      <c r="P296" s="44">
+        <v>335.7</v>
+      </c>
       <c r="Q296" s="44"/>
       <c r="R296" s="44"/>
       <c r="S296" s="37"/>
       <c r="T296" s="37"/>
     </row>
     <row r="297" spans="1:20" ht="18" customHeight="1">
-      <c r="A297" s="57"/>
-      <c r="B297" s="57"/>
-      <c r="C297" s="57"/>
-      <c r="D297" s="57"/>
-      <c r="E297" s="55"/>
-      <c r="F297" s="57"/>
-      <c r="G297" s="32"/>
+      <c r="A297" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="B297" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="C297" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="D297" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E297" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F297" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G297" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H297" s="44"/>
-      <c r="I297" s="38"/>
-      <c r="J297" s="44"/>
+      <c r="I297" s="38">
+        <v>298</v>
+      </c>
+      <c r="J297" s="35">
+        <f t="shared" si="10"/>
+        <v>3904166700</v>
+      </c>
       <c r="K297" s="44"/>
-      <c r="L297" s="57"/>
-      <c r="M297" s="57"/>
-      <c r="N297" s="40"/>
+      <c r="L297" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M297" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N297" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O297" s="44"/>
-      <c r="P297" s="44"/>
+      <c r="P297" s="44">
+        <v>398.1</v>
+      </c>
       <c r="Q297" s="44"/>
       <c r="R297" s="44"/>
       <c r="S297" s="37"/>
       <c r="T297" s="37"/>
     </row>
     <row r="298" spans="1:20" ht="18" customHeight="1">
-      <c r="A298" s="57"/>
-      <c r="B298" s="57"/>
-      <c r="C298" s="57"/>
-      <c r="D298" s="57"/>
-      <c r="E298" s="55"/>
-      <c r="F298" s="57"/>
-      <c r="G298" s="32"/>
+      <c r="A298" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="B298" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="C298" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="D298" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E298" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F298" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G298" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H298" s="44"/>
-      <c r="I298" s="38"/>
-      <c r="J298" s="44"/>
+      <c r="I298" s="38">
+        <v>298</v>
+      </c>
+      <c r="J298" s="35">
+        <f t="shared" si="10"/>
+        <v>3956143800</v>
+      </c>
       <c r="K298" s="44"/>
-      <c r="L298" s="57"/>
-      <c r="M298" s="57"/>
-      <c r="N298" s="40"/>
+      <c r="L298" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M298" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N298" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O298" s="44"/>
-      <c r="P298" s="44"/>
+      <c r="P298" s="44">
+        <v>403.4</v>
+      </c>
       <c r="Q298" s="44"/>
       <c r="R298" s="44"/>
       <c r="S298" s="37"/>
       <c r="T298" s="37"/>
     </row>
     <row r="299" spans="1:20" ht="18" customHeight="1">
-      <c r="A299" s="57"/>
-      <c r="B299" s="57"/>
-      <c r="C299" s="57"/>
-      <c r="D299" s="57"/>
-      <c r="E299" s="55"/>
-      <c r="F299" s="57"/>
-      <c r="G299" s="32"/>
+      <c r="A299" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B299" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="C299" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D299" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E299" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F299" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G299" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H299" s="44"/>
-      <c r="I299" s="38"/>
-      <c r="J299" s="44"/>
+      <c r="I299" s="38">
+        <v>298</v>
+      </c>
+      <c r="J299" s="35">
+        <f t="shared" si="10"/>
+        <v>3676644300</v>
+      </c>
       <c r="K299" s="44"/>
-      <c r="L299" s="57"/>
-      <c r="M299" s="57"/>
-      <c r="N299" s="40"/>
+      <c r="L299" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M299" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N299" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O299" s="44"/>
-      <c r="P299" s="44"/>
+      <c r="P299" s="44">
+        <v>374.9</v>
+      </c>
       <c r="Q299" s="44"/>
       <c r="R299" s="44"/>
       <c r="S299" s="37"/>
       <c r="T299" s="37"/>
     </row>
     <row r="300" spans="1:20" ht="18" customHeight="1">
-      <c r="A300" s="57"/>
-      <c r="B300" s="57"/>
-      <c r="C300" s="57"/>
-      <c r="D300" s="57"/>
-      <c r="E300" s="55"/>
-      <c r="F300" s="57"/>
-      <c r="G300" s="32"/>
-      <c r="H300" s="44"/>
-      <c r="I300" s="38"/>
-      <c r="J300" s="44"/>
+      <c r="A300" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="B300" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="C300" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="D300" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E300" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F300" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G300" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H300" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I300" s="38">
+        <v>298</v>
+      </c>
+      <c r="J300" s="58">
+        <v>1003000000</v>
+      </c>
       <c r="K300" s="44"/>
-      <c r="L300" s="57"/>
-      <c r="M300" s="57"/>
-      <c r="N300" s="40"/>
+      <c r="L300" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M300" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N300" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O300" s="44"/>
       <c r="P300" s="44"/>
       <c r="Q300" s="44"/>
@@ -17621,20 +17964,46 @@
       <c r="T300" s="37"/>
     </row>
     <row r="301" spans="1:20" ht="18" customHeight="1">
-      <c r="A301" s="57"/>
-      <c r="B301" s="57"/>
-      <c r="C301" s="57"/>
-      <c r="D301" s="57"/>
-      <c r="E301" s="55"/>
-      <c r="F301" s="57"/>
-      <c r="G301" s="32"/>
-      <c r="H301" s="44"/>
-      <c r="I301" s="38"/>
-      <c r="J301" s="44"/>
+      <c r="A301" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="B301" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="C301" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="D301" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E301" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F301" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G301" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H301" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I301" s="38">
+        <v>298</v>
+      </c>
+      <c r="J301" s="58">
+        <v>940000000</v>
+      </c>
       <c r="K301" s="44"/>
-      <c r="L301" s="57"/>
-      <c r="M301" s="57"/>
-      <c r="N301" s="40"/>
+      <c r="L301" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M301" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N301" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O301" s="44"/>
       <c r="P301" s="44"/>
       <c r="Q301" s="44"/>
@@ -17643,20 +18012,46 @@
       <c r="T301" s="37"/>
     </row>
     <row r="302" spans="1:20" ht="18" customHeight="1">
-      <c r="A302" s="57"/>
-      <c r="B302" s="57"/>
-      <c r="C302" s="57"/>
-      <c r="D302" s="57"/>
-      <c r="E302" s="55"/>
-      <c r="F302" s="57"/>
-      <c r="G302" s="32"/>
-      <c r="H302" s="44"/>
-      <c r="I302" s="38"/>
-      <c r="J302" s="44"/>
+      <c r="A302" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B302" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="C302" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D302" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E302" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F302" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G302" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H302" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I302" s="38">
+        <v>298</v>
+      </c>
+      <c r="J302" s="58">
+        <v>624000000</v>
+      </c>
       <c r="K302" s="44"/>
-      <c r="L302" s="57"/>
-      <c r="M302" s="57"/>
-      <c r="N302" s="40"/>
+      <c r="L302" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M302" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N302" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O302" s="44"/>
       <c r="P302" s="44"/>
       <c r="Q302" s="44"/>
@@ -17665,20 +18060,46 @@
       <c r="T302" s="37"/>
     </row>
     <row r="303" spans="1:20" ht="18" customHeight="1">
-      <c r="A303" s="57"/>
-      <c r="B303" s="57"/>
-      <c r="C303" s="57"/>
-      <c r="D303" s="57"/>
-      <c r="E303" s="55"/>
-      <c r="F303" s="57"/>
-      <c r="G303" s="32"/>
-      <c r="H303" s="44"/>
-      <c r="I303" s="38"/>
-      <c r="J303" s="44"/>
+      <c r="A303" s="94" t="s">
+        <v>405</v>
+      </c>
+      <c r="B303" s="95" t="s">
+        <v>407</v>
+      </c>
+      <c r="C303" s="95" t="s">
+        <v>411</v>
+      </c>
+      <c r="D303" s="95" t="s">
+        <v>403</v>
+      </c>
+      <c r="E303" s="144" t="s">
+        <v>404</v>
+      </c>
+      <c r="F303" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="G303" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H303" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I303" s="145">
+        <v>298</v>
+      </c>
+      <c r="J303" s="58">
+        <v>1902000000</v>
+      </c>
       <c r="K303" s="44"/>
-      <c r="L303" s="57"/>
-      <c r="M303" s="57"/>
-      <c r="N303" s="40"/>
+      <c r="L303" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M303" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N303" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O303" s="44"/>
       <c r="P303" s="44"/>
       <c r="Q303" s="44"/>
@@ -17687,20 +18108,46 @@
       <c r="T303" s="37"/>
     </row>
     <row r="304" spans="1:20" ht="18" customHeight="1">
-      <c r="A304" s="57"/>
-      <c r="B304" s="57"/>
-      <c r="C304" s="57"/>
-      <c r="D304" s="57"/>
-      <c r="E304" s="55"/>
-      <c r="F304" s="57"/>
-      <c r="G304" s="32"/>
-      <c r="H304" s="44"/>
-      <c r="I304" s="38"/>
-      <c r="J304" s="44"/>
+      <c r="A304" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="B304" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="C304" s="97" t="s">
+        <v>412</v>
+      </c>
+      <c r="D304" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="E304" s="146" t="s">
+        <v>404</v>
+      </c>
+      <c r="F304" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="G304" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H304" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I304" s="147">
+        <v>298</v>
+      </c>
+      <c r="J304" s="58">
+        <v>1482000000</v>
+      </c>
       <c r="K304" s="44"/>
-      <c r="L304" s="57"/>
-      <c r="M304" s="57"/>
-      <c r="N304" s="40"/>
+      <c r="L304" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M304" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N304" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O304" s="44"/>
       <c r="P304" s="44"/>
       <c r="Q304" s="44"/>
@@ -17709,20 +18156,46 @@
       <c r="T304" s="37"/>
     </row>
     <row r="305" spans="1:20" ht="18" customHeight="1">
-      <c r="A305" s="57"/>
-      <c r="B305" s="57"/>
-      <c r="C305" s="57"/>
-      <c r="D305" s="57"/>
-      <c r="E305" s="55"/>
-      <c r="F305" s="57"/>
-      <c r="G305" s="32"/>
-      <c r="H305" s="44"/>
-      <c r="I305" s="38"/>
-      <c r="J305" s="44"/>
+      <c r="A305" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="B305" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="C305" s="97" t="s">
+        <v>413</v>
+      </c>
+      <c r="D305" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="E305" s="146" t="s">
+        <v>404</v>
+      </c>
+      <c r="F305" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="G305" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H305" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I305" s="147">
+        <v>298</v>
+      </c>
+      <c r="J305" s="58">
+        <v>1387000000</v>
+      </c>
       <c r="K305" s="44"/>
-      <c r="L305" s="57"/>
-      <c r="M305" s="57"/>
-      <c r="N305" s="40"/>
+      <c r="L305" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M305" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N305" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O305" s="44"/>
       <c r="P305" s="44"/>
       <c r="Q305" s="44"/>
@@ -17731,20 +18204,46 @@
       <c r="T305" s="37"/>
     </row>
     <row r="306" spans="1:20" ht="18" customHeight="1">
-      <c r="A306" s="57"/>
-      <c r="B306" s="57"/>
-      <c r="C306" s="57"/>
-      <c r="D306" s="57"/>
-      <c r="E306" s="55"/>
-      <c r="F306" s="57"/>
-      <c r="G306" s="32"/>
-      <c r="H306" s="44"/>
-      <c r="I306" s="38"/>
-      <c r="J306" s="44"/>
+      <c r="A306" s="94" t="s">
+        <v>405</v>
+      </c>
+      <c r="B306" s="95" t="s">
+        <v>407</v>
+      </c>
+      <c r="C306" s="95" t="s">
+        <v>411</v>
+      </c>
+      <c r="D306" s="95" t="s">
+        <v>403</v>
+      </c>
+      <c r="E306" s="144" t="s">
+        <v>404</v>
+      </c>
+      <c r="F306" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="G306" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H306" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I306" s="145">
+        <v>298</v>
+      </c>
+      <c r="J306" s="44">
+        <v>27.2</v>
+      </c>
       <c r="K306" s="44"/>
-      <c r="L306" s="57"/>
-      <c r="M306" s="57"/>
-      <c r="N306" s="40"/>
+      <c r="L306" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="M306" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N306" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O306" s="44"/>
       <c r="P306" s="44"/>
       <c r="Q306" s="44"/>
@@ -17753,20 +18252,46 @@
       <c r="T306" s="37"/>
     </row>
     <row r="307" spans="1:20" ht="18" customHeight="1">
-      <c r="A307" s="57"/>
-      <c r="B307" s="57"/>
-      <c r="C307" s="57"/>
-      <c r="D307" s="57"/>
-      <c r="E307" s="55"/>
-      <c r="F307" s="57"/>
-      <c r="G307" s="32"/>
-      <c r="H307" s="44"/>
-      <c r="I307" s="38"/>
-      <c r="J307" s="44"/>
+      <c r="A307" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="B307" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="C307" s="97" t="s">
+        <v>412</v>
+      </c>
+      <c r="D307" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="E307" s="146" t="s">
+        <v>404</v>
+      </c>
+      <c r="F307" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="G307" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H307" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I307" s="147">
+        <v>298</v>
+      </c>
+      <c r="J307" s="44">
+        <v>21.7</v>
+      </c>
       <c r="K307" s="44"/>
-      <c r="L307" s="57"/>
-      <c r="M307" s="57"/>
-      <c r="N307" s="40"/>
+      <c r="L307" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="M307" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N307" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O307" s="44"/>
       <c r="P307" s="44"/>
       <c r="Q307" s="44"/>
@@ -17775,20 +18300,46 @@
       <c r="T307" s="37"/>
     </row>
     <row r="308" spans="1:20" ht="18" customHeight="1">
-      <c r="A308" s="57"/>
-      <c r="B308" s="57"/>
-      <c r="C308" s="57"/>
-      <c r="D308" s="57"/>
-      <c r="E308" s="55"/>
-      <c r="F308" s="57"/>
-      <c r="G308" s="32"/>
-      <c r="H308" s="44"/>
-      <c r="I308" s="38"/>
-      <c r="J308" s="44"/>
+      <c r="A308" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="B308" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="C308" s="97" t="s">
+        <v>413</v>
+      </c>
+      <c r="D308" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="E308" s="146" t="s">
+        <v>404</v>
+      </c>
+      <c r="F308" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="G308" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H308" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I308" s="147">
+        <v>298</v>
+      </c>
+      <c r="J308" s="44">
+        <v>25.8</v>
+      </c>
       <c r="K308" s="44"/>
-      <c r="L308" s="57"/>
-      <c r="M308" s="57"/>
-      <c r="N308" s="40"/>
+      <c r="L308" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="M308" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N308" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="O308" s="44"/>
       <c r="P308" s="44"/>
       <c r="Q308" s="44"/>
